--- a/outputs/ML_Results/dist_LR/All.xlsx
+++ b/outputs/ML_Results/dist_LR/All.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06158819" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06460152" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06764884" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07060337" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ07352756" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07650861" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07928437" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ08209723" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08490731" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ08790520" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ09118866" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ09403208" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ09677859" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ09960596" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ10243033" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ10528902" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ10814927" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ11104635" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ11423226" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ11707220" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ11987954" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ12275415" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ12596791" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ12909313" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ13193296" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ13491059" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ13794781" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ14099118" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ14383287" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ14667325" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ14955614" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ15232976" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ15521306" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ15803935" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ16087937" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ16371281" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ16656785" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ16940785" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ17229594" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ17514111" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ17798933" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ18080265" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ18370319" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ18652166" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ18938676" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ19326540" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ19629767" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ19913178" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ20200634" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ20501877" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ07467123" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ07775047" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08063121" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08365129" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08668109" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08962646" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09263043" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09692233" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09991270" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ10286324" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ10658711" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ10957540" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ11265735" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ11769082" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ12107966" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ12405922" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ12681295" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ12995999" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ13278262" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ13558954" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ13846866" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ14138402" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ14413602" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ14715568" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ14998225" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ15279267" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ15586233" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ15866931" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ16143682" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ16424585" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ16730258" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ17072629" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ17442239" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ17732250" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ18015116" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ18291679" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ18581819" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ18870089" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ19208443" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ19503370" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ19803749" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ20182023" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ20537133" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ20816124" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21291956" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ21625506" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ22119307" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ22612803" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23034523" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23609009" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5266.707726015618</v>
+        <v>5266.707726015617</v>
       </c>
       <c r="C2" t="n">
         <v>6.57575650308431e-26</v>
@@ -575,7 +575,7 @@
         <v>111.9615994022813</v>
       </c>
       <c r="C7" t="n">
-        <v>4.399854191928464e-42</v>
+        <v>4.39985419192859e-42</v>
       </c>
     </row>
     <row r="8">
@@ -588,7 +588,7 @@
         <v>-0.03056532576575501</v>
       </c>
       <c r="C8" t="n">
-        <v>8.726942416069093e-07</v>
+        <v>8.726942416069076e-07</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.311566232711843e-06</v>
+        <v>-3.311566232711844e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2652707915730397</v>
+        <v>0.2652707915730396</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>-18.26219188531995</v>
       </c>
       <c r="C10" t="n">
-        <v>2.733952664677531e-15</v>
+        <v>2.73395266467759e-15</v>
       </c>
     </row>
     <row r="11">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2051.763841758775</v>
+        <v>-2051.763841758774</v>
       </c>
       <c r="C12" t="n">
-        <v>5.839845550516639e-11</v>
+        <v>5.839845550516683e-11</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4987.174716757177</v>
+        <v>4987.174716757165</v>
       </c>
       <c r="C2" t="n">
-        <v>4.338611622825659e-25</v>
+        <v>4.338611622826249e-25</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2012.478874842116</v>
+        <v>-2012.478874842112</v>
       </c>
       <c r="C3" t="n">
-        <v>8.8322022168328e-20</v>
+        <v>8.832202216833624e-20</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2284.905449770117</v>
+        <v>-2284.905449770115</v>
       </c>
       <c r="C4" t="n">
-        <v>2.972657106653667e-23</v>
+        <v>2.972657106653859e-23</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1543.644981803722</v>
+        <v>-1543.644981803719</v>
       </c>
       <c r="C5" t="n">
-        <v>4.145847610778428e-11</v>
+        <v>4.145847610778639e-11</v>
       </c>
     </row>
     <row r="6">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.18659363811324</v>
+        <v>49.18659363811371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009945616969128034</v>
+        <v>0.0009945616969126948</v>
       </c>
     </row>
     <row r="7">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.723287994742</v>
+        <v>118.7232879947415</v>
       </c>
       <c r="C7" t="n">
-        <v>3.609515346705859e-49</v>
+        <v>3.609515346710445e-49</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0317973851835706</v>
+        <v>-0.03179738518357093</v>
       </c>
       <c r="C8" t="n">
-        <v>3.675803794199598e-07</v>
+        <v>3.675803794198757e-07</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.853263814746457e-06</v>
+        <v>-7.853263814745588e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05563624454068073</v>
+        <v>0.05563624454070784</v>
       </c>
     </row>
     <row r="10">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.80523674103112</v>
+        <v>-15.80523674103094</v>
       </c>
       <c r="C10" t="n">
-        <v>1.238675518633469e-12</v>
+        <v>1.238675518634201e-12</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.673530953632203</v>
+        <v>4.673530953632534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01325601855338676</v>
+        <v>0.01325601855337998</v>
       </c>
     </row>
     <row r="12">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2020.176357287953</v>
+        <v>-2020.176357287952</v>
       </c>
       <c r="C12" t="n">
-        <v>1.645281209967297e-11</v>
+        <v>1.645281209967351e-11</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-784.366077842872</v>
+        <v>-784.366077842873</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002573354628699948</v>
+        <v>0.0002573354628699905</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5656.188036390812</v>
+        <v>5656.188036390809</v>
       </c>
       <c r="C14" t="n">
         <v>7.020308632755805e-27</v>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.00092595904282</v>
+        <v>19.00092595904323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003282876463590575</v>
+        <v>0.0003282876463589578</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2696.946819707545</v>
+        <v>-2696.946819707544</v>
       </c>
       <c r="C4" t="n">
-        <v>3.994087128838212e-29</v>
+        <v>3.994087128838327e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1639,7 +1639,7 @@
         <v>-1923.28841733757</v>
       </c>
       <c r="C5" t="n">
-        <v>3.453531700836031e-15</v>
+        <v>3.453531700835994e-15</v>
       </c>
     </row>
     <row r="6">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.77406986147608</v>
+        <v>56.77406986147609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002686878051895024</v>
+        <v>0.000268687805189502</v>
       </c>
     </row>
     <row r="7">
@@ -1678,7 +1678,7 @@
         <v>-0.02646049503454849</v>
       </c>
       <c r="C8" t="n">
-        <v>4.083563262863376e-05</v>
+        <v>4.083563262863385e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.821917076239982e-06</v>
+        <v>-7.821917076239977e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0699940731652773</v>
+        <v>0.06999407316527741</v>
       </c>
     </row>
     <row r="10">
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.89758910170982</v>
+        <v>58.89758910170983</v>
       </c>
       <c r="C6" t="n">
-        <v>8.546985981144175e-05</v>
+        <v>8.546985981144152e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03176701148815258</v>
+        <v>-0.03176701148815256</v>
       </c>
       <c r="C8" t="n">
-        <v>5.420947262833497e-07</v>
+        <v>5.420947262833525e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.06011493717181</v>
+        <v>4.060114937171809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03975551383760048</v>
+        <v>0.03975551383760052</v>
       </c>
     </row>
     <row r="12">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1993.229570370169</v>
+        <v>-1993.229570370168</v>
       </c>
       <c r="C12" t="n">
-        <v>1.52278093007058e-10</v>
+        <v>1.522780930070607e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-439.9217312237636</v>
+        <v>-439.9217312237639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04407990508725904</v>
+        <v>0.0440799050872589</v>
       </c>
     </row>
     <row r="14">
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4665.650360149309</v>
+        <v>4665.650360149308</v>
       </c>
       <c r="C2" t="n">
-        <v>4.829437644364159e-21</v>
+        <v>4.829437644364196e-21</v>
       </c>
     </row>
     <row r="3">
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1444.187117683566</v>
+        <v>-1444.187117683567</v>
       </c>
       <c r="C5" t="n">
-        <v>1.269148964569009e-08</v>
+        <v>1.269148964568999e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.29857392022284</v>
+        <v>66.29857392022291</v>
       </c>
       <c r="C6" t="n">
-        <v>1.809536030853188e-05</v>
+        <v>1.809536030853147e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2755,7 +2755,7 @@
         <v>115.0905146757376</v>
       </c>
       <c r="C7" t="n">
-        <v>2.127011670460951e-44</v>
+        <v>2.127011670461042e-44</v>
       </c>
     </row>
     <row r="8">
@@ -2768,7 +2768,7 @@
         <v>-0.02924684938136908</v>
       </c>
       <c r="C8" t="n">
-        <v>3.950690919082766e-06</v>
+        <v>3.950690919082796e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.680740716367534e-06</v>
+        <v>-5.680740716367531e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206071498432874</v>
+        <v>0.2060714984328742</v>
       </c>
     </row>
     <row r="10">
@@ -2859,7 +2859,7 @@
         <v>18.36167491769939</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000442355727818354</v>
+        <v>0.0004423557278183549</v>
       </c>
     </row>
   </sheetData>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6789.465201243757</v>
+        <v>6789.465201243756</v>
       </c>
       <c r="C14" t="n">
         <v>1.260635008343949e-34</v>
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.185977166850165e-06</v>
+        <v>-7.185977166850163e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09905552870573489</v>
+        <v>0.09905552870573496</v>
       </c>
     </row>
     <row r="10">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-756.2879683699355</v>
+        <v>-756.2879683699356</v>
       </c>
       <c r="C13" t="n">
         <v>0.0004093855879065137</v>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5334.186899102622</v>
+        <v>5334.186899102616</v>
       </c>
       <c r="C2" t="n">
-        <v>2.810607381654335e-26</v>
+        <v>2.810607381654577e-26</v>
       </c>
     </row>
     <row r="3">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2317.422679651178</v>
+        <v>-2317.422679651177</v>
       </c>
       <c r="C3" t="n">
-        <v>8.178821052016195e-23</v>
+        <v>8.178821052015666e-23</v>
       </c>
     </row>
     <row r="4">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2711.852822578869</v>
+        <v>-2711.852822578865</v>
       </c>
       <c r="C4" t="n">
-        <v>4.605867013877117e-28</v>
+        <v>4.605867013877447e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1835.923697406291</v>
+        <v>-1835.923697406288</v>
       </c>
       <c r="C5" t="n">
-        <v>2.603431896766076e-13</v>
+        <v>2.603431896766246e-13</v>
       </c>
     </row>
     <row r="6">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.85554792311431</v>
+        <v>48.85554792311429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001569658954079851</v>
+        <v>0.00156965895407986</v>
       </c>
     </row>
     <row r="7">
@@ -3842,10 +3842,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.5130246225475</v>
+        <v>109.513024622548</v>
       </c>
       <c r="C7" t="n">
-        <v>1.270367267414382e-39</v>
+        <v>1.270367267413329e-39</v>
       </c>
     </row>
     <row r="8">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03292616927662215</v>
+        <v>-0.03292616927662334</v>
       </c>
       <c r="C8" t="n">
-        <v>2.78170030057669e-07</v>
+        <v>2.781700300573963e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.273299407285409e-06</v>
+        <v>-5.273299407285004e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09804651575350692</v>
+        <v>0.09804651575353317</v>
       </c>
     </row>
     <row r="10">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.28167456894345</v>
+        <v>-18.28167456894359</v>
       </c>
       <c r="C10" t="n">
-        <v>2.155863580821184e-14</v>
+        <v>2.155863580820366e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.084076967786017</v>
+        <v>6.084076967786052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003304720901027877</v>
+        <v>0.003304720901027836</v>
       </c>
     </row>
     <row r="12">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2016.918589312084</v>
+        <v>-2016.918589312086</v>
       </c>
       <c r="C12" t="n">
-        <v>7.597173326926016e-11</v>
+        <v>7.597173326925879e-11</v>
       </c>
     </row>
     <row r="13">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-509.4558260789113</v>
+        <v>-509.4558260789136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02597110766665585</v>
+        <v>0.02597110766665525</v>
       </c>
     </row>
     <row r="14">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6566.789125993945</v>
+        <v>6566.789125993942</v>
       </c>
       <c r="C14" t="n">
-        <v>8.333553381023529e-33</v>
+        <v>8.333553381024125e-33</v>
       </c>
     </row>
     <row r="15">
@@ -3946,10 +3946,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.81195074547897</v>
+        <v>13.81195074547887</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01243080067671993</v>
+        <v>0.01243080067672055</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4024,7 @@
         <v>-2613.727241482313</v>
       </c>
       <c r="C4" t="n">
-        <v>2.40617864725463e-28</v>
+        <v>2.4061786472547e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4060,10 +4060,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.1136408898474</v>
+        <v>113.1136408898475</v>
       </c>
       <c r="C7" t="n">
-        <v>6.524992669236828e-41</v>
+        <v>6.524992669236641e-41</v>
       </c>
     </row>
     <row r="8">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.25072370264474</v>
+        <v>5.250723702644738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008174187139117276</v>
+        <v>0.008174187139117292</v>
       </c>
     </row>
     <row r="12">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-572.7783091509664</v>
+        <v>-572.7783091509666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01046269922319047</v>
+        <v>0.01046269922319044</v>
       </c>
     </row>
     <row r="14">
@@ -4320,7 +4320,7 @@
         <v>-18.03303050846441</v>
       </c>
       <c r="C10" t="n">
-        <v>7.197739713483075e-15</v>
+        <v>7.197739713482922e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.263395929442865</v>
+        <v>5.263395929442866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01065992360397791</v>
+        <v>0.01065992360397788</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2103.767851863539</v>
+        <v>-2103.767851863538</v>
       </c>
       <c r="C3" t="n">
         <v>1.399763363771763e-21</v>
@@ -4678,7 +4678,7 @@
         <v>-2456.739394123795</v>
       </c>
       <c r="C4" t="n">
-        <v>1.440834079432631e-26</v>
+        <v>1.440834079432672e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8304800774602</v>
+        <v>114.8304800774601</v>
       </c>
       <c r="C7" t="n">
-        <v>2.663851435976215e-45</v>
+        <v>2.663851435976329e-45</v>
       </c>
     </row>
     <row r="8">
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0303771162684356</v>
+        <v>-0.03037711626843559</v>
       </c>
       <c r="C8" t="n">
-        <v>8.057025569630128e-07</v>
+        <v>8.057025569630186e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.465638416381154</v>
+        <v>9.465638416381156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07892840152554913</v>
+        <v>0.07892840152554902</v>
       </c>
     </row>
   </sheetData>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4943.799192116211</v>
+        <v>4943.799192116212</v>
       </c>
       <c r="C2" t="n">
-        <v>2.230599409861562e-22</v>
+        <v>2.230599409861499e-22</v>
       </c>
     </row>
     <row r="3">
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.3496242547166</v>
+        <v>39.34962425471662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01153753334926224</v>
+        <v>0.01153753334926222</v>
       </c>
     </row>
     <row r="7">
@@ -4935,7 +4935,7 @@
         <v>108.3074831496721</v>
       </c>
       <c r="C7" t="n">
-        <v>7.259547326210457e-39</v>
+        <v>7.259547326210666e-39</v>
       </c>
     </row>
     <row r="8">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03489329515144847</v>
+        <v>-0.03489329515144848</v>
       </c>
       <c r="C8" t="n">
-        <v>1.782697329577451e-07</v>
+        <v>1.782697329577447e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.505132671082795e-06</v>
+        <v>-3.505132671082793e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2577773697110138</v>
+        <v>0.2577773697110139</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.53861169616604</v>
+        <v>-19.53861169616605</v>
       </c>
       <c r="C10" t="n">
-        <v>8.295422801005403e-17</v>
+        <v>8.295422801005224e-17</v>
       </c>
     </row>
     <row r="11">
@@ -4987,7 +4987,7 @@
         <v>6.462959177106834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002020788450503009</v>
+        <v>0.002020788450502999</v>
       </c>
     </row>
     <row r="12">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6499.274403071212</v>
+        <v>6499.274403071211</v>
       </c>
       <c r="C14" t="n">
-        <v>5.019430545719764e-32</v>
+        <v>5.019430545719763e-32</v>
       </c>
     </row>
     <row r="15">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.78320489128335</v>
+        <v>21.78320489128334</v>
       </c>
       <c r="C15" t="n">
-        <v>7.41759757697192e-05</v>
+        <v>7.417597576971943e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5088,7 +5088,7 @@
         <v>5256.510349861484</v>
       </c>
       <c r="C2" t="n">
-        <v>3.23688268347314e-26</v>
+        <v>3.236882683473351e-26</v>
       </c>
     </row>
     <row r="3">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2401.174953779849</v>
+        <v>-2401.174953779845</v>
       </c>
       <c r="C3" t="n">
-        <v>2.309544854523747e-24</v>
+        <v>2.309544854524111e-24</v>
       </c>
     </row>
     <row r="4">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2705.515823665082</v>
+        <v>-2705.515823665081</v>
       </c>
       <c r="C4" t="n">
-        <v>2.746984872936068e-28</v>
+        <v>2.746984872936225e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2048.878376810238</v>
+        <v>-2048.878376810234</v>
       </c>
       <c r="C5" t="n">
-        <v>3.654942477287665e-16</v>
+        <v>3.654942477287849e-16</v>
       </c>
     </row>
     <row r="6">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.3125035500242</v>
+        <v>112.3125035500238</v>
       </c>
       <c r="C7" t="n">
-        <v>5.207461558121711e-43</v>
+        <v>5.207461558126622e-43</v>
       </c>
     </row>
     <row r="8">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02909735831280276</v>
+        <v>-0.02909735831280015</v>
       </c>
       <c r="C8" t="n">
-        <v>3.910413468851018e-06</v>
+        <v>3.910413468858447e-06</v>
       </c>
     </row>
     <row r="9">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.595630693663407e-06</v>
+        <v>-3.595630693664959e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244792271639435</v>
+        <v>0.2447922716392318</v>
       </c>
     </row>
     <row r="10">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.89678257076897</v>
+        <v>-16.89678257076881</v>
       </c>
       <c r="C10" t="n">
-        <v>2.735001053732643e-13</v>
+        <v>2.73500105373389e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.272537050049198</v>
+        <v>4.272537050049364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02785035955149903</v>
+        <v>0.02785035955149296</v>
       </c>
     </row>
     <row r="12">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1767.12006742804</v>
+        <v>-1767.120067428048</v>
       </c>
       <c r="C12" t="n">
-        <v>1.550173748532998e-08</v>
+        <v>1.550173748532789e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-761.1595241387173</v>
+        <v>-761.1595241387205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005638282868806609</v>
+        <v>0.0005638282868806254</v>
       </c>
     </row>
     <row r="14">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6806.830304258374</v>
+        <v>6806.830304258382</v>
       </c>
       <c r="C14" t="n">
-        <v>5.244674596177039e-34</v>
+        <v>5.244674596176666e-34</v>
       </c>
     </row>
     <row r="15">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.13269251530202</v>
+        <v>18.13269251530195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008527297062769193</v>
+        <v>0.000852729706276958</v>
       </c>
     </row>
   </sheetData>
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.31436406960246</v>
+        <v>57.31436406960248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001176450532705685</v>
+        <v>0.0001176450532705678</v>
       </c>
     </row>
     <row r="7">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02887566683220937</v>
+        <v>-0.02887566683220938</v>
       </c>
       <c r="C8" t="n">
         <v>8.006104293503678e-06</v>
@@ -5856,10 +5856,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.430408409668337</v>
+        <v>6.430408409668336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001117188584217864</v>
+        <v>0.001117188584217867</v>
       </c>
     </row>
     <row r="12">
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5517.562448127277</v>
+        <v>5517.562448127281</v>
       </c>
       <c r="C2" t="n">
-        <v>7.447374681573113e-30</v>
+        <v>7.447374681572901e-30</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2345.580514313442</v>
+        <v>-2345.580514313441</v>
       </c>
       <c r="C3" t="n">
-        <v>1.326765323282022e-26</v>
+        <v>1.32676532328207e-26</v>
       </c>
     </row>
     <row r="4">
@@ -5986,7 +5986,7 @@
         <v>-2657.112745167431</v>
       </c>
       <c r="C4" t="n">
-        <v>6.338114845175013e-31</v>
+        <v>6.338114845175464e-31</v>
       </c>
     </row>
     <row r="5">
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1911.21750488777</v>
+        <v>-1911.217504887773</v>
       </c>
       <c r="C5" t="n">
-        <v>2.829928130275832e-16</v>
+        <v>2.829928130275567e-16</v>
       </c>
     </row>
     <row r="6">
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.05547090560335</v>
+        <v>60.0554709056033</v>
       </c>
       <c r="C6" t="n">
-        <v>4.657486017262776e-05</v>
+        <v>4.657486017262811e-05</v>
       </c>
     </row>
     <row r="7">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.7550202824068</v>
+        <v>112.7550202824063</v>
       </c>
       <c r="C7" t="n">
-        <v>7.986938976045693e-44</v>
+        <v>7.986938976054705e-44</v>
       </c>
     </row>
     <row r="8">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03209760888832106</v>
+        <v>-0.03209760888832823</v>
       </c>
       <c r="C8" t="n">
-        <v>3.6321995057665e-07</v>
+        <v>3.632199505760836e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.647819859452922e-06</v>
+        <v>-3.647819859453459e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2317899575786051</v>
+        <v>0.2317899575785358</v>
       </c>
     </row>
     <row r="10">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.83406889903941</v>
+        <v>-17.83406889903948</v>
       </c>
       <c r="C10" t="n">
-        <v>3.406863417432494e-14</v>
+        <v>3.406863417431903e-14</v>
       </c>
     </row>
     <row r="11">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.569820407110496</v>
+        <v>4.569820407110224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02114314849751776</v>
+        <v>0.02114314849752598</v>
       </c>
     </row>
     <row r="12">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1912.543590269207</v>
+        <v>-1912.543590269209</v>
       </c>
       <c r="C12" t="n">
-        <v>8.018250395626254e-10</v>
+        <v>8.018250395626196e-10</v>
       </c>
     </row>
     <row r="13">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-541.762825464546</v>
+        <v>-541.7628254645504</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01421985481945101</v>
+        <v>0.01421985481945035</v>
       </c>
     </row>
     <row r="14">
@@ -6116,7 +6116,7 @@
         <v>6225.886546757594</v>
       </c>
       <c r="C14" t="n">
-        <v>2.849937562237136e-30</v>
+        <v>2.8499375622373e-30</v>
       </c>
     </row>
     <row r="15">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.14961949013386</v>
+        <v>12.149619490134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02376839528003194</v>
+        <v>0.02376839528003033</v>
       </c>
     </row>
   </sheetData>
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4646.651492444847</v>
+        <v>4646.651492444846</v>
       </c>
       <c r="C2" t="n">
-        <v>2.841168288516918e-22</v>
+        <v>2.841168288516959e-22</v>
       </c>
     </row>
     <row r="3">
@@ -6256,7 +6256,7 @@
         <v>-0.03154317537647851</v>
       </c>
       <c r="C8" t="n">
-        <v>3.480938396135666e-07</v>
+        <v>3.480938396135649e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.7201419462412e-06</v>
+        <v>-1.720141946241194e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5540241621178537</v>
+        <v>0.554024162117855</v>
       </c>
     </row>
     <row r="10">
@@ -6282,7 +6282,7 @@
         <v>-18.49327340817623</v>
       </c>
       <c r="C10" t="n">
-        <v>1.054169056225214e-16</v>
+        <v>1.054169056225222e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.69857444144586</v>
+        <v>5.698574441445861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004310385511265991</v>
+        <v>0.004310385511265983</v>
       </c>
     </row>
     <row r="12">
@@ -6308,7 +6308,7 @@
         <v>-1689.606971789947</v>
       </c>
       <c r="C12" t="n">
-        <v>9.61636099418916e-09</v>
+        <v>9.616360994189231e-09</v>
       </c>
     </row>
     <row r="13">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-464.10646992046</v>
+        <v>-464.1064699204601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02990326745709519</v>
+        <v>0.02990326745709516</v>
       </c>
     </row>
     <row r="14">
@@ -6347,7 +6347,7 @@
         <v>20.21940010690442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001205627448631574</v>
+        <v>0.0001205627448631571</v>
       </c>
     </row>
   </sheetData>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.078007195066829e-06</v>
+        <v>-4.078007195066831e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2009093860456435</v>
+        <v>0.2009093860456434</v>
       </c>
     </row>
     <row r="10">
@@ -6526,7 +6526,7 @@
         <v>-2146.148931284053</v>
       </c>
       <c r="C12" t="n">
-        <v>1.192203428472994e-11</v>
+        <v>1.192203428472985e-11</v>
       </c>
     </row>
     <row r="13">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-831.2716727262716</v>
+        <v>-831.2716727262718</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002661304359745328</v>
+        <v>0.0002661304359745321</v>
       </c>
     </row>
     <row r="14">
@@ -7268,7 +7268,7 @@
         <v>4488.468467576218</v>
       </c>
       <c r="C2" t="n">
-        <v>1.918130828714396e-20</v>
+        <v>1.918130828714354e-20</v>
       </c>
     </row>
     <row r="3">
@@ -7294,7 +7294,7 @@
         <v>-2360.944745142801</v>
       </c>
       <c r="C4" t="n">
-        <v>7.668708674303608e-24</v>
+        <v>7.6687086743035e-24</v>
       </c>
     </row>
     <row r="5">
@@ -7307,7 +7307,7 @@
         <v>-1562.293836399839</v>
       </c>
       <c r="C5" t="n">
-        <v>8.175262958926195e-11</v>
+        <v>8.175262958926194e-11</v>
       </c>
     </row>
     <row r="6">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.48086310682355</v>
+        <v>63.48086310682353</v>
       </c>
       <c r="C6" t="n">
-        <v>3.980224017009358e-05</v>
+        <v>3.980224017009365e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.5354248283617</v>
+        <v>112.5354248283618</v>
       </c>
       <c r="C7" t="n">
         <v>3.549888777424561e-43</v>
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.337350083212667e-06</v>
+        <v>-3.337350083212666e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2892234139774957</v>
+        <v>0.2892234139774958</v>
       </c>
     </row>
     <row r="10">
@@ -7372,7 +7372,7 @@
         <v>-19.12279404003628</v>
       </c>
       <c r="C10" t="n">
-        <v>3.306697039667512e-17</v>
+        <v>3.306697039667488e-17</v>
       </c>
     </row>
     <row r="11">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-557.8722525504193</v>
+        <v>-557.8722525504194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01036225359381978</v>
+        <v>0.01036225359381975</v>
       </c>
     </row>
     <row r="14">
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.14416023656016</v>
+        <v>23.14416023656015</v>
       </c>
       <c r="C15" t="n">
-        <v>1.768504989257919e-05</v>
+        <v>1.768504989257923e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7551,7 +7551,7 @@
         <v>107.7554426297599</v>
       </c>
       <c r="C7" t="n">
-        <v>1.677810805961262e-39</v>
+        <v>1.677810805961214e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7655,7 +7655,7 @@
         <v>15.05617667994053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006081117613951277</v>
+        <v>0.00608111761395128</v>
       </c>
     </row>
   </sheetData>
@@ -7782,7 +7782,7 @@
         <v>-0.03177581727777377</v>
       </c>
       <c r="C8" t="n">
-        <v>1.774920566839155e-06</v>
+        <v>1.774920566839145e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.1962903252894</v>
+        <v>4.196290325289402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03897682389980322</v>
+        <v>0.03897682389980314</v>
       </c>
     </row>
     <row r="12">
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-590.9158415917489</v>
+        <v>-590.915841591749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007190810049549475</v>
+        <v>0.007190810049549448</v>
       </c>
     </row>
     <row r="14">
@@ -7857,10 +7857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7163.278544088161</v>
+        <v>7163.27854408816</v>
       </c>
       <c r="C14" t="n">
-        <v>3.857695287083915e-39</v>
+        <v>3.857695287084025e-39</v>
       </c>
     </row>
     <row r="15">
@@ -7873,7 +7873,7 @@
         <v>20.38109889261076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001651515288465342</v>
+        <v>0.0001651515288465351</v>
       </c>
     </row>
   </sheetData>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5866.502623032869</v>
+        <v>5866.502623032868</v>
       </c>
       <c r="C2" t="n">
         <v>3.917859759286223e-31</v>
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2436.498317319006</v>
+        <v>-2436.498317319002</v>
       </c>
       <c r="C3" t="n">
-        <v>7.163441065939597e-26</v>
+        <v>7.163441065940162e-26</v>
       </c>
     </row>
     <row r="4">
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2726.463673524516</v>
+        <v>-2726.463673524513</v>
       </c>
       <c r="C4" t="n">
         <v>6.258987336205642e-30</v>
@@ -7958,10 +7958,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2035.764657823052</v>
+        <v>-2035.764657823048</v>
       </c>
       <c r="C5" t="n">
-        <v>1.214407088983351e-16</v>
+        <v>1.214407088983386e-16</v>
       </c>
     </row>
     <row r="6">
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.19555379816018</v>
+        <v>48.19555379816076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001397885191478357</v>
+        <v>0.001397885191478166</v>
       </c>
     </row>
     <row r="7">
@@ -7984,10 +7984,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.1361683004295</v>
+        <v>111.1361683004294</v>
       </c>
       <c r="C7" t="n">
-        <v>3.696018712717813e-42</v>
+        <v>3.696018712718816e-42</v>
       </c>
     </row>
     <row r="8">
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03030982169219747</v>
+        <v>-0.03030982169219509</v>
       </c>
       <c r="C8" t="n">
-        <v>2.610903985973562e-06</v>
+        <v>2.610903985978245e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.1204465475612e-06</v>
+        <v>-9.120446547563181e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02426046720888129</v>
+        <v>0.02426046720885055</v>
       </c>
     </row>
     <row r="10">
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.29336236358904</v>
+        <v>-19.29336236358894</v>
       </c>
       <c r="C10" t="n">
-        <v>9.090257602257024e-17</v>
+        <v>9.090257602260103e-17</v>
       </c>
     </row>
     <row r="11">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.943398424917865</v>
+        <v>2.943398424917747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1453088447164996</v>
+        <v>0.1453088447165168</v>
       </c>
     </row>
     <row r="12">
@@ -8049,10 +8049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2074.338769676081</v>
+        <v>-2074.338769676083</v>
       </c>
       <c r="C12" t="n">
-        <v>3.140545264623287e-11</v>
+        <v>3.140545264623208e-11</v>
       </c>
     </row>
     <row r="13">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-542.3972435336245</v>
+        <v>-542.3972435336241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01412132270103771</v>
+        <v>0.01412132270103778</v>
       </c>
     </row>
     <row r="14">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7085.226251762429</v>
+        <v>7085.226251762428</v>
       </c>
       <c r="C14" t="n">
         <v>4.163047851187216e-38</v>
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.8286006431004</v>
+        <v>10.82860064310042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04731915834601211</v>
+        <v>0.0473191583460117</v>
       </c>
     </row>
   </sheetData>
@@ -8189,7 +8189,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.74834756742141</v>
+        <v>60.74834756742143</v>
       </c>
       <c r="C6" t="n">
         <v>8.154683045426792e-05</v>
@@ -8280,10 +8280,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-680.2082932161118</v>
+        <v>-680.208293216112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002718728342526809</v>
+        <v>0.002718728342526803</v>
       </c>
     </row>
     <row r="14">
@@ -8651,10 +8651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03287438671214432</v>
+        <v>-0.03287438671214433</v>
       </c>
       <c r="C8" t="n">
-        <v>2.403080616172306e-07</v>
+        <v>2.403080616172298e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8745,7 +8745,7 @@
         <v>10.74060057175603</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04847788604462702</v>
+        <v>0.04847788604462708</v>
       </c>
     </row>
   </sheetData>
@@ -8791,10 +8791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4834.333051194079</v>
+        <v>4834.33305119408</v>
       </c>
       <c r="C2" t="n">
-        <v>1.280676434412265e-22</v>
+        <v>1.280676434412209e-22</v>
       </c>
     </row>
     <row r="3">
@@ -8859,7 +8859,7 @@
         <v>110.6436557071318</v>
       </c>
       <c r="C7" t="n">
-        <v>5.036624472174161e-40</v>
+        <v>5.036624472174376e-40</v>
       </c>
     </row>
     <row r="8">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03198976978228728</v>
+        <v>-0.03198976978228726</v>
       </c>
       <c r="C8" t="n">
-        <v>4.61363173328763e-07</v>
+        <v>4.613631733287705e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8885,7 +8885,7 @@
         <v>-1.091049642489634e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02496226953131792</v>
+        <v>0.02496226953131801</v>
       </c>
     </row>
     <row r="10">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1843.807550062692</v>
+        <v>-1843.807550062691</v>
       </c>
       <c r="C12" t="n">
         <v>2.36513038003114e-09</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-598.2316770863484</v>
+        <v>-598.2316770863482</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00660046797655043</v>
+        <v>0.006600467976550456</v>
       </c>
     </row>
     <row r="14">
@@ -9025,7 +9025,7 @@
         <v>-2155.60247947988</v>
       </c>
       <c r="C3" t="n">
-        <v>4.916692337954834e-22</v>
+        <v>4.916692337954975e-22</v>
       </c>
     </row>
     <row r="4">
@@ -9051,7 +9051,7 @@
         <v>-1902.777441591668</v>
       </c>
       <c r="C5" t="n">
-        <v>1.872988584618771e-15</v>
+        <v>1.872988584618792e-15</v>
       </c>
     </row>
     <row r="6">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.92358964646145</v>
+        <v>62.92358964646144</v>
       </c>
       <c r="C6" t="n">
-        <v>7.8265406703311e-05</v>
+        <v>7.826540670331122e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.485764481701182</v>
+        <v>5.485764481701181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005878273738162318</v>
+        <v>0.005878273738162324</v>
       </c>
     </row>
     <row r="12">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1891.639926456218</v>
+        <v>-1891.639926456217</v>
       </c>
       <c r="C12" t="n">
-        <v>1.006260200514166e-09</v>
+        <v>1.006260200514176e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9155,7 +9155,7 @@
         <v>-791.9896923629087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004467873635285615</v>
+        <v>0.0004467873635285622</v>
       </c>
     </row>
     <row r="14">
@@ -9178,10 +9178,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.46729933387569</v>
+        <v>18.46729933387568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005558732795699088</v>
+        <v>0.0005558732795699099</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4564.302301436895</v>
+        <v>4564.302301436896</v>
       </c>
       <c r="C2" t="n">
-        <v>9.655397883501974e-21</v>
+        <v>9.655397883501768e-21</v>
       </c>
     </row>
     <row r="3">
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1800.642447226058</v>
+        <v>-1800.642447226057</v>
       </c>
       <c r="C3" t="n">
-        <v>6.656642083053117e-16</v>
+        <v>6.656642083053597e-16</v>
       </c>
     </row>
     <row r="4">
@@ -9471,10 +9471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2070.1546823509</v>
+        <v>-2070.154682350901</v>
       </c>
       <c r="C4" t="n">
-        <v>4.223583223572478e-19</v>
+        <v>4.223583223572509e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1437.617362993098</v>
+        <v>-1437.617362993099</v>
       </c>
       <c r="C5" t="n">
-        <v>1.329044046184074e-09</v>
+        <v>1.329044046184093e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.83213069788533</v>
+        <v>56.83213069788505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001245568066324342</v>
+        <v>0.0001245568066324444</v>
       </c>
     </row>
     <row r="7">
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.0540664872801</v>
+        <v>114.0540664872799</v>
       </c>
       <c r="C7" t="n">
-        <v>1.711934947591011e-47</v>
+        <v>1.711934947591768e-47</v>
       </c>
     </row>
     <row r="8">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03561349855147244</v>
+        <v>-0.03561349855147299</v>
       </c>
       <c r="C8" t="n">
-        <v>1.703743816034148e-08</v>
+        <v>1.703743816033329e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.048019983646012e-06</v>
+        <v>-2.048019983645511e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5037058925853457</v>
+        <v>0.5037058925854476</v>
       </c>
     </row>
     <row r="10">
@@ -9549,10 +9549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.20204386992887</v>
+        <v>-17.20204386992878</v>
       </c>
       <c r="C10" t="n">
-        <v>7.181408278822013e-14</v>
+        <v>7.181408278824141e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9562,10 +9562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.111760131776169</v>
+        <v>4.111760131776073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03385151556621147</v>
+        <v>0.03385151556621584</v>
       </c>
     </row>
     <row r="12">
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1966.697337337939</v>
+        <v>-1966.69733733794</v>
       </c>
       <c r="C12" t="n">
-        <v>7.991410453181642e-11</v>
+        <v>7.991410453181381e-11</v>
       </c>
     </row>
     <row r="13">
@@ -9588,10 +9588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-502.1753747110468</v>
+        <v>-502.1753747110429</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01993165024321136</v>
+        <v>0.01993165024321239</v>
       </c>
     </row>
     <row r="14">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7194.815011778023</v>
+        <v>7194.815011778019</v>
       </c>
       <c r="C14" t="n">
-        <v>5.174069885019217e-41</v>
+        <v>5.174069885019734e-41</v>
       </c>
     </row>
     <row r="15">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.15624290835003</v>
+        <v>18.15624290834983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007184021408307891</v>
+        <v>0.0007184021408308848</v>
       </c>
     </row>
   </sheetData>
@@ -10014,7 +10014,7 @@
         <v>-1843.475098927319</v>
       </c>
       <c r="C12" t="n">
-        <v>1.761209512975277e-09</v>
+        <v>1.76120951297529e-09</v>
       </c>
     </row>
     <row r="13">
@@ -10219,7 +10219,7 @@
         <v>3.9805889064666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0460503829300656</v>
+        <v>0.04605038293006566</v>
       </c>
     </row>
     <row r="12">
@@ -10434,10 +10434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.643459763738898</v>
+        <v>4.643459763738896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0243104568601032</v>
+        <v>0.02431045686010328</v>
       </c>
     </row>
     <row r="12">
@@ -10538,7 +10538,7 @@
         <v>5003.720680248101</v>
       </c>
       <c r="C2" t="n">
-        <v>3.197744279171077e-23</v>
+        <v>3.197744279171168e-23</v>
       </c>
     </row>
     <row r="3">
@@ -10551,7 +10551,7 @@
         <v>-2184.007089729334</v>
       </c>
       <c r="C3" t="n">
-        <v>2.040578974881812e-19</v>
+        <v>2.040578974881782e-19</v>
       </c>
     </row>
     <row r="4">
@@ -10577,7 +10577,7 @@
         <v>-1870.961752004994</v>
       </c>
       <c r="C5" t="n">
-        <v>2.834370942926072e-13</v>
+        <v>2.834370942926041e-13</v>
       </c>
     </row>
     <row r="6">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03153824606822598</v>
+        <v>-0.03153824606822599</v>
       </c>
       <c r="C8" t="n">
-        <v>7.209654337438214e-07</v>
+        <v>7.209654337438189e-07</v>
       </c>
     </row>
     <row r="9">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.501413321800412e-06</v>
+        <v>-2.50141332180041e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4211472763253953</v>
+        <v>0.4211472763253957</v>
       </c>
     </row>
     <row r="10">
@@ -10642,7 +10642,7 @@
         <v>-16.88974432480765</v>
       </c>
       <c r="C10" t="n">
-        <v>5.669824291380089e-13</v>
+        <v>5.669824291380191e-13</v>
       </c>
     </row>
     <row r="11">
@@ -10665,10 +10665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1988.073949192951</v>
+        <v>-1988.073949192952</v>
       </c>
       <c r="C12" t="n">
-        <v>2.578382197232424e-10</v>
+        <v>2.578382197232405e-10</v>
       </c>
     </row>
     <row r="13">
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7154.494461993228</v>
+        <v>7154.494461993229</v>
       </c>
       <c r="C14" t="n">
-        <v>4.280361887836682e-40</v>
+        <v>4.28036188783656e-40</v>
       </c>
     </row>
     <row r="15">
@@ -10704,10 +10704,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.55851393445758</v>
+        <v>11.55851393445759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03405551548361987</v>
+        <v>0.03405551548361982</v>
       </c>
     </row>
   </sheetData>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5134.594660415795</v>
+        <v>5134.594660415794</v>
       </c>
       <c r="C2" t="n">
-        <v>8.722876616717618e-25</v>
+        <v>8.722876616717809e-25</v>
       </c>
     </row>
     <row r="3">
@@ -11000,7 +11000,7 @@
         <v>-2400.363799725673</v>
       </c>
       <c r="C4" t="n">
-        <v>4.580570738685384e-25</v>
+        <v>4.580570738685155e-25</v>
       </c>
     </row>
     <row r="5">
@@ -11049,10 +11049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03529099329022974</v>
+        <v>-0.03529099329022975</v>
       </c>
       <c r="C8" t="n">
-        <v>1.686095129129988e-08</v>
+        <v>1.686095129129981e-08</v>
       </c>
     </row>
     <row r="9">
@@ -11065,7 +11065,7 @@
         <v>-1.677225249987448e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5815084323704287</v>
+        <v>0.5815084323704292</v>
       </c>
     </row>
     <row r="10">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.225223047274035</v>
+        <v>4.225223047274038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04153075906597012</v>
+        <v>0.04153075906597001</v>
       </c>
     </row>
     <row r="12">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-600.3618403243702</v>
+        <v>-600.3618403243695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00778088981143168</v>
+        <v>0.007780889811431731</v>
       </c>
     </row>
     <row r="14">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7106.049395173909</v>
+        <v>7106.04939517391</v>
       </c>
       <c r="C14" t="n">
-        <v>5.945602865039828e-36</v>
+        <v>5.945602865039575e-36</v>
       </c>
     </row>
     <row r="15">
@@ -11143,7 +11143,7 @@
         <v>17.53041323348641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001307402834649235</v>
+        <v>0.001307402834649232</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/All.xlsx
+++ b/outputs/ML_Results/dist_LR/All.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ07467123" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ07775047" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ08063121" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ08365129" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ08668109" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ08962646" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09263043" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09692233" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09991270" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ10286324" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ10658711" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ10957540" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ11265735" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ11769082" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ12107966" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ12405922" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ12681295" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ12995999" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ13278262" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ13558954" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ13846866" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ14138402" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ14413602" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ14715568" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ14998225" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ15279267" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ15586233" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ15866931" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ16143682" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ16424585" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ16730258" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ17072629" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ17442239" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ17732250" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ18015116" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ18291679" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ18581819" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ18870089" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ19208443" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ19503370" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ19803749" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ20182023" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ20537133" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ20816124" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ21291956" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ21625506" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ22119307" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ22612803" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ23034523" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ23609009" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ37652485" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ39148258" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40001598" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40698642" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ41358884" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42004244" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42696706" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43331584" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43965001" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44605319" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ45245536" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ45828336" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ46402807" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ46964735" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ47586065" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ48128785" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ48681377" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49269625" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49881428" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ50445486" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51048038" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51643949" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ52195419" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ52748255" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ53316462" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ53869102" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ54451897" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ54998253" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ55565860" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ56123334" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ56706954" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ57263089" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ57823980" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ58363734" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ58929927" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ59490556" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ00085781" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ00659161" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ01202905" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ01771960" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ02314107" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ02892268" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ03430029" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ04012036" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ04563672" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ05150204" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ05713779" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ06306379" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ06869105" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ07430546" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5266.707726015617</v>
+        <v>5454.238874116149</v>
       </c>
       <c r="C2" t="n">
-        <v>6.57575650308431e-26</v>
+        <v>1.568811531716285e-25</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2291.147098639457</v>
+        <v>-1776.464557679388</v>
       </c>
       <c r="C3" t="n">
-        <v>1.38162833786985e-21</v>
+        <v>2.429390463737525e-14</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2636.775671687853</v>
+        <v>-2354.78222400106</v>
       </c>
       <c r="C4" t="n">
-        <v>2.378974891740988e-26</v>
+        <v>7.351304040938524e-22</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1816.227026377641</v>
+        <v>-1972.725952767656</v>
       </c>
       <c r="C5" t="n">
-        <v>9.117098756608098e-13</v>
+        <v>8.93846404103602e-15</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.61210619243445</v>
+        <v>67.46713383834681</v>
       </c>
       <c r="C6" t="n">
-        <v>4.046068280464141e-05</v>
+        <v>3.190536434806066e-05</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.9615994022813</v>
+        <v>103.3471107746971</v>
       </c>
       <c r="C7" t="n">
-        <v>4.39985419192859e-42</v>
+        <v>8.850337363254128e-33</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03056532576575501</v>
+        <v>-0.03607497152168621</v>
       </c>
       <c r="C8" t="n">
-        <v>8.726942416069076e-07</v>
+        <v>8.666454892232469e-08</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.311566232711844e-06</v>
+        <v>-3.040676665408406e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2652707915730396</v>
+        <v>0.3356457622190417</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.26219188531995</v>
+        <v>-19.28806547054056</v>
       </c>
       <c r="C10" t="n">
-        <v>2.73395266467759e-15</v>
+        <v>1.957182416425916e-14</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.08888942083579</v>
+        <v>0.920422143598306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002333182412896791</v>
+        <v>0.6605199207130701</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2051.763841758774</v>
+        <v>-2156.055949255847</v>
       </c>
       <c r="C12" t="n">
-        <v>5.839845550516683e-11</v>
+        <v>1.568495274831198e-10</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-498.8318381580158</v>
+        <v>-867.5226033255899</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02415393268906463</v>
+        <v>0.0002657456187492724</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5908.420227614181</v>
+        <v>7847.737518325011</v>
       </c>
       <c r="C14" t="n">
-        <v>5.826840646096646e-26</v>
+        <v>1.431822335848975e-38</v>
       </c>
     </row>
     <row r="15">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.58753471866833</v>
+        <v>28.18758429408384</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00393888559909799</v>
+        <v>1.956886338162166e-06</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4987.174716757165</v>
+        <v>5780.515659116712</v>
       </c>
       <c r="C2" t="n">
-        <v>4.338611622826249e-25</v>
+        <v>4.358848903216851e-27</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2012.478874842112</v>
+        <v>-1858.811126913691</v>
       </c>
       <c r="C3" t="n">
-        <v>8.832202216833624e-20</v>
+        <v>2.074126729231893e-14</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2284.905449770115</v>
+        <v>-2466.566997540634</v>
       </c>
       <c r="C4" t="n">
-        <v>2.972657106653859e-23</v>
+        <v>2.647215847267042e-22</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1543.644981803719</v>
+        <v>-2120.457649657721</v>
       </c>
       <c r="C5" t="n">
-        <v>4.145847610778639e-11</v>
+        <v>5.961414704185055e-16</v>
       </c>
     </row>
     <row r="6">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.18659363811371</v>
+        <v>58.46245263357214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009945616969126948</v>
+        <v>0.0004491525827719202</v>
       </c>
     </row>
     <row r="7">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.7232879947415</v>
+        <v>107.9429353497224</v>
       </c>
       <c r="C7" t="n">
-        <v>3.609515346710445e-49</v>
+        <v>7.015760836394052e-34</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03179738518357093</v>
+        <v>-0.03587812451939031</v>
       </c>
       <c r="C8" t="n">
-        <v>3.675803794198757e-07</v>
+        <v>1.911644778213849e-07</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.853263814745588e-06</v>
+        <v>-1.184806873423942e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05563624454070784</v>
+        <v>0.7461171823086008</v>
       </c>
     </row>
     <row r="10">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.80523674103094</v>
+        <v>-20.99826439867541</v>
       </c>
       <c r="C10" t="n">
-        <v>1.238675518634201e-12</v>
+        <v>9.882822378677374e-17</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.673530953632534</v>
+        <v>0.5347408479360198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01325601855337998</v>
+        <v>0.8004324263107194</v>
       </c>
     </row>
     <row r="12">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2020.176357287952</v>
+        <v>-2297.883970624966</v>
       </c>
       <c r="C12" t="n">
-        <v>1.645281209967351e-11</v>
+        <v>3.11663810710755e-11</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-784.366077842873</v>
+        <v>-700.3206654666143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002573354628699905</v>
+        <v>0.003298247174233833</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5656.188036390809</v>
+        <v>7636.951954883241</v>
       </c>
       <c r="C14" t="n">
-        <v>7.020308632755805e-27</v>
+        <v>1.620635379994078e-37</v>
       </c>
     </row>
     <row r="15">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.00092595904323</v>
+        <v>25.19813107168035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003282876463589578</v>
+        <v>2.285159304136155e-05</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4612.051585705134</v>
+        <v>5444.747320783791</v>
       </c>
       <c r="C2" t="n">
-        <v>3.699080412103355e-22</v>
+        <v>2.063381818580719e-23</v>
       </c>
     </row>
     <row r="3">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2022.397687269776</v>
+        <v>-1555.380247211298</v>
       </c>
       <c r="C3" t="n">
-        <v>7.534845227990843e-20</v>
+        <v>6.708347646574913e-10</v>
       </c>
     </row>
     <row r="4">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2360.647611496204</v>
+        <v>-2146.033540234866</v>
       </c>
       <c r="C4" t="n">
-        <v>1.798271564428179e-24</v>
+        <v>2.986761203108341e-16</v>
       </c>
     </row>
     <row r="5">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1704.070614850076</v>
+        <v>-1773.435690301432</v>
       </c>
       <c r="C5" t="n">
-        <v>6.740492932482393e-13</v>
+        <v>5.039923152113778e-11</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.02880767714275</v>
+        <v>47.21788135092102</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003150339363173956</v>
+        <v>0.004298265841045814</v>
       </c>
     </row>
     <row r="7">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.8835515052014</v>
+        <v>107.140780513916</v>
       </c>
       <c r="C7" t="n">
-        <v>2.372320008199489e-48</v>
+        <v>1.157973824815899e-32</v>
       </c>
     </row>
     <row r="8">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03095663961145441</v>
+        <v>-0.04200830719997442</v>
       </c>
       <c r="C8" t="n">
-        <v>7.125958326585703e-07</v>
+        <v>1.292452824678693e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.214221225248711e-06</v>
+        <v>-5.009893316463771e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2667355815831964</v>
+        <v>0.8772876846146079</v>
       </c>
     </row>
     <row r="10">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.50236860124083</v>
+        <v>-18.6452216629196</v>
       </c>
       <c r="C10" t="n">
-        <v>1.734926969707163e-13</v>
+        <v>1.553663428438544e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.525362591191866</v>
+        <v>2.06257399703297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003625309661631221</v>
+        <v>0.3293909973810804</v>
       </c>
     </row>
     <row r="12">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2254.919950463805</v>
+        <v>-2506.818806237216</v>
       </c>
       <c r="C12" t="n">
-        <v>6.24784803783302e-14</v>
+        <v>2.606129319561007e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-626.1713838472042</v>
+        <v>-985.7711507220827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003637546711694301</v>
+        <v>4.254022789363976e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6470.155995075386</v>
+        <v>7797.676307020372</v>
       </c>
       <c r="C14" t="n">
-        <v>2.116014527153159e-33</v>
+        <v>1.553867707217325e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.71687818318918</v>
+        <v>24.28457628347672</v>
       </c>
       <c r="C15" t="n">
-        <v>1.80576635852531e-05</v>
+        <v>5.552251114634058e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4956.057072979485</v>
+        <v>5646.433578376642</v>
       </c>
       <c r="C2" t="n">
-        <v>2.843591569004641e-23</v>
+        <v>1.820468550772233e-25</v>
       </c>
     </row>
     <row r="3">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2173.459302818073</v>
+        <v>-1677.527558394842</v>
       </c>
       <c r="C3" t="n">
-        <v>2.105526118732564e-21</v>
+        <v>1.591893219550202e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2620.383592006037</v>
+        <v>-2260.920300902733</v>
       </c>
       <c r="C4" t="n">
-        <v>2.317529774186648e-28</v>
+        <v>9.017473531400037e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1871.394758269288</v>
+        <v>-1796.9123323258</v>
       </c>
       <c r="C5" t="n">
-        <v>2.542083123293298e-14</v>
+        <v>3.070988839120159e-12</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.37820114497984</v>
+        <v>57.40509253316213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003546120741496716</v>
+        <v>0.0005369935076014007</v>
       </c>
     </row>
     <row r="7">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.473644098208</v>
+        <v>106.0386884592781</v>
       </c>
       <c r="C7" t="n">
-        <v>7.293266119208293e-44</v>
+        <v>5.746293609851783e-33</v>
       </c>
     </row>
     <row r="8">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03361977508330249</v>
+        <v>-0.0407772892673133</v>
       </c>
       <c r="C8" t="n">
-        <v>2.056831142911815e-07</v>
+        <v>4.335231246961847e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.345456974738918e-06</v>
+        <v>-2.622299844643746e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.692378013030694</v>
+        <v>0.4321878856501862</v>
       </c>
     </row>
     <row r="10">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.33904955030604</v>
+        <v>-18.49276617464493</v>
       </c>
       <c r="C10" t="n">
-        <v>1.904476227883691e-13</v>
+        <v>1.256958307130997e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.345986003300187</v>
+        <v>1.651019865176797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005026209159724437</v>
+        <v>0.4583973671495167</v>
       </c>
     </row>
     <row r="12">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2049.551961557017</v>
+        <v>-2206.636343686348</v>
       </c>
       <c r="C12" t="n">
-        <v>8.733529465032197e-11</v>
+        <v>7.890185063374052e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-632.2201019558282</v>
+        <v>-900.7212345779927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004613829549694992</v>
+        <v>0.0001496355821637954</v>
       </c>
     </row>
     <row r="14">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7218.073806276974</v>
+        <v>7255.136982595806</v>
       </c>
       <c r="C14" t="n">
-        <v>1.63357119923209e-40</v>
+        <v>1.150438171092593e-34</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.4365536244373</v>
+        <v>22.62017199996004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01483771815494135</v>
+        <v>0.0001924623949512791</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5571.261105164593</v>
+        <v>5479.286572044528</v>
       </c>
       <c r="C2" t="n">
-        <v>1.302307214440257e-27</v>
+        <v>4.009482033420185e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2278.397440225449</v>
+        <v>-1909.128079114362</v>
       </c>
       <c r="C3" t="n">
-        <v>1.114081922950427e-21</v>
+        <v>2.896955566244939e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2604.904274812666</v>
+        <v>-2497.297524155512</v>
       </c>
       <c r="C4" t="n">
-        <v>5.306704054472134e-26</v>
+        <v>3.071595478532869e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1782.839724539384</v>
+        <v>-2192.262934051862</v>
       </c>
       <c r="C5" t="n">
-        <v>1.332810238351391e-12</v>
+        <v>8.728699938105408e-17</v>
       </c>
     </row>
     <row r="6">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.93149486935439</v>
+        <v>74.11994804106202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001695093017903345</v>
+        <v>4.752221595988292e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.5605435198763</v>
+        <v>106.5645836118297</v>
       </c>
       <c r="C7" t="n">
-        <v>4.113035854338303e-41</v>
+        <v>6.191520346395478e-35</v>
       </c>
     </row>
     <row r="8">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03179323342128604</v>
+        <v>-0.03297161979380706</v>
       </c>
       <c r="C8" t="n">
-        <v>5.473300249188958e-07</v>
+        <v>8.326651557311311e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.5239124758273e-06</v>
+        <v>-3.474384494787541e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2484052767922438</v>
+        <v>0.315748061351152</v>
       </c>
     </row>
     <row r="10">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.16352412986426</v>
+        <v>-19.41829745373735</v>
       </c>
       <c r="C10" t="n">
-        <v>6.861235893091604e-16</v>
+        <v>3.164889028707612e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.239589296386127</v>
+        <v>1.91941686983684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0408147339112444</v>
+        <v>0.3875785505527028</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1703.0828688729</v>
+        <v>-2009.876692392187</v>
       </c>
       <c r="C12" t="n">
-        <v>5.773939846365089e-08</v>
+        <v>1.288746043594188e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-552.916784805406</v>
+        <v>-627.280108685404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01330719628400171</v>
+        <v>0.008764005871069548</v>
       </c>
     </row>
     <row r="14">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6030.562153660715</v>
+        <v>8064.780317963347</v>
       </c>
       <c r="C14" t="n">
-        <v>1.841035467937555e-26</v>
+        <v>1.162109983257255e-39</v>
       </c>
     </row>
     <row r="15">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.04518354557922</v>
+        <v>23.61820200716593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01630829073248161</v>
+        <v>0.00011101707063169</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5501.91572580167</v>
+        <v>5946.129319130618</v>
       </c>
       <c r="C2" t="n">
-        <v>2.107556467846367e-28</v>
+        <v>1.179525747689282e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2304.025545880279</v>
+        <v>-1781.14329628928</v>
       </c>
       <c r="C3" t="n">
-        <v>1.675839481688463e-23</v>
+        <v>1.528541467571838e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2696.946819707544</v>
+        <v>-2266.024171215251</v>
       </c>
       <c r="C4" t="n">
-        <v>3.994087128838327e-29</v>
+        <v>2.39860709130701e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1923.28841733757</v>
+        <v>-1870.082063214184</v>
       </c>
       <c r="C5" t="n">
-        <v>3.453531700835994e-15</v>
+        <v>4.545079907742227e-13</v>
       </c>
     </row>
     <row r="6">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.77406986147609</v>
+        <v>62.85279284504902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000268687805189502</v>
+        <v>0.0001065954558902954</v>
       </c>
     </row>
     <row r="7">
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.4833076635367</v>
+        <v>110.750770909382</v>
       </c>
       <c r="C7" t="n">
-        <v>1.26506809491796e-40</v>
+        <v>6.973331407743628e-38</v>
       </c>
     </row>
     <row r="8">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02646049503454849</v>
+        <v>-0.03616077589173419</v>
       </c>
       <c r="C8" t="n">
-        <v>4.083563262863385e-05</v>
+        <v>5.588329238848371e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.821917076239977e-06</v>
+        <v>-6.317027860525021e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06999407316527741</v>
+        <v>0.1772656666522818</v>
       </c>
     </row>
     <row r="10">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.37974664832979</v>
+        <v>-19.60714164549837</v>
       </c>
       <c r="C10" t="n">
-        <v>9.437779382765507e-17</v>
+        <v>3.369618969050046e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.287124354249625</v>
+        <v>-1.972325542387235</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02837904090823163</v>
+        <v>0.3427978659674069</v>
       </c>
     </row>
     <row r="12">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2025.4218786174</v>
+        <v>-2322.67347866766</v>
       </c>
       <c r="C12" t="n">
-        <v>7.284502376566734e-11</v>
+        <v>1.961485148885326e-12</v>
       </c>
     </row>
     <row r="13">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-766.1426098310809</v>
+        <v>-947.3841280239768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007115302182563451</v>
+        <v>4.741169294424488e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6601.277283640245</v>
+        <v>6704.783701812317</v>
       </c>
       <c r="C14" t="n">
-        <v>4.427489474503308e-33</v>
+        <v>4.894412283557817e-30</v>
       </c>
     </row>
     <row r="15">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.47724717335785</v>
+        <v>28.65243349085212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00278220424612688</v>
+        <v>8.768064428237073e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5075.780662527419</v>
+        <v>5152.357359559197</v>
       </c>
       <c r="C2" t="n">
-        <v>1.595828191723395e-25</v>
+        <v>5.48629181201841e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2105.511448559962</v>
+        <v>-1538.356755110541</v>
       </c>
       <c r="C3" t="n">
-        <v>5.802700099802607e-21</v>
+        <v>3.645678150810986e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2433.819838157477</v>
+        <v>-2190.373624889136</v>
       </c>
       <c r="C4" t="n">
-        <v>2.42880163496437e-25</v>
+        <v>1.30278511055979e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1679.767962640217</v>
+        <v>-1795.469930531626</v>
       </c>
       <c r="C5" t="n">
-        <v>2.60262563275551e-12</v>
+        <v>1.589965784728364e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.89758910170983</v>
+        <v>63.38718980235583</v>
       </c>
       <c r="C6" t="n">
-        <v>8.546985981144152e-05</v>
+        <v>0.000204145765478708</v>
       </c>
     </row>
     <row r="7">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.1644076062347</v>
+        <v>111.2990590783313</v>
       </c>
       <c r="C7" t="n">
-        <v>5.91641153760257e-41</v>
+        <v>4.094759187528413e-38</v>
       </c>
     </row>
     <row r="8">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03176701148815256</v>
+        <v>-0.03456995830565553</v>
       </c>
       <c r="C8" t="n">
-        <v>5.420947262833525e-07</v>
+        <v>3.11593236805602e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.475640336972582e-06</v>
+        <v>-2.749143431364027e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239224282560858</v>
+        <v>0.3922089044912801</v>
       </c>
     </row>
     <row r="10">
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.83635472731077</v>
+        <v>-18.07321305258441</v>
       </c>
       <c r="C10" t="n">
-        <v>2.567935655820448e-16</v>
+        <v>2.412619195820317e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.060114937171809</v>
+        <v>0.7929575434046559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03975551383760052</v>
+        <v>0.708118419312932</v>
       </c>
     </row>
     <row r="12">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1993.229570370168</v>
+        <v>-2365.130714517895</v>
       </c>
       <c r="C12" t="n">
-        <v>1.522780930070607e-10</v>
+        <v>1.154908304160943e-12</v>
       </c>
     </row>
     <row r="13">
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-439.9217312237639</v>
+        <v>-1101.727566586545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0440799050872589</v>
+        <v>3.804539405542671e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7128.637738923251</v>
+        <v>7070.825166536277</v>
       </c>
       <c r="C14" t="n">
-        <v>4.613105674979563e-41</v>
+        <v>3.673581753654862e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.7282133829158</v>
+        <v>34.01645425548075</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003083518547554274</v>
+        <v>1.121982316213257e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5295.443536388679</v>
+        <v>5606.676117145969</v>
       </c>
       <c r="C2" t="n">
-        <v>4.056202918205056e-27</v>
+        <v>1.685831216440677e-26</v>
       </c>
     </row>
     <row r="3">
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2207.762715896025</v>
+        <v>-1733.866399241227</v>
       </c>
       <c r="C3" t="n">
-        <v>1.177684104013254e-24</v>
+        <v>1.063555541174998e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2556.413698695763</v>
+        <v>-2326.683239217404</v>
       </c>
       <c r="C4" t="n">
-        <v>5.103544734804158e-30</v>
+        <v>1.609209271905295e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1875.654877757559</v>
+        <v>-1903.702343104024</v>
       </c>
       <c r="C5" t="n">
-        <v>7.598054276677428e-16</v>
+        <v>4.455737775311297e-14</v>
       </c>
     </row>
     <row r="6">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.18966720876885</v>
+        <v>58.74280006264192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003740561682866248</v>
+        <v>0.0003991043585234568</v>
       </c>
     </row>
     <row r="7">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.0780399856385</v>
+        <v>104.1900263515164</v>
       </c>
       <c r="C7" t="n">
-        <v>1.448288597742011e-43</v>
+        <v>3.906628245247927e-33</v>
       </c>
     </row>
     <row r="8">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03335894834743366</v>
+        <v>-0.03359883286120337</v>
       </c>
       <c r="C8" t="n">
-        <v>1.930441481986976e-07</v>
+        <v>1.199762079852893e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.160839368810088e-06</v>
+        <v>-1.060677296707028e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3106845865080209</v>
+        <v>0.02245154074517155</v>
       </c>
     </row>
     <row r="10">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.01935157279426</v>
+        <v>-18.48202919355575</v>
       </c>
       <c r="C10" t="n">
-        <v>1.237336198809204e-14</v>
+        <v>2.272129633073165e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.064663162240278</v>
+        <v>1.326743614961427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0111899308585193</v>
+        <v>0.5209267677963425</v>
       </c>
     </row>
     <row r="12">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2091.179635571168</v>
+        <v>-2442.720474440783</v>
       </c>
       <c r="C12" t="n">
-        <v>6.036019182574895e-12</v>
+        <v>1.96710299381688e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-553.4017290548054</v>
+        <v>-989.6150937503279</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01123248095424571</v>
+        <v>3.106512734352787e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7348.67070870321</v>
+        <v>7352.663169577852</v>
       </c>
       <c r="C14" t="n">
-        <v>5.147738615329581e-41</v>
+        <v>9.245099449211236e-36</v>
       </c>
     </row>
     <row r="15">
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85942503392348</v>
+        <v>26.56246805312967</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0431812794728293</v>
+        <v>7.69878991930585e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5793.798949132492</v>
+        <v>5017.011817535622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.162145543250567e-32</v>
+        <v>1.246181719764554e-20</v>
       </c>
     </row>
     <row r="3">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2462.502052682456</v>
+        <v>-1263.928161224468</v>
       </c>
       <c r="C3" t="n">
-        <v>1.004570020277248e-26</v>
+        <v>2.275342345589428e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2804.826790535153</v>
+        <v>-1867.604472903195</v>
       </c>
       <c r="C4" t="n">
-        <v>1.55493119537977e-31</v>
+        <v>2.341687814117219e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2037.750907927064</v>
+        <v>-1489.689488168108</v>
       </c>
       <c r="C5" t="n">
-        <v>3.680602890441988e-17</v>
+        <v>1.432691541152042e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.88456635383862</v>
+        <v>63.55992355192597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002938099423694361</v>
+        <v>9.152645769573237e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.7453032135886</v>
+        <v>107.7560870702777</v>
       </c>
       <c r="C7" t="n">
-        <v>7.787338423135818e-42</v>
+        <v>1.868507068696963e-35</v>
       </c>
     </row>
     <row r="8">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02991917269998906</v>
+        <v>-0.03752837741044993</v>
       </c>
       <c r="C8" t="n">
-        <v>8.269731990636534e-07</v>
+        <v>5.715997862032753e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.872320755125147e-06</v>
+        <v>-2.068342455295089e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1970657983218796</v>
+        <v>0.5285917761699576</v>
       </c>
     </row>
     <row r="10">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.0218933353539</v>
+        <v>-18.12768777639946</v>
       </c>
       <c r="C10" t="n">
-        <v>7.558862445470667e-17</v>
+        <v>4.749886328846176e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.499276476201746</v>
+        <v>0.8914712030093366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02119905181189786</v>
+        <v>0.6777128173152518</v>
       </c>
     </row>
     <row r="12">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2252.049479071318</v>
+        <v>-2259.531566736009</v>
       </c>
       <c r="C12" t="n">
-        <v>9.259722416082885e-14</v>
+        <v>1.476727842839025e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-663.6359403620025</v>
+        <v>-1014.800176846471</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002529573900646853</v>
+        <v>2.485094331395684e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6742.285949810975</v>
+        <v>7453.766060153588</v>
       </c>
       <c r="C14" t="n">
-        <v>1.814793047142556e-37</v>
+        <v>5.0181590363739e-36</v>
       </c>
     </row>
     <row r="15">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.33053605458165</v>
+        <v>29.11588975197368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02149322246875924</v>
+        <v>1.514765614323727e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4824.128471638691</v>
+        <v>5533.578799042739</v>
       </c>
       <c r="C2" t="n">
-        <v>4.647778297521153e-23</v>
+        <v>2.404289017751954e-25</v>
       </c>
     </row>
     <row r="3">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2007.882967056341</v>
+        <v>-1856.349653918705</v>
       </c>
       <c r="C3" t="n">
-        <v>9.391698650889338e-19</v>
+        <v>1.813085279708912e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2399.761992598874</v>
+        <v>-2416.684470880561</v>
       </c>
       <c r="C4" t="n">
-        <v>3.605384096263796e-24</v>
+        <v>9.314719546324409e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1651.046326302822</v>
+        <v>-2175.024815090241</v>
       </c>
       <c r="C5" t="n">
-        <v>1.302384386595366e-11</v>
+        <v>1.602906687562792e-16</v>
       </c>
     </row>
     <row r="6">
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.26799065115033</v>
+        <v>61.67065926437857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001238075488613941</v>
+        <v>0.0001413725659806183</v>
       </c>
     </row>
     <row r="7">
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.7010097904807</v>
+        <v>112.9292654398797</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3898833603007e-41</v>
+        <v>1.760669078975516e-37</v>
       </c>
     </row>
     <row r="8">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02885891832308132</v>
+        <v>-0.03941116814584888</v>
       </c>
       <c r="C8" t="n">
-        <v>7.10090393296833e-06</v>
+        <v>5.514360085393034e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.91939337144214e-06</v>
+        <v>-5.707039489040419e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.336861334961983</v>
+        <v>0.8610767146152876</v>
       </c>
     </row>
     <row r="10">
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.79144412048271</v>
+        <v>-19.76686639381008</v>
       </c>
       <c r="C10" t="n">
-        <v>8.111390165782879e-16</v>
+        <v>2.528299363729963e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.648013999040479</v>
+        <v>-0.2050325673124798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004499355687856972</v>
+        <v>0.9249486052069691</v>
       </c>
     </row>
     <row r="12">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1951.117370427961</v>
+        <v>-2090.955928079463</v>
       </c>
       <c r="C12" t="n">
-        <v>4.990067152277931e-10</v>
+        <v>7.668321227367205e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-692.9527143070529</v>
+        <v>-699.3042497077442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001853127215844921</v>
+        <v>0.002311155230797839</v>
       </c>
     </row>
     <row r="14">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6271.891204104972</v>
+        <v>8349.261279786184</v>
       </c>
       <c r="C14" t="n">
-        <v>1.965869315919822e-28</v>
+        <v>1.349343638656069e-44</v>
       </c>
     </row>
     <row r="15">
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.64261438001092</v>
+        <v>27.02498940823367</v>
       </c>
       <c r="C15" t="n">
-        <v>7.961502419163229e-05</v>
+        <v>5.187466892417398e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4665.650360149308</v>
+        <v>5595.752591488388</v>
       </c>
       <c r="C2" t="n">
-        <v>4.829437644364196e-21</v>
+        <v>1.768651282629765e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1900.715286580269</v>
+        <v>-1780.456855037767</v>
       </c>
       <c r="C3" t="n">
-        <v>1.959870500325981e-15</v>
+        <v>1.819289369721902e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2261.210914196613</v>
+        <v>-2373.112916609547</v>
       </c>
       <c r="C4" t="n">
-        <v>6.856908851084404e-20</v>
+        <v>5.981871863984952e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1444.187117683567</v>
+        <v>-1891.593241111116</v>
       </c>
       <c r="C5" t="n">
-        <v>1.269148964568999e-08</v>
+        <v>3.225853963934672e-11</v>
       </c>
     </row>
     <row r="6">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.29857392022291</v>
+        <v>56.12608247546399</v>
       </c>
       <c r="C6" t="n">
-        <v>1.809536030853147e-05</v>
+        <v>0.0008341928964704943</v>
       </c>
     </row>
     <row r="7">
@@ -2752,10 +2752,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0905146757376</v>
+        <v>110.0613524847761</v>
       </c>
       <c r="C7" t="n">
-        <v>2.127011670461042e-44</v>
+        <v>4.592937630632501e-33</v>
       </c>
     </row>
     <row r="8">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02924684938136908</v>
+        <v>-0.04018103923064432</v>
       </c>
       <c r="C8" t="n">
-        <v>3.950690919082796e-06</v>
+        <v>5.008849858560799e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.680740716367531e-06</v>
+        <v>-1.615165662858295e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2060714984328742</v>
+        <v>0.633706147336057</v>
       </c>
     </row>
     <row r="10">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.59393515912037</v>
+        <v>-18.17080083063335</v>
       </c>
       <c r="C10" t="n">
-        <v>5.465643104504089e-15</v>
+        <v>8.214563213545953e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.144272156534297</v>
+        <v>1.179663031284875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01324539071244799</v>
+        <v>0.6072964526114415</v>
       </c>
     </row>
     <row r="12">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1756.167940451336</v>
+        <v>-2358.243312070542</v>
       </c>
       <c r="C12" t="n">
-        <v>1.577958037008774e-08</v>
+        <v>4.740452887614823e-12</v>
       </c>
     </row>
     <row r="13">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-537.2019941066719</v>
+        <v>-973.3578738559797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01254132871226085</v>
+        <v>6.04032999874991e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6323.842813823763</v>
+        <v>7104.218116481361</v>
       </c>
       <c r="C14" t="n">
-        <v>1.422375201412137e-32</v>
+        <v>2.250364537036953e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.36167491769939</v>
+        <v>27.94018818684529</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004423557278183549</v>
+        <v>4.176417681227181e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5032.763846510732</v>
+        <v>5220.676543750606</v>
       </c>
       <c r="C2" t="n">
-        <v>7.578470938136277e-26</v>
+        <v>2.206618006087101e-21</v>
       </c>
     </row>
     <row r="3">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2070.525624211517</v>
+        <v>-1723.528499741415</v>
       </c>
       <c r="C3" t="n">
-        <v>4.303754195123027e-21</v>
+        <v>5.630518959941852e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2931,10 +2931,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2531.102003929191</v>
+        <v>-2308.787207666432</v>
       </c>
       <c r="C4" t="n">
-        <v>2.138100105558714e-28</v>
+        <v>8.664226049504412e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1692.362372068779</v>
+        <v>-2031.667154221024</v>
       </c>
       <c r="C5" t="n">
-        <v>4.434111131218898e-13</v>
+        <v>4.325268107209238e-14</v>
       </c>
     </row>
     <row r="6">
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.08108870714886</v>
+        <v>71.03380479215905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001905962571701441</v>
+        <v>3.452758600679408e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.6203097351758</v>
+        <v>117.8677561493094</v>
       </c>
       <c r="C7" t="n">
-        <v>1.868223159506931e-46</v>
+        <v>7.112782832061047e-38</v>
       </c>
     </row>
     <row r="8">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02787559855682493</v>
+        <v>-0.03464910146006937</v>
       </c>
       <c r="C8" t="n">
-        <v>3.985002332588422e-06</v>
+        <v>3.311868782787492e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.016897787134511e-06</v>
+        <v>-5.66063139230182e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3093805644002324</v>
+        <v>0.1976575985246014</v>
       </c>
     </row>
     <row r="10">
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.9227727755936</v>
+        <v>-17.13367152835216</v>
       </c>
       <c r="C10" t="n">
-        <v>3.03849481731705e-14</v>
+        <v>9.92830306660781e-12</v>
       </c>
     </row>
     <row r="11">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.303401706408589</v>
+        <v>1.214502298695599</v>
       </c>
       <c r="C11" t="n">
-        <v>1.738290815101913e-05</v>
+        <v>0.593797840140581</v>
       </c>
     </row>
     <row r="12">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2032.337505685851</v>
+        <v>-2042.070731931399</v>
       </c>
       <c r="C12" t="n">
-        <v>1.223222971131378e-11</v>
+        <v>2.662958420102467e-09</v>
       </c>
     </row>
     <row r="13">
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-814.5757196440873</v>
+        <v>-962.1898265894351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001437730410894977</v>
+        <v>5.341194963702279e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6287.851761797805</v>
+        <v>7322.645265709547</v>
       </c>
       <c r="C14" t="n">
-        <v>4.06224902062988e-32</v>
+        <v>9.977417479449939e-35</v>
       </c>
     </row>
     <row r="15">
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.38825133481563</v>
+        <v>30.1400209530035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03267399947151511</v>
+        <v>6.955931701399075e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5085.002362799701</v>
+        <v>5922.430757511257</v>
       </c>
       <c r="C2" t="n">
-        <v>1.308030187673151e-23</v>
+        <v>9.547273466748525e-29</v>
       </c>
     </row>
     <row r="3">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2267.646193893955</v>
+        <v>-1870.854948941193</v>
       </c>
       <c r="C3" t="n">
-        <v>3.422752692696505e-22</v>
+        <v>2.438628877727303e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2632.951618747084</v>
+        <v>-2429.420329919485</v>
       </c>
       <c r="C4" t="n">
-        <v>2.744393625992311e-27</v>
+        <v>1.261185319024332e-22</v>
       </c>
     </row>
     <row r="5">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1937.447962792975</v>
+        <v>-2012.343695027991</v>
       </c>
       <c r="C5" t="n">
-        <v>7.320118397859217e-15</v>
+        <v>2.94601297899651e-15</v>
       </c>
     </row>
     <row r="6">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.85465300929792</v>
+        <v>61.91387414300802</v>
       </c>
       <c r="C6" t="n">
-        <v>9.385708239816291e-05</v>
+        <v>0.000230008168540948</v>
       </c>
     </row>
     <row r="7">
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8090400252011</v>
+        <v>107.4373459465988</v>
       </c>
       <c r="C7" t="n">
-        <v>1.167489163011469e-43</v>
+        <v>2.269849462821459e-37</v>
       </c>
     </row>
     <row r="8">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03337464733926995</v>
+        <v>-0.03520182033186515</v>
       </c>
       <c r="C8" t="n">
-        <v>4.741354985005176e-07</v>
+        <v>5.7307439471818e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.207596526724366e-06</v>
+        <v>-2.923230727938391e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2957649725701415</v>
+        <v>0.3733875941872474</v>
       </c>
     </row>
     <row r="10">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.9629643877952</v>
+        <v>-19.4282552383104</v>
       </c>
       <c r="C10" t="n">
-        <v>7.105335913489489e-14</v>
+        <v>4.059553559264536e-15</v>
       </c>
     </row>
     <row r="11">
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.672903694934866</v>
+        <v>1.400851338758353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01889809494289356</v>
+        <v>0.5016642331766163</v>
       </c>
     </row>
     <row r="12">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1990.089370966855</v>
+        <v>-2195.808394487751</v>
       </c>
       <c r="C12" t="n">
-        <v>5.549863011386624e-10</v>
+        <v>2.681310403679022e-10</v>
       </c>
     </row>
     <row r="13">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-546.3587588729471</v>
+        <v>-909.8749517203157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01760654972242523</v>
+        <v>0.0001413618160519236</v>
       </c>
     </row>
     <row r="14">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6789.465201243756</v>
+        <v>6645.934009782187</v>
       </c>
       <c r="C14" t="n">
-        <v>1.260635008343949e-34</v>
+        <v>3.643088541613578e-28</v>
       </c>
     </row>
     <row r="15">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.10863911729524</v>
+        <v>23.20393530341136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006730952883403066</v>
+        <v>0.0001047518150855626</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5236.362579956724</v>
+        <v>5291.255671660543</v>
       </c>
       <c r="C2" t="n">
-        <v>7.071527925147308e-26</v>
+        <v>3.735488715973107e-24</v>
       </c>
     </row>
     <row r="3">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2269.399465618524</v>
+        <v>-1477.696895319977</v>
       </c>
       <c r="C3" t="n">
-        <v>1.199342968955431e-22</v>
+        <v>1.969220410344654e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2636.599038864128</v>
+        <v>-1987.971288644069</v>
       </c>
       <c r="C4" t="n">
-        <v>3.457547725041514e-28</v>
+        <v>1.71458522959928e-16</v>
       </c>
     </row>
     <row r="5">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1831.893319964805</v>
+        <v>-1658.214728263886</v>
       </c>
       <c r="C5" t="n">
-        <v>6.188029705208905e-14</v>
+        <v>4.415143942447529e-11</v>
       </c>
     </row>
     <row r="6">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.10691134810705</v>
+        <v>65.44294341198216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001273950286825791</v>
+        <v>5.370002145225613e-05</v>
       </c>
     </row>
     <row r="7">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.211678453472</v>
+        <v>106.9009788184333</v>
       </c>
       <c r="C7" t="n">
-        <v>7.568770444110374e-43</v>
+        <v>4.03008647179309e-33</v>
       </c>
     </row>
     <row r="8">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03063705715111484</v>
+        <v>-0.03801429832507727</v>
       </c>
       <c r="C8" t="n">
-        <v>1.48734591773977e-06</v>
+        <v>1.67394623086054e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.185977166850163e-06</v>
+        <v>-1.2930113012671e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09905552870573496</v>
+        <v>0.6847358725913593</v>
       </c>
     </row>
     <row r="10">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.50159619749268</v>
+        <v>-18.35077865603571</v>
       </c>
       <c r="C10" t="n">
-        <v>3.459075990427973e-17</v>
+        <v>6.751941951601761e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.229797776429027</v>
+        <v>-0.9009042283676747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0321655677685723</v>
+        <v>0.6660476878711097</v>
       </c>
     </row>
     <row r="12">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1633.983293209798</v>
+        <v>-2258.749584482925</v>
       </c>
       <c r="C12" t="n">
-        <v>1.309280578014066e-07</v>
+        <v>5.535773151077247e-12</v>
       </c>
     </row>
     <row r="13">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-601.061582447378</v>
+        <v>-997.4124621187621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006021249083785748</v>
+        <v>1.950409309472562e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6002.147254251337</v>
+        <v>7544.74129756253</v>
       </c>
       <c r="C14" t="n">
-        <v>2.655500340205198e-27</v>
+        <v>5.864598624832764e-37</v>
       </c>
     </row>
     <row r="15">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.25884825889473</v>
+        <v>30.35744486539781</v>
       </c>
       <c r="C15" t="n">
-        <v>3.407061898561183e-05</v>
+        <v>2.473878037406193e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4404.708517000126</v>
+        <v>5632.492185445417</v>
       </c>
       <c r="C2" t="n">
-        <v>8.700065343695869e-20</v>
+        <v>1.543055715727159e-25</v>
       </c>
     </row>
     <row r="3">
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1670.412321218309</v>
+        <v>-1659.844461718184</v>
       </c>
       <c r="C3" t="n">
-        <v>5.548841247664597e-13</v>
+        <v>4.253047274453653e-11</v>
       </c>
     </row>
     <row r="4">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2068.065105148074</v>
+        <v>-2235.476848787603</v>
       </c>
       <c r="C4" t="n">
-        <v>6.811734613961686e-18</v>
+        <v>2.353726976512189e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1395.3759527792</v>
+        <v>-1857.327379895916</v>
       </c>
       <c r="C5" t="n">
-        <v>1.342734051584506e-08</v>
+        <v>6.395272588151805e-12</v>
       </c>
     </row>
     <row r="6">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.48980463177392</v>
+        <v>64.32762472018084</v>
       </c>
       <c r="C6" t="n">
-        <v>3.252955364152059e-07</v>
+        <v>0.0001308025232559648</v>
       </c>
     </row>
     <row r="7">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.8664067195092</v>
+        <v>111.3805461898801</v>
       </c>
       <c r="C7" t="n">
-        <v>3.069975994246002e-47</v>
+        <v>3.094235332927332e-38</v>
       </c>
     </row>
     <row r="8">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02614770432401094</v>
+        <v>-0.03839527688383099</v>
       </c>
       <c r="C8" t="n">
-        <v>3.770849789430682e-05</v>
+        <v>1.136346490974875e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.375875472536112e-06</v>
+        <v>-1.59435468921698e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6438330055796047</v>
+        <v>0.6306944467701832</v>
       </c>
     </row>
     <row r="10">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.70906902728629</v>
+        <v>-18.9687968103014</v>
       </c>
       <c r="C10" t="n">
-        <v>9.098417600702879e-14</v>
+        <v>1.525687598448798e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.880094254487116</v>
+        <v>0.4653510275032899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003756976224802076</v>
+        <v>0.8297131660283473</v>
       </c>
     </row>
     <row r="12">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2438.934490058215</v>
+        <v>-2194.051557097446</v>
       </c>
       <c r="C12" t="n">
-        <v>8.167187982121889e-15</v>
+        <v>5.489603974618217e-11</v>
       </c>
     </row>
     <row r="13">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-756.2879683699356</v>
+        <v>-1012.672775978558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004093855879065137</v>
+        <v>1.719347569354714e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6856.060544243241</v>
+        <v>7004.6571861267</v>
       </c>
       <c r="C14" t="n">
-        <v>5.259167692331578e-39</v>
+        <v>1.926571240535987e-31</v>
       </c>
     </row>
     <row r="15">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.04085480211534</v>
+        <v>26.47745999855608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002143065223921212</v>
+        <v>1.035443135053659e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5334.186899102616</v>
+        <v>5968.211640753065</v>
       </c>
       <c r="C2" t="n">
-        <v>2.810607381654577e-26</v>
+        <v>4.710477742095033e-28</v>
       </c>
     </row>
     <row r="3">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2317.422679651177</v>
+        <v>-1956.669210096488</v>
       </c>
       <c r="C3" t="n">
-        <v>8.178821052015666e-23</v>
+        <v>2.884129231339049e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2711.852822578865</v>
+        <v>-2582.467286323731</v>
       </c>
       <c r="C4" t="n">
-        <v>4.605867013877447e-28</v>
+        <v>1.68240785470576e-23</v>
       </c>
     </row>
     <row r="5">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1835.923697406288</v>
+        <v>-2046.746844502564</v>
       </c>
       <c r="C5" t="n">
-        <v>2.603431896766246e-13</v>
+        <v>1.383368412676306e-14</v>
       </c>
     </row>
     <row r="6">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.85554792311429</v>
+        <v>58.81657044788022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00156965895407986</v>
+        <v>0.0002875374886303329</v>
       </c>
     </row>
     <row r="7">
@@ -3842,10 +3842,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.513024622548</v>
+        <v>101.0619504212943</v>
       </c>
       <c r="C7" t="n">
-        <v>1.270367267413329e-39</v>
+        <v>2.702392221385075e-31</v>
       </c>
     </row>
     <row r="8">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03292616927662334</v>
+        <v>-0.03609527818587174</v>
       </c>
       <c r="C8" t="n">
-        <v>2.781700300573963e-07</v>
+        <v>1.826055721534835e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.273299407285004e-06</v>
+        <v>-1.238266907990927e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09804651575353317</v>
+        <v>0.01508751936124289</v>
       </c>
     </row>
     <row r="10">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.28167456894359</v>
+        <v>-18.44689925767495</v>
       </c>
       <c r="C10" t="n">
-        <v>2.155863580820366e-14</v>
+        <v>6.932449821812625e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.084076967786052</v>
+        <v>2.855948303092831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003304720901027836</v>
+        <v>0.1925951305858213</v>
       </c>
     </row>
     <row r="12">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2016.918589312086</v>
+        <v>-2349.591910900605</v>
       </c>
       <c r="C12" t="n">
-        <v>7.597173326925879e-11</v>
+        <v>2.000093669647993e-12</v>
       </c>
     </row>
     <row r="13">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-509.4558260789136</v>
+        <v>-814.156196624998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02597110766665525</v>
+        <v>0.000535762492042633</v>
       </c>
     </row>
     <row r="14">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6566.789125993942</v>
+        <v>7484.841128413998</v>
       </c>
       <c r="C14" t="n">
-        <v>8.333553381024125e-33</v>
+        <v>3.243645788179028e-36</v>
       </c>
     </row>
     <row r="15">
@@ -3946,10 +3946,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.81195074547887</v>
+        <v>18.77151486705313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01243080067672055</v>
+        <v>0.001764422914883017</v>
       </c>
     </row>
   </sheetData>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4988.29543398185</v>
+        <v>5576.377027510919</v>
       </c>
       <c r="C2" t="n">
-        <v>6.132221315213952e-24</v>
+        <v>3.226966339795013e-25</v>
       </c>
     </row>
     <row r="3">
@@ -4008,10 +4008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2227.917423317685</v>
+        <v>-1777.668592837973</v>
       </c>
       <c r="C3" t="n">
-        <v>8.337709039281901e-23</v>
+        <v>1.439688353169574e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2613.727241482313</v>
+        <v>-2340.899741346992</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4061786472547e-28</v>
+        <v>1.607552545302381e-20</v>
       </c>
     </row>
     <row r="5">
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1896.750151182581</v>
+        <v>-1997.109613126804</v>
       </c>
       <c r="C5" t="n">
-        <v>6.773645103378825e-15</v>
+        <v>3.300044233627373e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4047,10 +4047,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.19089178232834</v>
+        <v>64.70122093890069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002784220404803902</v>
+        <v>0.0001321498880608198</v>
       </c>
     </row>
     <row r="7">
@@ -4060,10 +4060,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.1136408898475</v>
+        <v>106.3106823976124</v>
       </c>
       <c r="C7" t="n">
-        <v>6.524992669236641e-41</v>
+        <v>6.580438585457883e-34</v>
       </c>
     </row>
     <row r="8">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0314574758825143</v>
+        <v>-0.03555146006757864</v>
       </c>
       <c r="C8" t="n">
-        <v>6.438625721132467e-07</v>
+        <v>1.709889322837206e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.399829474727361e-06</v>
+        <v>-2.055234016088681e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4325271230268771</v>
+        <v>0.5379302138705248</v>
       </c>
     </row>
     <row r="10">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.46169135506218</v>
+        <v>-19.31472980629647</v>
       </c>
       <c r="C10" t="n">
-        <v>1.986100912341321e-15</v>
+        <v>8.376075434742372e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.250723702644738</v>
+        <v>0.3242755904087833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008174187139117292</v>
+        <v>0.8775321764954302</v>
       </c>
     </row>
     <row r="12">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1776.745748176933</v>
+        <v>-2340.749805497019</v>
       </c>
       <c r="C12" t="n">
-        <v>1.360772078106013e-08</v>
+        <v>3.54177586014632e-12</v>
       </c>
     </row>
     <row r="13">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-572.7783091509666</v>
+        <v>-965.2228904654338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01046269922319044</v>
+        <v>8.20827722421324e-05</v>
       </c>
     </row>
     <row r="14">
@@ -4151,10 +4151,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7172.834813232319</v>
+        <v>7540.100288917854</v>
       </c>
       <c r="C14" t="n">
-        <v>6.193705234304239e-38</v>
+        <v>1.349068313447807e-35</v>
       </c>
     </row>
     <row r="15">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.11432182447744</v>
+        <v>28.89055445407792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009801264732162023</v>
+        <v>1.569281820900603e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5665.317562198043</v>
+        <v>5181.973399243312</v>
       </c>
       <c r="C2" t="n">
-        <v>5.696781190138412e-31</v>
+        <v>2.397431745972615e-21</v>
       </c>
     </row>
     <row r="3">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2370.313061353229</v>
+        <v>-1616.84547110998</v>
       </c>
       <c r="C3" t="n">
-        <v>2.536276969077219e-27</v>
+        <v>6.364323087095561e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2644.379526581744</v>
+        <v>-2251.507634785316</v>
       </c>
       <c r="C4" t="n">
-        <v>3.995365991018821e-31</v>
+        <v>2.364519310011675e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1999.769492984891</v>
+        <v>-1890.913993857797</v>
       </c>
       <c r="C5" t="n">
-        <v>1.581362807525655e-17</v>
+        <v>1.158480872637488e-12</v>
       </c>
     </row>
     <row r="6">
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.30268201116809</v>
+        <v>51.26917174174604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003753997733476281</v>
+        <v>0.001917642030441045</v>
       </c>
     </row>
     <row r="7">
@@ -4278,10 +4278,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.2290518185881</v>
+        <v>115.5639941872678</v>
       </c>
       <c r="C7" t="n">
-        <v>1.062194106357235e-45</v>
+        <v>2.992854280129179e-39</v>
       </c>
     </row>
     <row r="8">
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03336412362088785</v>
+        <v>-0.0368932367096098</v>
       </c>
       <c r="C8" t="n">
-        <v>1.68754863218797e-07</v>
+        <v>5.834812743349688e-08</v>
       </c>
     </row>
     <row r="9">
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.196245798846307e-06</v>
+        <v>-2.247435073553589e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2906970756853296</v>
+        <v>0.4857785428300638</v>
       </c>
     </row>
     <row r="10">
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.03303050846441</v>
+        <v>-18.97673408539615</v>
       </c>
       <c r="C10" t="n">
-        <v>7.197739713482922e-15</v>
+        <v>2.06567933449382e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.834268178164174</v>
+        <v>1.749515259454396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.162121661293161</v>
+        <v>0.4282259425981693</v>
       </c>
     </row>
     <row r="12">
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2163.65197039132</v>
+        <v>-2201.687551253289</v>
       </c>
       <c r="C12" t="n">
-        <v>1.292234290622228e-12</v>
+        <v>1.507703871718284e-10</v>
       </c>
     </row>
     <row r="13">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-561.6728216250668</v>
+        <v>-819.7643671155465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01059694128088661</v>
+        <v>0.0006518763491000635</v>
       </c>
     </row>
     <row r="14">
@@ -4369,10 +4369,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6887.932699836145</v>
+        <v>7314.138290113459</v>
       </c>
       <c r="C14" t="n">
-        <v>1.768000990201946e-37</v>
+        <v>1.607336697287017e-34</v>
       </c>
     </row>
     <row r="15">
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.00673925630419</v>
+        <v>30.17897497785756</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02677606774228294</v>
+        <v>6.777694694669937e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4502.74548434528</v>
+        <v>5361.879788367598</v>
       </c>
       <c r="C2" t="n">
-        <v>5.94940502161153e-20</v>
+        <v>2.801723713190056e-22</v>
       </c>
     </row>
     <row r="3">
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1826.691025162079</v>
+        <v>-1638.210453011175</v>
       </c>
       <c r="C3" t="n">
-        <v>2.52277861181338e-15</v>
+        <v>2.530428814922086e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2183.691986296657</v>
+        <v>-2316.208028450123</v>
       </c>
       <c r="C4" t="n">
-        <v>5.973952017555576e-20</v>
+        <v>1.686595822554194e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1528.455512119572</v>
+        <v>-1858.38194211551</v>
       </c>
       <c r="C5" t="n">
-        <v>5.569998914563678e-10</v>
+        <v>3.446906861919358e-12</v>
       </c>
     </row>
     <row r="6">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.54399117012116</v>
+        <v>59.20809726433278</v>
       </c>
       <c r="C6" t="n">
-        <v>1.312847180897565e-05</v>
+        <v>0.0005324586980942337</v>
       </c>
     </row>
     <row r="7">
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.7714890483713</v>
+        <v>102.8185105133066</v>
       </c>
       <c r="C7" t="n">
-        <v>1.365440376109647e-44</v>
+        <v>1.689107424571373e-30</v>
       </c>
     </row>
     <row r="8">
@@ -4509,10 +4509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02967475410677394</v>
+        <v>-0.03359480077526603</v>
       </c>
       <c r="C8" t="n">
-        <v>1.831809650762089e-06</v>
+        <v>1.852382777994895e-06</v>
       </c>
     </row>
     <row r="9">
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.374519413904346e-06</v>
+        <v>-9.965659443420072e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4415302676515809</v>
+        <v>0.03883108022544199</v>
       </c>
     </row>
     <row r="10">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.38136732963677</v>
+        <v>-19.59229284960415</v>
       </c>
       <c r="C10" t="n">
-        <v>5.085948731623732e-14</v>
+        <v>8.625242210449344e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.263395929442866</v>
+        <v>2.188934831780315</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01065992360397788</v>
+        <v>0.3569648660620042</v>
       </c>
     </row>
     <row r="12">
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2018.889035842437</v>
+        <v>-2324.377744935969</v>
       </c>
       <c r="C12" t="n">
-        <v>2.041505291841509e-11</v>
+        <v>1.714643157259482e-11</v>
       </c>
     </row>
     <row r="13">
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-564.6356120733958</v>
+        <v>-1060.065872170571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009488580416761754</v>
+        <v>1.558131382909084e-05</v>
       </c>
     </row>
     <row r="14">
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6545.428384342696</v>
+        <v>7851.539684883554</v>
       </c>
       <c r="C14" t="n">
-        <v>5.138513264734432e-35</v>
+        <v>6.185893404678388e-37</v>
       </c>
     </row>
     <row r="15">
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.78210287264823</v>
+        <v>29.02528190717195</v>
       </c>
       <c r="C15" t="n">
-        <v>9.120457925255866e-05</v>
+        <v>2.549549104243399e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5439.269164601192</v>
+        <v>5630.660460681514</v>
       </c>
       <c r="C2" t="n">
-        <v>9.342301270040098e-30</v>
+        <v>3.153549179154162e-25</v>
       </c>
     </row>
     <row r="3">
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2103.767851863538</v>
+        <v>-1821.814848257418</v>
       </c>
       <c r="C3" t="n">
-        <v>1.399763363771763e-21</v>
+        <v>7.043940512214471e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2456.739394123795</v>
+        <v>-2394.507002443713</v>
       </c>
       <c r="C4" t="n">
-        <v>1.440834079432672e-26</v>
+        <v>1.667696036059847e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4688,10 +4688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1733.864369903763</v>
+        <v>-2078.005741805992</v>
       </c>
       <c r="C5" t="n">
-        <v>1.450952569646487e-13</v>
+        <v>4.164966558808573e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.22138042409065</v>
+        <v>72.12235454561369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001688902070895239</v>
+        <v>1.819436260875665e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8304800774601</v>
+        <v>110.1958595065509</v>
       </c>
       <c r="C7" t="n">
-        <v>2.663851435976329e-45</v>
+        <v>1.005037226176466e-33</v>
       </c>
     </row>
     <row r="8">
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03037711626843559</v>
+        <v>-0.03852211379620844</v>
       </c>
       <c r="C8" t="n">
-        <v>8.057025569630186e-07</v>
+        <v>3.068751312952605e-08</v>
       </c>
     </row>
     <row r="9">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.979517752341238e-06</v>
+        <v>-1.764111640442137e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3037845588977385</v>
+        <v>0.5867872188676956</v>
       </c>
     </row>
     <row r="10">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.46715848218762</v>
+        <v>-19.0905517502537</v>
       </c>
       <c r="C10" t="n">
-        <v>3.098093227729225e-16</v>
+        <v>3.708374634242218e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.892761104633029</v>
+        <v>1.125990047561007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01051183770573592</v>
+        <v>0.5912512002917441</v>
       </c>
     </row>
     <row r="12">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2330.787596635297</v>
+        <v>-2139.769740379029</v>
       </c>
       <c r="C12" t="n">
-        <v>8.973565030417794e-14</v>
+        <v>5.084289837339118e-10</v>
       </c>
     </row>
     <row r="13">
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-733.3804986994612</v>
+        <v>-669.298568809206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007051609845244153</v>
+        <v>0.007279783829619086</v>
       </c>
     </row>
     <row r="14">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6900.465006020253</v>
+        <v>7701.840876224108</v>
       </c>
       <c r="C14" t="n">
-        <v>9.972268024589946e-38</v>
+        <v>7.323079367301771e-37</v>
       </c>
     </row>
     <row r="15">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.465638416381156</v>
+        <v>22.31991757383817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07892840152554902</v>
+        <v>0.0002777322607608217</v>
       </c>
     </row>
   </sheetData>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4943.799192116212</v>
+        <v>6058.2362814151</v>
       </c>
       <c r="C2" t="n">
-        <v>2.230599409861499e-22</v>
+        <v>2.894955568920833e-30</v>
       </c>
     </row>
     <row r="3">
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2202.879725339959</v>
+        <v>-1896.13183248666</v>
       </c>
       <c r="C3" t="n">
-        <v>3.916099741415321e-22</v>
+        <v>3.567601721012712e-16</v>
       </c>
     </row>
     <row r="4">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2661.77702197046</v>
+        <v>-2400.47988869873</v>
       </c>
       <c r="C4" t="n">
-        <v>2.896370356319698e-29</v>
+        <v>4.058472243000415e-23</v>
       </c>
     </row>
     <row r="5">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1742.429352977334</v>
+        <v>-1898.94550615185</v>
       </c>
       <c r="C5" t="n">
-        <v>6.834344177198816e-13</v>
+        <v>3.212878485218191e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.34962425471662</v>
+        <v>72.00558520443001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01153753334926222</v>
+        <v>6.773716206113694e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4932,10 +4932,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.3074831496721</v>
+        <v>103.9056667148164</v>
       </c>
       <c r="C7" t="n">
-        <v>7.259547326210666e-39</v>
+        <v>9.925150937628458e-34</v>
       </c>
     </row>
     <row r="8">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03489329515144848</v>
+        <v>-0.03911536725053225</v>
       </c>
       <c r="C8" t="n">
-        <v>1.782697329577447e-07</v>
+        <v>1.273613591595591e-08</v>
       </c>
     </row>
     <row r="9">
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.505132671082793e-06</v>
+        <v>-3.166071287962951e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2577773697110139</v>
+        <v>0.3427806076817111</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.53861169616605</v>
+        <v>-18.2004415707436</v>
       </c>
       <c r="C10" t="n">
-        <v>8.295422801005224e-17</v>
+        <v>1.72467411697403e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.462959177106834</v>
+        <v>0.9161658433320374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002020788450502999</v>
+        <v>0.654969533945986</v>
       </c>
     </row>
     <row r="12">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2058.588955797954</v>
+        <v>-2555.898380898579</v>
       </c>
       <c r="C12" t="n">
-        <v>4.763977168313353e-11</v>
+        <v>1.255596741735333e-14</v>
       </c>
     </row>
     <row r="13">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-412.8807611961269</v>
+        <v>-1015.617749258003</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06742359836646739</v>
+        <v>1.214882370832657e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6499.274403071211</v>
+        <v>6350.663284729744</v>
       </c>
       <c r="C14" t="n">
-        <v>5.019430545719763e-32</v>
+        <v>3.064959966562841e-27</v>
       </c>
     </row>
     <row r="15">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.78320489128334</v>
+        <v>22.9239258850637</v>
       </c>
       <c r="C15" t="n">
-        <v>7.417597576971943e-05</v>
+        <v>0.0001001168471948978</v>
       </c>
     </row>
   </sheetData>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5256.510349861484</v>
+        <v>5220.102863538497</v>
       </c>
       <c r="C2" t="n">
-        <v>3.236882683473351e-26</v>
+        <v>1.480206850043676e-22</v>
       </c>
     </row>
     <row r="3">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2401.174953779845</v>
+        <v>-1607.444531745335</v>
       </c>
       <c r="C3" t="n">
-        <v>2.309544854524111e-24</v>
+        <v>9.247015495079058e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2705.515823665081</v>
+        <v>-2205.099204916853</v>
       </c>
       <c r="C4" t="n">
-        <v>2.746984872936225e-28</v>
+        <v>1.671493010681599e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2048.878376810234</v>
+        <v>-1806.798667966394</v>
       </c>
       <c r="C5" t="n">
-        <v>3.654942477287849e-16</v>
+        <v>1.022206233886955e-11</v>
       </c>
     </row>
     <row r="6">
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.01539547811674</v>
+        <v>59.38256241731235</v>
       </c>
       <c r="C6" t="n">
-        <v>7.871945611459976e-06</v>
+        <v>0.0002848573637695675</v>
       </c>
     </row>
     <row r="7">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.3125035500238</v>
+        <v>110.3515159646733</v>
       </c>
       <c r="C7" t="n">
-        <v>5.207461558126622e-43</v>
+        <v>1.66682198376033e-38</v>
       </c>
     </row>
     <row r="8">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02909735831280015</v>
+        <v>-0.03394168777421799</v>
       </c>
       <c r="C8" t="n">
-        <v>3.910413468858447e-06</v>
+        <v>2.514638716347166e-07</v>
       </c>
     </row>
     <row r="9">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.595630693664959e-06</v>
+        <v>-1.007775384810036e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2447922716392318</v>
+        <v>0.7596073814605921</v>
       </c>
     </row>
     <row r="10">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.89678257076881</v>
+        <v>-18.45996434715548</v>
       </c>
       <c r="C10" t="n">
-        <v>2.73500105373389e-13</v>
+        <v>1.914761712364962e-14</v>
       </c>
     </row>
     <row r="11">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.272537050049364</v>
+        <v>1.31305802407284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02785035955149296</v>
+        <v>0.5327717584246873</v>
       </c>
     </row>
     <row r="12">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1767.120067428048</v>
+        <v>-2110.800979854123</v>
       </c>
       <c r="C12" t="n">
-        <v>1.550173748532789e-08</v>
+        <v>1.5279997494026e-10</v>
       </c>
     </row>
     <row r="13">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-761.1595241387205</v>
+        <v>-991.9727256049667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005638282868806254</v>
+        <v>2.347048215140029e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6806.830304258382</v>
+        <v>7148.04258243306</v>
       </c>
       <c r="C14" t="n">
-        <v>5.244674596176666e-34</v>
+        <v>9.620866676067265e-33</v>
       </c>
     </row>
     <row r="15">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.13269251530195</v>
+        <v>30.28700188839041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000852729706276958</v>
+        <v>2.116528012344406e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5065.100458166038</v>
+        <v>5244.647053074184</v>
       </c>
       <c r="C2" t="n">
-        <v>1.818915156815786e-24</v>
+        <v>2.66545219757194e-23</v>
       </c>
     </row>
     <row r="3">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2267.875517975265</v>
+        <v>-1454.057403216792</v>
       </c>
       <c r="C3" t="n">
-        <v>1.265922787290383e-23</v>
+        <v>2.856760421817519e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2559.43537187314</v>
+        <v>-2064.465027141646</v>
       </c>
       <c r="C4" t="n">
-        <v>2.43752072707815e-27</v>
+        <v>6.901633461629336e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2013.056730120753</v>
+        <v>-1574.968348732514</v>
       </c>
       <c r="C5" t="n">
-        <v>5.47365568033188e-17</v>
+        <v>2.139748190914457e-09</v>
       </c>
     </row>
     <row r="6">
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.31436406960248</v>
+        <v>62.54712497496362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001176450532705678</v>
+        <v>0.0001266995906832468</v>
       </c>
     </row>
     <row r="7">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.623173255812</v>
+        <v>110.3793124008518</v>
       </c>
       <c r="C7" t="n">
-        <v>6.79819265205357e-50</v>
+        <v>2.023414933064805e-39</v>
       </c>
     </row>
     <row r="8">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03142171674656437</v>
+        <v>-0.03717393513232038</v>
       </c>
       <c r="C8" t="n">
-        <v>4.265566079658863e-07</v>
+        <v>8.1928177491676e-09</v>
       </c>
     </row>
     <row r="9">
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.772442255397923e-06</v>
+        <v>-1.564360980618277e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2331321840076293</v>
+        <v>0.6450718471885024</v>
       </c>
     </row>
     <row r="10">
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.65250587503169</v>
+        <v>-17.71569094887292</v>
       </c>
       <c r="C10" t="n">
-        <v>2.130444493457512e-15</v>
+        <v>2.270249240951494e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.291167150770211</v>
+        <v>2.98913106331246</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2592414134460591</v>
+        <v>0.1520467390371158</v>
       </c>
     </row>
     <row r="12">
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2073.686158022092</v>
+        <v>-2401.016626896588</v>
       </c>
       <c r="C12" t="n">
-        <v>1.093089617537751e-11</v>
+        <v>1.98260249158155e-13</v>
       </c>
     </row>
     <row r="13">
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-423.1017341561253</v>
+        <v>-1008.830759906776</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0564764204643181</v>
+        <v>1.911480300676979e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7509.706694370204</v>
+        <v>6849.634016673941</v>
       </c>
       <c r="C14" t="n">
-        <v>1.06655483890396e-45</v>
+        <v>6.110378203817669e-31</v>
       </c>
     </row>
     <row r="15">
@@ -5472,10 +5472,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.00578593007743</v>
+        <v>24.36806026693556</v>
       </c>
       <c r="C15" t="n">
-        <v>8.68416595126039e-05</v>
+        <v>3.761625083593529e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5495.222786919352</v>
+        <v>5409.81160456083</v>
       </c>
       <c r="C2" t="n">
-        <v>1.048183345026748e-28</v>
+        <v>1.222388759803515e-24</v>
       </c>
     </row>
     <row r="3">
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2345.066100367636</v>
+        <v>-1501.119965602811</v>
       </c>
       <c r="C3" t="n">
-        <v>1.536925376493546e-24</v>
+        <v>2.504339824416092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2690.301775705081</v>
+        <v>-2064.110052107848</v>
       </c>
       <c r="C4" t="n">
-        <v>2.496849361433799e-29</v>
+        <v>7.585722557323425e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1925.351704956316</v>
+        <v>-1772.73071597387</v>
       </c>
       <c r="C5" t="n">
-        <v>3.244867189036178e-15</v>
+        <v>5.620299768842113e-12</v>
       </c>
     </row>
     <row r="6">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.91466866415335</v>
+        <v>38.17199450095646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003681781668210188</v>
+        <v>0.0191498281072167</v>
       </c>
     </row>
     <row r="7">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.7114626565603</v>
+        <v>114.2362318212075</v>
       </c>
       <c r="C7" t="n">
-        <v>2.043333433648117e-43</v>
+        <v>1.555745761441476e-40</v>
       </c>
     </row>
     <row r="8">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03112454976643583</v>
+        <v>-0.04061653756173594</v>
       </c>
       <c r="C8" t="n">
-        <v>1.621831328843571e-06</v>
+        <v>3.900121499009596e-10</v>
       </c>
     </row>
     <row r="9">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.891325175313875e-06</v>
+        <v>-1.840886124217798e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1289903665260003</v>
+        <v>0.5676667495761645</v>
       </c>
     </row>
     <row r="10">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.76204653743649</v>
+        <v>-18.84829043270495</v>
       </c>
       <c r="C10" t="n">
-        <v>2.686974119491753e-15</v>
+        <v>7.295704366150381e-15</v>
       </c>
     </row>
     <row r="11">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.703501970731786</v>
+        <v>-0.9645086934581117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01884670402037699</v>
+        <v>0.6545119039678569</v>
       </c>
     </row>
     <row r="12">
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1863.461796742142</v>
+        <v>-2233.79973469195</v>
       </c>
       <c r="C12" t="n">
-        <v>2.406682053135423e-09</v>
+        <v>5.827284317844243e-12</v>
       </c>
     </row>
     <row r="13">
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-505.8576567529431</v>
+        <v>-861.9936899655418</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02454785215197382</v>
+        <v>0.0001531685796945426</v>
       </c>
     </row>
     <row r="14">
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6788.00978276901</v>
+        <v>7698.160677595211</v>
       </c>
       <c r="C14" t="n">
-        <v>2.562831507795458e-35</v>
+        <v>1.483904003519514e-40</v>
       </c>
     </row>
     <row r="15">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.66360867808314</v>
+        <v>29.36919141647137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03163477667421511</v>
+        <v>6.912098364472942e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4928.006630356085</v>
+        <v>5419.853153528221</v>
       </c>
       <c r="C2" t="n">
-        <v>4.371254716111701e-23</v>
+        <v>4.31672284566483e-26</v>
       </c>
     </row>
     <row r="3">
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2238.255036691436</v>
+        <v>-1495.834807475159</v>
       </c>
       <c r="C3" t="n">
-        <v>9.757364551243366e-21</v>
+        <v>2.647413147109519e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2639.966644633856</v>
+        <v>-2021.846548049126</v>
       </c>
       <c r="C4" t="n">
-        <v>2.427078027953094e-26</v>
+        <v>1.961976871826265e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1885.875459586385</v>
+        <v>-1587.024255861106</v>
       </c>
       <c r="C5" t="n">
-        <v>1.779777831477668e-13</v>
+        <v>6.152295054787299e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.70534619709171</v>
+        <v>68.96919674763295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001901156030554033</v>
+        <v>7.332410013673009e-06</v>
       </c>
     </row>
     <row r="7">
@@ -5804,10 +5804,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.7408964132774</v>
+        <v>100.878645897934</v>
       </c>
       <c r="C7" t="n">
-        <v>2.63218743764711e-40</v>
+        <v>1.643436005260316e-34</v>
       </c>
     </row>
     <row r="8">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02887566683220938</v>
+        <v>-0.03846004861539547</v>
       </c>
       <c r="C8" t="n">
-        <v>8.006104293503678e-06</v>
+        <v>3.141044346254031e-09</v>
       </c>
     </row>
     <row r="9">
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.416148201000966e-06</v>
+        <v>-4.550544257371527e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06340302733585139</v>
+        <v>0.8852144029197492</v>
       </c>
     </row>
     <row r="10">
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.57269448393497</v>
+        <v>-17.28491145706357</v>
       </c>
       <c r="C10" t="n">
-        <v>1.718678692123457e-14</v>
+        <v>5.530526017020154e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5856,10 +5856,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.430408409668336</v>
+        <v>1.922037633202669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001117188584217867</v>
+        <v>0.3448309432755079</v>
       </c>
     </row>
     <row r="12">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2013.795090230315</v>
+        <v>-2424.624952390704</v>
       </c>
       <c r="C12" t="n">
-        <v>3.451536302015385e-10</v>
+        <v>9.685504769542136e-15</v>
       </c>
     </row>
     <row r="13">
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-697.082385785595</v>
+        <v>-987.4403608960627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001596843089417586</v>
+        <v>1.91327032187984e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6850.72624413419</v>
+        <v>6677.601149610661</v>
       </c>
       <c r="C14" t="n">
-        <v>4.097653919559412e-35</v>
+        <v>1.165191229334859e-30</v>
       </c>
     </row>
     <row r="15">
@@ -5908,10 +5908,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.2342258236413</v>
+        <v>23.95421424787786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001898350661803601</v>
+        <v>3.130380803771547e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5517.562448127281</v>
+        <v>5731.02747649655</v>
       </c>
       <c r="C2" t="n">
-        <v>7.447374681572901e-30</v>
+        <v>2.948478132278645e-24</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2345.580514313441</v>
+        <v>-1940.178397284102</v>
       </c>
       <c r="C3" t="n">
-        <v>1.32676532328207e-26</v>
+        <v>2.274074852059539e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2657.112745167431</v>
+        <v>-2392.79743685295</v>
       </c>
       <c r="C4" t="n">
-        <v>6.338114845175464e-31</v>
+        <v>2.040914683278973e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1911.217504887773</v>
+        <v>-2182.334479086223</v>
       </c>
       <c r="C5" t="n">
-        <v>2.829928130275567e-16</v>
+        <v>1.868766971542383e-15</v>
       </c>
     </row>
     <row r="6">
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.0554709056033</v>
+        <v>63.65643911985271</v>
       </c>
       <c r="C6" t="n">
-        <v>4.657486017262811e-05</v>
+        <v>0.0001634618111962047</v>
       </c>
     </row>
     <row r="7">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.7550202824063</v>
+        <v>114.1699272950612</v>
       </c>
       <c r="C7" t="n">
-        <v>7.986938976054705e-44</v>
+        <v>2.068896681025364e-35</v>
       </c>
     </row>
     <row r="8">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03209760888832823</v>
+        <v>-0.03985424414958312</v>
       </c>
       <c r="C8" t="n">
-        <v>3.632199505760836e-07</v>
+        <v>6.128291590642095e-09</v>
       </c>
     </row>
     <row r="9">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.647819859453459e-06</v>
+        <v>-2.739612212605921e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2317899575785358</v>
+        <v>0.4079750908612827</v>
       </c>
     </row>
     <row r="10">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.83406889903948</v>
+        <v>-18.13658766802239</v>
       </c>
       <c r="C10" t="n">
-        <v>3.406863417431903e-14</v>
+        <v>1.360319772335188e-12</v>
       </c>
     </row>
     <row r="11">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.569820407110224</v>
+        <v>-1.639014613464345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02114314849752598</v>
+        <v>0.4718128371088638</v>
       </c>
     </row>
     <row r="12">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1912.543590269209</v>
+        <v>-2326.46643639129</v>
       </c>
       <c r="C12" t="n">
-        <v>8.018250395626196e-10</v>
+        <v>2.743643390893488e-11</v>
       </c>
     </row>
     <row r="13">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-541.7628254645504</v>
+        <v>-947.4615166644396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01421985481945035</v>
+        <v>0.0001237564137760672</v>
       </c>
     </row>
     <row r="14">
@@ -6113,10 +6113,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6225.886546757594</v>
+        <v>8128.422939247811</v>
       </c>
       <c r="C14" t="n">
-        <v>2.8499375622373e-30</v>
+        <v>3.404038157360405e-38</v>
       </c>
     </row>
     <row r="15">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.149619490134</v>
+        <v>28.54738560351591</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02376839528003033</v>
+        <v>3.713000919470363e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4646.651492444846</v>
+        <v>5744.228218015584</v>
       </c>
       <c r="C2" t="n">
-        <v>2.841168288516959e-22</v>
+        <v>9.053998979901174e-27</v>
       </c>
     </row>
     <row r="3">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2023.62271014594</v>
+        <v>-1721.360076518147</v>
       </c>
       <c r="C3" t="n">
-        <v>3.467364576420949e-20</v>
+        <v>1.062453720751549e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2455.348777871135</v>
+        <v>-2408.692368605082</v>
       </c>
       <c r="C4" t="n">
-        <v>8.3253199717226e-27</v>
+        <v>1.447715956663276e-21</v>
       </c>
     </row>
     <row r="5">
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1704.622622102532</v>
+        <v>-2015.746588712411</v>
       </c>
       <c r="C5" t="n">
-        <v>4.189166898989183e-13</v>
+        <v>1.626506879120496e-14</v>
       </c>
     </row>
     <row r="6">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.35282941128263</v>
+        <v>54.60088440340157</v>
       </c>
       <c r="C6" t="n">
-        <v>7.720785797691282e-05</v>
+        <v>0.001297893514035409</v>
       </c>
     </row>
     <row r="7">
@@ -6240,10 +6240,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.7768206664651</v>
+        <v>112.8148705244631</v>
       </c>
       <c r="C7" t="n">
-        <v>1.193966689845494e-49</v>
+        <v>7.145783963755132e-39</v>
       </c>
     </row>
     <row r="8">
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03154317537647851</v>
+        <v>-0.03632537088739442</v>
       </c>
       <c r="C8" t="n">
-        <v>3.480938396135649e-07</v>
+        <v>2.82117656593887e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.720141946241194e-06</v>
+        <v>-3.968771471917343e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.554024162117855</v>
+        <v>0.2513445230675665</v>
       </c>
     </row>
     <row r="10">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.49327340817623</v>
+        <v>-19.64709858552918</v>
       </c>
       <c r="C10" t="n">
-        <v>1.054169056225222e-16</v>
+        <v>5.621633651173886e-15</v>
       </c>
     </row>
     <row r="11">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.698574441445861</v>
+        <v>0.2205176702533302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004310385511265983</v>
+        <v>0.9191243186299058</v>
       </c>
     </row>
     <row r="12">
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1689.606971789947</v>
+        <v>-2096.71386049519</v>
       </c>
       <c r="C12" t="n">
-        <v>9.616360994189231e-09</v>
+        <v>2.42179698891569e-10</v>
       </c>
     </row>
     <row r="13">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-464.1064699204601</v>
+        <v>-849.8495322268526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02990326745709516</v>
+        <v>0.0002855964960826098</v>
       </c>
     </row>
     <row r="14">
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6801.782415029267</v>
+        <v>7289.891814047494</v>
       </c>
       <c r="C14" t="n">
-        <v>1.329306038631754e-39</v>
+        <v>2.143327491658738e-33</v>
       </c>
     </row>
     <row r="15">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.21940010690442</v>
+        <v>25.59493398243709</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001205627448631571</v>
+        <v>2.356777833381281e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6393,10 +6393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5013.008105620762</v>
+        <v>5478.069834261969</v>
       </c>
       <c r="C2" t="n">
-        <v>3.766559751120097e-24</v>
+        <v>4.904895609766155e-24</v>
       </c>
     </row>
     <row r="3">
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2042.019669235056</v>
+        <v>-1664.200450639903</v>
       </c>
       <c r="C3" t="n">
-        <v>2.2195351360102e-19</v>
+        <v>4.767585576344323e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2391.190019915384</v>
+        <v>-2311.873817152024</v>
       </c>
       <c r="C4" t="n">
-        <v>8.296097590133834e-24</v>
+        <v>2.186296100641072e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1691.33522014878</v>
+        <v>-1868.886455655999</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166934563779252e-12</v>
+        <v>3.654238454639469e-12</v>
       </c>
     </row>
     <row r="6">
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.02435647327178</v>
+        <v>59.86149795081448</v>
       </c>
       <c r="C6" t="n">
-        <v>4.078089841497613e-05</v>
+        <v>0.0004096097769273786</v>
       </c>
     </row>
     <row r="7">
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2834205913139</v>
+        <v>106.5642620836551</v>
       </c>
       <c r="C7" t="n">
-        <v>2.825867354482425e-39</v>
+        <v>8.760637473018138e-33</v>
       </c>
     </row>
     <row r="8">
@@ -6471,10 +6471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0286432251534277</v>
+        <v>-0.03151026336175033</v>
       </c>
       <c r="C8" t="n">
-        <v>1.495010790335853e-05</v>
+        <v>7.979303404383658e-06</v>
       </c>
     </row>
     <row r="9">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.078007195066831e-06</v>
+        <v>-8.029552881236189e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2009093860456434</v>
+        <v>0.06780837808441628</v>
       </c>
     </row>
     <row r="10">
@@ -6497,10 +6497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.95366848011327</v>
+        <v>-20.30094805535333</v>
       </c>
       <c r="C10" t="n">
-        <v>7.261884374473172e-13</v>
+        <v>7.83013641863563e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.579324188356704</v>
+        <v>0.2850586523215952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213888788098582</v>
+        <v>0.8937991012181205</v>
       </c>
     </row>
     <row r="12">
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2146.148931284053</v>
+        <v>-1979.320389731111</v>
       </c>
       <c r="C12" t="n">
-        <v>1.192203428472985e-11</v>
+        <v>9.908595177139629e-09</v>
       </c>
     </row>
     <row r="13">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-831.2716727262718</v>
+        <v>-1006.071933535811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002661304359745321</v>
+        <v>2.796211551654034e-05</v>
       </c>
     </row>
     <row r="14">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6690.423802281445</v>
+        <v>7339.002041890466</v>
       </c>
       <c r="C14" t="n">
-        <v>2.77945864796306e-33</v>
+        <v>2.499912696650914e-35</v>
       </c>
     </row>
     <row r="15">
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.55744985934356</v>
+        <v>31.65961262905063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001266441876548995</v>
+        <v>1.058672645210235e-07</v>
       </c>
     </row>
   </sheetData>
@@ -6611,10 +6611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5581.761881160925</v>
+        <v>5231.294285949772</v>
       </c>
       <c r="C2" t="n">
-        <v>1.354602309284412e-27</v>
+        <v>9.233812663473654e-23</v>
       </c>
     </row>
     <row r="3">
@@ -6624,10 +6624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2238.697866370525</v>
+        <v>-1646.734441421343</v>
       </c>
       <c r="C3" t="n">
-        <v>8.082256387136116e-21</v>
+        <v>1.389790032369287e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2563.195006272783</v>
+        <v>-2247.750120179695</v>
       </c>
       <c r="C4" t="n">
-        <v>2.575873375605748e-25</v>
+        <v>2.338339315743702e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1783.901494018995</v>
+        <v>-1787.790621357192</v>
       </c>
       <c r="C5" t="n">
-        <v>1.782622685566892e-12</v>
+        <v>1.708574002857683e-12</v>
       </c>
     </row>
     <row r="6">
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.59872184282927</v>
+        <v>56.39969429411983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005174883496213591</v>
+        <v>0.0006061793548235015</v>
       </c>
     </row>
     <row r="7">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.6921919856996</v>
+        <v>108.6539084860669</v>
       </c>
       <c r="C7" t="n">
-        <v>1.160010836434343e-42</v>
+        <v>1.151033038020615e-35</v>
       </c>
     </row>
     <row r="8">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03354828992511694</v>
+        <v>-0.03955520454123813</v>
       </c>
       <c r="C8" t="n">
-        <v>7.799511253198006e-08</v>
+        <v>1.617818559488398e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.307701508839565e-06</v>
+        <v>-7.39524015104179e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4454905957207643</v>
+        <v>0.8256896261775555</v>
       </c>
     </row>
     <row r="10">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.43425293729117</v>
+        <v>-18.97134617720647</v>
       </c>
       <c r="C10" t="n">
-        <v>6.187304951728819e-18</v>
+        <v>1.079533052960581e-14</v>
       </c>
     </row>
     <row r="11">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.884500226319404</v>
+        <v>3.827812884704354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05970060313113738</v>
+        <v>0.07322523108420262</v>
       </c>
     </row>
     <row r="12">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2239.705364987564</v>
+        <v>-2518.876765019525</v>
       </c>
       <c r="C12" t="n">
-        <v>4.301356515665324e-13</v>
+        <v>7.288563324585594e-14</v>
       </c>
     </row>
     <row r="13">
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-446.6488545491927</v>
+        <v>-772.3171784328204</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0446678446708987</v>
+        <v>0.001104369159639161</v>
       </c>
     </row>
     <row r="14">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6954.514121285279</v>
+        <v>7513.293020338902</v>
       </c>
       <c r="C14" t="n">
-        <v>4.726376483172423e-36</v>
+        <v>1.179713002261727e-37</v>
       </c>
     </row>
     <row r="15">
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.81391715619684</v>
+        <v>24.35455125806382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03321882091330124</v>
+        <v>5.318556336064001e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6829,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4683.851604683477</v>
+        <v>5616.685791051753</v>
       </c>
       <c r="C2" t="n">
-        <v>8.146619490917578e-22</v>
+        <v>9.59858178799719e-26</v>
       </c>
     </row>
     <row r="3">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2180.790623569167</v>
+        <v>-1730.841516396735</v>
       </c>
       <c r="C3" t="n">
-        <v>7.155503937612703e-23</v>
+        <v>9.184697950679777e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2549.727335158318</v>
+        <v>-2327.521757832037</v>
       </c>
       <c r="C4" t="n">
-        <v>2.714436523256122e-28</v>
+        <v>3.423866597899728e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1863.601560200264</v>
+        <v>-1925.170924310049</v>
       </c>
       <c r="C5" t="n">
-        <v>3.041400780964724e-15</v>
+        <v>1.985121479830915e-13</v>
       </c>
     </row>
     <row r="6">
@@ -6881,10 +6881,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.29417534499444</v>
+        <v>59.64666898296582</v>
       </c>
       <c r="C6" t="n">
-        <v>2.498385850615058e-05</v>
+        <v>0.0002879655135403837</v>
       </c>
     </row>
     <row r="7">
@@ -6894,10 +6894,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.8571912748714</v>
+        <v>104.3414380513097</v>
       </c>
       <c r="C7" t="n">
-        <v>3.793570197098561e-41</v>
+        <v>1.142407510669111e-33</v>
       </c>
     </row>
     <row r="8">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03189162646961383</v>
+        <v>-0.03908503998125969</v>
       </c>
       <c r="C8" t="n">
-        <v>7.207815135716412e-07</v>
+        <v>7.81301463741845e-09</v>
       </c>
     </row>
     <row r="9">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.271840445981672e-06</v>
+        <v>-1.723528815566908e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.465582725505279</v>
+        <v>0.6019851903171008</v>
       </c>
     </row>
     <row r="10">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.02733364558095</v>
+        <v>-20.16211153150027</v>
       </c>
       <c r="C10" t="n">
-        <v>4.283189170557399e-13</v>
+        <v>3.902214009370241e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.737734891889432</v>
+        <v>0.6136020353123071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004860198714832061</v>
+        <v>0.7808127415631503</v>
       </c>
     </row>
     <row r="12">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2085.617652287934</v>
+        <v>-2368.055366457765</v>
       </c>
       <c r="C12" t="n">
-        <v>2.060744624126499e-11</v>
+        <v>7.499281261527656e-13</v>
       </c>
     </row>
     <row r="13">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-620.0684466728603</v>
+        <v>-766.9632089097781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005241420368629004</v>
+        <v>0.001204841740817729</v>
       </c>
     </row>
     <row r="14">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7265.533184788334</v>
+        <v>7857.423751409393</v>
       </c>
       <c r="C14" t="n">
-        <v>2.695405394517277e-40</v>
+        <v>8.924244920284829e-42</v>
       </c>
     </row>
     <row r="15">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.90355432154002</v>
+        <v>25.9826853598139</v>
       </c>
       <c r="C15" t="n">
-        <v>4.992090912340519e-05</v>
+        <v>1.291553641822511e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7047,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5181.597168828934</v>
+        <v>5531.966235170658</v>
       </c>
       <c r="C2" t="n">
-        <v>1.303913007116094e-26</v>
+        <v>7.489423308531393e-24</v>
       </c>
     </row>
     <row r="3">
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1925.610793080828</v>
+        <v>-1790.479860879477</v>
       </c>
       <c r="C3" t="n">
-        <v>1.665277517478039e-17</v>
+        <v>1.295452775491726e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2294.087084906707</v>
+        <v>-2410.694542919479</v>
       </c>
       <c r="C4" t="n">
-        <v>1.225212516541984e-22</v>
+        <v>3.093571740799611e-20</v>
       </c>
     </row>
     <row r="5">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1533.498640981771</v>
+        <v>-2069.029477507424</v>
       </c>
       <c r="C5" t="n">
-        <v>2.311681601057419e-10</v>
+        <v>2.106563294620019e-14</v>
       </c>
     </row>
     <row r="6">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.3158220986433</v>
+        <v>47.38477631128157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001604966790152845</v>
+        <v>0.00411194507082156</v>
       </c>
     </row>
     <row r="7">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.1422996636741</v>
+        <v>110.4974576091807</v>
       </c>
       <c r="C7" t="n">
-        <v>6.737208499072519e-50</v>
+        <v>3.143242874787311e-36</v>
       </c>
     </row>
     <row r="8">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0332563118472033</v>
+        <v>-0.03924345264495222</v>
       </c>
       <c r="C8" t="n">
-        <v>1.085285590239147e-07</v>
+        <v>2.502338592617277e-08</v>
       </c>
     </row>
     <row r="9">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.528261080292969e-06</v>
+        <v>-8.746124592651311e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3770869841939657</v>
+        <v>0.07464466940735488</v>
       </c>
     </row>
     <row r="10">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.68270833192203</v>
+        <v>-19.44369461209912</v>
       </c>
       <c r="C10" t="n">
-        <v>4.696968791255177e-13</v>
+        <v>1.507476563692356e-14</v>
       </c>
     </row>
     <row r="11">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.101995438537895</v>
+        <v>0.7048191958213064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009286538423443222</v>
+        <v>0.754064850034445</v>
       </c>
     </row>
     <row r="12">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2089.618130506484</v>
+        <v>-2082.996594297962</v>
       </c>
       <c r="C12" t="n">
-        <v>4.703966040666771e-12</v>
+        <v>3.116415518727825e-10</v>
       </c>
     </row>
     <row r="13">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-766.7145271407256</v>
+        <v>-684.3892006677503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000393272097041843</v>
+        <v>0.003908068804043291</v>
       </c>
     </row>
     <row r="14">
@@ -7203,10 +7203,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6122.820908295489</v>
+        <v>7906.017878109876</v>
       </c>
       <c r="C14" t="n">
-        <v>5.929292665367534e-31</v>
+        <v>2.577843263380816e-40</v>
       </c>
     </row>
     <row r="15">
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.15124125254133</v>
+        <v>27.83471023363839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03569621731223629</v>
+        <v>3.793345738660807e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4488.468467576218</v>
+        <v>5544.366681243675</v>
       </c>
       <c r="C2" t="n">
-        <v>1.918130828714354e-20</v>
+        <v>2.581050468754308e-25</v>
       </c>
     </row>
     <row r="3">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1947.374520396261</v>
+        <v>-1773.317056270851</v>
       </c>
       <c r="C3" t="n">
-        <v>5.125883692163394e-18</v>
+        <v>1.906445850230695e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2360.944745142801</v>
+        <v>-2361.314645749248</v>
       </c>
       <c r="C4" t="n">
-        <v>7.6687086743035e-24</v>
+        <v>7.584736938558697e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1562.293836399839</v>
+        <v>-1995.083243683614</v>
       </c>
       <c r="C5" t="n">
-        <v>8.175262958926194e-11</v>
+        <v>2.768064176148239e-14</v>
       </c>
     </row>
     <row r="6">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.48086310682353</v>
+        <v>68.22793442058381</v>
       </c>
       <c r="C6" t="n">
-        <v>3.980224017009365e-05</v>
+        <v>4.401398939433609e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.5354248283618</v>
+        <v>109.0967251593792</v>
       </c>
       <c r="C7" t="n">
-        <v>3.549888777424561e-43</v>
+        <v>1.930792246026248e-33</v>
       </c>
     </row>
     <row r="8">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02745998239122086</v>
+        <v>-0.03256305649739943</v>
       </c>
       <c r="C8" t="n">
-        <v>5.11127811994524e-06</v>
+        <v>2.075962768298023e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.337350083212666e-06</v>
+        <v>-2.531122121267116e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2892234139774958</v>
+        <v>0.4287783286632227</v>
       </c>
     </row>
     <row r="10">
@@ -7369,10 +7369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.12279404003628</v>
+        <v>-18.89910501906757</v>
       </c>
       <c r="C10" t="n">
-        <v>3.306697039667488e-17</v>
+        <v>4.241096455795128e-14</v>
       </c>
     </row>
     <row r="11">
@@ -7382,10 +7382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.533936874923711</v>
+        <v>0.7822361862942437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007092981511337004</v>
+        <v>0.7123185985898062</v>
       </c>
     </row>
     <row r="12">
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1787.438635272609</v>
+        <v>-2039.339394288179</v>
       </c>
       <c r="C12" t="n">
-        <v>8.155558507937162e-09</v>
+        <v>1.649187569356799e-09</v>
       </c>
     </row>
     <row r="13">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-557.8722525504194</v>
+        <v>-977.4946915172176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01036225359381975</v>
+        <v>5.747836129409902e-05</v>
       </c>
     </row>
     <row r="14">
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6373.886568229122</v>
+        <v>6860.704942999007</v>
       </c>
       <c r="C14" t="n">
-        <v>2.343323314881811e-31</v>
+        <v>6.325606133269287e-31</v>
       </c>
     </row>
     <row r="15">
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.14416023656015</v>
+        <v>29.11432901116871</v>
       </c>
       <c r="C15" t="n">
-        <v>1.768504989257923e-05</v>
+        <v>1.102850565571897e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5466.997790469683</v>
+        <v>5138.410091825728</v>
       </c>
       <c r="C2" t="n">
-        <v>2.288526895676857e-27</v>
+        <v>6.108545623958409e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2398.447726684622</v>
+        <v>-1692.306110168635</v>
       </c>
       <c r="C3" t="n">
-        <v>9.605942976105816e-24</v>
+        <v>7.174262921491323e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2773.598580538557</v>
+        <v>-2243.595830021061</v>
       </c>
       <c r="C4" t="n">
-        <v>1.262428937267639e-28</v>
+        <v>1.468495668764336e-19</v>
       </c>
     </row>
     <row r="5">
@@ -7522,10 +7522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1978.537460785396</v>
+        <v>-1910.514923791469</v>
       </c>
       <c r="C5" t="n">
-        <v>6.242067605878396e-15</v>
+        <v>9.92306672904091e-14</v>
       </c>
     </row>
     <row r="6">
@@ -7535,10 +7535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.53689649415657</v>
+        <v>78.6409860314587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001037587011125586</v>
+        <v>1.821167136903017e-06</v>
       </c>
     </row>
     <row r="7">
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7554426297599</v>
+        <v>103.8766669668695</v>
       </c>
       <c r="C7" t="n">
-        <v>1.677810805961214e-39</v>
+        <v>1.761791109268861e-32</v>
       </c>
     </row>
     <row r="8">
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03198023006918228</v>
+        <v>-0.03577429665268689</v>
       </c>
       <c r="C8" t="n">
-        <v>1.57954264370878e-06</v>
+        <v>9.066841491398708e-08</v>
       </c>
     </row>
     <row r="9">
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.961247627457648e-06</v>
+        <v>-4.484701267486149e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3619178066200658</v>
+        <v>0.1786777470063919</v>
       </c>
     </row>
     <row r="10">
@@ -7587,10 +7587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.10430093073101</v>
+        <v>-18.17210265822694</v>
       </c>
       <c r="C10" t="n">
-        <v>4.652948590669212e-16</v>
+        <v>2.856474894162613e-13</v>
       </c>
     </row>
     <row r="11">
@@ -7600,10 +7600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.841477066149061</v>
+        <v>0.7493256937064503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01788442659731383</v>
+        <v>0.7224201590420878</v>
       </c>
     </row>
     <row r="12">
@@ -7613,10 +7613,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1952.812072926115</v>
+        <v>-2253.632936697704</v>
       </c>
       <c r="C12" t="n">
-        <v>5.368487332302688e-10</v>
+        <v>3.219748775461609e-11</v>
       </c>
     </row>
     <row r="13">
@@ -7626,10 +7626,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-487.5803278260058</v>
+        <v>-1104.563945468488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03262251366507282</v>
+        <v>4.517772954440805e-06</v>
       </c>
     </row>
     <row r="14">
@@ -7639,10 +7639,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6648.364893572731</v>
+        <v>7968.023510363459</v>
       </c>
       <c r="C14" t="n">
-        <v>2.307956682335183e-33</v>
+        <v>5.638067902342683e-38</v>
       </c>
     </row>
     <row r="15">
@@ -7652,10 +7652,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.05617667994053</v>
+        <v>33.92242962916715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00608111761395128</v>
+        <v>3.659970145209785e-08</v>
       </c>
     </row>
   </sheetData>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4878.441653995626</v>
+        <v>5540.559287669077</v>
       </c>
       <c r="C2" t="n">
-        <v>3.467798589648918e-23</v>
+        <v>1.841247798722162e-24</v>
       </c>
     </row>
     <row r="3">
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2040.358838179214</v>
+        <v>-1618.113625391145</v>
       </c>
       <c r="C3" t="n">
-        <v>1.64684121036925e-19</v>
+        <v>4.271475159963533e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7727,10 +7727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2392.197954051971</v>
+        <v>-2152.152593708906</v>
       </c>
       <c r="C4" t="n">
-        <v>3.013998797902651e-24</v>
+        <v>2.533201473609064e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7740,10 +7740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1709.440165792095</v>
+        <v>-1799.554157066329</v>
       </c>
       <c r="C5" t="n">
-        <v>1.640674150498676e-12</v>
+        <v>9.073257019591505e-12</v>
       </c>
     </row>
     <row r="6">
@@ -7753,10 +7753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.95356816045661</v>
+        <v>57.06249517069761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001039539028377468</v>
+        <v>0.0004632181008789897</v>
       </c>
     </row>
     <row r="7">
@@ -7766,10 +7766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.469851957244</v>
+        <v>108.0165514165028</v>
       </c>
       <c r="C7" t="n">
-        <v>1.76240715385556e-39</v>
+        <v>2.134963746982204e-36</v>
       </c>
     </row>
     <row r="8">
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03177581727777377</v>
+        <v>-0.04043097296605806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.774920566839145e-06</v>
+        <v>5.62745081888829e-09</v>
       </c>
     </row>
     <row r="9">
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.588075568438464e-06</v>
+        <v>-2.769656847171408e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1238287421242457</v>
+        <v>0.4154622915198422</v>
       </c>
     </row>
     <row r="10">
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.32474870474984</v>
+        <v>-18.68460296766434</v>
       </c>
       <c r="C10" t="n">
-        <v>2.425655039876163e-15</v>
+        <v>2.463237852338353e-14</v>
       </c>
     </row>
     <row r="11">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.196290325289402</v>
+        <v>-0.4086131149043177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03897682389980314</v>
+        <v>0.851411035922082</v>
       </c>
     </row>
     <row r="12">
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1930.77078404538</v>
+        <v>-2446.278024761526</v>
       </c>
       <c r="C12" t="n">
-        <v>5.6920443329823e-10</v>
+        <v>1.019875492094199e-13</v>
       </c>
     </row>
     <row r="13">
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-590.915841591749</v>
+        <v>-936.6050960173011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007190810049549448</v>
+        <v>5.930118441118776e-05</v>
       </c>
     </row>
     <row r="14">
@@ -7857,10 +7857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7163.27854408816</v>
+        <v>7374.76006215754</v>
       </c>
       <c r="C14" t="n">
-        <v>3.857695287084025e-39</v>
+        <v>8.66465558680656e-36</v>
       </c>
     </row>
     <row r="15">
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.38109889261076</v>
+        <v>29.03229118998826</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001651515288465351</v>
+        <v>8.46931330411199e-07</v>
       </c>
     </row>
   </sheetData>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5866.502623032868</v>
+        <v>5756.180697788231</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917859759286223e-31</v>
+        <v>5.549741731305467e-27</v>
       </c>
     </row>
     <row r="3">
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2436.498317319002</v>
+        <v>-1444.545977513487</v>
       </c>
       <c r="C3" t="n">
-        <v>7.163441065940162e-26</v>
+        <v>4.207680686797031e-09</v>
       </c>
     </row>
     <row r="4">
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2726.463673524513</v>
+        <v>-1994.866043632439</v>
       </c>
       <c r="C4" t="n">
-        <v>6.258987336205642e-30</v>
+        <v>7.025375668946565e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7958,10 +7958,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2035.764657823048</v>
+        <v>-1493.267132649143</v>
       </c>
       <c r="C5" t="n">
-        <v>1.214407088983386e-16</v>
+        <v>1.558664999015566e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.19555379816076</v>
+        <v>50.27057129628275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001397885191478166</v>
+        <v>0.002240820514735378</v>
       </c>
     </row>
     <row r="7">
@@ -7984,10 +7984,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.1361683004294</v>
+        <v>114.1555661153892</v>
       </c>
       <c r="C7" t="n">
-        <v>3.696018712718816e-42</v>
+        <v>3.516410461615592e-41</v>
       </c>
     </row>
     <row r="8">
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03030982169219509</v>
+        <v>-0.03930336791408678</v>
       </c>
       <c r="C8" t="n">
-        <v>2.610903985978245e-06</v>
+        <v>1.999396198521767e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.120446547563181e-06</v>
+        <v>3.928263954346778e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02426046720885055</v>
+        <v>0.9904605456016142</v>
       </c>
     </row>
     <row r="10">
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.29336236358894</v>
+        <v>-17.21347700046949</v>
       </c>
       <c r="C10" t="n">
-        <v>9.090257602260103e-17</v>
+        <v>1.996165136519106e-12</v>
       </c>
     </row>
     <row r="11">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.943398424917747</v>
+        <v>1.856151050047352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1453088447165168</v>
+        <v>0.3716840566518674</v>
       </c>
     </row>
     <row r="12">
@@ -8049,10 +8049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2074.338769676083</v>
+        <v>-2650.065162097451</v>
       </c>
       <c r="C12" t="n">
-        <v>3.140545264623208e-11</v>
+        <v>3.842945814820622e-15</v>
       </c>
     </row>
     <row r="13">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-542.3972435336241</v>
+        <v>-1078.061709442731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01412132270103778</v>
+        <v>3.113210910720181e-06</v>
       </c>
     </row>
     <row r="14">
@@ -8075,10 +8075,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7085.226251762428</v>
+        <v>6172.394452569132</v>
       </c>
       <c r="C14" t="n">
-        <v>4.163047851187216e-38</v>
+        <v>2.178927914694818e-24</v>
       </c>
     </row>
     <row r="15">
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.82860064310042</v>
+        <v>17.72420009792923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0473191583460117</v>
+        <v>0.00243919925587161</v>
       </c>
     </row>
   </sheetData>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5378.886654930847</v>
+        <v>5929.804038252121</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65256083597092e-26</v>
+        <v>9.27344207760328e-28</v>
       </c>
     </row>
     <row r="3">
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2348.018351073193</v>
+        <v>-1925.60150362392</v>
       </c>
       <c r="C3" t="n">
-        <v>8.164772437730807e-24</v>
+        <v>2.731676907905136e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8163,10 +8163,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2738.007197169523</v>
+        <v>-2489.232044037554</v>
       </c>
       <c r="C4" t="n">
-        <v>4.077980015930732e-29</v>
+        <v>5.607294623648553e-21</v>
       </c>
     </row>
     <row r="5">
@@ -8176,10 +8176,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1923.173589371144</v>
+        <v>-2107.900952398817</v>
       </c>
       <c r="C5" t="n">
-        <v>9.103166216338156e-15</v>
+        <v>1.63186241826723e-14</v>
       </c>
     </row>
     <row r="6">
@@ -8189,10 +8189,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.74834756742143</v>
+        <v>59.67902651722596</v>
       </c>
       <c r="C6" t="n">
-        <v>8.154683045426792e-05</v>
+        <v>0.0003690927543722721</v>
       </c>
     </row>
     <row r="7">
@@ -8202,10 +8202,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.1772588835022</v>
+        <v>106.5318019894626</v>
       </c>
       <c r="C7" t="n">
-        <v>1.392379522662959e-39</v>
+        <v>4.458687926123843e-33</v>
       </c>
     </row>
     <row r="8">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02843409813917549</v>
+        <v>-0.03472892624376273</v>
       </c>
       <c r="C8" t="n">
-        <v>1.664929318419792e-05</v>
+        <v>4.36905870006973e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8228,10 +8228,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.905288512041077e-06</v>
+        <v>-1.316856876506925e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199015824290132</v>
+        <v>0.692484230974876</v>
       </c>
     </row>
     <row r="10">
@@ -8241,10 +8241,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.34238355599751</v>
+        <v>-19.07780206238218</v>
       </c>
       <c r="C10" t="n">
-        <v>1.210236942513071e-15</v>
+        <v>1.19409693534678e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.521615027317415</v>
+        <v>0.2503300996902764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02549097459131135</v>
+        <v>0.9081193821199932</v>
       </c>
     </row>
     <row r="12">
@@ -8267,10 +8267,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2049.200894226106</v>
+        <v>-2232.843522369899</v>
       </c>
       <c r="C12" t="n">
-        <v>1.508488195073276e-10</v>
+        <v>2.175702476518514e-11</v>
       </c>
     </row>
     <row r="13">
@@ -8280,10 +8280,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-680.208293216112</v>
+        <v>-1081.819820095903</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002718728342526803</v>
+        <v>5.807404491078042e-06</v>
       </c>
     </row>
     <row r="14">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6839.73640681998</v>
+        <v>6875.29904249519</v>
       </c>
       <c r="C14" t="n">
-        <v>2.499676699741906e-35</v>
+        <v>2.569754663199901e-29</v>
       </c>
     </row>
     <row r="15">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.4153810438232</v>
+        <v>27.451920157575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00197301636525816</v>
+        <v>3.812342260382965e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5281.671619031329</v>
+        <v>5329.52750728105</v>
       </c>
       <c r="C2" t="n">
-        <v>2.034463165629327e-28</v>
+        <v>1.492716446233024e-24</v>
       </c>
     </row>
     <row r="3">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2348.664211401007</v>
+        <v>-1486.064135230068</v>
       </c>
       <c r="C3" t="n">
-        <v>4.478027054638682e-25</v>
+        <v>1.631910936238956e-09</v>
       </c>
     </row>
     <row r="4">
@@ -8381,10 +8381,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2636.433859288101</v>
+        <v>-2103.127959052201</v>
       </c>
       <c r="C4" t="n">
-        <v>2.669237849117242e-29</v>
+        <v>2.069134926422629e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8394,10 +8394,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1948.239721177798</v>
+        <v>-1671.107197025729</v>
       </c>
       <c r="C5" t="n">
-        <v>5.519086565016635e-16</v>
+        <v>3.164221735529166e-10</v>
       </c>
     </row>
     <row r="6">
@@ -8407,10 +8407,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.51695821813152</v>
+        <v>60.69012396763357</v>
       </c>
       <c r="C6" t="n">
-        <v>1.695273212114544e-05</v>
+        <v>0.0001937436722182344</v>
       </c>
     </row>
     <row r="7">
@@ -8420,10 +8420,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.7177196711425</v>
+        <v>111.5607487213544</v>
       </c>
       <c r="C7" t="n">
-        <v>1.474576906511711e-51</v>
+        <v>4.001178438078092e-37</v>
       </c>
     </row>
     <row r="8">
@@ -8433,10 +8433,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03368051358288131</v>
+        <v>-0.03559276304415885</v>
       </c>
       <c r="C8" t="n">
-        <v>3.007405964956742e-08</v>
+        <v>1.268986627012105e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.740309740449687e-06</v>
+        <v>-4.938657585061576e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1904397594284341</v>
+        <v>0.2812661004775267</v>
       </c>
     </row>
     <row r="10">
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.52155635960493</v>
+        <v>-18.32546639844274</v>
       </c>
       <c r="C10" t="n">
-        <v>1.188815759172307e-13</v>
+        <v>6.815309030613016e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.321511935576543</v>
+        <v>1.073976110824509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004255283378914487</v>
+        <v>0.6028762020939528</v>
       </c>
     </row>
     <row r="12">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2117.370213983987</v>
+        <v>-2387.272459862265</v>
       </c>
       <c r="C12" t="n">
-        <v>5.248251854262872e-12</v>
+        <v>5.08152562808338e-13</v>
       </c>
     </row>
     <row r="13">
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-381.2108479447743</v>
+        <v>-1095.507220224464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07175386591124391</v>
+        <v>3.477061613036566e-06</v>
       </c>
     </row>
     <row r="14">
@@ -8511,10 +8511,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6285.456637675486</v>
+        <v>7641.52819465455</v>
       </c>
       <c r="C14" t="n">
-        <v>5.828734365412959e-34</v>
+        <v>7.78994988766881e-40</v>
       </c>
     </row>
     <row r="15">
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.35709419412646</v>
+        <v>26.71429951006672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01883963620496821</v>
+        <v>8.073977891898395e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5193.285009244842</v>
+        <v>5559.065584112381</v>
       </c>
       <c r="C2" t="n">
-        <v>5.033918625677105e-25</v>
+        <v>8.566335947915058e-26</v>
       </c>
     </row>
     <row r="3">
@@ -8586,10 +8586,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1930.226094830047</v>
+        <v>-1727.139660608223</v>
       </c>
       <c r="C3" t="n">
-        <v>9.334961308628054e-17</v>
+        <v>1.514158823782171e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2257.659944038882</v>
+        <v>-2335.127334457728</v>
       </c>
       <c r="C4" t="n">
-        <v>5.619170728622584e-21</v>
+        <v>1.752437594997688e-21</v>
       </c>
     </row>
     <row r="5">
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1521.88490550477</v>
+        <v>-1933.681988994496</v>
       </c>
       <c r="C5" t="n">
-        <v>8.770180379685384e-10</v>
+        <v>2.380082655395261e-14</v>
       </c>
     </row>
     <row r="6">
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.86415331734499</v>
+        <v>62.99514052032634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001608281725870816</v>
+        <v>0.0001002092288391377</v>
       </c>
     </row>
     <row r="7">
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.935183738523</v>
+        <v>109.4735291518899</v>
       </c>
       <c r="C7" t="n">
-        <v>2.531853588642784e-41</v>
+        <v>7.203344169055144e-36</v>
       </c>
     </row>
     <row r="8">
@@ -8651,10 +8651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03287438671214433</v>
+        <v>-0.03464737011682208</v>
       </c>
       <c r="C8" t="n">
-        <v>2.403080616172298e-07</v>
+        <v>1.460051847515299e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.029434652763007e-06</v>
+        <v>-4.182381984505468e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.752324424064262</v>
+        <v>0.2093728514668539</v>
       </c>
     </row>
     <row r="10">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.02672210318602</v>
+        <v>-19.73358609041829</v>
       </c>
       <c r="C10" t="n">
-        <v>1.252446285726499e-16</v>
+        <v>4.912465911030864e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8690,10 +8690,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.550756604355827</v>
+        <v>1.215090359377937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02425555122904375</v>
+        <v>0.5747015473374052</v>
       </c>
     </row>
     <row r="12">
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2119.437121991691</v>
+        <v>-2209.240900499887</v>
       </c>
       <c r="C12" t="n">
-        <v>4.375558550083874e-12</v>
+        <v>1.766164416576568e-11</v>
       </c>
     </row>
     <row r="13">
@@ -8716,10 +8716,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-554.4856172225874</v>
+        <v>-830.1997533813972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01222542152776252</v>
+        <v>0.0004514637489886034</v>
       </c>
     </row>
     <row r="14">
@@ -8729,10 +8729,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6901.629920171229</v>
+        <v>7409.021532034483</v>
       </c>
       <c r="C14" t="n">
-        <v>2.740381828774979e-36</v>
+        <v>7.973125047745137e-36</v>
       </c>
     </row>
     <row r="15">
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.74060057175603</v>
+        <v>25.56416601545153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04847788604462708</v>
+        <v>1.622569761056025e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8791,10 +8791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4834.33305119408</v>
+        <v>5385.951144944824</v>
       </c>
       <c r="C2" t="n">
-        <v>1.280676434412209e-22</v>
+        <v>3.872736362269729e-24</v>
       </c>
     </row>
     <row r="3">
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2100.610304914543</v>
+        <v>-1531.995030464439</v>
       </c>
       <c r="C3" t="n">
-        <v>2.137497947365495e-20</v>
+        <v>1.023894147873699e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8817,10 +8817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2485.782796700882</v>
+        <v>-2014.246744052957</v>
       </c>
       <c r="C4" t="n">
-        <v>4.614238355956181e-26</v>
+        <v>2.413749550905163e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1682.1294308424</v>
+        <v>-1801.499272051959</v>
       </c>
       <c r="C5" t="n">
-        <v>3.402831343049377e-12</v>
+        <v>1.214371617432386e-12</v>
       </c>
     </row>
     <row r="6">
@@ -8843,10 +8843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.39032549615759</v>
+        <v>64.49110855039733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007767057332852363</v>
+        <v>5.932648217888084e-05</v>
       </c>
     </row>
     <row r="7">
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.6436557071318</v>
+        <v>108.791920597054</v>
       </c>
       <c r="C7" t="n">
-        <v>5.036624472174376e-40</v>
+        <v>1.018532456897649e-38</v>
       </c>
     </row>
     <row r="8">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03198976978228726</v>
+        <v>-0.04534514454684613</v>
       </c>
       <c r="C8" t="n">
-        <v>4.613631733287705e-07</v>
+        <v>7.502711040525557e-12</v>
       </c>
     </row>
     <row r="9">
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.091049642489634e-05</v>
+        <v>-7.743870805325308e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02496226953131801</v>
+        <v>0.8015619025150479</v>
       </c>
     </row>
     <row r="10">
@@ -8895,10 +8895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.79440897174202</v>
+        <v>-18.34498474189565</v>
       </c>
       <c r="C10" t="n">
-        <v>3.002728347721918e-14</v>
+        <v>2.644606557037932e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.506326233523192</v>
+        <v>-0.9718385618419991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009308803111958442</v>
+        <v>0.6520731527679757</v>
       </c>
     </row>
     <row r="12">
@@ -8921,10 +8921,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1843.807550062691</v>
+        <v>-2465.231130260986</v>
       </c>
       <c r="C12" t="n">
-        <v>2.36513038003114e-09</v>
+        <v>1.360990566645361e-13</v>
       </c>
     </row>
     <row r="13">
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-598.2316770863482</v>
+        <v>-749.0320125000638</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006600467976550456</v>
+        <v>0.001061839192806909</v>
       </c>
     </row>
     <row r="14">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6567.988354634636</v>
+        <v>7999.848922081994</v>
       </c>
       <c r="C14" t="n">
-        <v>4.822139567883247e-34</v>
+        <v>4.539373279795402e-42</v>
       </c>
     </row>
     <row r="15">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.84491977796507</v>
+        <v>27.21303758390799</v>
       </c>
       <c r="C15" t="n">
-        <v>2.027157575104869e-05</v>
+        <v>3.026856639326285e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4970.883565697963</v>
+        <v>5424.982124705504</v>
       </c>
       <c r="C2" t="n">
-        <v>3.327175737412629e-24</v>
+        <v>7.635530122053665e-22</v>
       </c>
     </row>
     <row r="3">
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2155.60247947988</v>
+        <v>-1794.530944823937</v>
       </c>
       <c r="C3" t="n">
-        <v>4.916692337954975e-22</v>
+        <v>4.933787843535539e-13</v>
       </c>
     </row>
     <row r="4">
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2584.475369656018</v>
+        <v>-2431.678145483407</v>
       </c>
       <c r="C4" t="n">
-        <v>3.75129496924939e-28</v>
+        <v>9.577518894948358e-21</v>
       </c>
     </row>
     <row r="5">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1902.777441591668</v>
+        <v>-1933.207729465275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.872988584618792e-15</v>
+        <v>7.452254346351704e-13</v>
       </c>
     </row>
     <row r="6">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.92358964646144</v>
+        <v>55.29522252530807</v>
       </c>
       <c r="C6" t="n">
-        <v>7.826540670331122e-05</v>
+        <v>0.001399619201588659</v>
       </c>
     </row>
     <row r="7">
@@ -9074,10 +9074,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8856062611443</v>
+        <v>106.2698873267396</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1377273512612e-43</v>
+        <v>1.879929039937764e-32</v>
       </c>
     </row>
     <row r="8">
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02691427534021025</v>
+        <v>-0.03669190466413412</v>
       </c>
       <c r="C8" t="n">
-        <v>2.872277885424508e-05</v>
+        <v>2.708551042218228e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.450505672600833e-06</v>
+        <v>-3.521279594471719e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4119698409885807</v>
+        <v>0.3168837778581489</v>
       </c>
     </row>
     <row r="10">
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.24759907369868</v>
+        <v>-18.74298877741624</v>
       </c>
       <c r="C10" t="n">
-        <v>3.018991483739599e-15</v>
+        <v>7.053395050797342e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.485764481701181</v>
+        <v>2.723719733907028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005878273738162324</v>
+        <v>0.2167087499043411</v>
       </c>
     </row>
     <row r="12">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1891.639926456217</v>
+        <v>-2078.337421050921</v>
       </c>
       <c r="C12" t="n">
-        <v>1.006260200514176e-09</v>
+        <v>3.152536759957654e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9152,10 +9152,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-791.9896923629087</v>
+        <v>-796.0760589951968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004467873635285622</v>
+        <v>0.001411501334432528</v>
       </c>
     </row>
     <row r="14">
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6959.809203337511</v>
+        <v>6956.003255612448</v>
       </c>
       <c r="C14" t="n">
-        <v>1.543539287720703e-34</v>
+        <v>4.515719600145349e-29</v>
       </c>
     </row>
     <row r="15">
@@ -9178,10 +9178,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.46729933387568</v>
+        <v>27.58543742659185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005558732795699099</v>
+        <v>1.26372147079763e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9227,10 +9227,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5430.466629741137</v>
+        <v>5821.876846199245</v>
       </c>
       <c r="C2" t="n">
-        <v>1.371123876198837e-28</v>
+        <v>4.989843531222082e-28</v>
       </c>
     </row>
     <row r="3">
@@ -9240,10 +9240,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2344.424099213276</v>
+        <v>-1781.583406441942</v>
       </c>
       <c r="C3" t="n">
-        <v>2.051570617641907e-23</v>
+        <v>1.070206429791993e-13</v>
       </c>
     </row>
     <row r="4">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2682.347176968379</v>
+        <v>-2307.988834600122</v>
       </c>
       <c r="C4" t="n">
-        <v>6.039915451148685e-28</v>
+        <v>4.336252674637544e-20</v>
       </c>
     </row>
     <row r="5">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2018.632402353402</v>
+        <v>-1975.556425047238</v>
       </c>
       <c r="C5" t="n">
-        <v>5.844923505513809e-16</v>
+        <v>3.133667574507253e-14</v>
       </c>
     </row>
     <row r="6">
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.99071446145247</v>
+        <v>70.00151113007351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001004626604856433</v>
+        <v>4.171185641700301e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1593052936007</v>
+        <v>108.6334695935107</v>
       </c>
       <c r="C7" t="n">
-        <v>2.909514580098662e-47</v>
+        <v>1.823243183137497e-35</v>
       </c>
     </row>
     <row r="8">
@@ -9305,10 +9305,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02948901756308051</v>
+        <v>-0.03730444179201052</v>
       </c>
       <c r="C8" t="n">
-        <v>1.776365104522267e-06</v>
+        <v>5.385351048848788e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9318,10 +9318,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.88621882021164e-06</v>
+        <v>-1.979709485880284e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3194151163267868</v>
+        <v>0.5473879306271063</v>
       </c>
     </row>
     <row r="10">
@@ -9331,10 +9331,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.85036737995138</v>
+        <v>-18.88532846814393</v>
       </c>
       <c r="C10" t="n">
-        <v>8.920096253268553e-18</v>
+        <v>1.981814508897623e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9344,10 +9344,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.517274013003572</v>
+        <v>-0.1469163273001275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07083131942079329</v>
+        <v>0.9446115954184933</v>
       </c>
     </row>
     <row r="12">
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1931.940104862328</v>
+        <v>-2434.910639156149</v>
       </c>
       <c r="C12" t="n">
-        <v>3.907149569871895e-10</v>
+        <v>9.87618982229022e-13</v>
       </c>
     </row>
     <row r="13">
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-490.2518864232161</v>
+        <v>-1032.822179976016</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02281608042986808</v>
+        <v>1.615484155290828e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6602.06540863995</v>
+        <v>7440.11914862368</v>
       </c>
       <c r="C14" t="n">
-        <v>1.567296023003435e-35</v>
+        <v>9.992140329270756e-37</v>
       </c>
     </row>
     <row r="15">
@@ -9396,10 +9396,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.18887539999305</v>
+        <v>25.06300511573489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002139397940099767</v>
+        <v>3.109754641651571e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4564.302301436896</v>
+        <v>5300.509620457195</v>
       </c>
       <c r="C2" t="n">
-        <v>9.655397883501768e-21</v>
+        <v>1.001559143308e-22</v>
       </c>
     </row>
     <row r="3">
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1800.642447226057</v>
+        <v>-1655.223333956468</v>
       </c>
       <c r="C3" t="n">
-        <v>6.656642083053597e-16</v>
+        <v>1.714487465165469e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9471,10 +9471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2070.154682350901</v>
+        <v>-2330.631288073673</v>
       </c>
       <c r="C4" t="n">
-        <v>4.223583223572509e-19</v>
+        <v>3.775874018735991e-21</v>
       </c>
     </row>
     <row r="5">
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1437.617362993099</v>
+        <v>-1915.027382193005</v>
       </c>
       <c r="C5" t="n">
-        <v>1.329044046184093e-09</v>
+        <v>9.493567257586278e-14</v>
       </c>
     </row>
     <row r="6">
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.83213069788505</v>
+        <v>53.99791608371801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001245568066324444</v>
+        <v>0.001712634191638364</v>
       </c>
     </row>
     <row r="7">
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.0540664872799</v>
+        <v>109.062884064331</v>
       </c>
       <c r="C7" t="n">
-        <v>1.711934947591768e-47</v>
+        <v>2.718946112353283e-34</v>
       </c>
     </row>
     <row r="8">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03561349855147299</v>
+        <v>-0.03670912442427266</v>
       </c>
       <c r="C8" t="n">
-        <v>1.703743816033329e-08</v>
+        <v>1.541831653291266e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.048019983645511e-06</v>
+        <v>-1.44684900190876e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5037058925854476</v>
+        <v>0.6728118980998354</v>
       </c>
     </row>
     <row r="10">
@@ -9549,10 +9549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.20204386992878</v>
+        <v>-19.38800269683023</v>
       </c>
       <c r="C10" t="n">
-        <v>7.181408278824141e-14</v>
+        <v>9.048554987297385e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9562,10 +9562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.111760131776073</v>
+        <v>1.410583762606692</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03385151556621584</v>
+        <v>0.5124770565871168</v>
       </c>
     </row>
     <row r="12">
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1966.69733733794</v>
+        <v>-2368.883166512861</v>
       </c>
       <c r="C12" t="n">
-        <v>7.991410453181381e-11</v>
+        <v>4.767215031354328e-12</v>
       </c>
     </row>
     <row r="13">
@@ -9588,10 +9588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-502.1753747110429</v>
+        <v>-950.3797022850792</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01993165024321239</v>
+        <v>0.0001007527301851944</v>
       </c>
     </row>
     <row r="14">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7194.815011778019</v>
+        <v>7969.431848315223</v>
       </c>
       <c r="C14" t="n">
-        <v>5.174069885019734e-41</v>
+        <v>2.82034808893693e-40</v>
       </c>
     </row>
     <row r="15">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.15624290834983</v>
+        <v>29.67659119761463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007184021408308848</v>
+        <v>1.178479122632963e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5278.079459809454</v>
+        <v>5145.012480699387</v>
       </c>
       <c r="C2" t="n">
-        <v>2.168170676211094e-26</v>
+        <v>6.520770252141417e-21</v>
       </c>
     </row>
     <row r="3">
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2257.23753881914</v>
+        <v>-1832.986844180539</v>
       </c>
       <c r="C3" t="n">
-        <v>6.913781904292274e-23</v>
+        <v>1.343054223830648e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9689,10 +9689,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2618.980454926095</v>
+        <v>-2464.053282152327</v>
       </c>
       <c r="C4" t="n">
-        <v>3.526709895237178e-28</v>
+        <v>4.44563763989492e-20</v>
       </c>
     </row>
     <row r="5">
@@ -9702,10 +9702,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1786.221406230648</v>
+        <v>-2074.093485120316</v>
       </c>
       <c r="C5" t="n">
-        <v>2.835368574457104e-13</v>
+        <v>3.980985373050876e-14</v>
       </c>
     </row>
     <row r="6">
@@ -9715,10 +9715,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.03423689914769</v>
+        <v>60.82791141650651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007790189992277137</v>
+        <v>0.0001319494750254973</v>
       </c>
     </row>
     <row r="7">
@@ -9728,10 +9728,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.993318690151</v>
+        <v>109.1471256756279</v>
       </c>
       <c r="C7" t="n">
-        <v>6.601631759199501e-38</v>
+        <v>8.276732036073074e-36</v>
       </c>
     </row>
     <row r="8">
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02975919531483109</v>
+        <v>-0.04082674295527802</v>
       </c>
       <c r="C8" t="n">
-        <v>3.995538254377896e-06</v>
+        <v>4.719634584214854e-09</v>
       </c>
     </row>
     <row r="9">
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.053544051597906e-06</v>
+        <v>-5.113483337948539e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3311155863612598</v>
+        <v>0.286283280071813</v>
       </c>
     </row>
     <row r="10">
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.22272264035387</v>
+        <v>-18.11581021713597</v>
       </c>
       <c r="C10" t="n">
-        <v>8.122331787458651e-15</v>
+        <v>5.052248658563847e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9780,10 +9780,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.117281457742622</v>
+        <v>3.067076110084259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002740148141863398</v>
+        <v>0.1632082611035894</v>
       </c>
     </row>
     <row r="12">
@@ -9793,10 +9793,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2055.493316775428</v>
+        <v>-1943.319252729248</v>
       </c>
       <c r="C12" t="n">
-        <v>6.575649407556959e-11</v>
+        <v>7.363474986334617e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-672.2494278917266</v>
+        <v>-715.3397978557862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002722204171939185</v>
+        <v>0.002351507955283496</v>
       </c>
     </row>
     <row r="14">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6875.013728895843</v>
+        <v>8024.600106520506</v>
       </c>
       <c r="C14" t="n">
-        <v>3.81805869629167e-36</v>
+        <v>1.752992972350668e-39</v>
       </c>
     </row>
     <row r="15">
@@ -9832,10 +9832,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.76069433624849</v>
+        <v>28.21286616234604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01899146757360526</v>
+        <v>2.384104364930436e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5285.669666533355</v>
+        <v>5900.753929186551</v>
       </c>
       <c r="C2" t="n">
-        <v>5.765003430276093e-27</v>
+        <v>8.379915616759062e-28</v>
       </c>
     </row>
     <row r="3">
@@ -9894,10 +9894,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2292.916652547332</v>
+        <v>-1641.798026249853</v>
       </c>
       <c r="C3" t="n">
-        <v>3.253310844500125e-24</v>
+        <v>8.013780518125617e-11</v>
       </c>
     </row>
     <row r="4">
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2751.842699678165</v>
+        <v>-2206.656565772409</v>
       </c>
       <c r="C4" t="n">
-        <v>1.728627936599507e-31</v>
+        <v>4.548901473603029e-17</v>
       </c>
     </row>
     <row r="5">
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1851.050261154438</v>
+        <v>-1747.796917498201</v>
       </c>
       <c r="C5" t="n">
-        <v>2.042317754471839e-14</v>
+        <v>1.694489758761353e-10</v>
       </c>
     </row>
     <row r="6">
@@ -9933,10 +9933,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.93440771440605</v>
+        <v>56.77570839894066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007635322568298678</v>
+        <v>0.0006740299842367641</v>
       </c>
     </row>
     <row r="7">
@@ -9946,10 +9946,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2884430734591</v>
+        <v>105.6516743036357</v>
       </c>
       <c r="C7" t="n">
-        <v>8.394500813101446e-42</v>
+        <v>1.010954039330409e-32</v>
       </c>
     </row>
     <row r="8">
@@ -9959,10 +9959,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03026415388857533</v>
+        <v>-0.03745331680811176</v>
       </c>
       <c r="C8" t="n">
-        <v>2.962969023531699e-06</v>
+        <v>1.884565164553825e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9972,10 +9972,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.824514816032907e-06</v>
+        <v>-2.546733253862091e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03017764396943899</v>
+        <v>0.4278759563954313</v>
       </c>
     </row>
     <row r="10">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.39383789258141</v>
+        <v>-19.02315148400288</v>
       </c>
       <c r="C10" t="n">
-        <v>2.598070511581534e-14</v>
+        <v>1.291241263166477e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.902680370625533</v>
+        <v>0.4605624258693926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005713107893946207</v>
+        <v>0.8307255926725317</v>
       </c>
     </row>
     <row r="12">
@@ -10011,10 +10011,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1843.475098927319</v>
+        <v>-2362.203082212583</v>
       </c>
       <c r="C12" t="n">
-        <v>1.76120951297529e-09</v>
+        <v>7.678169066049728e-13</v>
       </c>
     </row>
     <row r="13">
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-633.2565283591309</v>
+        <v>-1027.61699733318</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004557551567856899</v>
+        <v>1.528437981921182e-05</v>
       </c>
     </row>
     <row r="14">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5918.729768194839</v>
+        <v>6411.098147531286</v>
       </c>
       <c r="C14" t="n">
-        <v>1.369827958242982e-26</v>
+        <v>1.883969655017214e-26</v>
       </c>
     </row>
     <row r="15">
@@ -10050,10 +10050,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.24282327332594</v>
+        <v>24.21513112434081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005614991539591385</v>
+        <v>4.091353019154174e-05</v>
       </c>
     </row>
   </sheetData>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5556.511783724443</v>
+        <v>6174.490030074054</v>
       </c>
       <c r="C2" t="n">
-        <v>1.87708834952107e-28</v>
+        <v>1.620059118387531e-29</v>
       </c>
     </row>
     <row r="3">
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2247.537406380389</v>
+        <v>-1877.376348044632</v>
       </c>
       <c r="C3" t="n">
-        <v>3.292302790943117e-22</v>
+        <v>2.157290348665769e-14</v>
       </c>
     </row>
     <row r="4">
@@ -10125,10 +10125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2606.035019239563</v>
+        <v>-2469.332589677476</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5903973158782e-27</v>
+        <v>5.878293406203414e-22</v>
       </c>
     </row>
     <row r="5">
@@ -10138,10 +10138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1778.428644824111</v>
+        <v>-2043.314897352413</v>
       </c>
       <c r="C5" t="n">
-        <v>7.8734028013289e-13</v>
+        <v>1.724465793871354e-14</v>
       </c>
     </row>
     <row r="6">
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.58861476263098</v>
+        <v>48.39244159203375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003779757382772291</v>
+        <v>0.003656492470198581</v>
       </c>
     </row>
     <row r="7">
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.9508435856929</v>
+        <v>103.5908411145077</v>
       </c>
       <c r="C7" t="n">
-        <v>1.324664470372868e-38</v>
+        <v>9.840487796172753e-31</v>
       </c>
     </row>
     <row r="8">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03335226505396097</v>
+        <v>-0.03828482220568527</v>
       </c>
       <c r="C8" t="n">
-        <v>7.487125788257357e-07</v>
+        <v>6.772597261968116e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.528124442096484e-06</v>
+        <v>-1.642152715552333e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4211848536580945</v>
+        <v>0.625337552313595</v>
       </c>
     </row>
     <row r="10">
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.33953989869699</v>
+        <v>-21.25018684007856</v>
       </c>
       <c r="C10" t="n">
-        <v>5.517108653469356e-16</v>
+        <v>7.477205545220584e-17</v>
       </c>
     </row>
     <row r="11">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.9805889064666</v>
+        <v>-0.1959766588527954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04605038293006566</v>
+        <v>0.9265506700339153</v>
       </c>
     </row>
     <row r="12">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1926.097209497279</v>
+        <v>-2319.770518439017</v>
       </c>
       <c r="C12" t="n">
-        <v>2.008782392417114e-09</v>
+        <v>1.034598419884607e-11</v>
       </c>
     </row>
     <row r="13">
@@ -10242,10 +10242,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-667.434006721997</v>
+        <v>-810.0722777358344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003479659160571202</v>
+        <v>0.0009198316958550507</v>
       </c>
     </row>
     <row r="14">
@@ -10255,10 +10255,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6587.218316116306</v>
+        <v>7422.024146008664</v>
       </c>
       <c r="C14" t="n">
-        <v>2.175804982613033e-32</v>
+        <v>3.53261091770587e-34</v>
       </c>
     </row>
     <row r="15">
@@ -10268,10 +10268,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.15383896110273</v>
+        <v>21.63704831893761</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01764355431366413</v>
+        <v>0.0004657049843572929</v>
       </c>
     </row>
   </sheetData>
@@ -10317,10 +10317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5132.461693319954</v>
+        <v>5456.295112721758</v>
       </c>
       <c r="C2" t="n">
-        <v>1.453450357509012e-24</v>
+        <v>1.261357246817099e-24</v>
       </c>
     </row>
     <row r="3">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2190.158440469175</v>
+        <v>-1547.552741777482</v>
       </c>
       <c r="C3" t="n">
-        <v>1.734132164014449e-21</v>
+        <v>5.433765484309616e-11</v>
       </c>
     </row>
     <row r="4">
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2574.51189681113</v>
+        <v>-2049.488519936375</v>
       </c>
       <c r="C4" t="n">
-        <v>6.062758586790038e-27</v>
+        <v>6.031401679245531e-17</v>
       </c>
     </row>
     <row r="5">
@@ -10356,10 +10356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1886.912503118934</v>
+        <v>-1707.62971738776</v>
       </c>
       <c r="C5" t="n">
-        <v>1.421693045148028e-14</v>
+        <v>1.764499030974288e-11</v>
       </c>
     </row>
     <row r="6">
@@ -10369,10 +10369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.34517568981811</v>
+        <v>64.10587618736446</v>
       </c>
       <c r="C6" t="n">
-        <v>3.678908624662534e-05</v>
+        <v>5.239477974844829e-05</v>
       </c>
     </row>
     <row r="7">
@@ -10382,10 +10382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.3447670508647</v>
+        <v>109.372713551281</v>
       </c>
       <c r="C7" t="n">
-        <v>1.025198452242078e-41</v>
+        <v>4.206792396252212e-38</v>
       </c>
     </row>
     <row r="8">
@@ -10395,10 +10395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02946551737612774</v>
+        <v>-0.03450600242448421</v>
       </c>
       <c r="C8" t="n">
-        <v>3.958826544289193e-06</v>
+        <v>1.134135471368815e-07</v>
       </c>
     </row>
     <row r="9">
@@ -10408,10 +10408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.697072789073563e-06</v>
+        <v>-4.054559598638809e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4067285047633399</v>
+        <v>0.2119867197132475</v>
       </c>
     </row>
     <row r="10">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.57066583508426</v>
+        <v>-18.59868167365447</v>
       </c>
       <c r="C10" t="n">
-        <v>2.786100488674396e-15</v>
+        <v>1.23812497028564e-14</v>
       </c>
     </row>
     <row r="11">
@@ -10434,10 +10434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.643459763738896</v>
+        <v>-0.2468760074523426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02431045686010328</v>
+        <v>0.9080164430089031</v>
       </c>
     </row>
     <row r="12">
@@ -10447,10 +10447,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2230.48821543958</v>
+        <v>-2273.633657532544</v>
       </c>
       <c r="C12" t="n">
-        <v>2.794004032795286e-12</v>
+        <v>3.19918450710328e-12</v>
       </c>
     </row>
     <row r="13">
@@ -10460,10 +10460,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-713.0295469864495</v>
+        <v>-865.333293806435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001691789564023191</v>
+        <v>0.0002021178975135799</v>
       </c>
     </row>
     <row r="14">
@@ -10473,10 +10473,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6916.246276024598</v>
+        <v>6961.358085786085</v>
       </c>
       <c r="C14" t="n">
-        <v>1.761496358062608e-35</v>
+        <v>9.277924835618418e-32</v>
       </c>
     </row>
     <row r="15">
@@ -10486,10 +10486,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.48578942268111</v>
+        <v>27.03761945238379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003579566233730969</v>
+        <v>6.091260023918614e-06</v>
       </c>
     </row>
   </sheetData>
@@ -10535,10 +10535,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5003.720680248101</v>
+        <v>5025.02302905242</v>
       </c>
       <c r="C2" t="n">
-        <v>3.197744279171168e-23</v>
+        <v>4.922120370830664e-20</v>
       </c>
     </row>
     <row r="3">
@@ -10548,10 +10548,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2184.007089729334</v>
+        <v>-1572.14314729163</v>
       </c>
       <c r="C3" t="n">
-        <v>2.040578974881782e-19</v>
+        <v>4.623350235832806e-10</v>
       </c>
     </row>
     <row r="4">
@@ -10561,10 +10561,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2571.315486001172</v>
+        <v>-2185.4826569877</v>
       </c>
       <c r="C4" t="n">
-        <v>2.810224067921156e-24</v>
+        <v>8.872366352293552e-17</v>
       </c>
     </row>
     <row r="5">
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1870.961752004994</v>
+        <v>-1774.635928109867</v>
       </c>
       <c r="C5" t="n">
-        <v>2.834370942926041e-13</v>
+        <v>6.094549266089555e-11</v>
       </c>
     </row>
     <row r="6">
@@ -10587,10 +10587,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.00962778158288</v>
+        <v>66.97063040817827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001337903203081618</v>
+        <v>5.955195498164759e-05</v>
       </c>
     </row>
     <row r="7">
@@ -10600,10 +10600,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.1171397872758</v>
+        <v>104.7138539451147</v>
       </c>
       <c r="C7" t="n">
-        <v>4.745943599063283e-41</v>
+        <v>3.83439041845803e-32</v>
       </c>
     </row>
     <row r="8">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03153824606822599</v>
+        <v>-0.0373088657239215</v>
       </c>
       <c r="C8" t="n">
-        <v>7.209654337438189e-07</v>
+        <v>3.985029276511915e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.50141332180041e-06</v>
+        <v>-2.362516415483933e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4211472763253957</v>
+        <v>0.4543496595133234</v>
       </c>
     </row>
     <row r="10">
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.88974432480765</v>
+        <v>-17.63890837321178</v>
       </c>
       <c r="C10" t="n">
-        <v>5.669824291380191e-13</v>
+        <v>2.024409784799051e-12</v>
       </c>
     </row>
     <row r="11">
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.812594448784496</v>
+        <v>3.199273786864372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001072864626498168</v>
+        <v>0.147840887291478</v>
       </c>
     </row>
     <row r="12">
@@ -10665,10 +10665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1988.073949192952</v>
+        <v>-2262.055333905707</v>
       </c>
       <c r="C12" t="n">
-        <v>2.578382197232405e-10</v>
+        <v>2.26709874675523e-11</v>
       </c>
     </row>
     <row r="13">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-537.5649167751413</v>
+        <v>-897.783799809677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01532026831270592</v>
+        <v>0.0001510970866545258</v>
       </c>
     </row>
     <row r="14">
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7154.494461993229</v>
+        <v>7635.203056001833</v>
       </c>
       <c r="C14" t="n">
-        <v>4.28036188783656e-40</v>
+        <v>3.121556353817002e-39</v>
       </c>
     </row>
     <row r="15">
@@ -10704,10 +10704,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.55851393445759</v>
+        <v>27.55235266570914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03405551548361982</v>
+        <v>4.860934593092191e-06</v>
       </c>
     </row>
   </sheetData>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4979.906413992216</v>
+        <v>5592.268348175558</v>
       </c>
       <c r="C2" t="n">
-        <v>8.607855199634182e-25</v>
+        <v>3.016599968206404e-27</v>
       </c>
     </row>
     <row r="3">
@@ -10766,10 +10766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2273.207631100127</v>
+        <v>-1655.722490855247</v>
       </c>
       <c r="C3" t="n">
-        <v>9.822503999119874e-25</v>
+        <v>5.07318314526787e-13</v>
       </c>
     </row>
     <row r="4">
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2692.487090419571</v>
+        <v>-2168.180140035358</v>
       </c>
       <c r="C4" t="n">
-        <v>2.59084511469619e-31</v>
+        <v>1.343648156480818e-19</v>
       </c>
     </row>
     <row r="5">
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1923.278985198909</v>
+        <v>-1804.957792980296</v>
       </c>
       <c r="C5" t="n">
-        <v>3.756112770849272e-16</v>
+        <v>3.003646852445008e-13</v>
       </c>
     </row>
     <row r="6">
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.37888912741305</v>
+        <v>55.59375046454223</v>
       </c>
       <c r="C6" t="n">
-        <v>6.837388558398779e-05</v>
+        <v>0.0003802155045036966</v>
       </c>
     </row>
     <row r="7">
@@ -10818,10 +10818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.718276066718</v>
+        <v>116.5856158915915</v>
       </c>
       <c r="C7" t="n">
-        <v>3.857466565550736e-45</v>
+        <v>1.480173497381819e-44</v>
       </c>
     </row>
     <row r="8">
@@ -10831,10 +10831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02836775212067065</v>
+        <v>-0.03678140607672541</v>
       </c>
       <c r="C8" t="n">
-        <v>8.794838443271464e-06</v>
+        <v>1.539111836810888e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10844,10 +10844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.554400348372733e-06</v>
+        <v>-3.609851435406985e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1364666190439325</v>
+        <v>0.2588501337087466</v>
       </c>
     </row>
     <row r="10">
@@ -10857,10 +10857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.59244182493549</v>
+        <v>-16.77652897005709</v>
       </c>
       <c r="C10" t="n">
-        <v>4.758182742712776e-17</v>
+        <v>1.559167698103748e-12</v>
       </c>
     </row>
     <row r="11">
@@ -10870,10 +10870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.030516027767294</v>
+        <v>0.5642891619805157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009667030854216276</v>
+        <v>0.7850372850877105</v>
       </c>
     </row>
     <row r="12">
@@ -10883,10 +10883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1610.293588923921</v>
+        <v>-2333.09257354812</v>
       </c>
       <c r="C12" t="n">
-        <v>2.370122164651542e-07</v>
+        <v>4.238435681790947e-13</v>
       </c>
     </row>
     <row r="13">
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-628.6233564211241</v>
+        <v>-1159.1566412025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004531167011453381</v>
+        <v>5.05448854539203e-07</v>
       </c>
     </row>
     <row r="14">
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6951.94614278629</v>
+        <v>6125.983529539537</v>
       </c>
       <c r="C14" t="n">
-        <v>7.318199027215268e-37</v>
+        <v>3.166951171991124e-25</v>
       </c>
     </row>
     <row r="15">
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.24938775849157</v>
+        <v>28.88770236756191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001061378373393333</v>
+        <v>1.139847275948524e-06</v>
       </c>
     </row>
   </sheetData>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5134.594660415794</v>
+        <v>5728.89226138406</v>
       </c>
       <c r="C2" t="n">
-        <v>8.722876616717809e-25</v>
+        <v>2.908806639838416e-26</v>
       </c>
     </row>
     <row r="3">
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2037.855950342585</v>
+        <v>-1730.65934567568</v>
       </c>
       <c r="C3" t="n">
-        <v>6.82165345512338e-20</v>
+        <v>1.024664552329185e-12</v>
       </c>
     </row>
     <row r="4">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2400.363799725673</v>
+        <v>-2332.819545804108</v>
       </c>
       <c r="C4" t="n">
-        <v>4.580570738685155e-25</v>
+        <v>4.257158926126895e-20</v>
       </c>
     </row>
     <row r="5">
@@ -11010,10 +11010,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1696.805287335826</v>
+        <v>-1919.130142712893</v>
       </c>
       <c r="C5" t="n">
-        <v>1.932488588649151e-12</v>
+        <v>5.635051385537154e-13</v>
       </c>
     </row>
     <row r="6">
@@ -11023,10 +11023,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.91944568000901</v>
+        <v>59.82072561550096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003463246483469619</v>
+        <v>0.000407750772797062</v>
       </c>
     </row>
     <row r="7">
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.229478061231</v>
+        <v>104.3049437101607</v>
       </c>
       <c r="C7" t="n">
-        <v>3.289395705850896e-42</v>
+        <v>8.566256268710636e-33</v>
       </c>
     </row>
     <row r="8">
@@ -11049,10 +11049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03529099329022975</v>
+        <v>-0.04024552569848931</v>
       </c>
       <c r="C8" t="n">
-        <v>1.686095129129981e-08</v>
+        <v>7.136553944970136e-09</v>
       </c>
     </row>
     <row r="9">
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.677225249987448e-06</v>
+        <v>-1.24949519508041e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5815084323704292</v>
+        <v>0.7072829826557073</v>
       </c>
     </row>
     <row r="10">
@@ -11075,10 +11075,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.48306500140099</v>
+        <v>-19.64940470310259</v>
       </c>
       <c r="C10" t="n">
-        <v>2.033862964010077e-15</v>
+        <v>6.572692788895371e-15</v>
       </c>
     </row>
     <row r="11">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.225223047274038</v>
+        <v>0.5574531372762861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04153075906597001</v>
+        <v>0.7976751523636125</v>
       </c>
     </row>
     <row r="12">
@@ -11101,10 +11101,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2487.722250843013</v>
+        <v>-2298.003019856046</v>
       </c>
       <c r="C12" t="n">
-        <v>1.839662538047103e-15</v>
+        <v>1.356956399967788e-11</v>
       </c>
     </row>
     <row r="13">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-600.3618403243695</v>
+        <v>-923.8326265709809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007780889811431731</v>
+        <v>0.0001780019260438237</v>
       </c>
     </row>
     <row r="14">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7106.04939517391</v>
+        <v>7944.409618832795</v>
       </c>
       <c r="C14" t="n">
-        <v>5.945602865039575e-36</v>
+        <v>6.6674001763014e-37</v>
       </c>
     </row>
     <row r="15">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.53041323348641</v>
+        <v>24.54343335017705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001307402834649232</v>
+        <v>4.830712662033413e-05</v>
       </c>
     </row>
   </sheetData>
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5566.53477402364</v>
+        <v>5485.066736163996</v>
       </c>
       <c r="C2" t="n">
-        <v>9.233707716257074e-29</v>
+        <v>8.468890290609485e-24</v>
       </c>
     </row>
     <row r="3">
@@ -11202,10 +11202,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2420.809109660679</v>
+        <v>-1628.932520683015</v>
       </c>
       <c r="C3" t="n">
-        <v>2.120539336396312e-24</v>
+        <v>8.418498108885888e-11</v>
       </c>
     </row>
     <row r="4">
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2797.167110334502</v>
+        <v>-2203.515491103138</v>
       </c>
       <c r="C4" t="n">
-        <v>4.503952760328733e-30</v>
+        <v>3.549322185131629e-17</v>
       </c>
     </row>
     <row r="5">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1983.591132030831</v>
+        <v>-1797.340957019872</v>
       </c>
       <c r="C5" t="n">
-        <v>4.25196265046304e-15</v>
+        <v>2.48282170216425e-11</v>
       </c>
     </row>
     <row r="6">
@@ -11241,10 +11241,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.44781277395373</v>
+        <v>63.17614045751446</v>
       </c>
       <c r="C6" t="n">
-        <v>6.55737951858978e-06</v>
+        <v>0.0001575735803186618</v>
       </c>
     </row>
     <row r="7">
@@ -11254,10 +11254,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.2995131559912</v>
+        <v>108.21209766042</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0769764786601e-38</v>
+        <v>5.543468977050028e-34</v>
       </c>
     </row>
     <row r="8">
@@ -11267,10 +11267,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02793553131895166</v>
+        <v>-0.03595349289592573</v>
       </c>
       <c r="C8" t="n">
-        <v>2.095845353190666e-05</v>
+        <v>1.193187605116978e-07</v>
       </c>
     </row>
     <row r="9">
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.950766563083339e-06</v>
+        <v>-6.873404377545481e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3489410144005736</v>
+        <v>0.1172615447733685</v>
       </c>
     </row>
     <row r="10">
@@ -11293,10 +11293,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.33374390051548</v>
+        <v>-19.0435789954344</v>
       </c>
       <c r="C10" t="n">
-        <v>8.719111434583269e-18</v>
+        <v>3.642400874157868e-14</v>
       </c>
     </row>
     <row r="11">
@@ -11306,10 +11306,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.559859481191936</v>
+        <v>-0.1287141472720785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02366784101745419</v>
+        <v>0.9529889315775119</v>
       </c>
     </row>
     <row r="12">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1941.190472524989</v>
+        <v>-2235.719396773512</v>
       </c>
       <c r="C12" t="n">
-        <v>4.754174589886398e-10</v>
+        <v>1.335446922337724e-11</v>
       </c>
     </row>
     <row r="13">
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-440.501304775782</v>
+        <v>-922.3371456475456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04769048430018997</v>
+        <v>0.0001000656465641174</v>
       </c>
     </row>
     <row r="14">
@@ -11345,10 +11345,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6694.272101573291</v>
+        <v>7469.552757529702</v>
       </c>
       <c r="C14" t="n">
-        <v>9.177648438153359e-35</v>
+        <v>8.628876252356799e-36</v>
       </c>
     </row>
     <row r="15">
@@ -11358,10 +11358,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.44641068746159</v>
+        <v>28.16656342867412</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01222867107529243</v>
+        <v>2.866103814001687e-06</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/All.xlsx
+++ b/outputs/ML_Results/dist_LR/All.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37652485" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ39148258" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40001598" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40698642" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ41358884" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ42004244" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42696706" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43331584" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43965001" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ44605319" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ45245536" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ45828336" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ46402807" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ46964735" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ47586065" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ48128785" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ48681377" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ49269625" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ49881428" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ50445486" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51048038" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51643949" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ52195419" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ52748255" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ53316462" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ53869102" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ54451897" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ54998253" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55565860" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ56123334" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ56706954" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ57263089" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ57823980" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ58363734" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ58929927" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ59490556" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ00085781" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ00659161" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ01202905" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ01771960" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ02314107" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ02892268" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ03430029" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ04012036" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ04563672" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ05150204" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ05713779" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ06306379" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ06869105" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ07430546" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ47884092" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ48446248" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ48947765" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49447910" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49950751" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ50464546" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50942575" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ51442475" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51948427" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52449275" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ52949952" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ53454818" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ54013465" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ54546069" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ55050789" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ55545815" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ56042218" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ56625510" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ57170846" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ57700525" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ58191637" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ58707402" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ59325735" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ00080423" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ00630083" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ01139054" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ01646673" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ02165693" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ02849677" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ03494025" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ04066346" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ04608712" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ05130225" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ05763613" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06434777" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ06993105" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ07550293" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08280007" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ08880150" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09505368" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09996812" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ10549404" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ11113599" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ11657724" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ12174554" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ12747256" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ13482854" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ14052167" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ14565568" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ15063427" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5454.238874116149</v>
+        <v>5575.865081614144</v>
       </c>
       <c r="C2" t="n">
-        <v>1.568811531716285e-25</v>
+        <v>7.575590338830279e-25</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1776.464557679388</v>
+        <v>-1760.497706046361</v>
       </c>
       <c r="C3" t="n">
-        <v>2.429390463737525e-14</v>
+        <v>5.285403628338179e-11</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2354.78222400106</v>
+        <v>-2360.057648208152</v>
       </c>
       <c r="C4" t="n">
-        <v>7.351304040938524e-22</v>
+        <v>2.210347003436323e-17</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1972.725952767656</v>
+        <v>-1997.283564509886</v>
       </c>
       <c r="C5" t="n">
-        <v>8.93846404103602e-15</v>
+        <v>3.221365196389263e-12</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.46713383834681</v>
+        <v>57.29733896619</v>
       </c>
       <c r="C6" t="n">
-        <v>3.190536434806066e-05</v>
+        <v>0.0003979143188862953</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.3471107746971</v>
+        <v>111.9474908383566</v>
       </c>
       <c r="C7" t="n">
-        <v>8.850337363254128e-33</v>
+        <v>1.575029013969028e-37</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03607497152168621</v>
+        <v>-0.04100746162430079</v>
       </c>
       <c r="C8" t="n">
-        <v>8.666454892232469e-08</v>
+        <v>3.005658837749392e-09</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.040676665408406e-06</v>
+        <v>-1.680314692612884e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3356457622190417</v>
+        <v>0.6369942798336024</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.28806547054056</v>
+        <v>-18.59864728490842</v>
       </c>
       <c r="C10" t="n">
-        <v>1.957182416425916e-14</v>
+        <v>2.463872074518568e-13</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.920422143598306</v>
+        <v>1.072233601568943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6605199207130701</v>
+        <v>0.6141430907310463</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2156.055949255847</v>
+        <v>-2409.78297369543</v>
       </c>
       <c r="C12" t="n">
-        <v>1.568495274831198e-10</v>
+        <v>4.596160662624656e-13</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-867.5226033255899</v>
+        <v>-793.1716838333998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002657456187492724</v>
+        <v>0.0008658852406130958</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7847.737518325011</v>
+        <v>7551.747852164865</v>
       </c>
       <c r="C14" t="n">
-        <v>1.431822335848975e-38</v>
+        <v>1.239432257668347e-37</v>
       </c>
     </row>
     <row r="15">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.18758429408384</v>
+        <v>25.99745614490818</v>
       </c>
       <c r="C15" t="n">
-        <v>1.956886338162166e-06</v>
+        <v>1.321931630466778e-05</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5780.515659116712</v>
+        <v>5576.499167313581</v>
       </c>
       <c r="C2" t="n">
-        <v>4.358848903216851e-27</v>
+        <v>3.115908172156286e-25</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1858.811126913691</v>
+        <v>-1729.804953576792</v>
       </c>
       <c r="C3" t="n">
-        <v>2.074126729231893e-14</v>
+        <v>3.406261712661536e-13</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2466.566997540634</v>
+        <v>-2309.552002267755</v>
       </c>
       <c r="C4" t="n">
-        <v>2.647215847267042e-22</v>
+        <v>1.450113629011532e-20</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2120.457649657721</v>
+        <v>-1940.845135529026</v>
       </c>
       <c r="C5" t="n">
-        <v>5.961414704185055e-16</v>
+        <v>3.92987779006089e-14</v>
       </c>
     </row>
     <row r="6">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.46245263357214</v>
+        <v>64.11433607723947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004491525827719202</v>
+        <v>0.0001081806681265336</v>
       </c>
     </row>
     <row r="7">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.9429353497224</v>
+        <v>109.9757981324716</v>
       </c>
       <c r="C7" t="n">
-        <v>7.015760836394052e-34</v>
+        <v>1.078220340544038e-36</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03587812451939031</v>
+        <v>-0.03586735126536088</v>
       </c>
       <c r="C8" t="n">
-        <v>1.911644778213849e-07</v>
+        <v>2.935578633035828e-07</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.184806873423942e-06</v>
+        <v>-1.889747226144783e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7461171823086008</v>
+        <v>0.571294348847285</v>
       </c>
     </row>
     <row r="10">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.99826439867541</v>
+        <v>-19.21265006491517</v>
       </c>
       <c r="C10" t="n">
-        <v>9.882822378677374e-17</v>
+        <v>5.796321288301315e-14</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5347408479360198</v>
+        <v>0.830880618320105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004324263107194</v>
+        <v>0.6915677638921799</v>
       </c>
     </row>
     <row r="12">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2297.883970624966</v>
+        <v>-2301.63646295616</v>
       </c>
       <c r="C12" t="n">
-        <v>3.11663810710755e-11</v>
+        <v>7.926027812745569e-12</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-700.3206654666143</v>
+        <v>-907.5154917451996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003298247174233833</v>
+        <v>0.0001258716181791406</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7636.951954883241</v>
+        <v>7333.551307655081</v>
       </c>
       <c r="C14" t="n">
-        <v>1.620635379994078e-37</v>
+        <v>1.04638642655288e-34</v>
       </c>
     </row>
     <row r="15">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.19813107168035</v>
+        <v>26.05803268514896</v>
       </c>
       <c r="C15" t="n">
-        <v>2.285159304136155e-05</v>
+        <v>1.748982990306982e-05</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5444.747320783791</v>
+        <v>5160.222870882564</v>
       </c>
       <c r="C2" t="n">
-        <v>2.063381818580719e-23</v>
+        <v>1.410761302995907e-22</v>
       </c>
     </row>
     <row r="3">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1555.380247211298</v>
+        <v>-1260.530648228441</v>
       </c>
       <c r="C3" t="n">
-        <v>6.708347646574913e-10</v>
+        <v>1.655937740604581e-07</v>
       </c>
     </row>
     <row r="4">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2146.033540234866</v>
+        <v>-1931.814050551997</v>
       </c>
       <c r="C4" t="n">
-        <v>2.986761203108341e-16</v>
+        <v>1.376510242475245e-14</v>
       </c>
     </row>
     <row r="5">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1773.435690301432</v>
+        <v>-1450.831230643566</v>
       </c>
       <c r="C5" t="n">
-        <v>5.039923152113778e-11</v>
+        <v>2.035650068391719e-08</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.21788135092102</v>
+        <v>42.11913867454844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004298265841045814</v>
+        <v>0.00787592291480709</v>
       </c>
     </row>
     <row r="7">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.140780513916</v>
+        <v>112.7588458248982</v>
       </c>
       <c r="C7" t="n">
-        <v>1.157973824815899e-32</v>
+        <v>3.231944519896835e-39</v>
       </c>
     </row>
     <row r="8">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04200830719997442</v>
+        <v>-0.0440792305482816</v>
       </c>
       <c r="C8" t="n">
-        <v>1.292452824678693e-09</v>
+        <v>1.333327431172348e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.009893316463771e-07</v>
+        <v>-1.15016175029472e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8772876846146079</v>
+        <v>0.7303219742002967</v>
       </c>
     </row>
     <row r="10">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.6452216629196</v>
+        <v>-18.77109032747088</v>
       </c>
       <c r="C10" t="n">
-        <v>1.553663428438544e-13</v>
+        <v>2.252259998396426e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.06257399703297</v>
+        <v>1.477721070029455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3293909973810804</v>
+        <v>0.4726830357797969</v>
       </c>
     </row>
     <row r="12">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2506.818806237216</v>
+        <v>-2364.877228589983</v>
       </c>
       <c r="C12" t="n">
-        <v>2.606129319561007e-13</v>
+        <v>3.276983515220579e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-985.7711507220827</v>
+        <v>-830.3565806318187</v>
       </c>
       <c r="C13" t="n">
-        <v>4.254022789363976e-05</v>
+        <v>0.0003159007635252355</v>
       </c>
     </row>
     <row r="14">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7797.676307020372</v>
+        <v>7335.560206556668</v>
       </c>
       <c r="C14" t="n">
-        <v>1.553867707217325e-38</v>
+        <v>2.088756934905695e-36</v>
       </c>
     </row>
     <row r="15">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.28457628347672</v>
+        <v>26.12533191543582</v>
       </c>
       <c r="C15" t="n">
-        <v>5.552251114634058e-05</v>
+        <v>8.798200162191614e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5646.433578376642</v>
+        <v>5862.517926882087</v>
       </c>
       <c r="C2" t="n">
-        <v>1.820468550772233e-25</v>
+        <v>2.801123587865413e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1677.527558394842</v>
+        <v>-1745.59595824861</v>
       </c>
       <c r="C3" t="n">
-        <v>1.591893219550202e-12</v>
+        <v>8.808690216793122e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2260.920300902733</v>
+        <v>-2379.928266831804</v>
       </c>
       <c r="C4" t="n">
-        <v>9.017473531400037e-20</v>
+        <v>2.739768521459569e-22</v>
       </c>
     </row>
     <row r="5">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1796.9123323258</v>
+        <v>-1898.500290092147</v>
       </c>
       <c r="C5" t="n">
-        <v>3.070988839120159e-12</v>
+        <v>5.815374246542395e-14</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.40509253316213</v>
+        <v>48.91150911622133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005369935076014007</v>
+        <v>0.002629991603139387</v>
       </c>
     </row>
     <row r="7">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0386884592781</v>
+        <v>106.8403093268773</v>
       </c>
       <c r="C7" t="n">
-        <v>5.746293609851783e-33</v>
+        <v>1.068786119296803e-34</v>
       </c>
     </row>
     <row r="8">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0407772892673133</v>
+        <v>-0.03228772451687087</v>
       </c>
       <c r="C8" t="n">
-        <v>4.335231246961847e-09</v>
+        <v>1.518572706392995e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.622299844643746e-06</v>
+        <v>-9.588217005972498e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4321878856501862</v>
+        <v>0.04881852362826437</v>
       </c>
     </row>
     <row r="10">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.49276617464493</v>
+        <v>-19.23164040189586</v>
       </c>
       <c r="C10" t="n">
-        <v>1.256958307130997e-13</v>
+        <v>1.220323133277838e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.651019865176797</v>
+        <v>2.007840816362801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4583973671495167</v>
+        <v>0.3317197625062407</v>
       </c>
     </row>
     <row r="12">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2206.636343686348</v>
+        <v>-2432.134397349653</v>
       </c>
       <c r="C12" t="n">
-        <v>7.890185063374052e-11</v>
+        <v>5.99278120629467e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-900.7212345779927</v>
+        <v>-986.4402777707421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001496355821637954</v>
+        <v>1.880522141615677e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7255.136982595806</v>
+        <v>6939.453143114802</v>
       </c>
       <c r="C14" t="n">
-        <v>1.150438171092593e-34</v>
+        <v>7.764121954942731e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.62017199996004</v>
+        <v>22.36902951063644</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001924623949512791</v>
+        <v>0.00012191764677465</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5479.286572044528</v>
+        <v>6304.306427499169</v>
       </c>
       <c r="C2" t="n">
-        <v>4.009482033420185e-24</v>
+        <v>2.823398394536395e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1909.128079114362</v>
+        <v>-2104.03036438801</v>
       </c>
       <c r="C3" t="n">
-        <v>2.896955566244939e-15</v>
+        <v>9.082911769243032e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2497.297524155512</v>
+        <v>-2585.214090378769</v>
       </c>
       <c r="C4" t="n">
-        <v>3.071595478532869e-23</v>
+        <v>3.249852212705504e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2192.262934051862</v>
+        <v>-2355.610612583514</v>
       </c>
       <c r="C5" t="n">
-        <v>8.728699938105408e-17</v>
+        <v>4.822896233290397e-16</v>
       </c>
     </row>
     <row r="6">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.11994804106202</v>
+        <v>60.98306604549165</v>
       </c>
       <c r="C6" t="n">
-        <v>4.752221595988292e-06</v>
+        <v>0.0002746129717904707</v>
       </c>
     </row>
     <row r="7">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.5645836118297</v>
+        <v>108.5920124750734</v>
       </c>
       <c r="C7" t="n">
-        <v>6.191520346395478e-35</v>
+        <v>8.815176982342147e-36</v>
       </c>
     </row>
     <row r="8">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03297161979380706</v>
+        <v>-0.03756166392504155</v>
       </c>
       <c r="C8" t="n">
-        <v>8.326651557311311e-07</v>
+        <v>7.181473746468807e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.474384494787541e-06</v>
+        <v>-2.118504200343336e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.315748061351152</v>
+        <v>0.514882307418276</v>
       </c>
     </row>
     <row r="10">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.41829745373735</v>
+        <v>-19.34790711020513</v>
       </c>
       <c r="C10" t="n">
-        <v>3.164889028707612e-14</v>
+        <v>2.997841325804229e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.91941686983684</v>
+        <v>-1.931455438993547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3875785505527028</v>
+        <v>0.3973119373768683</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2009.876692392187</v>
+        <v>-2330.032372772349</v>
       </c>
       <c r="C12" t="n">
-        <v>1.288746043594188e-09</v>
+        <v>1.28619842030001e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-627.280108685404</v>
+        <v>-979.1770996253272</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008764005871069548</v>
+        <v>4.337698187789455e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8064.780317963347</v>
+        <v>7575.739396341627</v>
       </c>
       <c r="C14" t="n">
-        <v>1.162109983257255e-39</v>
+        <v>3.148036707527052e-36</v>
       </c>
     </row>
     <row r="15">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.61820200716593</v>
+        <v>25.19943537876495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00011101707063169</v>
+        <v>2.15375992099789e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5946.129319130618</v>
+        <v>5659.275183139316</v>
       </c>
       <c r="C2" t="n">
-        <v>1.179525747689282e-29</v>
+        <v>9.685768909784687e-27</v>
       </c>
     </row>
     <row r="3">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1781.14329628928</v>
+        <v>-1794.696937010706</v>
       </c>
       <c r="C3" t="n">
-        <v>1.528541467571838e-13</v>
+        <v>5.789078880821999e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2266.024171215251</v>
+        <v>-2284.443900711952</v>
       </c>
       <c r="C4" t="n">
-        <v>2.39860709130701e-19</v>
+        <v>2.345879938329022e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1870.082063214184</v>
+        <v>-1919.258446207644</v>
       </c>
       <c r="C5" t="n">
-        <v>4.545079907742227e-13</v>
+        <v>2.076380313943128e-14</v>
       </c>
     </row>
     <row r="6">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.85279284504902</v>
+        <v>60.03944873308672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001065954558902954</v>
+        <v>0.0001488863197704661</v>
       </c>
     </row>
     <row r="7">
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.750770909382</v>
+        <v>112.140134379431</v>
       </c>
       <c r="C7" t="n">
-        <v>6.973331407743628e-38</v>
+        <v>3.363667593494405e-39</v>
       </c>
     </row>
     <row r="8">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03616077589173419</v>
+        <v>-0.03746584286165996</v>
       </c>
       <c r="C8" t="n">
-        <v>5.588329238848371e-08</v>
+        <v>1.31882661965615e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.317027860525021e-06</v>
+        <v>-2.883719517650728e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1772656666522818</v>
+        <v>0.3709078311765155</v>
       </c>
     </row>
     <row r="10">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.60714164549837</v>
+        <v>-17.72920272137382</v>
       </c>
       <c r="C10" t="n">
-        <v>3.369618969050046e-16</v>
+        <v>6.837619047230528e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.972325542387235</v>
+        <v>0.6635408407680146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3427978659674069</v>
+        <v>0.7537123042405203</v>
       </c>
     </row>
     <row r="12">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2322.67347866766</v>
+        <v>-2556.65344376824</v>
       </c>
       <c r="C12" t="n">
-        <v>1.961485148885326e-12</v>
+        <v>9.919597945368219e-15</v>
       </c>
     </row>
     <row r="13">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-947.3841280239768</v>
+        <v>-951.0508806790712</v>
       </c>
       <c r="C13" t="n">
-        <v>4.741169294424488e-05</v>
+        <v>4.647576280864168e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6704.783701812317</v>
+        <v>6864.715339371531</v>
       </c>
       <c r="C14" t="n">
-        <v>4.894412283557817e-30</v>
+        <v>3.096398126693402e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.65243349085212</v>
+        <v>26.62400932572594</v>
       </c>
       <c r="C15" t="n">
-        <v>8.768064428237073e-07</v>
+        <v>7.888474464487931e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5152.357359559197</v>
+        <v>5383.22281774465</v>
       </c>
       <c r="C2" t="n">
-        <v>5.48629181201841e-22</v>
+        <v>3.411187336053829e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1538.356755110541</v>
+        <v>-1687.75115268258</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645678150810986e-10</v>
+        <v>4.593881144840089e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2190.373624889136</v>
+        <v>-2297.298165484628</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30278511055979e-17</v>
+        <v>2.696748138849385e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1795.469930531626</v>
+        <v>-1917.412889736321</v>
       </c>
       <c r="C5" t="n">
-        <v>1.589965784728364e-11</v>
+        <v>4.551656696291108e-13</v>
       </c>
     </row>
     <row r="6">
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.38718980235583</v>
+        <v>70.5551416090947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000204145765478708</v>
+        <v>2.380483899419661e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2990590783313</v>
+        <v>109.3193511426088</v>
       </c>
       <c r="C7" t="n">
-        <v>4.094759187528413e-38</v>
+        <v>3.332886238647224e-34</v>
       </c>
     </row>
     <row r="8">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03456995830565553</v>
+        <v>-0.03713853857561959</v>
       </c>
       <c r="C8" t="n">
-        <v>3.11593236805602e-07</v>
+        <v>3.520843847372935e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.749143431364027e-06</v>
+        <v>-1.627294196663955e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3922089044912801</v>
+        <v>0.6253957149261149</v>
       </c>
     </row>
     <row r="10">
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.07321305258441</v>
+        <v>-19.54826440162491</v>
       </c>
       <c r="C10" t="n">
-        <v>2.412619195820317e-13</v>
+        <v>6.045774390582152e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7929575434046559</v>
+        <v>1.420490763361541</v>
       </c>
       <c r="C11" t="n">
-        <v>0.708118419312932</v>
+        <v>0.5058112109494981</v>
       </c>
     </row>
     <row r="12">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2365.130714517895</v>
+        <v>-2181.379434438722</v>
       </c>
       <c r="C12" t="n">
-        <v>1.154908304160943e-12</v>
+        <v>2.640782396623986e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1101.727566586545</v>
+        <v>-739.4008335585593</v>
       </c>
       <c r="C13" t="n">
-        <v>3.804539405542671e-06</v>
+        <v>0.001937041814012927</v>
       </c>
     </row>
     <row r="14">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7070.825166536277</v>
+        <v>7601.41775408262</v>
       </c>
       <c r="C14" t="n">
-        <v>3.673581753654862e-32</v>
+        <v>4.089301154685748e-36</v>
       </c>
     </row>
     <row r="15">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.01645425548075</v>
+        <v>26.33491571878277</v>
       </c>
       <c r="C15" t="n">
-        <v>1.121982316213257e-08</v>
+        <v>9.418268768477967e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5606.676117145969</v>
+        <v>5745.208470202037</v>
       </c>
       <c r="C2" t="n">
-        <v>1.685831216440677e-26</v>
+        <v>1.659444519555009e-28</v>
       </c>
     </row>
     <row r="3">
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1733.866399241227</v>
+        <v>-1832.604940512799</v>
       </c>
       <c r="C3" t="n">
-        <v>1.063555541174998e-13</v>
+        <v>3.909338689441748e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2326.683239217404</v>
+        <v>-2347.312360768802</v>
       </c>
       <c r="C4" t="n">
-        <v>1.609209271905295e-21</v>
+        <v>5.482971043509163e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1903.702343104024</v>
+        <v>-1946.568012973977</v>
       </c>
       <c r="C5" t="n">
-        <v>4.455737775311297e-14</v>
+        <v>1.296540589634763e-14</v>
       </c>
     </row>
     <row r="6">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.74280006264192</v>
+        <v>49.48375047304665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003991043585234568</v>
+        <v>0.001753221166948672</v>
       </c>
     </row>
     <row r="7">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.1900263515164</v>
+        <v>113.3323394103597</v>
       </c>
       <c r="C7" t="n">
-        <v>3.906628245247927e-33</v>
+        <v>2.299009613794014e-40</v>
       </c>
     </row>
     <row r="8">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03359883286120337</v>
+        <v>-0.04218125124135737</v>
       </c>
       <c r="C8" t="n">
-        <v>1.199762079852893e-06</v>
+        <v>2.577454884170829e-10</v>
       </c>
     </row>
     <row r="9">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.060677296707028e-05</v>
+        <v>-3.009913913627325e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02245154074517155</v>
+        <v>0.3383790609286064</v>
       </c>
     </row>
     <row r="10">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.48202919355575</v>
+        <v>-16.39877904723645</v>
       </c>
       <c r="C10" t="n">
-        <v>2.272129633073165e-13</v>
+        <v>1.645121445107503e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.326743614961427</v>
+        <v>0.3526866502376449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5209267677963425</v>
+        <v>0.8651134418205839</v>
       </c>
     </row>
     <row r="12">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2442.720474440783</v>
+        <v>-2478.280969633677</v>
       </c>
       <c r="C12" t="n">
-        <v>1.96710299381688e-13</v>
+        <v>4.209530130670328e-14</v>
       </c>
     </row>
     <row r="13">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-989.6150937503279</v>
+        <v>-979.5118023335015</v>
       </c>
       <c r="C13" t="n">
-        <v>3.106512734352787e-05</v>
+        <v>2.6227574487309e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7352.663169577852</v>
+        <v>6640.950684927868</v>
       </c>
       <c r="C14" t="n">
-        <v>9.245099449211236e-36</v>
+        <v>5.331829835546242e-30</v>
       </c>
     </row>
     <row r="15">
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.56246805312967</v>
+        <v>27.56442016206361</v>
       </c>
       <c r="C15" t="n">
-        <v>7.69878991930585e-06</v>
+        <v>1.859185901385016e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5017.011817535622</v>
+        <v>5462.898217134238</v>
       </c>
       <c r="C2" t="n">
-        <v>1.246181719764554e-20</v>
+        <v>4.993087468904911e-24</v>
       </c>
     </row>
     <row r="3">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1263.928161224468</v>
+        <v>-1546.232782984772</v>
       </c>
       <c r="C3" t="n">
-        <v>2.275342345589428e-07</v>
+        <v>7.413767702743996e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1867.604472903195</v>
+        <v>-2148.71135051493</v>
       </c>
       <c r="C4" t="n">
-        <v>2.341687814117219e-13</v>
+        <v>3.769792540508848e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1489.689488168108</v>
+        <v>-1682.478830222765</v>
       </c>
       <c r="C5" t="n">
-        <v>1.432691541152042e-08</v>
+        <v>5.033092175563808e-11</v>
       </c>
     </row>
     <row r="6">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.55992355192597</v>
+        <v>65.69347645415446</v>
       </c>
       <c r="C6" t="n">
-        <v>9.152645769573237e-05</v>
+        <v>9.547366446652365e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7560870702777</v>
+        <v>108.2287916783301</v>
       </c>
       <c r="C7" t="n">
-        <v>1.868507068696963e-35</v>
+        <v>6.840835107573276e-35</v>
       </c>
     </row>
     <row r="8">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03752837741044993</v>
+        <v>-0.03630260760938069</v>
       </c>
       <c r="C8" t="n">
-        <v>5.715997862032753e-08</v>
+        <v>6.331126149455223e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.068342455295089e-06</v>
+        <v>-2.02126539640139e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5285917761699576</v>
+        <v>0.5448525384975258</v>
       </c>
     </row>
     <row r="10">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.12768777639946</v>
+        <v>-19.11412519477289</v>
       </c>
       <c r="C10" t="n">
-        <v>4.749886328846176e-13</v>
+        <v>1.117184617983333e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8914712030093366</v>
+        <v>2.224070944930789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6777128173152518</v>
+        <v>0.3030118808775136</v>
       </c>
     </row>
     <row r="12">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2259.531566736009</v>
+        <v>-2324.709977948532</v>
       </c>
       <c r="C12" t="n">
-        <v>1.476727842839025e-11</v>
+        <v>1.073490318880313e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1014.800176846471</v>
+        <v>-803.706277884995</v>
       </c>
       <c r="C13" t="n">
-        <v>2.485094331395684e-05</v>
+        <v>0.0006844674205883186</v>
       </c>
     </row>
     <row r="14">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7453.766060153588</v>
+        <v>7056.658560119416</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0181590363739e-36</v>
+        <v>2.282236469422598e-32</v>
       </c>
     </row>
     <row r="15">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.11588975197368</v>
+        <v>22.03781680277308</v>
       </c>
       <c r="C15" t="n">
-        <v>1.514765614323727e-06</v>
+        <v>0.0002064420264253419</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5533.578799042739</v>
+        <v>5651.230876740937</v>
       </c>
       <c r="C2" t="n">
-        <v>2.404289017751954e-25</v>
+        <v>3.67021390636732e-26</v>
       </c>
     </row>
     <row r="3">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1856.349653918705</v>
+        <v>-1760.299416320981</v>
       </c>
       <c r="C3" t="n">
-        <v>1.813085279708912e-14</v>
+        <v>6.758028033162385e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2416.684470880561</v>
+        <v>-2331.643823559826</v>
       </c>
       <c r="C4" t="n">
-        <v>9.314719546324409e-22</v>
+        <v>6.664042654720393e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2175.024815090241</v>
+        <v>-1976.744418288925</v>
       </c>
       <c r="C5" t="n">
-        <v>1.602906687562792e-16</v>
+        <v>8.976235541762835e-14</v>
       </c>
     </row>
     <row r="6">
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.67065926437857</v>
+        <v>53.32655216669934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001413725659806183</v>
+        <v>0.001026858521809503</v>
       </c>
     </row>
     <row r="7">
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.9292654398797</v>
+        <v>107.4102623616345</v>
       </c>
       <c r="C7" t="n">
-        <v>1.760669078975516e-37</v>
+        <v>1.396524968254305e-35</v>
       </c>
     </row>
     <row r="8">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03941116814584888</v>
+        <v>-0.03713385966241577</v>
       </c>
       <c r="C8" t="n">
-        <v>5.514360085393034e-09</v>
+        <v>3.412050648448547e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.707039489040419e-07</v>
+        <v>-2.196305933806614e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8610767146152876</v>
+        <v>0.5095355563362212</v>
       </c>
     </row>
     <row r="10">
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.76686639381008</v>
+        <v>-18.57505563263889</v>
       </c>
       <c r="C10" t="n">
-        <v>2.528299363729963e-16</v>
+        <v>2.804476137908457e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2050325673124798</v>
+        <v>1.375520380565759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9249486052069691</v>
+        <v>0.5186757012483438</v>
       </c>
     </row>
     <row r="12">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2090.955928079463</v>
+        <v>-2340.377558089666</v>
       </c>
       <c r="C12" t="n">
-        <v>7.668321227367205e-11</v>
+        <v>1.122157780315519e-12</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-699.3042497077442</v>
+        <v>-1026.481816038814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002311155230797839</v>
+        <v>9.866992102442996e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8349.261279786184</v>
+        <v>7487.225230180835</v>
       </c>
       <c r="C14" t="n">
-        <v>1.349343638656069e-44</v>
+        <v>3.82787719835864e-37</v>
       </c>
     </row>
     <row r="15">
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.02498940823367</v>
+        <v>25.88037842536308</v>
       </c>
       <c r="C15" t="n">
-        <v>5.187466892417398e-06</v>
+        <v>9.270562466997502e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5595.752591488388</v>
+        <v>6112.676906424277</v>
       </c>
       <c r="C2" t="n">
-        <v>1.768651282629765e-23</v>
+        <v>1.176785183869585e-29</v>
       </c>
     </row>
     <row r="3">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1780.456855037767</v>
+        <v>-1945.288161851935</v>
       </c>
       <c r="C3" t="n">
-        <v>1.819289369721902e-11</v>
+        <v>1.150098073588245e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2373.112916609547</v>
+        <v>-2470.925129955525</v>
       </c>
       <c r="C4" t="n">
-        <v>5.981871863984952e-18</v>
+        <v>3.466632818566538e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1891.593241111116</v>
+        <v>-2213.274822304401</v>
       </c>
       <c r="C5" t="n">
-        <v>3.225853963934672e-11</v>
+        <v>3.931860647170495e-16</v>
       </c>
     </row>
     <row r="6">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.12608247546399</v>
+        <v>59.25999861441589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008341928964704943</v>
+        <v>0.0003349161238391841</v>
       </c>
     </row>
     <row r="7">
@@ -2752,10 +2752,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.0613524847761</v>
+        <v>110.243285977294</v>
       </c>
       <c r="C7" t="n">
-        <v>4.592937630632501e-33</v>
+        <v>1.711175446632254e-36</v>
       </c>
     </row>
     <row r="8">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04018103923064432</v>
+        <v>-0.03423676138743717</v>
       </c>
       <c r="C8" t="n">
-        <v>5.008849858560799e-09</v>
+        <v>3.107375003927293e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.615165662858295e-06</v>
+        <v>-7.362325531849986e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.633706147336057</v>
+        <v>0.1028309312223086</v>
       </c>
     </row>
     <row r="10">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.17080083063335</v>
+        <v>-21.60791354169351</v>
       </c>
       <c r="C10" t="n">
-        <v>8.214563213545953e-13</v>
+        <v>5.91596256367664e-18</v>
       </c>
     </row>
     <row r="11">
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.179663031284875</v>
+        <v>-1.772790169947148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6072964526114415</v>
+        <v>0.4069157092742975</v>
       </c>
     </row>
     <row r="12">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2358.243312070542</v>
+        <v>-2504.699141041625</v>
       </c>
       <c r="C12" t="n">
-        <v>4.740452887614823e-12</v>
+        <v>2.361537451796883e-14</v>
       </c>
     </row>
     <row r="13">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-973.3578738559797</v>
+        <v>-765.0015642930625</v>
       </c>
       <c r="C13" t="n">
-        <v>6.04032999874991e-05</v>
+        <v>0.001048936027901349</v>
       </c>
     </row>
     <row r="14">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7104.218116481361</v>
+        <v>7903.526427743684</v>
       </c>
       <c r="C14" t="n">
-        <v>2.250364537036953e-31</v>
+        <v>4.727658379675702e-39</v>
       </c>
     </row>
     <row r="15">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.94018818684529</v>
+        <v>25.41283345083126</v>
       </c>
       <c r="C15" t="n">
-        <v>4.176417681227181e-06</v>
+        <v>2.138928236888362e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5220.676543750606</v>
+        <v>5184.13222322852</v>
       </c>
       <c r="C2" t="n">
-        <v>2.206618006087101e-21</v>
+        <v>2.974750093389418e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1723.528499741415</v>
+        <v>-1726.794561978599</v>
       </c>
       <c r="C3" t="n">
-        <v>5.630518959941852e-12</v>
+        <v>1.217160956287095e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2931,10 +2931,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2308.787207666432</v>
+        <v>-2337.249927327749</v>
       </c>
       <c r="C4" t="n">
-        <v>8.664226049504412e-19</v>
+        <v>9.949617244990127e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2031.667154221024</v>
+        <v>-2097.69178200332</v>
       </c>
       <c r="C5" t="n">
-        <v>4.325268107209238e-14</v>
+        <v>9.73956307830496e-17</v>
       </c>
     </row>
     <row r="6">
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.03380479215905</v>
+        <v>45.76017631161653</v>
       </c>
       <c r="C6" t="n">
-        <v>3.452758600679408e-05</v>
+        <v>0.005465018770392577</v>
       </c>
     </row>
     <row r="7">
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.8677561493094</v>
+        <v>116.4974968045267</v>
       </c>
       <c r="C7" t="n">
-        <v>7.112782832061047e-38</v>
+        <v>1.104386966077639e-41</v>
       </c>
     </row>
     <row r="8">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03464910146006937</v>
+        <v>-0.03451659113298504</v>
       </c>
       <c r="C8" t="n">
-        <v>3.311868782787492e-07</v>
+        <v>1.795313893647195e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.66063139230182e-06</v>
+        <v>-2.968762123998942e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1976575985246014</v>
+        <v>0.3436212140830213</v>
       </c>
     </row>
     <row r="10">
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.13367152835216</v>
+        <v>-17.95779199899824</v>
       </c>
       <c r="C10" t="n">
-        <v>9.92830306660781e-12</v>
+        <v>1.414293993974035e-13</v>
       </c>
     </row>
     <row r="11">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.214502298695599</v>
+        <v>0.935077751902103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.593797840140581</v>
+        <v>0.6453467583293151</v>
       </c>
     </row>
     <row r="12">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2042.070731931399</v>
+        <v>-2339.208926560099</v>
       </c>
       <c r="C12" t="n">
-        <v>2.662958420102467e-09</v>
+        <v>2.106140211112689e-12</v>
       </c>
     </row>
     <row r="13">
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-962.1898265894351</v>
+        <v>-953.4811887323497</v>
       </c>
       <c r="C13" t="n">
-        <v>5.341194963702279e-05</v>
+        <v>4.054100996846023e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7322.645265709547</v>
+        <v>7620.5863199907</v>
       </c>
       <c r="C14" t="n">
-        <v>9.977417479449939e-35</v>
+        <v>9.115688091160133e-37</v>
       </c>
     </row>
     <row r="15">
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.1400209530035</v>
+        <v>33.71031617565043</v>
       </c>
       <c r="C15" t="n">
-        <v>6.955931701399075e-07</v>
+        <v>1.099569579823234e-08</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5922.430757511257</v>
+        <v>5321.021997461561</v>
       </c>
       <c r="C2" t="n">
-        <v>9.547273466748525e-29</v>
+        <v>1.805356786322039e-23</v>
       </c>
     </row>
     <row r="3">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1870.854948941193</v>
+        <v>-1453.855086035426</v>
       </c>
       <c r="C3" t="n">
-        <v>2.438628877727303e-15</v>
+        <v>5.242446938008123e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2429.420329919485</v>
+        <v>-2120.532697674671</v>
       </c>
       <c r="C4" t="n">
-        <v>1.261185319024332e-22</v>
+        <v>5.91259971613291e-16</v>
       </c>
     </row>
     <row r="5">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2012.343695027991</v>
+        <v>-1672.483636761929</v>
       </c>
       <c r="C5" t="n">
-        <v>2.94601297899651e-15</v>
+        <v>5.057397945790373e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.91387414300802</v>
+        <v>55.1602713810904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000230008168540948</v>
+        <v>0.0005807749483236203</v>
       </c>
     </row>
     <row r="7">
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.4373459465988</v>
+        <v>112.2121400228488</v>
       </c>
       <c r="C7" t="n">
-        <v>2.269849462821459e-37</v>
+        <v>7.919718908953223e-37</v>
       </c>
     </row>
     <row r="8">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03520182033186515</v>
+        <v>-0.03978759941241097</v>
       </c>
       <c r="C8" t="n">
-        <v>5.7307439471818e-08</v>
+        <v>1.666325198682401e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.923230727938391e-06</v>
+        <v>-1.243657090471811e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3733875941872474</v>
+        <v>0.7179505521807987</v>
       </c>
     </row>
     <row r="10">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.4282552383104</v>
+        <v>-18.9233144277781</v>
       </c>
       <c r="C10" t="n">
-        <v>4.059553559264536e-15</v>
+        <v>7.229074292561623e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.400851338758353</v>
+        <v>1.682155699900179</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5016642331766163</v>
+        <v>0.431431180554646</v>
       </c>
     </row>
     <row r="12">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2195.808394487751</v>
+        <v>-2280.368331422294</v>
       </c>
       <c r="C12" t="n">
-        <v>2.681310403679022e-10</v>
+        <v>1.903248497681924e-11</v>
       </c>
     </row>
     <row r="13">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-909.8749517203157</v>
+        <v>-894.819890146193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001413618160519236</v>
+        <v>0.000164379334481242</v>
       </c>
     </row>
     <row r="14">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6645.934009782187</v>
+        <v>7275.809654488718</v>
       </c>
       <c r="C14" t="n">
-        <v>3.643088541613578e-28</v>
+        <v>8.260010740612226e-35</v>
       </c>
     </row>
     <row r="15">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.20393530341136</v>
+        <v>25.19888995068686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001047518150855626</v>
+        <v>2.845073934760248e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5291.255671660543</v>
+        <v>5721.972462329364</v>
       </c>
       <c r="C2" t="n">
-        <v>3.735488715973107e-24</v>
+        <v>8.299390122448663e-27</v>
       </c>
     </row>
     <row r="3">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1477.696895319977</v>
+        <v>-1562.425461433319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.969220410344654e-10</v>
+        <v>1.36918132922136e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1987.971288644069</v>
+        <v>-2114.063594601917</v>
       </c>
       <c r="C4" t="n">
-        <v>1.71458522959928e-16</v>
+        <v>5.006656122630101e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1658.214728263886</v>
+        <v>-1753.042152388732</v>
       </c>
       <c r="C5" t="n">
-        <v>4.415143942447529e-11</v>
+        <v>2.390154305689864e-11</v>
       </c>
     </row>
     <row r="6">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.44294341198216</v>
+        <v>54.42379732557306</v>
       </c>
       <c r="C6" t="n">
-        <v>5.370002145225613e-05</v>
+        <v>0.0006997114128423838</v>
       </c>
     </row>
     <row r="7">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.9009788184333</v>
+        <v>112.0136780557157</v>
       </c>
       <c r="C7" t="n">
-        <v>4.03008647179309e-33</v>
+        <v>2.206597705160966e-36</v>
       </c>
     </row>
     <row r="8">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03801429832507727</v>
+        <v>-0.03755565309402365</v>
       </c>
       <c r="C8" t="n">
-        <v>1.67394623086054e-08</v>
+        <v>2.753863767069194e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.2930113012671e-06</v>
+        <v>-1.745053511843843e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6847358725913593</v>
+        <v>0.5804936887402856</v>
       </c>
     </row>
     <row r="10">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.35077865603571</v>
+        <v>-19.85671182907656</v>
       </c>
       <c r="C10" t="n">
-        <v>6.751941951601761e-14</v>
+        <v>5.888687969843448e-16</v>
       </c>
     </row>
     <row r="11">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9009042283676747</v>
+        <v>-1.4044504774121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6660476878711097</v>
+        <v>0.5200026911449063</v>
       </c>
     </row>
     <row r="12">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2258.749584482925</v>
+        <v>-2069.78202481162</v>
       </c>
       <c r="C12" t="n">
-        <v>5.535773151077247e-12</v>
+        <v>3.328845799062578e-10</v>
       </c>
     </row>
     <row r="13">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-997.4124621187621</v>
+        <v>-941.2320646621697</v>
       </c>
       <c r="C13" t="n">
-        <v>1.950409309472562e-05</v>
+        <v>4.931836765879304e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7544.74129756253</v>
+        <v>7253.122157294341</v>
       </c>
       <c r="C14" t="n">
-        <v>5.864598624832764e-37</v>
+        <v>5.040051237826595e-36</v>
       </c>
     </row>
     <row r="15">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.35744486539781</v>
+        <v>26.10397151513838</v>
       </c>
       <c r="C15" t="n">
-        <v>2.473878037406193e-07</v>
+        <v>7.953602157176567e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5632.492185445417</v>
+        <v>5710.731874635965</v>
       </c>
       <c r="C2" t="n">
-        <v>1.543055715727159e-25</v>
+        <v>2.76500650369301e-27</v>
       </c>
     </row>
     <row r="3">
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1659.844461718184</v>
+        <v>-1622.062184368487</v>
       </c>
       <c r="C3" t="n">
-        <v>4.253047274453653e-11</v>
+        <v>2.342098730657753e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2235.476848787603</v>
+        <v>-2088.835194434709</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353726976512189e-17</v>
+        <v>4.142889238044328e-15</v>
       </c>
     </row>
     <row r="5">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1857.327379895916</v>
+        <v>-1743.721369005811</v>
       </c>
       <c r="C5" t="n">
-        <v>6.395272588151805e-12</v>
+        <v>1.671170317844214e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.32762472018084</v>
+        <v>58.10464357985019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001308025232559648</v>
+        <v>0.0003606702849126752</v>
       </c>
     </row>
     <row r="7">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.3805461898801</v>
+        <v>110.7513390229992</v>
       </c>
       <c r="C7" t="n">
-        <v>3.094235332927332e-38</v>
+        <v>2.230930901817321e-40</v>
       </c>
     </row>
     <row r="8">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03839527688383099</v>
+        <v>-0.04356973405859318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.136346490974875e-08</v>
+        <v>4.627845031934841e-11</v>
       </c>
     </row>
     <row r="9">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.59435468921698e-06</v>
+        <v>-8.091851620178868e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6306944467701832</v>
+        <v>0.800573979769918</v>
       </c>
     </row>
     <row r="10">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.9687968103014</v>
+        <v>-16.83041741101522</v>
       </c>
       <c r="C10" t="n">
-        <v>1.525687598448798e-14</v>
+        <v>2.84193915040844e-12</v>
       </c>
     </row>
     <row r="11">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4653510275032899</v>
+        <v>1.591191077701481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8297131660283473</v>
+        <v>0.4299265660266332</v>
       </c>
     </row>
     <row r="12">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2194.051557097446</v>
+        <v>-2395.350596504415</v>
       </c>
       <c r="C12" t="n">
-        <v>5.489603974618217e-11</v>
+        <v>3.63482023846592e-13</v>
       </c>
     </row>
     <row r="13">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1012.672775978558</v>
+        <v>-791.3974721480654</v>
       </c>
       <c r="C13" t="n">
-        <v>1.719347569354714e-05</v>
+        <v>0.0005971998759874699</v>
       </c>
     </row>
     <row r="14">
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7004.6571861267</v>
+        <v>7202.500738685605</v>
       </c>
       <c r="C14" t="n">
-        <v>1.926571240535987e-31</v>
+        <v>1.125520307150288e-32</v>
       </c>
     </row>
     <row r="15">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.47745999855608</v>
+        <v>16.0632374962042</v>
       </c>
       <c r="C15" t="n">
-        <v>1.035443135053659e-05</v>
+        <v>0.005085568873434253</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5968.211640753065</v>
+        <v>5700.723788816184</v>
       </c>
       <c r="C2" t="n">
-        <v>4.710477742095033e-28</v>
+        <v>1.652620430210099e-26</v>
       </c>
     </row>
     <row r="3">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1956.669210096488</v>
+        <v>-1816.190141598046</v>
       </c>
       <c r="C3" t="n">
-        <v>2.884129231339049e-15</v>
+        <v>6.584612718534298e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2582.467286323731</v>
+        <v>-2437.610050927922</v>
       </c>
       <c r="C4" t="n">
-        <v>1.68240785470576e-23</v>
+        <v>8.246782742902345e-22</v>
       </c>
     </row>
     <row r="5">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2046.746844502564</v>
+        <v>-1909.344975586371</v>
       </c>
       <c r="C5" t="n">
-        <v>1.383368412676306e-14</v>
+        <v>3.064744131032561e-13</v>
       </c>
     </row>
     <row r="6">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.81657044788022</v>
+        <v>48.10553336337644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002875374886303329</v>
+        <v>0.003001411565662704</v>
       </c>
     </row>
     <row r="7">
@@ -3842,10 +3842,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.0619504212943</v>
+        <v>105.2084602162405</v>
       </c>
       <c r="C7" t="n">
-        <v>2.702392221385075e-31</v>
+        <v>2.900711037564923e-34</v>
       </c>
     </row>
     <row r="8">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03609527818587174</v>
+        <v>-0.03481691724587099</v>
       </c>
       <c r="C8" t="n">
-        <v>1.826055721534835e-07</v>
+        <v>3.69437514715551e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.238266907990927e-05</v>
+        <v>-8.101576499356766e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01508751936124289</v>
+        <v>0.08676980740523697</v>
       </c>
     </row>
     <row r="10">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.44689925767495</v>
+        <v>-19.71306705397983</v>
       </c>
       <c r="C10" t="n">
-        <v>6.932449821812625e-14</v>
+        <v>2.074685540087686e-15</v>
       </c>
     </row>
     <row r="11">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.855948303092831</v>
+        <v>1.75719061946139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1925951305858213</v>
+        <v>0.404761263437536</v>
       </c>
     </row>
     <row r="12">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2349.591910900605</v>
+        <v>-2590.315648353479</v>
       </c>
       <c r="C12" t="n">
-        <v>2.000093669647993e-12</v>
+        <v>6.366865821695042e-14</v>
       </c>
     </row>
     <row r="13">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-814.156196624998</v>
+        <v>-869.1961216374942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000535762492042633</v>
+        <v>0.000215974653194229</v>
       </c>
     </row>
     <row r="14">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7484.841128413998</v>
+        <v>7000.477979245686</v>
       </c>
       <c r="C14" t="n">
-        <v>3.243645788179028e-36</v>
+        <v>6.284336131375962e-33</v>
       </c>
     </row>
     <row r="15">
@@ -3946,10 +3946,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.77151486705313</v>
+        <v>28.20647944443654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001764422914883017</v>
+        <v>2.988132706920317e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5576.377027510919</v>
+        <v>5710.515529961982</v>
       </c>
       <c r="C2" t="n">
-        <v>3.226966339795013e-25</v>
+        <v>3.893321339143963e-26</v>
       </c>
     </row>
     <row r="3">
@@ -4008,10 +4008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1777.668592837973</v>
+        <v>-1686.183607804415</v>
       </c>
       <c r="C3" t="n">
-        <v>1.439688353169574e-13</v>
+        <v>9.334297234856098e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2340.899741346992</v>
+        <v>-2347.285198658831</v>
       </c>
       <c r="C4" t="n">
-        <v>1.607552545302381e-20</v>
+        <v>3.114524226433985e-21</v>
       </c>
     </row>
     <row r="5">
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1997.109613126804</v>
+        <v>-1968.224741261307</v>
       </c>
       <c r="C5" t="n">
-        <v>3.300044233627373e-14</v>
+        <v>2.826157225488181e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4047,10 +4047,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.70122093890069</v>
+        <v>52.32463587010671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001321498880608198</v>
+        <v>0.001567779504265526</v>
       </c>
     </row>
     <row r="7">
@@ -4060,10 +4060,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.3106823976124</v>
+        <v>110.0153689504326</v>
       </c>
       <c r="C7" t="n">
-        <v>6.580438585457883e-34</v>
+        <v>4.414183779651253e-33</v>
       </c>
     </row>
     <row r="8">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03555146006757864</v>
+        <v>-0.03910875195907666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.709889322837206e-07</v>
+        <v>2.079196520185153e-08</v>
       </c>
     </row>
     <row r="9">
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.055234016088681e-06</v>
+        <v>-2.11162333093677e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5379302138705248</v>
+        <v>0.5156929494589657</v>
       </c>
     </row>
     <row r="10">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.31472980629647</v>
+        <v>-19.76855235083981</v>
       </c>
       <c r="C10" t="n">
-        <v>8.376075434742372e-15</v>
+        <v>5.755592964060101e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3242755904087833</v>
+        <v>0.7074883860523684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8775321764954302</v>
+        <v>0.7498613792413247</v>
       </c>
     </row>
     <row r="12">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2340.749805497019</v>
+        <v>-2466.790815999361</v>
       </c>
       <c r="C12" t="n">
-        <v>3.54177586014632e-12</v>
+        <v>1.491490931043271e-13</v>
       </c>
     </row>
     <row r="13">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-965.2228904654338</v>
+        <v>-806.9784730264261</v>
       </c>
       <c r="C13" t="n">
-        <v>8.20827722421324e-05</v>
+        <v>0.0006840945338855551</v>
       </c>
     </row>
     <row r="14">
@@ -4151,10 +4151,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7540.100288917854</v>
+        <v>7436.677135694335</v>
       </c>
       <c r="C14" t="n">
-        <v>1.349068313447807e-35</v>
+        <v>2.628082097645275e-35</v>
       </c>
     </row>
     <row r="15">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.89055445407792</v>
+        <v>24.97901083335036</v>
       </c>
       <c r="C15" t="n">
-        <v>1.569281820900603e-06</v>
+        <v>2.915353264599869e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5181.973399243312</v>
+        <v>5419.421482253527</v>
       </c>
       <c r="C2" t="n">
-        <v>2.397431745972615e-21</v>
+        <v>2.484795454899425e-24</v>
       </c>
     </row>
     <row r="3">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1616.84547110998</v>
+        <v>-1808.404639881848</v>
       </c>
       <c r="C3" t="n">
-        <v>6.364323087095561e-11</v>
+        <v>5.052787991578643e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2251.507634785316</v>
+        <v>-2404.495677535842</v>
       </c>
       <c r="C4" t="n">
-        <v>2.364519310011675e-18</v>
+        <v>9.927976111280231e-22</v>
       </c>
     </row>
     <row r="5">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1890.913993857797</v>
+        <v>-2073.24569370242</v>
       </c>
       <c r="C5" t="n">
-        <v>1.158480872637488e-12</v>
+        <v>1.450237260595979e-15</v>
       </c>
     </row>
     <row r="6">
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.26917174174604</v>
+        <v>70.41072443454371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001917642030441045</v>
+        <v>1.551505117086189e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4278,10 +4278,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.5639941872678</v>
+        <v>112.4709158539074</v>
       </c>
       <c r="C7" t="n">
-        <v>2.992854280129179e-39</v>
+        <v>1.134186495510924e-39</v>
       </c>
     </row>
     <row r="8">
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0368932367096098</v>
+        <v>-0.03376750433448661</v>
       </c>
       <c r="C8" t="n">
-        <v>5.834812743349688e-08</v>
+        <v>3.62242466175045e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.247435073553589e-06</v>
+        <v>-3.793587953400398e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4857785428300638</v>
+        <v>0.2901931371019749</v>
       </c>
     </row>
     <row r="10">
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.97673408539615</v>
+        <v>-18.5161093566326</v>
       </c>
       <c r="C10" t="n">
-        <v>2.06567933449382e-13</v>
+        <v>1.34292095536871e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.749515259454396</v>
+        <v>1.069777837179062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4282259425981693</v>
+        <v>0.6134652355741202</v>
       </c>
     </row>
     <row r="12">
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2201.687551253289</v>
+        <v>-2389.422597059562</v>
       </c>
       <c r="C12" t="n">
-        <v>1.507703871718284e-10</v>
+        <v>4.260870902791712e-13</v>
       </c>
     </row>
     <row r="13">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-819.7643671155465</v>
+        <v>-1057.045258742624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006518763491000635</v>
+        <v>8.751464837232724e-06</v>
       </c>
     </row>
     <row r="14">
@@ -4369,10 +4369,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7314.138290113459</v>
+        <v>7471.664605251816</v>
       </c>
       <c r="C14" t="n">
-        <v>1.607336697287017e-34</v>
+        <v>2.591113838354008e-36</v>
       </c>
     </row>
     <row r="15">
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.17897497785756</v>
+        <v>30.9202654905192</v>
       </c>
       <c r="C15" t="n">
-        <v>6.777694694669937e-07</v>
+        <v>2.100291941774258e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5361.879788367598</v>
+        <v>4966.38103055257</v>
       </c>
       <c r="C2" t="n">
-        <v>2.801723713190056e-22</v>
+        <v>1.008522818623138e-20</v>
       </c>
     </row>
     <row r="3">
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1638.210453011175</v>
+        <v>-1516.647095327044</v>
       </c>
       <c r="C3" t="n">
-        <v>2.530428814922086e-11</v>
+        <v>4.888282728573727e-10</v>
       </c>
     </row>
     <row r="4">
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2316.208028450123</v>
+        <v>-2189.464785355621</v>
       </c>
       <c r="C4" t="n">
-        <v>1.686595822554194e-19</v>
+        <v>4.91305280120979e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1858.38194211551</v>
+        <v>-1590.121560206131</v>
       </c>
       <c r="C5" t="n">
-        <v>3.446906861919358e-12</v>
+        <v>9.471770174903998e-10</v>
       </c>
     </row>
     <row r="6">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.20809726433278</v>
+        <v>30.98302344869469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005324586980942337</v>
+        <v>0.04421121415673107</v>
       </c>
     </row>
     <row r="7">
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.8185105133066</v>
+        <v>114.6789314436518</v>
       </c>
       <c r="C7" t="n">
-        <v>1.689107424571373e-30</v>
+        <v>7.742276561364225e-43</v>
       </c>
     </row>
     <row r="8">
@@ -4509,10 +4509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03359480077526603</v>
+        <v>-0.04106615276051231</v>
       </c>
       <c r="C8" t="n">
-        <v>1.852382777994895e-06</v>
+        <v>3.886028895149325e-10</v>
       </c>
     </row>
     <row r="9">
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.965659443420072e-06</v>
+        <v>-6.616290654033661e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03883108022544199</v>
+        <v>0.1664053091690607</v>
       </c>
     </row>
     <row r="10">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.59229284960415</v>
+        <v>-16.84648509847953</v>
       </c>
       <c r="C10" t="n">
-        <v>8.625242210449344e-14</v>
+        <v>1.726490452114573e-12</v>
       </c>
     </row>
     <row r="11">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.188934831780315</v>
+        <v>5.717097380795329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3569648660620042</v>
+        <v>0.0100458888961506</v>
       </c>
     </row>
     <row r="12">
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2324.377744935969</v>
+        <v>-2464.226063943143</v>
       </c>
       <c r="C12" t="n">
-        <v>1.714643157259482e-11</v>
+        <v>7.049199695338752e-15</v>
       </c>
     </row>
     <row r="13">
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1060.065872170571</v>
+        <v>-869.6334505954703</v>
       </c>
       <c r="C13" t="n">
-        <v>1.558131382909084e-05</v>
+        <v>0.000128734551014796</v>
       </c>
     </row>
     <row r="14">
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7851.539684883554</v>
+        <v>6354.477634786248</v>
       </c>
       <c r="C14" t="n">
-        <v>6.185893404678388e-37</v>
+        <v>7.043889740067567e-28</v>
       </c>
     </row>
     <row r="15">
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.02528190717195</v>
+        <v>28.77303124511213</v>
       </c>
       <c r="C15" t="n">
-        <v>2.549549104243399e-06</v>
+        <v>5.015525987776102e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5630.660460681514</v>
+        <v>5797.478646398187</v>
       </c>
       <c r="C2" t="n">
-        <v>3.153549179154162e-25</v>
+        <v>2.601861815291187e-29</v>
       </c>
     </row>
     <row r="3">
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1821.814848257418</v>
+        <v>-1716.710366869583</v>
       </c>
       <c r="C3" t="n">
-        <v>7.043940512214471e-13</v>
+        <v>1.230803680033306e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2394.507002443713</v>
+        <v>-2311.180967832127</v>
       </c>
       <c r="C4" t="n">
-        <v>1.667696036059847e-19</v>
+        <v>2.302017255616156e-21</v>
       </c>
     </row>
     <row r="5">
@@ -4688,10 +4688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2078.005741805992</v>
+        <v>-1879.471565965893</v>
       </c>
       <c r="C5" t="n">
-        <v>4.164966558808573e-14</v>
+        <v>1.028633043738254e-13</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.12235454561369</v>
+        <v>68.15838959355617</v>
       </c>
       <c r="C6" t="n">
-        <v>1.819436260875665e-05</v>
+        <v>6.141044887247398e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.1958595065509</v>
+        <v>105.8800895685144</v>
       </c>
       <c r="C7" t="n">
-        <v>1.005037226176466e-33</v>
+        <v>1.362935625305838e-34</v>
       </c>
     </row>
     <row r="8">
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03852211379620844</v>
+        <v>-0.03625615927372736</v>
       </c>
       <c r="C8" t="n">
-        <v>3.068751312952605e-08</v>
+        <v>5.780676868873719e-08</v>
       </c>
     </row>
     <row r="9">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.764111640442137e-06</v>
+        <v>-1.192318555410079e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5867872188676956</v>
+        <v>0.7172151640850539</v>
       </c>
     </row>
     <row r="10">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.0905517502537</v>
+        <v>-19.35375357403981</v>
       </c>
       <c r="C10" t="n">
-        <v>3.708374634242218e-14</v>
+        <v>1.725214905188171e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.125990047561007</v>
+        <v>1.249719751752491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5912512002917441</v>
+        <v>0.5373457253981923</v>
       </c>
     </row>
     <row r="12">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2139.769740379029</v>
+        <v>-2464.448963030246</v>
       </c>
       <c r="C12" t="n">
-        <v>5.084289837339118e-10</v>
+        <v>3.268280112684785e-13</v>
       </c>
     </row>
     <row r="13">
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-669.298568809206</v>
+        <v>-1027.418653095211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007279783829619086</v>
+        <v>9.043001496437422e-06</v>
       </c>
     </row>
     <row r="14">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7701.840876224108</v>
+        <v>7233.102121095488</v>
       </c>
       <c r="C14" t="n">
-        <v>7.323079367301771e-37</v>
+        <v>2.18956013600298e-37</v>
       </c>
     </row>
     <row r="15">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.31991757383817</v>
+        <v>22.70681572778305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002777322607608217</v>
+        <v>0.0001528397490875616</v>
       </c>
     </row>
   </sheetData>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6058.2362814151</v>
+        <v>6152.398174234348</v>
       </c>
       <c r="C2" t="n">
-        <v>2.894955568920833e-30</v>
+        <v>6.066401493865305e-29</v>
       </c>
     </row>
     <row r="3">
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1896.13183248666</v>
+        <v>-1858.101061032793</v>
       </c>
       <c r="C3" t="n">
-        <v>3.567601721012712e-16</v>
+        <v>4.092720888289797e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2400.47988869873</v>
+        <v>-2328.219030340934</v>
       </c>
       <c r="C4" t="n">
-        <v>4.058472243000415e-23</v>
+        <v>8.259253606326624e-20</v>
       </c>
     </row>
     <row r="5">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1898.94550615185</v>
+        <v>-2000.754466799297</v>
       </c>
       <c r="C5" t="n">
-        <v>3.212878485218191e-14</v>
+        <v>5.001913166460344e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.00558520443001</v>
+        <v>68.19807705472458</v>
       </c>
       <c r="C6" t="n">
-        <v>6.773716206113694e-06</v>
+        <v>4.434324219901213e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4932,10 +4932,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.9056667148164</v>
+        <v>111.2217715973603</v>
       </c>
       <c r="C7" t="n">
-        <v>9.925150937628458e-34</v>
+        <v>1.437539219817331e-36</v>
       </c>
     </row>
     <row r="8">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03911536725053225</v>
+        <v>-0.03350394250098257</v>
       </c>
       <c r="C8" t="n">
-        <v>1.273613591595591e-08</v>
+        <v>1.390606731356642e-06</v>
       </c>
     </row>
     <row r="9">
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.166071287962951e-06</v>
+        <v>-3.301178831104243e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3427806076817111</v>
+        <v>0.3365566690488331</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.2004415707436</v>
+        <v>-20.02923283354218</v>
       </c>
       <c r="C10" t="n">
-        <v>1.72467411697403e-13</v>
+        <v>9.097352162933626e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9161658433320374</v>
+        <v>-2.29315075160667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.654969533945986</v>
+        <v>0.2942094423727599</v>
       </c>
     </row>
     <row r="12">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2555.898380898579</v>
+        <v>-2385.088718710458</v>
       </c>
       <c r="C12" t="n">
-        <v>1.255596741735333e-14</v>
+        <v>1.390490114371621e-12</v>
       </c>
     </row>
     <row r="13">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1015.617749258003</v>
+        <v>-1016.487514722499</v>
       </c>
       <c r="C13" t="n">
-        <v>1.214882370832657e-05</v>
+        <v>2.274110872534345e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6350.663284729744</v>
+        <v>6774.265085368595</v>
       </c>
       <c r="C14" t="n">
-        <v>3.064959966562841e-27</v>
+        <v>3.299828941120401e-29</v>
       </c>
     </row>
     <row r="15">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.9239258850637</v>
+        <v>25.97378205843281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001001168471948978</v>
+        <v>1.609815442637261e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5220.102863538497</v>
+        <v>5846.838745861467</v>
       </c>
       <c r="C2" t="n">
-        <v>1.480206850043676e-22</v>
+        <v>1.167268985863251e-28</v>
       </c>
     </row>
     <row r="3">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1607.444531745335</v>
+        <v>-1655.680147068466</v>
       </c>
       <c r="C3" t="n">
-        <v>9.247015495079058e-11</v>
+        <v>2.417152412627528e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2205.099204916853</v>
+        <v>-2210.611148383495</v>
       </c>
       <c r="C4" t="n">
-        <v>1.671493010681599e-17</v>
+        <v>1.522566339978941e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1806.798667966394</v>
+        <v>-1909.305628937809</v>
       </c>
       <c r="C5" t="n">
-        <v>1.022206233886955e-11</v>
+        <v>7.664045530876152e-13</v>
       </c>
     </row>
     <row r="6">
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.38256241731235</v>
+        <v>47.0364578736792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002848573637695675</v>
+        <v>0.002843487070055075</v>
       </c>
     </row>
     <row r="7">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.3515159646733</v>
+        <v>111.8315719254713</v>
       </c>
       <c r="C7" t="n">
-        <v>1.66682198376033e-38</v>
+        <v>1.162889730892944e-38</v>
       </c>
     </row>
     <row r="8">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03394168777421799</v>
+        <v>-0.04101461486965684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.514638716347166e-07</v>
+        <v>4.419211060035904e-10</v>
       </c>
     </row>
     <row r="9">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.007775384810036e-06</v>
+        <v>-1.95024336637707e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7596073814605921</v>
+        <v>0.5361179938825896</v>
       </c>
     </row>
     <row r="10">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.45996434715548</v>
+        <v>-19.79724788095766</v>
       </c>
       <c r="C10" t="n">
-        <v>1.914761712364962e-14</v>
+        <v>1.968125216552068e-16</v>
       </c>
     </row>
     <row r="11">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.31305802407284</v>
+        <v>-1.00777525530089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5327717584246873</v>
+        <v>0.6274854669909189</v>
       </c>
     </row>
     <row r="12">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2110.800979854123</v>
+        <v>-2411.284846874483</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5279997494026e-10</v>
+        <v>4.014854821048834e-13</v>
       </c>
     </row>
     <row r="13">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-991.9727256049667</v>
+        <v>-703.1653655575997</v>
       </c>
       <c r="C13" t="n">
-        <v>2.347048215140029e-05</v>
+        <v>0.002679647207385379</v>
       </c>
     </row>
     <row r="14">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7148.04258243306</v>
+        <v>8153.665771343062</v>
       </c>
       <c r="C14" t="n">
-        <v>9.620866676067265e-33</v>
+        <v>3.157646039251536e-41</v>
       </c>
     </row>
     <row r="15">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.28700188839041</v>
+        <v>20.84694562914978</v>
       </c>
       <c r="C15" t="n">
-        <v>2.116528012344406e-07</v>
+        <v>0.0003369669931961198</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5244.647053074184</v>
+        <v>5458.422482252443</v>
       </c>
       <c r="C2" t="n">
-        <v>2.66545219757194e-23</v>
+        <v>6.114698512581589e-25</v>
       </c>
     </row>
     <row r="3">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1454.057403216792</v>
+        <v>-1528.571047571153</v>
       </c>
       <c r="C3" t="n">
-        <v>2.856760421817519e-09</v>
+        <v>3.459998214848126e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2064.465027141646</v>
+        <v>-2117.154618712393</v>
       </c>
       <c r="C4" t="n">
-        <v>6.901633461629336e-16</v>
+        <v>1.087556656319125e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1574.968348732514</v>
+        <v>-1640.564678494624</v>
       </c>
       <c r="C5" t="n">
-        <v>2.139748190914457e-09</v>
+        <v>4.727548351767653e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.54712497496362</v>
+        <v>58.72194505626908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001266995906832468</v>
+        <v>0.0002744752246379692</v>
       </c>
     </row>
     <row r="7">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.3793124008518</v>
+        <v>108.3262728859237</v>
       </c>
       <c r="C7" t="n">
-        <v>2.023414933064805e-39</v>
+        <v>1.720265333271223e-35</v>
       </c>
     </row>
     <row r="8">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03717393513232038</v>
+        <v>-0.03757141558346402</v>
       </c>
       <c r="C8" t="n">
-        <v>8.1928177491676e-09</v>
+        <v>3.410032842159492e-08</v>
       </c>
     </row>
     <row r="9">
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.564360980618277e-06</v>
+        <v>-7.052417260201942e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6450718471885024</v>
+        <v>0.107332269681596</v>
       </c>
     </row>
     <row r="10">
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.71569094887292</v>
+        <v>-17.86100734181077</v>
       </c>
       <c r="C10" t="n">
-        <v>2.270249240951494e-13</v>
+        <v>3.606223575377739e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.98913106331246</v>
+        <v>2.392401690144319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1520467390371158</v>
+        <v>0.2625305425656014</v>
       </c>
     </row>
     <row r="12">
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2401.016626896588</v>
+        <v>-2361.730749377014</v>
       </c>
       <c r="C12" t="n">
-        <v>1.98260249158155e-13</v>
+        <v>3.827395072563566e-12</v>
       </c>
     </row>
     <row r="13">
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1008.830759906776</v>
+        <v>-920.9051084812154</v>
       </c>
       <c r="C13" t="n">
-        <v>1.911480300676979e-05</v>
+        <v>0.0001022928573622982</v>
       </c>
     </row>
     <row r="14">
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6849.634016673941</v>
+        <v>7262.601073107362</v>
       </c>
       <c r="C14" t="n">
-        <v>6.110378203817669e-31</v>
+        <v>8.158024109444825e-35</v>
       </c>
     </row>
     <row r="15">
@@ -5472,10 +5472,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.36806026693556</v>
+        <v>21.2327776706167</v>
       </c>
       <c r="C15" t="n">
-        <v>3.761625083593529e-05</v>
+        <v>0.0003525627695384729</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5409.81160456083</v>
+        <v>5426.998763713423</v>
       </c>
       <c r="C2" t="n">
-        <v>1.222388759803515e-24</v>
+        <v>1.69603953659912e-23</v>
       </c>
     </row>
     <row r="3">
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1501.119965602811</v>
+        <v>-1725.963854801758</v>
       </c>
       <c r="C3" t="n">
-        <v>2.504339824416092e-10</v>
+        <v>2.386936375120126e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2064.110052107848</v>
+        <v>-2317.898916332359</v>
       </c>
       <c r="C4" t="n">
-        <v>7.585722557323425e-17</v>
+        <v>1.98027666903086e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1772.73071597387</v>
+        <v>-2033.937995532077</v>
       </c>
       <c r="C5" t="n">
-        <v>5.620299768842113e-12</v>
+        <v>3.480783351383044e-14</v>
       </c>
     </row>
     <row r="6">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.17199450095646</v>
+        <v>69.90340912954588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0191498281072167</v>
+        <v>2.501818769720806e-05</v>
       </c>
     </row>
     <row r="7">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.2362318212075</v>
+        <v>107.7436946883705</v>
       </c>
       <c r="C7" t="n">
-        <v>1.555745761441476e-40</v>
+        <v>4.143922488494429e-32</v>
       </c>
     </row>
     <row r="8">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04061653756173594</v>
+        <v>-0.03781406057148614</v>
       </c>
       <c r="C8" t="n">
-        <v>3.900121499009596e-10</v>
+        <v>1.03045614267865e-07</v>
       </c>
     </row>
     <row r="9">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.840886124217798e-06</v>
+        <v>-2.122992670354463e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5676667495761645</v>
+        <v>0.5222243978939787</v>
       </c>
     </row>
     <row r="10">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.84829043270495</v>
+        <v>-18.3560416028814</v>
       </c>
       <c r="C10" t="n">
-        <v>7.295704366150381e-15</v>
+        <v>9.94877349648131e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9645086934581117</v>
+        <v>0.785914273962226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6545119039678569</v>
+        <v>0.713978568405319</v>
       </c>
     </row>
     <row r="12">
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2233.79973469195</v>
+        <v>-2214.344324791435</v>
       </c>
       <c r="C12" t="n">
-        <v>5.827284317844243e-12</v>
+        <v>9.745228807670775e-11</v>
       </c>
     </row>
     <row r="13">
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-861.9936899655418</v>
+        <v>-869.2961163437849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001531685796945426</v>
+        <v>0.0002735855811934201</v>
       </c>
     </row>
     <row r="14">
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7698.160677595211</v>
+        <v>7804.562207523266</v>
       </c>
       <c r="C14" t="n">
-        <v>1.483904003519514e-40</v>
+        <v>5.174738841154854e-38</v>
       </c>
     </row>
     <row r="15">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.36919141647137</v>
+        <v>27.35636576079287</v>
       </c>
       <c r="C15" t="n">
-        <v>6.912098364472942e-07</v>
+        <v>4.631360847592213e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5419.853153528221</v>
+        <v>5650.897453823025</v>
       </c>
       <c r="C2" t="n">
-        <v>4.31672284566483e-26</v>
+        <v>2.269462511637309e-25</v>
       </c>
     </row>
     <row r="3">
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1495.834807475159</v>
+        <v>-1846.808688784738</v>
       </c>
       <c r="C3" t="n">
-        <v>2.647413147109519e-10</v>
+        <v>8.050787422333557e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2021.846548049126</v>
+        <v>-2369.147525548296</v>
       </c>
       <c r="C4" t="n">
-        <v>1.961976871826265e-16</v>
+        <v>1.984437591292972e-20</v>
       </c>
     </row>
     <row r="5">
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1587.024255861106</v>
+        <v>-2115.380597569731</v>
       </c>
       <c r="C5" t="n">
-        <v>6.152295054787299e-10</v>
+        <v>2.022720986641176e-15</v>
       </c>
     </row>
     <row r="6">
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.96919674763295</v>
+        <v>71.001736514139</v>
       </c>
       <c r="C6" t="n">
-        <v>7.332410013673009e-06</v>
+        <v>8.311310229580266e-06</v>
       </c>
     </row>
     <row r="7">
@@ -5804,10 +5804,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.878645897934</v>
+        <v>110.6457317210009</v>
       </c>
       <c r="C7" t="n">
-        <v>1.643436005260316e-34</v>
+        <v>3.946506077830497e-37</v>
       </c>
     </row>
     <row r="8">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03846004861539547</v>
+        <v>-0.03948577692643844</v>
       </c>
       <c r="C8" t="n">
-        <v>3.141044346254031e-09</v>
+        <v>9.120538149911159e-09</v>
       </c>
     </row>
     <row r="9">
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.550544257371527e-07</v>
+        <v>-2.368531804135659e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8852144029197492</v>
+        <v>0.5108799817453242</v>
       </c>
     </row>
     <row r="10">
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.28491145706357</v>
+        <v>-17.40500305265131</v>
       </c>
       <c r="C10" t="n">
-        <v>5.530526017020154e-13</v>
+        <v>4.198969348956227e-12</v>
       </c>
     </row>
     <row r="11">
@@ -5856,10 +5856,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.922037633202669</v>
+        <v>0.6662901499108091</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3448309432755079</v>
+        <v>0.7585446945485572</v>
       </c>
     </row>
     <row r="12">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2424.624952390704</v>
+        <v>-2462.706788929142</v>
       </c>
       <c r="C12" t="n">
-        <v>9.685504769542136e-15</v>
+        <v>2.844839878395858e-13</v>
       </c>
     </row>
     <row r="13">
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-987.4403608960627</v>
+        <v>-942.0719827662812</v>
       </c>
       <c r="C13" t="n">
-        <v>1.91327032187984e-05</v>
+        <v>6.95833789503166e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6677.601149610661</v>
+        <v>7676.074559837165</v>
       </c>
       <c r="C14" t="n">
-        <v>1.165191229334859e-30</v>
+        <v>1.453963376195702e-38</v>
       </c>
     </row>
     <row r="15">
@@ -5908,10 +5908,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.95421424787786</v>
+        <v>25.05882181234023</v>
       </c>
       <c r="C15" t="n">
-        <v>3.130380803771547e-05</v>
+        <v>2.273525372488751e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5731.02747649655</v>
+        <v>5488.708107897653</v>
       </c>
       <c r="C2" t="n">
-        <v>2.948478132278645e-24</v>
+        <v>2.075531566193731e-24</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1940.178397284102</v>
+        <v>-1727.587859762813</v>
       </c>
       <c r="C3" t="n">
-        <v>2.274074852059539e-14</v>
+        <v>2.614460157952577e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2392.79743685295</v>
+        <v>-2371.119509469902</v>
       </c>
       <c r="C4" t="n">
-        <v>2.040914683278973e-19</v>
+        <v>2.934382216084908e-20</v>
       </c>
     </row>
     <row r="5">
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2182.334479086223</v>
+        <v>-1826.068907382051</v>
       </c>
       <c r="C5" t="n">
-        <v>1.868766971542383e-15</v>
+        <v>7.792539961854635e-12</v>
       </c>
     </row>
     <row r="6">
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.65643911985271</v>
+        <v>47.54016578583729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001634618111962047</v>
+        <v>0.004141598534086168</v>
       </c>
     </row>
     <row r="7">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.1699272950612</v>
+        <v>109.7922046021775</v>
       </c>
       <c r="C7" t="n">
-        <v>2.068896681025364e-35</v>
+        <v>3.376994304749811e-36</v>
       </c>
     </row>
     <row r="8">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03985424414958312</v>
+        <v>-0.03948116880898493</v>
       </c>
       <c r="C8" t="n">
-        <v>6.128291590642095e-09</v>
+        <v>6.682003052815512e-09</v>
       </c>
     </row>
     <row r="9">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.739612212605921e-06</v>
+        <v>-1.791588678152072e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4079750908612827</v>
+        <v>0.5844513027492811</v>
       </c>
     </row>
     <row r="10">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.13658766802239</v>
+        <v>-19.08700679275199</v>
       </c>
       <c r="C10" t="n">
-        <v>1.360319772335188e-12</v>
+        <v>3.245376425130575e-14</v>
       </c>
     </row>
     <row r="11">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.639014613464345</v>
+        <v>2.300265019706962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4718128371088638</v>
+        <v>0.2918357278702516</v>
       </c>
     </row>
     <row r="12">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2326.46643639129</v>
+        <v>-2202.689200576843</v>
       </c>
       <c r="C12" t="n">
-        <v>2.743643390893488e-11</v>
+        <v>1.738909014202405e-10</v>
       </c>
     </row>
     <row r="13">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-947.4615166644396</v>
+        <v>-945.547284159114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001237564137760672</v>
+        <v>7.811459268048531e-05</v>
       </c>
     </row>
     <row r="14">
@@ -6113,10 +6113,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8128.422939247811</v>
+        <v>6977.844774129258</v>
       </c>
       <c r="C14" t="n">
-        <v>3.404038157360405e-38</v>
+        <v>7.30746038650119e-32</v>
       </c>
     </row>
     <row r="15">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.54738560351591</v>
+        <v>28.72899635772336</v>
       </c>
       <c r="C15" t="n">
-        <v>3.713000919470363e-06</v>
+        <v>1.573763490918858e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5744.228218015584</v>
+        <v>5239.874422168945</v>
       </c>
       <c r="C2" t="n">
-        <v>9.053998979901174e-27</v>
+        <v>2.476790972425488e-24</v>
       </c>
     </row>
     <row r="3">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1721.360076518147</v>
+        <v>-1492.347065601342</v>
       </c>
       <c r="C3" t="n">
-        <v>1.062453720751549e-12</v>
+        <v>1.082478356098942e-10</v>
       </c>
     </row>
     <row r="4">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2408.692368605082</v>
+        <v>-2140.928613909434</v>
       </c>
       <c r="C4" t="n">
-        <v>1.447715956663276e-21</v>
+        <v>9.804751343701364e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2015.746588712411</v>
+        <v>-1682.26175023492</v>
       </c>
       <c r="C5" t="n">
-        <v>1.626506879120496e-14</v>
+        <v>1.953359336678404e-11</v>
       </c>
     </row>
     <row r="6">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.60088440340157</v>
+        <v>45.0074797547507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001297893514035409</v>
+        <v>0.003967129812121294</v>
       </c>
     </row>
     <row r="7">
@@ -6240,10 +6240,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8148705244631</v>
+        <v>110.2317802717735</v>
       </c>
       <c r="C7" t="n">
-        <v>7.145783963755132e-39</v>
+        <v>1.195645590675499e-38</v>
       </c>
     </row>
     <row r="8">
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03632537088739442</v>
+        <v>-0.03796832497737605</v>
       </c>
       <c r="C8" t="n">
-        <v>2.82117656593887e-08</v>
+        <v>4.502511595034013e-09</v>
       </c>
     </row>
     <row r="9">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.968771471917343e-06</v>
+        <v>-2.451877943715555e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2513445230675665</v>
+        <v>0.4286855042141733</v>
       </c>
     </row>
     <row r="10">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.64709858552918</v>
+        <v>-17.42695583456853</v>
       </c>
       <c r="C10" t="n">
-        <v>5.621633651173886e-15</v>
+        <v>2.263396303681076e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2205176702533302</v>
+        <v>3.743725839742787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9191243186299058</v>
+        <v>0.07671274987898537</v>
       </c>
     </row>
     <row r="12">
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2096.71386049519</v>
+        <v>-2286.626027760293</v>
       </c>
       <c r="C12" t="n">
-        <v>2.42179698891569e-10</v>
+        <v>1.559546558183663e-12</v>
       </c>
     </row>
     <row r="13">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-849.8495322268526</v>
+        <v>-798.6809619033486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002855964960826098</v>
+        <v>0.0004447116454339418</v>
       </c>
     </row>
     <row r="14">
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7289.891814047494</v>
+        <v>7532.459864393353</v>
       </c>
       <c r="C14" t="n">
-        <v>2.143327491658738e-33</v>
+        <v>4.545127579001182e-40</v>
       </c>
     </row>
     <row r="15">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.59493398243709</v>
+        <v>19.5231766441443</v>
       </c>
       <c r="C15" t="n">
-        <v>2.356777833381281e-05</v>
+        <v>0.0009061382501985456</v>
       </c>
     </row>
   </sheetData>
@@ -6393,10 +6393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5478.069834261969</v>
+        <v>5730.724901394087</v>
       </c>
       <c r="C2" t="n">
-        <v>4.904895609766155e-24</v>
+        <v>3.659616294114632e-26</v>
       </c>
     </row>
     <row r="3">
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1664.200450639903</v>
+        <v>-1760.432145658541</v>
       </c>
       <c r="C3" t="n">
-        <v>4.767585576344323e-11</v>
+        <v>6.385057899455113e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2311.873817152024</v>
+        <v>-2349.16137493139</v>
       </c>
       <c r="C4" t="n">
-        <v>2.186296100641072e-18</v>
+        <v>1.860185377138391e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1868.886455655999</v>
+        <v>-1997.99057551372</v>
       </c>
       <c r="C5" t="n">
-        <v>3.654238454639469e-12</v>
+        <v>3.749165122152774e-13</v>
       </c>
     </row>
     <row r="6">
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.86149795081448</v>
+        <v>74.38015982239816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004096097769273786</v>
+        <v>1.493067385098868e-05</v>
       </c>
     </row>
     <row r="7">
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.5642620836551</v>
+        <v>111.27357149131</v>
       </c>
       <c r="C7" t="n">
-        <v>8.760637473018138e-33</v>
+        <v>2.74599557811478e-35</v>
       </c>
     </row>
     <row r="8">
@@ -6471,10 +6471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03151026336175033</v>
+        <v>-0.03504686166859766</v>
       </c>
       <c r="C8" t="n">
-        <v>7.979303404383658e-06</v>
+        <v>4.876545181256635e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.029552881236189e-06</v>
+        <v>-2.573790008796642e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06780837808441628</v>
+        <v>0.4376982085462364</v>
       </c>
     </row>
     <row r="10">
@@ -6497,10 +6497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.30094805535333</v>
+        <v>-19.51932335614988</v>
       </c>
       <c r="C10" t="n">
-        <v>7.83013641863563e-16</v>
+        <v>9.618955570909428e-15</v>
       </c>
     </row>
     <row r="11">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2850586523215952</v>
+        <v>0.4738300641939168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8937991012181205</v>
+        <v>0.8214563626202274</v>
       </c>
     </row>
     <row r="12">
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1979.320389731111</v>
+        <v>-2636.025176356261</v>
       </c>
       <c r="C12" t="n">
-        <v>9.908595177139629e-09</v>
+        <v>2.257093068270714e-15</v>
       </c>
     </row>
     <row r="13">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1006.071933535811</v>
+        <v>-920.6539647416425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.796211551654034e-05</v>
+        <v>0.0001035777010053935</v>
       </c>
     </row>
     <row r="14">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7339.002041890466</v>
+        <v>7479.876754619077</v>
       </c>
       <c r="C14" t="n">
-        <v>2.499912696650914e-35</v>
+        <v>2.522529965772133e-35</v>
       </c>
     </row>
     <row r="15">
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.65961262905063</v>
+        <v>24.35709865975635</v>
       </c>
       <c r="C15" t="n">
-        <v>1.058672645210235e-07</v>
+        <v>3.541337521400693e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6611,10 +6611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5231.294285949772</v>
+        <v>6246.540703207037</v>
       </c>
       <c r="C2" t="n">
-        <v>9.233812663473654e-23</v>
+        <v>2.992997349671903e-32</v>
       </c>
     </row>
     <row r="3">
@@ -6624,10 +6624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1646.734441421343</v>
+        <v>-1707.525415914557</v>
       </c>
       <c r="C3" t="n">
-        <v>1.389790032369287e-12</v>
+        <v>3.183336069090368e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2247.750120179695</v>
+        <v>-2197.276210185697</v>
       </c>
       <c r="C4" t="n">
-        <v>2.338339315743702e-20</v>
+        <v>4.044863045147353e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1787.790621357192</v>
+        <v>-1839.44193301113</v>
       </c>
       <c r="C5" t="n">
-        <v>1.708574002857683e-12</v>
+        <v>4.920180400358424e-13</v>
       </c>
     </row>
     <row r="6">
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.39969429411983</v>
+        <v>43.60253711350308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006061793548235015</v>
+        <v>0.006814664554842636</v>
       </c>
     </row>
     <row r="7">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.6539084860669</v>
+        <v>108.5297568499626</v>
       </c>
       <c r="C7" t="n">
-        <v>1.151033038020615e-35</v>
+        <v>1.553221760402051e-36</v>
       </c>
     </row>
     <row r="8">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03955520454123813</v>
+        <v>-0.03767057937852668</v>
       </c>
       <c r="C8" t="n">
-        <v>1.617818559488398e-08</v>
+        <v>1.828932214886502e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.39524015104179e-07</v>
+        <v>-6.364394700783474e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8256896261775555</v>
+        <v>0.1593468853357152</v>
       </c>
     </row>
     <row r="10">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.97134617720647</v>
+        <v>-21.18071978215495</v>
       </c>
       <c r="C10" t="n">
-        <v>1.079533052960581e-14</v>
+        <v>5.578451871309719e-18</v>
       </c>
     </row>
     <row r="11">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.827812884704354</v>
+        <v>-3.148087793266596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07322523108420262</v>
+        <v>0.1300316613683871</v>
       </c>
     </row>
     <row r="12">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2518.876765019525</v>
+        <v>-2327.569975107136</v>
       </c>
       <c r="C12" t="n">
-        <v>7.288563324585594e-14</v>
+        <v>1.433896430138935e-12</v>
       </c>
     </row>
     <row r="13">
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-772.3171784328204</v>
+        <v>-896.1212770778825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001104369159639161</v>
+        <v>0.0001094321287858041</v>
       </c>
     </row>
     <row r="14">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7513.293020338902</v>
+        <v>6555.404514084777</v>
       </c>
       <c r="C14" t="n">
-        <v>1.179713002261727e-37</v>
+        <v>3.236759071954014e-27</v>
       </c>
     </row>
     <row r="15">
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.35455125806382</v>
+        <v>27.67508640284814</v>
       </c>
       <c r="C15" t="n">
-        <v>5.318556336064001e-05</v>
+        <v>2.374847813808833e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6829,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5616.685791051753</v>
+        <v>5512.873144428868</v>
       </c>
       <c r="C2" t="n">
-        <v>9.59858178799719e-26</v>
+        <v>1.350861872046751e-26</v>
       </c>
     </row>
     <row r="3">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1730.841516396735</v>
+        <v>-1757.905253421508</v>
       </c>
       <c r="C3" t="n">
-        <v>9.184697950679777e-13</v>
+        <v>5.900390123268255e-15</v>
       </c>
     </row>
     <row r="4">
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2327.521757832037</v>
+        <v>-2339.962692040981</v>
       </c>
       <c r="C4" t="n">
-        <v>3.423866597899728e-20</v>
+        <v>3.941600678063745e-23</v>
       </c>
     </row>
     <row r="5">
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1925.170924310049</v>
+        <v>-1835.781326491645</v>
       </c>
       <c r="C5" t="n">
-        <v>1.985121479830915e-13</v>
+        <v>9.523625252222177e-14</v>
       </c>
     </row>
     <row r="6">
@@ -6881,10 +6881,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.64666898296582</v>
+        <v>64.63102143715886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002879655135403837</v>
+        <v>5.663154762573377e-05</v>
       </c>
     </row>
     <row r="7">
@@ -6894,10 +6894,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.3414380513097</v>
+        <v>107.550223984059</v>
       </c>
       <c r="C7" t="n">
-        <v>1.142407510669111e-33</v>
+        <v>4.678618997440112e-36</v>
       </c>
     </row>
     <row r="8">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03908503998125969</v>
+        <v>-0.03796494081400319</v>
       </c>
       <c r="C8" t="n">
-        <v>7.81301463741845e-09</v>
+        <v>6.559343919904065e-09</v>
       </c>
     </row>
     <row r="9">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.723528815566908e-06</v>
+        <v>-3.499831919533821e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6019851903171008</v>
+        <v>0.2802657263099342</v>
       </c>
     </row>
     <row r="10">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.16211153150027</v>
+        <v>-17.09991104715052</v>
       </c>
       <c r="C10" t="n">
-        <v>3.902214009370241e-16</v>
+        <v>3.487832269515253e-12</v>
       </c>
     </row>
     <row r="11">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6136020353123071</v>
+        <v>2.901728870800314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7808127415631503</v>
+        <v>0.1663651547896256</v>
       </c>
     </row>
     <row r="12">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2368.055366457765</v>
+        <v>-2153.986500426234</v>
       </c>
       <c r="C12" t="n">
-        <v>7.499281261527656e-13</v>
+        <v>1.911524475246057e-11</v>
       </c>
     </row>
     <row r="13">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-766.9632089097781</v>
+        <v>-776.8667752140144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001204841740817729</v>
+        <v>0.0007917087503537866</v>
       </c>
     </row>
     <row r="14">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7857.423751409393</v>
+        <v>6350.40257090759</v>
       </c>
       <c r="C14" t="n">
-        <v>8.924244920284829e-42</v>
+        <v>3.222343887229477e-27</v>
       </c>
     </row>
     <row r="15">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.9826853598139</v>
+        <v>23.46904008240913</v>
       </c>
       <c r="C15" t="n">
-        <v>1.291553641822511e-05</v>
+        <v>5.361912809044457e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7047,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5531.966235170658</v>
+        <v>5022.602648333248</v>
       </c>
       <c r="C2" t="n">
-        <v>7.489423308531393e-24</v>
+        <v>4.039663730773219e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1790.479860879477</v>
+        <v>-1427.56750601361</v>
       </c>
       <c r="C3" t="n">
-        <v>1.295452775491726e-12</v>
+        <v>4.546790979212796e-09</v>
       </c>
     </row>
     <row r="4">
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2410.694542919479</v>
+        <v>-2077.867750342186</v>
       </c>
       <c r="C4" t="n">
-        <v>3.093571740799611e-20</v>
+        <v>3.06846436625567e-16</v>
       </c>
     </row>
     <row r="5">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2069.029477507424</v>
+        <v>-1647.025254907984</v>
       </c>
       <c r="C5" t="n">
-        <v>2.106563294620019e-14</v>
+        <v>3.217621297514384e-10</v>
       </c>
     </row>
     <row r="6">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.38477631128157</v>
+        <v>60.89571336524489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00411194507082156</v>
+        <v>9.46763456889029e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.4974576091807</v>
+        <v>113.2074572507023</v>
       </c>
       <c r="C7" t="n">
-        <v>3.143242874787311e-36</v>
+        <v>1.194976754750417e-38</v>
       </c>
     </row>
     <row r="8">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03924345264495222</v>
+        <v>-0.03753853214318715</v>
       </c>
       <c r="C8" t="n">
-        <v>2.502338592617277e-08</v>
+        <v>8.485489607596604e-09</v>
       </c>
     </row>
     <row r="9">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.746124592651311e-06</v>
+        <v>-2.311507928266767e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07464466940735488</v>
+        <v>0.4738695554711922</v>
       </c>
     </row>
     <row r="10">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.44369461209912</v>
+        <v>-16.97412835487927</v>
       </c>
       <c r="C10" t="n">
-        <v>1.507476563692356e-14</v>
+        <v>3.641742400450046e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7048191958213064</v>
+        <v>3.115302749477103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754064850034445</v>
+        <v>0.128205743159633</v>
       </c>
     </row>
     <row r="12">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2082.996594297962</v>
+        <v>-2467.87293556448</v>
       </c>
       <c r="C12" t="n">
-        <v>3.116415518727825e-10</v>
+        <v>3.634656187171569e-14</v>
       </c>
     </row>
     <row r="13">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-684.3892006677503</v>
+        <v>-902.1055661188387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003908068804043291</v>
+        <v>0.0001061866503810259</v>
       </c>
     </row>
     <row r="14">
@@ -7203,10 +7203,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7906.017878109876</v>
+        <v>7167.779999030586</v>
       </c>
       <c r="C14" t="n">
-        <v>2.577843263380816e-40</v>
+        <v>2.040382754816204e-36</v>
       </c>
     </row>
     <row r="15">
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.83471023363839</v>
+        <v>25.86671577315489</v>
       </c>
       <c r="C15" t="n">
-        <v>3.793345738660807e-06</v>
+        <v>7.289758119271809e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5544.366681243675</v>
+        <v>6075.472214148453</v>
       </c>
       <c r="C2" t="n">
-        <v>2.581050468754308e-25</v>
+        <v>1.02828619208403e-27</v>
       </c>
     </row>
     <row r="3">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1773.317056270851</v>
+        <v>-1815.798822335906</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906445850230695e-13</v>
+        <v>1.07382004965703e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2361.314645749248</v>
+        <v>-2296.954521196367</v>
       </c>
       <c r="C4" t="n">
-        <v>7.584736938558697e-21</v>
+        <v>5.532633007628562e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1995.083243683614</v>
+        <v>-2126.418800797072</v>
       </c>
       <c r="C5" t="n">
-        <v>2.768064176148239e-14</v>
+        <v>1.197585596687761e-14</v>
       </c>
     </row>
     <row r="6">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.22793442058381</v>
+        <v>53.02671067950801</v>
       </c>
       <c r="C6" t="n">
-        <v>4.401398939433609e-05</v>
+        <v>0.001813546936497243</v>
       </c>
     </row>
     <row r="7">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.0967251593792</v>
+        <v>111.7487245959139</v>
       </c>
       <c r="C7" t="n">
-        <v>1.930792246026248e-33</v>
+        <v>3.402031022041215e-37</v>
       </c>
     </row>
     <row r="8">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03256305649739943</v>
+        <v>-0.03560185627389596</v>
       </c>
       <c r="C8" t="n">
-        <v>2.075962768298023e-06</v>
+        <v>2.574150144089864e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.531122121267116e-06</v>
+        <v>-5.855716170409087e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4287783286632227</v>
+        <v>0.2500633810754495</v>
       </c>
     </row>
     <row r="10">
@@ -7369,10 +7369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.89910501906757</v>
+        <v>-20.95689145756293</v>
       </c>
       <c r="C10" t="n">
-        <v>4.241096455795128e-14</v>
+        <v>2.840589653515288e-17</v>
       </c>
     </row>
     <row r="11">
@@ -7382,10 +7382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7822361862942437</v>
+        <v>-3.164659714965499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7123185985898062</v>
+        <v>0.155635039258013</v>
       </c>
     </row>
     <row r="12">
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2039.339394288179</v>
+        <v>-2669.487872642826</v>
       </c>
       <c r="C12" t="n">
-        <v>1.649187569356799e-09</v>
+        <v>9.476016189032333e-15</v>
       </c>
     </row>
     <row r="13">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-977.4946915172176</v>
+        <v>-888.7863672901301</v>
       </c>
       <c r="C13" t="n">
-        <v>5.747836129409902e-05</v>
+        <v>0.0001710493420366345</v>
       </c>
     </row>
     <row r="14">
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6860.704942999007</v>
+        <v>8227.360791094532</v>
       </c>
       <c r="C14" t="n">
-        <v>6.325606133269287e-31</v>
+        <v>1.05932009927302e-38</v>
       </c>
     </row>
     <row r="15">
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.11432901116871</v>
+        <v>26.38874855806036</v>
       </c>
       <c r="C15" t="n">
-        <v>1.102850565571897e-06</v>
+        <v>1.441443787662476e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5138.410091825728</v>
+        <v>5812.682421871211</v>
       </c>
       <c r="C2" t="n">
-        <v>6.108545623958409e-22</v>
+        <v>5.241716389665386e-27</v>
       </c>
     </row>
     <row r="3">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1692.306110168635</v>
+        <v>-1813.845056481166</v>
       </c>
       <c r="C3" t="n">
-        <v>7.174262921491323e-13</v>
+        <v>6.881014457578275e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2243.595830021061</v>
+        <v>-2394.452406783593</v>
       </c>
       <c r="C4" t="n">
-        <v>1.468495668764336e-19</v>
+        <v>3.227755816772921e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7522,10 +7522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1910.514923791469</v>
+        <v>-2072.192447526038</v>
       </c>
       <c r="C5" t="n">
-        <v>9.92306672904091e-14</v>
+        <v>2.411367550912143e-13</v>
       </c>
     </row>
     <row r="6">
@@ -7535,10 +7535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.6409860314587</v>
+        <v>63.71632590652305</v>
       </c>
       <c r="C6" t="n">
-        <v>1.821167136903017e-06</v>
+        <v>0.0001000034528161436</v>
       </c>
     </row>
     <row r="7">
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.8766669668695</v>
+        <v>111.0733712366356</v>
       </c>
       <c r="C7" t="n">
-        <v>1.761791109268861e-32</v>
+        <v>5.725404385003779e-38</v>
       </c>
     </row>
     <row r="8">
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03577429665268689</v>
+        <v>-0.03781849660959118</v>
       </c>
       <c r="C8" t="n">
-        <v>9.066841491398708e-08</v>
+        <v>1.09671667745878e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.484701267486149e-06</v>
+        <v>-2.535527901643211e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1786777470063919</v>
+        <v>0.4400890370134318</v>
       </c>
     </row>
     <row r="10">
@@ -7587,10 +7587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.17210265822694</v>
+        <v>-18.35466731087057</v>
       </c>
       <c r="C10" t="n">
-        <v>2.856474894162613e-13</v>
+        <v>1.31483656111694e-13</v>
       </c>
     </row>
     <row r="11">
@@ -7600,10 +7600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7493256937064503</v>
+        <v>0.2732011285118192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7224201590420878</v>
+        <v>0.8960030266155072</v>
       </c>
     </row>
     <row r="12">
@@ -7613,10 +7613,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2253.632936697704</v>
+        <v>-2312.89478061621</v>
       </c>
       <c r="C12" t="n">
-        <v>3.219748775461609e-11</v>
+        <v>2.941504163992469e-12</v>
       </c>
     </row>
     <row r="13">
@@ -7626,10 +7626,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1104.563945468488</v>
+        <v>-1047.097511759039</v>
       </c>
       <c r="C13" t="n">
-        <v>4.517772954440805e-06</v>
+        <v>8.545492959007389e-06</v>
       </c>
     </row>
     <row r="14">
@@ -7639,10 +7639,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7968.023510363459</v>
+        <v>6910.544857072815</v>
       </c>
       <c r="C14" t="n">
-        <v>5.638067902342683e-38</v>
+        <v>5.407104676282851e-31</v>
       </c>
     </row>
     <row r="15">
@@ -7652,10 +7652,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.92242962916715</v>
+        <v>27.54029259232275</v>
       </c>
       <c r="C15" t="n">
-        <v>3.659970145209785e-08</v>
+        <v>3.236035005960938e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5540.559287669077</v>
+        <v>5687.879211742316</v>
       </c>
       <c r="C2" t="n">
-        <v>1.841247798722162e-24</v>
+        <v>4.570727431462944e-26</v>
       </c>
     </row>
     <row r="3">
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1618.113625391145</v>
+        <v>-1682.778280316802</v>
       </c>
       <c r="C3" t="n">
-        <v>4.271475159963533e-11</v>
+        <v>6.0795627023994e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7727,10 +7727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2152.152593708906</v>
+        <v>-2254.307070723122</v>
       </c>
       <c r="C4" t="n">
-        <v>2.533201473609064e-17</v>
+        <v>2.727774532910959e-20</v>
       </c>
     </row>
     <row r="5">
@@ -7740,10 +7740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1799.554157066329</v>
+        <v>-1870.033571389892</v>
       </c>
       <c r="C5" t="n">
-        <v>9.073257019591505e-12</v>
+        <v>1.859404988238552e-13</v>
       </c>
     </row>
     <row r="6">
@@ -7753,10 +7753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.06249517069761</v>
+        <v>61.38846148869277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004632181008789897</v>
+        <v>0.000179170799934174</v>
       </c>
     </row>
     <row r="7">
@@ -7766,10 +7766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.0165514165028</v>
+        <v>106.2498907007834</v>
       </c>
       <c r="C7" t="n">
-        <v>2.134963746982204e-36</v>
+        <v>3.838554881591669e-35</v>
       </c>
     </row>
     <row r="8">
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04043097296605806</v>
+        <v>-0.0395818263427436</v>
       </c>
       <c r="C8" t="n">
-        <v>5.62745081888829e-09</v>
+        <v>1.882768921505332e-09</v>
       </c>
     </row>
     <row r="9">
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.769656847171408e-06</v>
+        <v>-2.388505866785451e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4154622915198422</v>
+        <v>0.4528871103243995</v>
       </c>
     </row>
     <row r="10">
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.68460296766434</v>
+        <v>-19.20243933102596</v>
       </c>
       <c r="C10" t="n">
-        <v>2.463237852338353e-14</v>
+        <v>9.814571295340142e-15</v>
       </c>
     </row>
     <row r="11">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4086131149043177</v>
+        <v>1.283260744652108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.851411035922082</v>
+        <v>0.5657468892438116</v>
       </c>
     </row>
     <row r="12">
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2446.278024761526</v>
+        <v>-2476.418844966408</v>
       </c>
       <c r="C12" t="n">
-        <v>1.019875492094199e-13</v>
+        <v>1.478606073067817e-13</v>
       </c>
     </row>
     <row r="13">
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-936.6050960173011</v>
+        <v>-764.4617851340586</v>
       </c>
       <c r="C13" t="n">
-        <v>5.930118441118776e-05</v>
+        <v>0.000888680009288421</v>
       </c>
     </row>
     <row r="14">
@@ -7857,10 +7857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7374.76006215754</v>
+        <v>7560.995643314043</v>
       </c>
       <c r="C14" t="n">
-        <v>8.66465558680656e-36</v>
+        <v>1.691320435530824e-39</v>
       </c>
     </row>
     <row r="15">
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.03229118998826</v>
+        <v>21.31723149022059</v>
       </c>
       <c r="C15" t="n">
-        <v>8.46931330411199e-07</v>
+        <v>0.0003043028713661766</v>
       </c>
     </row>
   </sheetData>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5756.180697788231</v>
+        <v>5955.401881555981</v>
       </c>
       <c r="C2" t="n">
-        <v>5.549741731305467e-27</v>
+        <v>1.369374916746592e-28</v>
       </c>
     </row>
     <row r="3">
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1444.545977513487</v>
+        <v>-1731.615050777796</v>
       </c>
       <c r="C3" t="n">
-        <v>4.207680686797031e-09</v>
+        <v>9.583636397237532e-14</v>
       </c>
     </row>
     <row r="4">
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1994.866043632439</v>
+        <v>-2301.951274174395</v>
       </c>
       <c r="C4" t="n">
-        <v>7.025375668946565e-15</v>
+        <v>2.001325927187526e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7958,10 +7958,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1493.267132649143</v>
+        <v>-1808.165689216514</v>
       </c>
       <c r="C5" t="n">
-        <v>1.558664999015566e-08</v>
+        <v>6.269242846146705e-13</v>
       </c>
     </row>
     <row r="6">
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.27057129628275</v>
+        <v>40.5894745108457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002240820514735378</v>
+        <v>0.0130376156382553</v>
       </c>
     </row>
     <row r="7">
@@ -7984,10 +7984,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.1555661153892</v>
+        <v>106.8241970144662</v>
       </c>
       <c r="C7" t="n">
-        <v>3.516410461615592e-41</v>
+        <v>1.272532173922511e-33</v>
       </c>
     </row>
     <row r="8">
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03930336791408678</v>
+        <v>-0.04097096904651889</v>
       </c>
       <c r="C8" t="n">
-        <v>1.999396198521767e-09</v>
+        <v>1.33945429953715e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.928263954346778e-08</v>
+        <v>-1.688008058776426e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9904605456016142</v>
+        <v>0.6051690449717608</v>
       </c>
     </row>
     <row r="10">
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.21347700046949</v>
+        <v>-21.14194110405662</v>
       </c>
       <c r="C10" t="n">
-        <v>1.996165136519106e-12</v>
+        <v>4.415654900337212e-17</v>
       </c>
     </row>
     <row r="11">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.856151050047352</v>
+        <v>0.3895379259977281</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3716840566518674</v>
+        <v>0.8583471724281057</v>
       </c>
     </row>
     <row r="12">
@@ -8049,10 +8049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2650.065162097451</v>
+        <v>-2343.810296330008</v>
       </c>
       <c r="C12" t="n">
-        <v>3.842945814820622e-15</v>
+        <v>9.474395956310736e-12</v>
       </c>
     </row>
     <row r="13">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1078.061709442731</v>
+        <v>-861.9433339766636</v>
       </c>
       <c r="C13" t="n">
-        <v>3.113210910720181e-06</v>
+        <v>0.000257461613606296</v>
       </c>
     </row>
     <row r="14">
@@ -8075,10 +8075,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6172.394452569132</v>
+        <v>7721.117040728926</v>
       </c>
       <c r="C14" t="n">
-        <v>2.178927914694818e-24</v>
+        <v>2.060274820767734e-40</v>
       </c>
     </row>
     <row r="15">
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.72420009792923</v>
+        <v>21.97954028754235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00243919925587161</v>
+        <v>0.0002254982865055126</v>
       </c>
     </row>
   </sheetData>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5929.804038252121</v>
+        <v>5438.827945572084</v>
       </c>
       <c r="C2" t="n">
-        <v>9.27344207760328e-28</v>
+        <v>5.543601779398479e-26</v>
       </c>
     </row>
     <row r="3">
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1925.60150362392</v>
+        <v>-1532.326433166796</v>
       </c>
       <c r="C3" t="n">
-        <v>2.731676907905136e-14</v>
+        <v>2.238399754209333e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8163,10 +8163,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2489.232044037554</v>
+        <v>-2109.808758737822</v>
       </c>
       <c r="C4" t="n">
-        <v>5.607294623648553e-21</v>
+        <v>1.398009547714673e-18</v>
       </c>
     </row>
     <row r="5">
@@ -8176,10 +8176,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2107.900952398817</v>
+        <v>-1648.297922600739</v>
       </c>
       <c r="C5" t="n">
-        <v>1.63186241826723e-14</v>
+        <v>3.677428081774641e-11</v>
       </c>
     </row>
     <row r="6">
@@ -8189,10 +8189,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.67902651722596</v>
+        <v>45.4735069774806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003690927543722721</v>
+        <v>0.003475860911035304</v>
       </c>
     </row>
     <row r="7">
@@ -8202,10 +8202,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.5318019894626</v>
+        <v>113.0618444010865</v>
       </c>
       <c r="C7" t="n">
-        <v>4.458687926123843e-33</v>
+        <v>2.285130246662182e-41</v>
       </c>
     </row>
     <row r="8">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03472892624376273</v>
+        <v>-0.04287658411024878</v>
       </c>
       <c r="C8" t="n">
-        <v>4.36905870006973e-07</v>
+        <v>7.647642231436355e-10</v>
       </c>
     </row>
     <row r="9">
@@ -8228,10 +8228,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.316856876506925e-06</v>
+        <v>-3.417955704348343e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.692484230974876</v>
+        <v>0.2926513684783987</v>
       </c>
     </row>
     <row r="10">
@@ -8241,10 +8241,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.07780206238218</v>
+        <v>-17.08720216037613</v>
       </c>
       <c r="C10" t="n">
-        <v>1.19409693534678e-14</v>
+        <v>6.19780001484904e-12</v>
       </c>
     </row>
     <row r="11">
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2503300996902764</v>
+        <v>1.272472823328682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9081193821199932</v>
+        <v>0.5296269406685077</v>
       </c>
     </row>
     <row r="12">
@@ -8267,10 +8267,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2232.843522369899</v>
+        <v>-2214.963222635397</v>
       </c>
       <c r="C12" t="n">
-        <v>2.175702476518514e-11</v>
+        <v>1.18440223934301e-11</v>
       </c>
     </row>
     <row r="13">
@@ -8280,10 +8280,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1081.819820095903</v>
+        <v>-933.3763737070883</v>
       </c>
       <c r="C13" t="n">
-        <v>5.807404491078042e-06</v>
+        <v>4.967847459728293e-05</v>
       </c>
     </row>
     <row r="14">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6875.29904249519</v>
+        <v>6218.524887640384</v>
       </c>
       <c r="C14" t="n">
-        <v>2.569754663199901e-29</v>
+        <v>1.163474718701629e-24</v>
       </c>
     </row>
     <row r="15">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.451920157575</v>
+        <v>28.2677063942525</v>
       </c>
       <c r="C15" t="n">
-        <v>3.812342260382965e-06</v>
+        <v>8.105921330127324e-07</v>
       </c>
     </row>
   </sheetData>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5329.52750728105</v>
+        <v>5664.776708375535</v>
       </c>
       <c r="C2" t="n">
-        <v>1.492716446233024e-24</v>
+        <v>1.143615470753462e-26</v>
       </c>
     </row>
     <row r="3">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1486.064135230068</v>
+        <v>-1705.091785718672</v>
       </c>
       <c r="C3" t="n">
-        <v>1.631910936238956e-09</v>
+        <v>2.039679394119174e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8381,10 +8381,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2103.127959052201</v>
+        <v>-2215.211852112699</v>
       </c>
       <c r="C4" t="n">
-        <v>2.069134926422629e-16</v>
+        <v>3.776723077228911e-20</v>
       </c>
     </row>
     <row r="5">
@@ -8394,10 +8394,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1671.107197025729</v>
+        <v>-1806.219698763227</v>
       </c>
       <c r="C5" t="n">
-        <v>3.164221735529166e-10</v>
+        <v>6.642827172070121e-13</v>
       </c>
     </row>
     <row r="6">
@@ -8407,10 +8407,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.69012396763357</v>
+        <v>53.41475395597377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001937436722182344</v>
+        <v>0.0007420231434587559</v>
       </c>
     </row>
     <row r="7">
@@ -8420,10 +8420,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.5607487213544</v>
+        <v>107.2260613497234</v>
       </c>
       <c r="C7" t="n">
-        <v>4.001178438078092e-37</v>
+        <v>2.657720939843489e-37</v>
       </c>
     </row>
     <row r="8">
@@ -8433,10 +8433,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03559276304415885</v>
+        <v>-0.04273418194928266</v>
       </c>
       <c r="C8" t="n">
-        <v>1.268986627012105e-07</v>
+        <v>3.332522065972325e-11</v>
       </c>
     </row>
     <row r="9">
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.938657585061576e-06</v>
+        <v>-1.130895246783146e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2812661004775267</v>
+        <v>0.7245773561409787</v>
       </c>
     </row>
     <row r="10">
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.32546639844274</v>
+        <v>-19.16420521958928</v>
       </c>
       <c r="C10" t="n">
-        <v>6.815309030613016e-14</v>
+        <v>2.121123939449876e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.073976110824509</v>
+        <v>1.819592077234645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6028762020939528</v>
+        <v>0.4060624392977746</v>
       </c>
     </row>
     <row r="12">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2387.272459862265</v>
+        <v>-2462.79735926153</v>
       </c>
       <c r="C12" t="n">
-        <v>5.08152562808338e-13</v>
+        <v>3.934936993764932e-14</v>
       </c>
     </row>
     <row r="13">
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1095.507220224464</v>
+        <v>-563.4639183973831</v>
       </c>
       <c r="C13" t="n">
-        <v>3.477061613036566e-06</v>
+        <v>0.01261461297942384</v>
       </c>
     </row>
     <row r="14">
@@ -8511,10 +8511,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7641.52819465455</v>
+        <v>7579.189124591201</v>
       </c>
       <c r="C14" t="n">
-        <v>7.78994988766881e-40</v>
+        <v>7.136348124379604e-40</v>
       </c>
     </row>
     <row r="15">
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.71429951006672</v>
+        <v>18.68798359493926</v>
       </c>
       <c r="C15" t="n">
-        <v>8.073977891898395e-06</v>
+        <v>0.00138729426953097</v>
       </c>
     </row>
   </sheetData>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5559.065584112381</v>
+        <v>5775.102988297486</v>
       </c>
       <c r="C2" t="n">
-        <v>8.566335947915058e-26</v>
+        <v>4.383646994203958e-26</v>
       </c>
     </row>
     <row r="3">
@@ -8586,10 +8586,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1727.139660608223</v>
+        <v>-1755.387901323837</v>
       </c>
       <c r="C3" t="n">
-        <v>1.514158823782171e-13</v>
+        <v>8.165999131108416e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2335.127334457728</v>
+        <v>-2337.64961345774</v>
       </c>
       <c r="C4" t="n">
-        <v>1.752437594997688e-21</v>
+        <v>3.02126256901047e-18</v>
       </c>
     </row>
     <row r="5">
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1933.681988994496</v>
+        <v>-1934.07161700643</v>
       </c>
       <c r="C5" t="n">
-        <v>2.380082655395261e-14</v>
+        <v>3.059316096531226e-12</v>
       </c>
     </row>
     <row r="6">
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.99514052032634</v>
+        <v>52.30391171965073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001002092288391377</v>
+        <v>0.001755250125058558</v>
       </c>
     </row>
     <row r="7">
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.4735291518899</v>
+        <v>109.7487648551841</v>
       </c>
       <c r="C7" t="n">
-        <v>7.203344169055144e-36</v>
+        <v>9.249840780974281e-34</v>
       </c>
     </row>
     <row r="8">
@@ -8651,10 +8651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03464737011682208</v>
+        <v>-0.03326153559811428</v>
       </c>
       <c r="C8" t="n">
-        <v>1.460051847515299e-07</v>
+        <v>2.385803051642164e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.182381984505468e-06</v>
+        <v>-6.97531225033363e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2093728514668539</v>
+        <v>0.1204658335973397</v>
       </c>
     </row>
     <row r="10">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.73358609041829</v>
+        <v>-19.83962953902774</v>
       </c>
       <c r="C10" t="n">
-        <v>4.912465911030864e-15</v>
+        <v>6.008720605161668e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8690,10 +8690,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.215090359377937</v>
+        <v>0.4787520127986227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5747015473374052</v>
+        <v>0.8210038682509887</v>
       </c>
     </row>
     <row r="12">
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2209.240900499887</v>
+        <v>-2421.765723799562</v>
       </c>
       <c r="C12" t="n">
-        <v>1.766164416576568e-11</v>
+        <v>1.538647154922604e-12</v>
       </c>
     </row>
     <row r="13">
@@ -8716,10 +8716,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-830.1997533813972</v>
+        <v>-977.567784729151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004514637489886034</v>
+        <v>5.63835966048105e-05</v>
       </c>
     </row>
     <row r="14">
@@ -8729,10 +8729,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7409.021532034483</v>
+        <v>6868.849053110967</v>
       </c>
       <c r="C14" t="n">
-        <v>7.973125047745137e-36</v>
+        <v>9.651069457270275e-31</v>
       </c>
     </row>
     <row r="15">
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.56416601545153</v>
+        <v>28.1366143017594</v>
       </c>
       <c r="C15" t="n">
-        <v>1.622569761056025e-05</v>
+        <v>3.164808981612565e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8791,10 +8791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5385.951144944824</v>
+        <v>5487.571425011173</v>
       </c>
       <c r="C2" t="n">
-        <v>3.872736362269729e-24</v>
+        <v>5.059798104048892e-24</v>
       </c>
     </row>
     <row r="3">
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1531.995030464439</v>
+        <v>-1885.542269238731</v>
       </c>
       <c r="C3" t="n">
-        <v>1.023894147873699e-10</v>
+        <v>4.224582619950806e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8817,10 +8817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2014.246744052957</v>
+        <v>-2543.157446991021</v>
       </c>
       <c r="C4" t="n">
-        <v>2.413749550905163e-16</v>
+        <v>1.762225995582213e-22</v>
       </c>
     </row>
     <row r="5">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1801.499272051959</v>
+        <v>-2125.158726706166</v>
       </c>
       <c r="C5" t="n">
-        <v>1.214371617432386e-12</v>
+        <v>4.681436023865034e-15</v>
       </c>
     </row>
     <row r="6">
@@ -8843,10 +8843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.49110855039733</v>
+        <v>70.75385805715932</v>
       </c>
       <c r="C6" t="n">
-        <v>5.932648217888084e-05</v>
+        <v>2.940745178365535e-05</v>
       </c>
     </row>
     <row r="7">
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.791920597054</v>
+        <v>107.6821771276098</v>
       </c>
       <c r="C7" t="n">
-        <v>1.018532456897649e-38</v>
+        <v>3.178215199354833e-32</v>
       </c>
     </row>
     <row r="8">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04534514454684613</v>
+        <v>-0.03500814867249307</v>
       </c>
       <c r="C8" t="n">
-        <v>7.502711040525557e-12</v>
+        <v>2.552279318137198e-07</v>
       </c>
     </row>
     <row r="9">
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.743870805325308e-07</v>
+        <v>-2.857045546170305e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8015619025150479</v>
+        <v>0.3995985268059744</v>
       </c>
     </row>
     <row r="10">
@@ -8895,10 +8895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.34498474189565</v>
+        <v>-18.46833547110194</v>
       </c>
       <c r="C10" t="n">
-        <v>2.644606557037932e-14</v>
+        <v>2.701288207000452e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9718385618419991</v>
+        <v>2.564089221609265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6520731527679757</v>
+        <v>0.2464826834947655</v>
       </c>
     </row>
     <row r="12">
@@ -8921,10 +8921,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2465.231130260986</v>
+        <v>-2439.598092366614</v>
       </c>
       <c r="C12" t="n">
-        <v>1.360990566645361e-13</v>
+        <v>8.698870746290941e-13</v>
       </c>
     </row>
     <row r="13">
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-749.0320125000638</v>
+        <v>-1099.748107088696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001061839192806909</v>
+        <v>4.010524490718507e-06</v>
       </c>
     </row>
     <row r="14">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7999.848922081994</v>
+        <v>7733.322615472721</v>
       </c>
       <c r="C14" t="n">
-        <v>4.539373279795402e-42</v>
+        <v>4.160935145854959e-38</v>
       </c>
     </row>
     <row r="15">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.21303758390799</v>
+        <v>28.19504409575635</v>
       </c>
       <c r="C15" t="n">
-        <v>3.026856639326285e-06</v>
+        <v>3.330503588381655e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5424.982124705504</v>
+        <v>5934.584325038942</v>
       </c>
       <c r="C2" t="n">
-        <v>7.635530122053665e-22</v>
+        <v>3.956362293633135e-29</v>
       </c>
     </row>
     <row r="3">
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1794.530944823937</v>
+        <v>-1642.11313209045</v>
       </c>
       <c r="C3" t="n">
-        <v>4.933787843535539e-13</v>
+        <v>3.51612955786713e-11</v>
       </c>
     </row>
     <row r="4">
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2431.678145483407</v>
+        <v>-2194.419173967918</v>
       </c>
       <c r="C4" t="n">
-        <v>9.577518894948358e-21</v>
+        <v>2.2022527455752e-17</v>
       </c>
     </row>
     <row r="5">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1933.207729465275</v>
+        <v>-1936.700443282344</v>
       </c>
       <c r="C5" t="n">
-        <v>7.452254346351704e-13</v>
+        <v>2.644055973990233e-13</v>
       </c>
     </row>
     <row r="6">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.29522252530807</v>
+        <v>61.68719535246699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001399619201588659</v>
+        <v>0.0001567507086455427</v>
       </c>
     </row>
     <row r="7">
@@ -9074,10 +9074,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.2698873267396</v>
+        <v>112.662418489915</v>
       </c>
       <c r="C7" t="n">
-        <v>1.879929039937764e-32</v>
+        <v>8.496435213332065e-40</v>
       </c>
     </row>
     <row r="8">
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03669190466413412</v>
+        <v>-0.03628182448494281</v>
       </c>
       <c r="C8" t="n">
-        <v>2.708551042218228e-07</v>
+        <v>3.833854382087397e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.521279594471719e-06</v>
+        <v>-9.63886384201004e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3168837778581489</v>
+        <v>0.772341204291903</v>
       </c>
     </row>
     <row r="10">
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.74298877741624</v>
+        <v>-19.77620621709636</v>
       </c>
       <c r="C10" t="n">
-        <v>7.053395050797342e-13</v>
+        <v>2.305060708785503e-16</v>
       </c>
     </row>
     <row r="11">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.723719733907028</v>
+        <v>-1.931104595352632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2167087499043411</v>
+        <v>0.3584070202049523</v>
       </c>
     </row>
     <row r="12">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2078.337421050921</v>
+        <v>-2411.451447664262</v>
       </c>
       <c r="C12" t="n">
-        <v>3.152536759957654e-09</v>
+        <v>2.502186168323983e-13</v>
       </c>
     </row>
     <row r="13">
@@ -9152,10 +9152,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-796.0760589951968</v>
+        <v>-912.6937597668031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001411501334432528</v>
+        <v>9.893179071820197e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6956.003255612448</v>
+        <v>7781.418524504322</v>
       </c>
       <c r="C14" t="n">
-        <v>4.515719600145349e-29</v>
+        <v>3.485132163091507e-40</v>
       </c>
     </row>
     <row r="15">
@@ -9178,10 +9178,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.58543742659185</v>
+        <v>22.16265001965415</v>
       </c>
       <c r="C15" t="n">
-        <v>1.26372147079763e-05</v>
+        <v>0.0001448146781638451</v>
       </c>
     </row>
   </sheetData>
@@ -9227,10 +9227,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5821.876846199245</v>
+        <v>4887.100447997165</v>
       </c>
       <c r="C2" t="n">
-        <v>4.989843531222082e-28</v>
+        <v>6.224216616247067e-21</v>
       </c>
     </row>
     <row r="3">
@@ -9240,10 +9240,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1781.583406441942</v>
+        <v>-1090.456568905854</v>
       </c>
       <c r="C3" t="n">
-        <v>1.070206429791993e-13</v>
+        <v>2.845118584333047e-06</v>
       </c>
     </row>
     <row r="4">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2307.988834600122</v>
+        <v>-1641.240281054846</v>
       </c>
       <c r="C4" t="n">
-        <v>4.336252674637544e-20</v>
+        <v>1.617852183553496e-11</v>
       </c>
     </row>
     <row r="5">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1975.556425047238</v>
+        <v>-1339.441686224566</v>
       </c>
       <c r="C5" t="n">
-        <v>3.133667574507253e-14</v>
+        <v>1.090845079420455e-07</v>
       </c>
     </row>
     <row r="6">
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.00151113007351</v>
+        <v>52.96101813629709</v>
       </c>
       <c r="C6" t="n">
-        <v>4.171185641700301e-05</v>
+        <v>0.0008282707897664584</v>
       </c>
     </row>
     <row r="7">
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.6334695935107</v>
+        <v>116.1678364986381</v>
       </c>
       <c r="C7" t="n">
-        <v>1.823243183137497e-35</v>
+        <v>1.740615404777667e-42</v>
       </c>
     </row>
     <row r="8">
@@ -9305,10 +9305,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03730444179201052</v>
+        <v>-0.04006480262910501</v>
       </c>
       <c r="C8" t="n">
-        <v>5.385351048848788e-08</v>
+        <v>8.774150523341317e-10</v>
       </c>
     </row>
     <row r="9">
@@ -9318,10 +9318,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.979709485880284e-06</v>
+        <v>-1.457202739765805e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5473879306271063</v>
+        <v>0.6357950002522176</v>
       </c>
     </row>
     <row r="10">
@@ -9331,10 +9331,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.88532846814393</v>
+        <v>-17.3698163200499</v>
       </c>
       <c r="C10" t="n">
-        <v>1.981814508897623e-14</v>
+        <v>5.232935280759058e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9344,10 +9344,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1469163273001275</v>
+        <v>0.8562812744455335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9446115954184933</v>
+        <v>0.6929309681301957</v>
       </c>
     </row>
     <row r="12">
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2434.910639156149</v>
+        <v>-2389.226682284079</v>
       </c>
       <c r="C12" t="n">
-        <v>9.87618982229022e-13</v>
+        <v>5.808836946430728e-14</v>
       </c>
     </row>
     <row r="13">
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1032.822179976016</v>
+        <v>-771.2312496775222</v>
       </c>
       <c r="C13" t="n">
-        <v>1.615484155290828e-05</v>
+        <v>0.0007236101323629755</v>
       </c>
     </row>
     <row r="14">
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7440.11914862368</v>
+        <v>7012.429674576968</v>
       </c>
       <c r="C14" t="n">
-        <v>9.992140329270756e-37</v>
+        <v>1.989795472594061e-34</v>
       </c>
     </row>
     <row r="15">
@@ -9396,10 +9396,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.06300511573489</v>
+        <v>26.33337027176525</v>
       </c>
       <c r="C15" t="n">
-        <v>3.109754641651571e-05</v>
+        <v>6.714487053806026e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5300.509620457195</v>
+        <v>5932.90875881338</v>
       </c>
       <c r="C2" t="n">
-        <v>1.001559143308e-22</v>
+        <v>1.276886516059001e-27</v>
       </c>
     </row>
     <row r="3">
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1655.223333956468</v>
+        <v>-1984.735049715147</v>
       </c>
       <c r="C3" t="n">
-        <v>1.714487465165469e-12</v>
+        <v>1.459043239577636e-15</v>
       </c>
     </row>
     <row r="4">
@@ -9471,10 +9471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2330.631288073673</v>
+        <v>-2523.886824803094</v>
       </c>
       <c r="C4" t="n">
-        <v>3.775874018735991e-21</v>
+        <v>2.697642861049983e-22</v>
       </c>
     </row>
     <row r="5">
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1915.027382193005</v>
+        <v>-2246.256598072508</v>
       </c>
       <c r="C5" t="n">
-        <v>9.493567257586278e-14</v>
+        <v>1.011402841269796e-16</v>
       </c>
     </row>
     <row r="6">
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.99791608371801</v>
+        <v>65.73042893165798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001712634191638364</v>
+        <v>6.881285233743216e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.062884064331</v>
+        <v>105.6167944027888</v>
       </c>
       <c r="C7" t="n">
-        <v>2.718946112353283e-34</v>
+        <v>4.973001346184091e-33</v>
       </c>
     </row>
     <row r="8">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03670912442427266</v>
+        <v>-0.0379033262543325</v>
       </c>
       <c r="C8" t="n">
-        <v>1.541831653291266e-07</v>
+        <v>3.852287066276377e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.44684900190876e-06</v>
+        <v>-2.627663498576646e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6728118980998354</v>
+        <v>0.429918123072935</v>
       </c>
     </row>
     <row r="10">
@@ -9549,10 +9549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.38800269683023</v>
+        <v>-19.44085081194243</v>
       </c>
       <c r="C10" t="n">
-        <v>9.048554987297385e-14</v>
+        <v>2.015763991224456e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9562,10 +9562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.410583762606692</v>
+        <v>-0.8968950392051109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5124770565871168</v>
+        <v>0.6783399421476297</v>
       </c>
     </row>
     <row r="12">
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2368.883166512861</v>
+        <v>-2272.819518214953</v>
       </c>
       <c r="C12" t="n">
-        <v>4.767215031354328e-12</v>
+        <v>2.916882942958873e-11</v>
       </c>
     </row>
     <row r="13">
@@ -9588,10 +9588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-950.3797022850792</v>
+        <v>-939.6530268923449</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001007527301851944</v>
+        <v>8.617429620318998e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7969.431848315223</v>
+        <v>7885.051785640057</v>
       </c>
       <c r="C14" t="n">
-        <v>2.82034808893693e-40</v>
+        <v>1.192374498331082e-37</v>
       </c>
     </row>
     <row r="15">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.67659119761463</v>
+        <v>27.6903310929526</v>
       </c>
       <c r="C15" t="n">
-        <v>1.178479122632963e-06</v>
+        <v>4.228497720463499e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5145.012480699387</v>
+        <v>5573.035925982882</v>
       </c>
       <c r="C2" t="n">
-        <v>6.520770252141417e-21</v>
+        <v>1.653961303593481e-25</v>
       </c>
     </row>
     <row r="3">
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1832.986844180539</v>
+        <v>-1645.156326834795</v>
       </c>
       <c r="C3" t="n">
-        <v>1.343054223830648e-12</v>
+        <v>4.813127174198274e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9689,10 +9689,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2464.053282152327</v>
+        <v>-2253.742050263143</v>
       </c>
       <c r="C4" t="n">
-        <v>4.44563763989492e-20</v>
+        <v>1.448309507981774e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9702,10 +9702,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2074.093485120316</v>
+        <v>-1896.466353962347</v>
       </c>
       <c r="C5" t="n">
-        <v>3.980985373050876e-14</v>
+        <v>2.448593018174248e-13</v>
       </c>
     </row>
     <row r="6">
@@ -9715,10 +9715,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.82791141650651</v>
+        <v>49.36304253685307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001319494750254973</v>
+        <v>0.003525858827241243</v>
       </c>
     </row>
     <row r="7">
@@ -9728,10 +9728,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.1471256756279</v>
+        <v>114.6906048261332</v>
       </c>
       <c r="C7" t="n">
-        <v>8.276732036073074e-36</v>
+        <v>1.991373774949714e-37</v>
       </c>
     </row>
     <row r="8">
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04082674295527802</v>
+        <v>-0.03339550004696356</v>
       </c>
       <c r="C8" t="n">
-        <v>4.719634584214854e-09</v>
+        <v>8.487698980141913e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.113483337948539e-06</v>
+        <v>-3.320693296227899e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.286283280071813</v>
+        <v>0.3123339369898661</v>
       </c>
     </row>
     <row r="10">
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.11581021713597</v>
+        <v>-20.02767294491838</v>
       </c>
       <c r="C10" t="n">
-        <v>5.052248658563847e-13</v>
+        <v>1.07022671083737e-15</v>
       </c>
     </row>
     <row r="11">
@@ -9780,10 +9780,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.067076110084259</v>
+        <v>0.1377770878571485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1632082611035894</v>
+        <v>0.9483554548131462</v>
       </c>
     </row>
     <row r="12">
@@ -9793,10 +9793,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1943.319252729248</v>
+        <v>-2566.342511577468</v>
       </c>
       <c r="C12" t="n">
-        <v>7.363474986334617e-09</v>
+        <v>4.283373674604719e-14</v>
       </c>
     </row>
     <row r="13">
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-715.3397978557862</v>
+        <v>-964.5428514259884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002351507955283496</v>
+        <v>5.497193891854197e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8024.600106520506</v>
+        <v>7439.360480962548</v>
       </c>
       <c r="C14" t="n">
-        <v>1.752992972350668e-39</v>
+        <v>6.007071889297962e-36</v>
       </c>
     </row>
     <row r="15">
@@ -9832,10 +9832,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.21286616234604</v>
+        <v>28.78771820004638</v>
       </c>
       <c r="C15" t="n">
-        <v>2.384104364930436e-06</v>
+        <v>1.44453342517647e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5900.753929186551</v>
+        <v>5847.157988408538</v>
       </c>
       <c r="C2" t="n">
-        <v>8.379915616759062e-28</v>
+        <v>1.367736652388198e-28</v>
       </c>
     </row>
     <row r="3">
@@ -9894,10 +9894,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1641.798026249853</v>
+        <v>-1874.361246725126</v>
       </c>
       <c r="C3" t="n">
-        <v>8.013780518125617e-11</v>
+        <v>1.214464840325103e-14</v>
       </c>
     </row>
     <row r="4">
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2206.656565772409</v>
+        <v>-2440.275006197749</v>
       </c>
       <c r="C4" t="n">
-        <v>4.548901473603029e-17</v>
+        <v>2.918478856269608e-22</v>
       </c>
     </row>
     <row r="5">
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1747.796917498201</v>
+        <v>-1984.293408709368</v>
       </c>
       <c r="C5" t="n">
-        <v>1.694489758761353e-10</v>
+        <v>2.33646378491586e-14</v>
       </c>
     </row>
     <row r="6">
@@ -9933,10 +9933,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.77570839894066</v>
+        <v>60.51922939108542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006740299842367641</v>
+        <v>0.0001261753559024653</v>
       </c>
     </row>
     <row r="7">
@@ -9946,10 +9946,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.6516743036357</v>
+        <v>107.3639455784093</v>
       </c>
       <c r="C7" t="n">
-        <v>1.010954039330409e-32</v>
+        <v>2.833981167803779e-36</v>
       </c>
     </row>
     <row r="8">
@@ -9959,10 +9959,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03745331680811176</v>
+        <v>-0.03925925775012849</v>
       </c>
       <c r="C8" t="n">
-        <v>1.884565164553825e-08</v>
+        <v>7.974928385869618e-09</v>
       </c>
     </row>
     <row r="9">
@@ -9972,10 +9972,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.546733253862091e-06</v>
+        <v>-3.601411238707306e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4278759563954313</v>
+        <v>0.2692305061109815</v>
       </c>
     </row>
     <row r="10">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.02315148400288</v>
+        <v>-18.83170867410024</v>
       </c>
       <c r="C10" t="n">
-        <v>1.291241263166477e-14</v>
+        <v>3.039393338200041e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4605624258693926</v>
+        <v>2.059184250196524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8307255926725317</v>
+        <v>0.3248916027051983</v>
       </c>
     </row>
     <row r="12">
@@ -10011,10 +10011,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2362.203082212583</v>
+        <v>-2264.197862316464</v>
       </c>
       <c r="C12" t="n">
-        <v>7.678169066049728e-13</v>
+        <v>8.99757149589791e-12</v>
       </c>
     </row>
     <row r="13">
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1027.61699733318</v>
+        <v>-771.9980530083237</v>
       </c>
       <c r="C13" t="n">
-        <v>1.528437981921182e-05</v>
+        <v>0.0007896761084317629</v>
       </c>
     </row>
     <row r="14">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6411.098147531286</v>
+        <v>7646.194165129425</v>
       </c>
       <c r="C14" t="n">
-        <v>1.883969655017214e-26</v>
+        <v>9.04459372591037e-40</v>
       </c>
     </row>
     <row r="15">
@@ -10050,10 +10050,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.21513112434081</v>
+        <v>18.01561390377302</v>
       </c>
       <c r="C15" t="n">
-        <v>4.091353019154174e-05</v>
+        <v>0.001636257243322104</v>
       </c>
     </row>
   </sheetData>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6174.490030074054</v>
+        <v>6418.521513957703</v>
       </c>
       <c r="C2" t="n">
-        <v>1.620059118387531e-29</v>
+        <v>9.530990918931884e-33</v>
       </c>
     </row>
     <row r="3">
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1877.376348044632</v>
+        <v>-1835.502906057376</v>
       </c>
       <c r="C3" t="n">
-        <v>2.157290348665769e-14</v>
+        <v>2.491048447040944e-14</v>
       </c>
     </row>
     <row r="4">
@@ -10125,10 +10125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2469.332589677476</v>
+        <v>-2363.100511023698</v>
       </c>
       <c r="C4" t="n">
-        <v>5.878293406203414e-22</v>
+        <v>4.260361485344151e-21</v>
       </c>
     </row>
     <row r="5">
@@ -10138,10 +10138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2043.314897352413</v>
+        <v>-1846.124269871598</v>
       </c>
       <c r="C5" t="n">
-        <v>1.724465793871354e-14</v>
+        <v>1.436417509100803e-12</v>
       </c>
     </row>
     <row r="6">
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.39244159203375</v>
+        <v>58.08037535593657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003656492470198581</v>
+        <v>0.0003645499308084376</v>
       </c>
     </row>
     <row r="7">
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.5908411145077</v>
+        <v>107.2438981681418</v>
       </c>
       <c r="C7" t="n">
-        <v>9.840487796172753e-31</v>
+        <v>1.02330123438219e-33</v>
       </c>
     </row>
     <row r="8">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03828482220568527</v>
+        <v>-0.03676787321920291</v>
       </c>
       <c r="C8" t="n">
-        <v>6.772597261968116e-08</v>
+        <v>1.009700469462523e-07</v>
       </c>
     </row>
     <row r="9">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.642152715552333e-06</v>
+        <v>-1.479751996935018e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.625337552313595</v>
+        <v>0.6684008580820937</v>
       </c>
     </row>
     <row r="10">
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.25018684007856</v>
+        <v>-20.76219823629101</v>
       </c>
       <c r="C10" t="n">
-        <v>7.477205545220584e-17</v>
+        <v>6.027662575792324e-17</v>
       </c>
     </row>
     <row r="11">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1959766588527954</v>
+        <v>-1.402942161727419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9265506700339153</v>
+        <v>0.5108145567823678</v>
       </c>
     </row>
     <row r="12">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2319.770518439017</v>
+        <v>-2339.632082513549</v>
       </c>
       <c r="C12" t="n">
-        <v>1.034598419884607e-11</v>
+        <v>7.13089490723743e-13</v>
       </c>
     </row>
     <row r="13">
@@ -10242,10 +10242,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-810.0722777358344</v>
+        <v>-1069.894303645024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009198316958550507</v>
+        <v>5.492064586824751e-06</v>
       </c>
     </row>
     <row r="14">
@@ -10255,10 +10255,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7422.024146008664</v>
+        <v>6194.963230933198</v>
       </c>
       <c r="C14" t="n">
-        <v>3.53261091770587e-34</v>
+        <v>2.869400790337551e-24</v>
       </c>
     </row>
     <row r="15">
@@ -10268,10 +10268,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.63704831893761</v>
+        <v>22.96297115737542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004657049843572929</v>
+        <v>8.632526439834194e-05</v>
       </c>
     </row>
   </sheetData>
@@ -10317,10 +10317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5456.295112721758</v>
+        <v>6020.055369964814</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261357246817099e-24</v>
+        <v>5.788673910792768e-29</v>
       </c>
     </row>
     <row r="3">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1547.552741777482</v>
+        <v>-1932.268606640315</v>
       </c>
       <c r="C3" t="n">
-        <v>5.433765484309616e-11</v>
+        <v>1.816248730015612e-14</v>
       </c>
     </row>
     <row r="4">
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2049.488519936375</v>
+        <v>-2550.343800234633</v>
       </c>
       <c r="C4" t="n">
-        <v>6.031401679245531e-17</v>
+        <v>4.474964921361941e-22</v>
       </c>
     </row>
     <row r="5">
@@ -10356,10 +10356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1707.62971738776</v>
+        <v>-2026.080953301544</v>
       </c>
       <c r="C5" t="n">
-        <v>1.764499030974288e-11</v>
+        <v>7.820079795919574e-14</v>
       </c>
     </row>
     <row r="6">
@@ -10369,10 +10369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.10587618736446</v>
+        <v>52.4428169128496</v>
       </c>
       <c r="C6" t="n">
-        <v>5.239477974844829e-05</v>
+        <v>0.001286707803983724</v>
       </c>
     </row>
     <row r="7">
@@ -10382,10 +10382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.372713551281</v>
+        <v>108.2662013436159</v>
       </c>
       <c r="C7" t="n">
-        <v>4.206792396252212e-38</v>
+        <v>9.835129665501451e-36</v>
       </c>
     </row>
     <row r="8">
@@ -10395,10 +10395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03450600242448421</v>
+        <v>-0.0399348851879936</v>
       </c>
       <c r="C8" t="n">
-        <v>1.134135471368815e-07</v>
+        <v>7.096644451665024e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10408,10 +10408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.054559598638809e-06</v>
+        <v>-1.854267661425233e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2119867197132475</v>
+        <v>0.7319416297890146</v>
       </c>
     </row>
     <row r="10">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.59868167365447</v>
+        <v>-18.73081973813475</v>
       </c>
       <c r="C10" t="n">
-        <v>1.23812497028564e-14</v>
+        <v>1.943145457275243e-14</v>
       </c>
     </row>
     <row r="11">
@@ -10434,10 +10434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2468760074523426</v>
+        <v>1.711313120130169</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9080164430089031</v>
+        <v>0.4127561335203437</v>
       </c>
     </row>
     <row r="12">
@@ -10447,10 +10447,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2273.633657532544</v>
+        <v>-2438.935651771158</v>
       </c>
       <c r="C12" t="n">
-        <v>3.19918450710328e-12</v>
+        <v>3.521815328157785e-13</v>
       </c>
     </row>
     <row r="13">
@@ -10460,10 +10460,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-865.333293806435</v>
+        <v>-1016.044169371054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002021178975135799</v>
+        <v>1.588753513773929e-05</v>
       </c>
     </row>
     <row r="14">
@@ -10473,10 +10473,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6961.358085786085</v>
+        <v>6317.508479296497</v>
       </c>
       <c r="C14" t="n">
-        <v>9.277924835618418e-32</v>
+        <v>5.338405587797004e-26</v>
       </c>
     </row>
     <row r="15">
@@ -10486,10 +10486,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.03761945238379</v>
+        <v>25.68121300257871</v>
       </c>
       <c r="C15" t="n">
-        <v>6.091260023918614e-06</v>
+        <v>1.67695791356757e-05</v>
       </c>
     </row>
   </sheetData>
@@ -10535,10 +10535,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5025.02302905242</v>
+        <v>5113.758901457395</v>
       </c>
       <c r="C2" t="n">
-        <v>4.922120370830664e-20</v>
+        <v>8.411534724179244e-21</v>
       </c>
     </row>
     <row r="3">
@@ -10548,10 +10548,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1572.14314729163</v>
+        <v>-1478.521965185368</v>
       </c>
       <c r="C3" t="n">
-        <v>4.623350235832806e-10</v>
+        <v>8.6209948439439e-09</v>
       </c>
     </row>
     <row r="4">
@@ -10561,10 +10561,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2185.4826569877</v>
+        <v>-2149.032923386527</v>
       </c>
       <c r="C4" t="n">
-        <v>8.872366352293552e-17</v>
+        <v>1.010591842030155e-15</v>
       </c>
     </row>
     <row r="5">
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1774.635928109867</v>
+        <v>-1677.181520088022</v>
       </c>
       <c r="C5" t="n">
-        <v>6.094549266089555e-11</v>
+        <v>1.340616080807827e-09</v>
       </c>
     </row>
     <row r="6">
@@ -10587,10 +10587,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.97063040817827</v>
+        <v>38.85395868552796</v>
       </c>
       <c r="C6" t="n">
-        <v>5.955195498164759e-05</v>
+        <v>0.02177123729712293</v>
       </c>
     </row>
     <row r="7">
@@ -10600,10 +10600,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.7138539451147</v>
+        <v>109.598665067826</v>
       </c>
       <c r="C7" t="n">
-        <v>3.83439041845803e-32</v>
+        <v>6.18301940838799e-33</v>
       </c>
     </row>
     <row r="8">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0373088657239215</v>
+        <v>-0.04237566527406071</v>
       </c>
       <c r="C8" t="n">
-        <v>3.985029276511915e-08</v>
+        <v>2.744853491867966e-10</v>
       </c>
     </row>
     <row r="9">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.362516415483933e-06</v>
+        <v>-1.853050555228184e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4543496595133234</v>
+        <v>0.5885330479308423</v>
       </c>
     </row>
     <row r="10">
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.63890837321178</v>
+        <v>-17.85257353196036</v>
       </c>
       <c r="C10" t="n">
-        <v>2.024409784799051e-12</v>
+        <v>1.124554900757548e-12</v>
       </c>
     </row>
     <row r="11">
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.199273786864372</v>
+        <v>2.521800011080499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147840887291478</v>
+        <v>0.2543479994334845</v>
       </c>
     </row>
     <row r="12">
@@ -10665,10 +10665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2262.055333905707</v>
+        <v>-2469.661277677466</v>
       </c>
       <c r="C12" t="n">
-        <v>2.26709874675523e-11</v>
+        <v>1.957038009784271e-13</v>
       </c>
     </row>
     <row r="13">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-897.783799809677</v>
+        <v>-1089.17295681774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001510970866545258</v>
+        <v>5.402962689011551e-06</v>
       </c>
     </row>
     <row r="14">
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7635.203056001833</v>
+        <v>7533.173922265163</v>
       </c>
       <c r="C14" t="n">
-        <v>3.121556353817002e-39</v>
+        <v>3.330304639591209e-39</v>
       </c>
     </row>
     <row r="15">
@@ -10704,10 +10704,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.55235266570914</v>
+        <v>31.35567346612952</v>
       </c>
       <c r="C15" t="n">
-        <v>4.860934593092191e-06</v>
+        <v>1.252107145692315e-07</v>
       </c>
     </row>
   </sheetData>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5592.268348175558</v>
+        <v>6412.09364262509</v>
       </c>
       <c r="C2" t="n">
-        <v>3.016599968206404e-27</v>
+        <v>5.206407973409626e-32</v>
       </c>
     </row>
     <row r="3">
@@ -10766,10 +10766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1655.722490855247</v>
+        <v>-1920.235667808903</v>
       </c>
       <c r="C3" t="n">
-        <v>5.07318314526787e-13</v>
+        <v>7.764461668962499e-16</v>
       </c>
     </row>
     <row r="4">
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2168.180140035358</v>
+        <v>-2503.577672220215</v>
       </c>
       <c r="C4" t="n">
-        <v>1.343648156480818e-19</v>
+        <v>5.303571880490682e-24</v>
       </c>
     </row>
     <row r="5">
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1804.957792980296</v>
+        <v>-1903.529334925255</v>
       </c>
       <c r="C5" t="n">
-        <v>3.003646852445008e-13</v>
+        <v>1.510070433299136e-13</v>
       </c>
     </row>
     <row r="6">
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.59375046454223</v>
+        <v>40.72107471417745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003802155045036966</v>
+        <v>0.01172944107402248</v>
       </c>
     </row>
     <row r="7">
@@ -10818,10 +10818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.5856158915915</v>
+        <v>112.9310414968686</v>
       </c>
       <c r="C7" t="n">
-        <v>1.480173497381819e-44</v>
+        <v>6.066348448307218e-40</v>
       </c>
     </row>
     <row r="8">
@@ -10831,10 +10831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03678140607672541</v>
+        <v>-0.03933788997947851</v>
       </c>
       <c r="C8" t="n">
-        <v>1.539111836810888e-08</v>
+        <v>2.214879340634657e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10844,10 +10844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.609851435406985e-06</v>
+        <v>-3.396697584612006e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2588501337087466</v>
+        <v>0.2812517619987903</v>
       </c>
     </row>
     <row r="10">
@@ -10857,10 +10857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.77652897005709</v>
+        <v>-20.37073134523326</v>
       </c>
       <c r="C10" t="n">
-        <v>1.559167698103748e-12</v>
+        <v>8.207067287721187e-17</v>
       </c>
     </row>
     <row r="11">
@@ -10870,10 +10870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5642891619805157</v>
+        <v>0.9248191118455198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7850372850877105</v>
+        <v>0.6742294954446355</v>
       </c>
     </row>
     <row r="12">
@@ -10883,10 +10883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2333.09257354812</v>
+        <v>-2328.404196209147</v>
       </c>
       <c r="C12" t="n">
-        <v>4.238435681790947e-13</v>
+        <v>4.135917513791569e-12</v>
       </c>
     </row>
     <row r="13">
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1159.1566412025</v>
+        <v>-788.2287897488103</v>
       </c>
       <c r="C13" t="n">
-        <v>5.05448854539203e-07</v>
+        <v>0.0007586500607927451</v>
       </c>
     </row>
     <row r="14">
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6125.983529539537</v>
+        <v>6391.498445932888</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166951171991124e-25</v>
+        <v>1.238395495426473e-24</v>
       </c>
     </row>
     <row r="15">
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.88770236756191</v>
+        <v>16.52149858995303</v>
       </c>
       <c r="C15" t="n">
-        <v>1.139847275948524e-06</v>
+        <v>0.005843635664682787</v>
       </c>
     </row>
   </sheetData>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5728.89226138406</v>
+        <v>5099.190738062041</v>
       </c>
       <c r="C2" t="n">
-        <v>2.908806639838416e-26</v>
+        <v>8.672280080025951e-25</v>
       </c>
     </row>
     <row r="3">
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1730.65934567568</v>
+        <v>-1518.594617545482</v>
       </c>
       <c r="C3" t="n">
-        <v>1.024664552329185e-12</v>
+        <v>9.794525169184373e-12</v>
       </c>
     </row>
     <row r="4">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2332.819545804108</v>
+        <v>-2073.698696143442</v>
       </c>
       <c r="C4" t="n">
-        <v>4.257158926126895e-20</v>
+        <v>8.240828223066931e-19</v>
       </c>
     </row>
     <row r="5">
@@ -11010,10 +11010,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1919.130142712893</v>
+        <v>-1840.206861171104</v>
       </c>
       <c r="C5" t="n">
-        <v>5.635051385537154e-13</v>
+        <v>3.863654839711996e-14</v>
       </c>
     </row>
     <row r="6">
@@ -11023,10 +11023,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.82072561550096</v>
+        <v>74.40374840994325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000407750772797062</v>
+        <v>1.262367859216693e-06</v>
       </c>
     </row>
     <row r="7">
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.3049437101607</v>
+        <v>107.1684284280465</v>
       </c>
       <c r="C7" t="n">
-        <v>8.566256268710636e-33</v>
+        <v>7.472820907117155e-39</v>
       </c>
     </row>
     <row r="8">
@@ -11049,10 +11049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04024552569848931</v>
+        <v>-0.0355830480044707</v>
       </c>
       <c r="C8" t="n">
-        <v>7.136553944970136e-09</v>
+        <v>4.124790958140612e-08</v>
       </c>
     </row>
     <row r="9">
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.24949519508041e-06</v>
+        <v>-2.389655224135599e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7072829826557073</v>
+        <v>0.4567133031508394</v>
       </c>
     </row>
     <row r="10">
@@ -11075,10 +11075,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.64940470310259</v>
+        <v>-16.9712881191377</v>
       </c>
       <c r="C10" t="n">
-        <v>6.572692788895371e-15</v>
+        <v>5.626206064465961e-13</v>
       </c>
     </row>
     <row r="11">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5574531372762861</v>
+        <v>1.758802942562643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7976751523636125</v>
+        <v>0.3831056354226655</v>
       </c>
     </row>
     <row r="12">
@@ -11101,10 +11101,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2298.003019856046</v>
+        <v>-2534.05468089668</v>
       </c>
       <c r="C12" t="n">
-        <v>1.356956399967788e-11</v>
+        <v>5.520225640484371e-15</v>
       </c>
     </row>
     <row r="13">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-923.8326265709809</v>
+        <v>-760.8432120683908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001780019260438237</v>
+        <v>0.0007301242164462225</v>
       </c>
     </row>
     <row r="14">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7944.409618832795</v>
+        <v>7604.381814935342</v>
       </c>
       <c r="C14" t="n">
-        <v>6.6674001763014e-37</v>
+        <v>2.537147307362425e-40</v>
       </c>
     </row>
     <row r="15">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54343335017705</v>
+        <v>25.60543151446178</v>
       </c>
       <c r="C15" t="n">
-        <v>4.830712662033413e-05</v>
+        <v>4.613211494530005e-06</v>
       </c>
     </row>
   </sheetData>
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5485.066736163996</v>
+        <v>6085.04741828719</v>
       </c>
       <c r="C2" t="n">
-        <v>8.468890290609485e-24</v>
+        <v>4.799543712738592e-29</v>
       </c>
     </row>
     <row r="3">
@@ -11202,10 +11202,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1628.932520683015</v>
+        <v>-1849.833427965153</v>
       </c>
       <c r="C3" t="n">
-        <v>8.418498108885888e-11</v>
+        <v>1.904293268417271e-12</v>
       </c>
     </row>
     <row r="4">
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2203.515491103138</v>
+        <v>-2350.379423799493</v>
       </c>
       <c r="C4" t="n">
-        <v>3.549322185131629e-17</v>
+        <v>8.547973089095131e-18</v>
       </c>
     </row>
     <row r="5">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1797.340957019872</v>
+        <v>-2057.053662577078</v>
       </c>
       <c r="C5" t="n">
-        <v>2.48282170216425e-11</v>
+        <v>3.341910007017088e-13</v>
       </c>
     </row>
     <row r="6">
@@ -11241,10 +11241,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.17614045751446</v>
+        <v>62.21808368823113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001575735803186618</v>
+        <v>0.0001458298901304423</v>
       </c>
     </row>
     <row r="7">
@@ -11254,10 +11254,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.21209766042</v>
+        <v>110.9802221665562</v>
       </c>
       <c r="C7" t="n">
-        <v>5.543468977050028e-34</v>
+        <v>1.573908726556807e-35</v>
       </c>
     </row>
     <row r="8">
@@ -11267,10 +11267,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03595349289592573</v>
+        <v>-0.03687387863772551</v>
       </c>
       <c r="C8" t="n">
-        <v>1.193187605116978e-07</v>
+        <v>1.671782267692992e-07</v>
       </c>
     </row>
     <row r="9">
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.873404377545481e-06</v>
+        <v>-5.66753774697742e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1172615447733685</v>
+        <v>0.2288213029529673</v>
       </c>
     </row>
     <row r="10">
@@ -11293,10 +11293,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.0435789954344</v>
+        <v>-20.02789701476741</v>
       </c>
       <c r="C10" t="n">
-        <v>3.642400874157868e-14</v>
+        <v>1.551834208155361e-15</v>
       </c>
     </row>
     <row r="11">
@@ -11306,10 +11306,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1287141472720785</v>
+        <v>-1.760839707346013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9529889315775119</v>
+        <v>0.4074507111979242</v>
       </c>
     </row>
     <row r="12">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2235.719396773512</v>
+        <v>-2368.434425894139</v>
       </c>
       <c r="C12" t="n">
-        <v>1.335446922337724e-11</v>
+        <v>1.256326471134252e-12</v>
       </c>
     </row>
     <row r="13">
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-922.3371456475456</v>
+        <v>-927.3616629439622</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001000656465641174</v>
+        <v>8.854847812899503e-05</v>
       </c>
     </row>
     <row r="14">
@@ -11345,10 +11345,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7469.552757529702</v>
+        <v>7400.947440555357</v>
       </c>
       <c r="C14" t="n">
-        <v>8.628876252356799e-36</v>
+        <v>2.929080838613004e-35</v>
       </c>
     </row>
     <row r="15">
@@ -11358,10 +11358,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.16656342867412</v>
+        <v>25.50494278306108</v>
       </c>
       <c r="C15" t="n">
-        <v>2.866103814001687e-06</v>
+        <v>1.842988684178469e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/All.xlsx
+++ b/outputs/ML_Results/dist_LR/All.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47884092" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ48446248" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ48947765" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49447910" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49950751" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50464546" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50942575" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51442475" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51948427" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52449275" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52949952" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53454818" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ54013465" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ54546069" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ55050789" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ55545815" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ56042218" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ56625510" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ57170846" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ57700525" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ58191637" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ58707402" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ59325735" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ00080423" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ00630083" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ01139054" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ01646673" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ02165693" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ02849677" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ03494025" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ04066346" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ04608712" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ05130225" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ05763613" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06434777" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ06993105" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ07550293" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08280007" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ08880150" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09505368" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09996812" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ10549404" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ11113599" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ11657724" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ12174554" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ12747256" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ13482854" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ14052167" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ14565568" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ15063427" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ18824158" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19134085" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ19542477" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19868725" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20224830" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20568657" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20912057" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21246837" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21583208" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ21919128" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ22252070" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ22588111" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ22928723" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ23263302" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ23630898" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ23976980" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ24321555" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ24655777" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ24991596" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ25326666" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ25655425" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ25991647" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ26328078" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ26663066" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ26996898" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ27335827" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ27667313" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ28004223" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ28343590" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ28686578" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ29016907" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ29357926" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ29688075" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ30024115" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ30357255" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ30699692" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ31038147" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ31377333" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ31712480" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ32042960" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ32383127" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ32721347" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ33058498" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ33393906" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ33724130" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ34065317" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ34408955" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ34747694" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ35083822" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ35415800" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5575.865081614144</v>
+        <v>4960.245116876373</v>
       </c>
       <c r="C2" t="n">
-        <v>7.575590338830279e-25</v>
+        <v>5.693941894103342e-20</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1760.497706046361</v>
+        <v>-1653.162837718154</v>
       </c>
       <c r="C3" t="n">
-        <v>5.285403628338179e-11</v>
+        <v>4.760229776700686e-10</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2360.057648208152</v>
+        <v>-2145.586028338514</v>
       </c>
       <c r="C4" t="n">
-        <v>2.210347003436323e-17</v>
+        <v>7.84008266660488e-15</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1997.283564509886</v>
+        <v>-1450.799849391528</v>
       </c>
       <c r="C5" t="n">
-        <v>3.221365196389263e-12</v>
+        <v>1.664736469470847e-07</v>
       </c>
     </row>
     <row r="6">
@@ -559,23 +559,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.29733896619</v>
+        <v>61.055576743926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003979143188862953</v>
+        <v>0.0001248159135579806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.9474908383566</v>
+        <v>9.50766876466429</v>
       </c>
       <c r="C7" t="n">
-        <v>1.575029013969028e-37</v>
+        <v>1.50544951039109e-43</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04100746162430079</v>
+        <v>-0.03662496669936731</v>
       </c>
       <c r="C8" t="n">
-        <v>3.005658837749392e-09</v>
+        <v>8.802203648152548e-08</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.680314692612884e-06</v>
+        <v>-2.134309599074864e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6369942798336024</v>
+        <v>0.5441999329785846</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.59864728490842</v>
+        <v>-17.59353119472592</v>
       </c>
       <c r="C10" t="n">
-        <v>2.463872074518568e-13</v>
+        <v>2.88443705800021e-12</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.072233601568943</v>
+        <v>2.137695346863213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6141430907310463</v>
+        <v>0.3106637680666486</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2409.78297369543</v>
+        <v>-1891.190525358788</v>
       </c>
       <c r="C12" t="n">
-        <v>4.596160662624656e-13</v>
+        <v>9.403795555273825e-09</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-793.1716838333998</v>
+        <v>-399.9761063690041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008658852406130958</v>
+        <v>0.08921360220247916</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7551.747852164865</v>
+        <v>7704.270170943144</v>
       </c>
       <c r="C14" t="n">
-        <v>1.239432257668347e-37</v>
+        <v>1.112604927847769e-39</v>
       </c>
     </row>
     <row r="15">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.99745614490818</v>
+        <v>19.45812696007517</v>
       </c>
       <c r="C15" t="n">
-        <v>1.321931630466778e-05</v>
+        <v>0.000990310128853083</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5576.499167313581</v>
+        <v>5025.226004846577</v>
       </c>
       <c r="C2" t="n">
-        <v>3.115908172156286e-25</v>
+        <v>1.508350017925448e-20</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1729.804953576792</v>
+        <v>-1671.74139451783</v>
       </c>
       <c r="C3" t="n">
-        <v>3.406261712661536e-13</v>
+        <v>1.519133841588242e-12</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2309.552002267755</v>
+        <v>-2139.697287076597</v>
       </c>
       <c r="C4" t="n">
-        <v>1.450113629011532e-20</v>
+        <v>5.514138481489085e-18</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1940.845135529026</v>
+        <v>-1437.60018237248</v>
       </c>
       <c r="C5" t="n">
-        <v>3.92987779006089e-14</v>
+        <v>6.887220194116395e-09</v>
       </c>
     </row>
     <row r="6">
@@ -777,23 +777,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.11433607723947</v>
+        <v>66.42922338017965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001081806681265336</v>
+        <v>5.1734105597508e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.9757981324716</v>
+        <v>9.10963267295735</v>
       </c>
       <c r="C7" t="n">
-        <v>1.078220340544038e-36</v>
+        <v>9.603983472052335e-40</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03586735126536088</v>
+        <v>-0.03253744374745351</v>
       </c>
       <c r="C8" t="n">
-        <v>2.935578633035828e-07</v>
+        <v>2.887036504900115e-06</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.889747226144783e-06</v>
+        <v>-2.600007480131167e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.571294348847285</v>
+        <v>0.4325512816084005</v>
       </c>
     </row>
     <row r="10">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.21265006491517</v>
+        <v>-18.34738606547737</v>
       </c>
       <c r="C10" t="n">
-        <v>5.796321288301315e-14</v>
+        <v>6.603221620679432e-13</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.830880618320105</v>
+        <v>1.628982981010906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6915677638921799</v>
+        <v>0.43479206241846</v>
       </c>
     </row>
     <row r="12">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2301.63646295616</v>
+        <v>-1783.717786829493</v>
       </c>
       <c r="C12" t="n">
-        <v>7.926027812745569e-12</v>
+        <v>1.030886205686189e-07</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-907.5154917451996</v>
+        <v>-473.8825704141531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001258716181791406</v>
+        <v>0.04445425799886001</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7333.551307655081</v>
+        <v>7424.193819083232</v>
       </c>
       <c r="C14" t="n">
-        <v>1.04638642655288e-34</v>
+        <v>8.851118347551718e-36</v>
       </c>
     </row>
     <row r="15">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.05803268514896</v>
+        <v>20.85744003138185</v>
       </c>
       <c r="C15" t="n">
-        <v>1.748982990306982e-05</v>
+        <v>0.0005411953095117546</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5160.222870882564</v>
+        <v>4592.427910878595</v>
       </c>
       <c r="C2" t="n">
-        <v>1.410761302995907e-22</v>
+        <v>8.428389154963526e-18</v>
       </c>
     </row>
     <row r="3">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1260.530648228441</v>
+        <v>-1188.09576509894</v>
       </c>
       <c r="C3" t="n">
-        <v>1.655937740604581e-07</v>
+        <v>7.751928304766864e-07</v>
       </c>
     </row>
     <row r="4">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1931.814050551997</v>
+        <v>-1750.785933068526</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376510242475245e-14</v>
+        <v>3.195856885720303e-12</v>
       </c>
     </row>
     <row r="5">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1450.831230643566</v>
+        <v>-927.3801469346145</v>
       </c>
       <c r="C5" t="n">
-        <v>2.035650068391719e-08</v>
+        <v>0.0002339006661396748</v>
       </c>
     </row>
     <row r="6">
@@ -995,23 +995,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.11913867454844</v>
+        <v>50.30777224922531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00787592291480709</v>
+        <v>0.001348975536804674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.7588458248982</v>
+        <v>9.001423135719552</v>
       </c>
       <c r="C7" t="n">
-        <v>3.231944519896835e-39</v>
+        <v>6.2821197590251e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0440792305482816</v>
+        <v>-0.04054885917963254</v>
       </c>
       <c r="C8" t="n">
-        <v>1.333327431172348e-10</v>
+        <v>3.236424416742182e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.15016175029472e-06</v>
+        <v>-1.528722359624145e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7303219742002967</v>
+        <v>0.6460772444747854</v>
       </c>
     </row>
     <row r="10">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.77109032747088</v>
+        <v>-17.91683998120736</v>
       </c>
       <c r="C10" t="n">
-        <v>2.252259998396426e-14</v>
+        <v>3.929242560567729e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.477721070029455</v>
+        <v>2.318731100168268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4726830357797969</v>
+        <v>0.2598613574067895</v>
       </c>
     </row>
     <row r="12">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2364.877228589983</v>
+        <v>-1875.985781708632</v>
       </c>
       <c r="C12" t="n">
-        <v>3.276983515220579e-13</v>
+        <v>7.776980322293084e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-830.3565806318187</v>
+        <v>-401.6106758456601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003159007635252355</v>
+        <v>0.08161627910693207</v>
       </c>
     </row>
     <row r="14">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7335.560206556668</v>
+        <v>7532.572147300743</v>
       </c>
       <c r="C14" t="n">
-        <v>2.088756934905695e-36</v>
+        <v>3.399963125524488e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.12533191543582</v>
+        <v>20.86583859811719</v>
       </c>
       <c r="C15" t="n">
-        <v>8.798200162191614e-06</v>
+        <v>0.0003728196436348275</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5862.517926882087</v>
+        <v>5322.949296024944</v>
       </c>
       <c r="C2" t="n">
-        <v>2.801123587865413e-29</v>
+        <v>1.86466912478134e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1745.59595824861</v>
+        <v>-1662.717135652071</v>
       </c>
       <c r="C3" t="n">
-        <v>8.808690216793122e-14</v>
+        <v>7.275013329112459e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2379.928266831804</v>
+        <v>-2185.261594525503</v>
       </c>
       <c r="C4" t="n">
-        <v>2.739768521459569e-22</v>
+        <v>2.886593473552571e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1898.500290092147</v>
+        <v>-1410.218604801862</v>
       </c>
       <c r="C5" t="n">
-        <v>5.815374246542395e-14</v>
+        <v>8.092026442576597e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1213,23 +1213,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.91150911622133</v>
+        <v>49.73621959428964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002629991603139387</v>
+        <v>0.001906527172368794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.8403093268773</v>
+        <v>8.973404098968885</v>
       </c>
       <c r="C7" t="n">
-        <v>1.068786119296803e-34</v>
+        <v>1.579128173328563e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03228772451687087</v>
+        <v>-0.0290505633697552</v>
       </c>
       <c r="C8" t="n">
-        <v>1.518572706392995e-06</v>
+        <v>1.19486746444203e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.588217005972498e-06</v>
+        <v>-9.691882937726673e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04881852362826437</v>
+        <v>0.04383622077307261</v>
       </c>
     </row>
     <row r="10">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.23164040189586</v>
+        <v>-18.27616384171304</v>
       </c>
       <c r="C10" t="n">
-        <v>1.220323133277838e-15</v>
+        <v>1.786885952086552e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.007840816362801</v>
+        <v>2.808738048543208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3317197625062407</v>
+        <v>0.1703580803871934</v>
       </c>
     </row>
     <row r="12">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2432.134397349653</v>
+        <v>-1960.496814748732</v>
       </c>
       <c r="C12" t="n">
-        <v>5.99278120629467e-14</v>
+        <v>1.041631819289908e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-986.4402777707421</v>
+        <v>-609.5761931501615</v>
       </c>
       <c r="C13" t="n">
-        <v>1.880522141615677e-05</v>
+        <v>0.007610878668599661</v>
       </c>
     </row>
     <row r="14">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6939.453143114802</v>
+        <v>7125.513501612291</v>
       </c>
       <c r="C14" t="n">
-        <v>7.764121954942731e-32</v>
+        <v>6.096289852261497e-34</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.36902951063644</v>
+        <v>16.44064636550255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00012191764677465</v>
+        <v>0.0043641712385103</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6304.306427499169</v>
+        <v>5668.957828589016</v>
       </c>
       <c r="C2" t="n">
-        <v>2.823398394536395e-29</v>
+        <v>9.113816119151116e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2104.03036438801</v>
+        <v>-1991.865722229467</v>
       </c>
       <c r="C3" t="n">
-        <v>9.082911769243032e-15</v>
+        <v>1.421756543266013e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2585.214090378769</v>
+        <v>-2390.366297513575</v>
       </c>
       <c r="C4" t="n">
-        <v>3.249852212705504e-20</v>
+        <v>1.13524313154819e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2355.610612583514</v>
+        <v>-1806.699171135866</v>
       </c>
       <c r="C5" t="n">
-        <v>4.822896233290397e-16</v>
+        <v>1.44581347252464e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1431,23 +1431,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.98306604549165</v>
+        <v>62.91312723530324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002746129717904707</v>
+        <v>0.0001458947613331213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.5920124750734</v>
+        <v>9.025803754858607</v>
       </c>
       <c r="C7" t="n">
-        <v>8.815176982342147e-36</v>
+        <v>2.768740299507375e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03756166392504155</v>
+        <v>-0.03404448161998104</v>
       </c>
       <c r="C8" t="n">
-        <v>7.181473746468807e-08</v>
+        <v>8.651121757919322e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.118504200343336e-06</v>
+        <v>-2.751656530086826e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.514882307418276</v>
+        <v>0.3928792628927826</v>
       </c>
     </row>
     <row r="10">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.34790711020513</v>
+        <v>-18.50001915903849</v>
       </c>
       <c r="C10" t="n">
-        <v>2.997841325804229e-14</v>
+        <v>2.742120168322375e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.931455438993547</v>
+        <v>-0.7208899855741759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3973119373768683</v>
+        <v>0.7506909699738065</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2330.032372772349</v>
+        <v>-1760.476861645754</v>
       </c>
       <c r="C12" t="n">
-        <v>1.28619842030001e-11</v>
+        <v>2.641449564447659e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-979.1770996253272</v>
+        <v>-549.944618544718</v>
       </c>
       <c r="C13" t="n">
-        <v>4.337698187789455e-05</v>
+        <v>0.02058569269518506</v>
       </c>
     </row>
     <row r="14">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7575.739396341627</v>
+        <v>7636.614064832898</v>
       </c>
       <c r="C14" t="n">
-        <v>3.148036707527052e-36</v>
+        <v>3.110286273906149e-37</v>
       </c>
     </row>
     <row r="15">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.19943537876495</v>
+        <v>19.81142239927945</v>
       </c>
       <c r="C15" t="n">
-        <v>2.15375992099789e-05</v>
+        <v>0.0007560086716157964</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5659.275183139316</v>
+        <v>5146.620053383139</v>
       </c>
       <c r="C2" t="n">
-        <v>9.685768909784687e-27</v>
+        <v>7.24164331697424e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1794.696937010706</v>
+        <v>-1706.805163537799</v>
       </c>
       <c r="C3" t="n">
-        <v>5.789078880821999e-15</v>
+        <v>1.080227993638202e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2284.443900711952</v>
+        <v>-2116.010939626565</v>
       </c>
       <c r="C4" t="n">
-        <v>2.345879938329022e-21</v>
+        <v>1.839174473895339e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1919.258446207644</v>
+        <v>-1372.071900019358</v>
       </c>
       <c r="C5" t="n">
-        <v>2.076380313943128e-14</v>
+        <v>1.778353757823628e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1649,23 +1649,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.03944873308672</v>
+        <v>67.72207106845154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001488863197704661</v>
+        <v>1.645397400283787e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.140134379431</v>
+        <v>8.879484198648786</v>
       </c>
       <c r="C7" t="n">
-        <v>3.363667593494405e-39</v>
+        <v>3.979922704420244e-39</v>
       </c>
     </row>
     <row r="8">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03746584286165996</v>
+        <v>-0.03440908336951214</v>
       </c>
       <c r="C8" t="n">
-        <v>1.31882661965615e-08</v>
+        <v>1.787771682057416e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.883719517650728e-06</v>
+        <v>-3.559742547117686e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3709078311765155</v>
+        <v>0.2686072768517865</v>
       </c>
     </row>
     <row r="10">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.72920272137382</v>
+        <v>-17.05857390474407</v>
       </c>
       <c r="C10" t="n">
-        <v>6.837619047230528e-13</v>
+        <v>6.07943745529268e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6635408407680146</v>
+        <v>1.489225316478834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7537123042405203</v>
+        <v>0.4817760533302173</v>
       </c>
     </row>
     <row r="12">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2556.65344376824</v>
+        <v>-2047.182899823802</v>
       </c>
       <c r="C12" t="n">
-        <v>9.919597945368219e-15</v>
+        <v>5.898991916427832e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-951.0508806790712</v>
+        <v>-564.631124921645</v>
       </c>
       <c r="C13" t="n">
-        <v>4.647576280864168e-05</v>
+        <v>0.01551909448739479</v>
       </c>
     </row>
     <row r="14">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6864.715339371531</v>
+        <v>6970.9667256546</v>
       </c>
       <c r="C14" t="n">
-        <v>3.096398126693402e-32</v>
+        <v>4.306878252502465e-33</v>
       </c>
     </row>
     <row r="15">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.62400932572594</v>
+        <v>21.23715576226927</v>
       </c>
       <c r="C15" t="n">
-        <v>7.888474464487931e-06</v>
+        <v>0.0003541138693202888</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5383.22281774465</v>
+        <v>4701.217008393725</v>
       </c>
       <c r="C2" t="n">
-        <v>3.411187336053829e-24</v>
+        <v>1.298475022075238e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1687.75115268258</v>
+        <v>-1588.07246536193</v>
       </c>
       <c r="C3" t="n">
-        <v>4.593881144840089e-12</v>
+        <v>5.36855509992258e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2297.298165484628</v>
+        <v>-2100.027009476565</v>
       </c>
       <c r="C4" t="n">
-        <v>2.696748138849385e-19</v>
+        <v>1.635356079911879e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1917.412889736321</v>
+        <v>-1383.179897737864</v>
       </c>
       <c r="C5" t="n">
-        <v>4.551656696291108e-13</v>
+        <v>6.310069364314409e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1867,23 +1867,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.5551416090947</v>
+        <v>73.81622700119865</v>
       </c>
       <c r="C6" t="n">
-        <v>2.380483899419661e-05</v>
+        <v>7.521685022800016e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.3193511426088</v>
+        <v>9.147247552024723</v>
       </c>
       <c r="C7" t="n">
-        <v>3.332886238647224e-34</v>
+        <v>1.607348253194504e-38</v>
       </c>
     </row>
     <row r="8">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03713853857561959</v>
+        <v>-0.03492531663946685</v>
       </c>
       <c r="C8" t="n">
-        <v>3.520843847372935e-08</v>
+        <v>1.790529986687004e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.627294196663955e-06</v>
+        <v>-2.109762749102106e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6253957149261149</v>
+        <v>0.5229310919105145</v>
       </c>
     </row>
     <row r="10">
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.54826440162491</v>
+        <v>-18.16020927419093</v>
       </c>
       <c r="C10" t="n">
-        <v>6.045774390582152e-15</v>
+        <v>3.924343836046092e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.420490763361541</v>
+        <v>2.922144852161651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5058112109494981</v>
+        <v>0.1682844158830897</v>
       </c>
     </row>
     <row r="12">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2181.379434438722</v>
+        <v>-1646.838247446483</v>
       </c>
       <c r="C12" t="n">
-        <v>2.640782396623986e-10</v>
+        <v>1.56918590838023e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-739.4008335585593</v>
+        <v>-301.1493899365064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001937041814012927</v>
+        <v>0.2033832259871895</v>
       </c>
     </row>
     <row r="14">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7601.41775408262</v>
+        <v>7738.206152484345</v>
       </c>
       <c r="C14" t="n">
-        <v>4.089301154685748e-36</v>
+        <v>9.877341527267673e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.33491571878277</v>
+        <v>20.69060706922801</v>
       </c>
       <c r="C15" t="n">
-        <v>9.418268768477967e-06</v>
+        <v>0.0004591787755406674</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5745.208470202037</v>
+        <v>5246.379534128056</v>
       </c>
       <c r="C2" t="n">
-        <v>1.659444519555009e-28</v>
+        <v>1.551300973268663e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1832.604940512799</v>
+        <v>-1743.198606571443</v>
       </c>
       <c r="C3" t="n">
-        <v>3.909338689441748e-15</v>
+        <v>7.585834914552129e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2347.312360768802</v>
+        <v>-2164.463193857557</v>
       </c>
       <c r="C4" t="n">
-        <v>5.482971043509163e-22</v>
+        <v>7.896448753806929e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1946.568012973977</v>
+        <v>-1374.712765151464</v>
       </c>
       <c r="C5" t="n">
-        <v>1.296540589634763e-14</v>
+        <v>2.232030536012498e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2085,23 +2085,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.48375047304665</v>
+        <v>55.35944782683409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001753221166948672</v>
+        <v>0.0004330096401282804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.3323394103597</v>
+        <v>8.947019664215032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.299009613794014e-40</v>
+        <v>3.889807625930225e-40</v>
       </c>
     </row>
     <row r="8">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04218125124135737</v>
+        <v>-0.03919975334668022</v>
       </c>
       <c r="C8" t="n">
-        <v>2.577454884170829e-10</v>
+        <v>4.165694495864885e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.009913913627325e-06</v>
+        <v>-3.676372263619585e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3383790609286064</v>
+        <v>0.2416325821728208</v>
       </c>
     </row>
     <row r="10">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.39877904723645</v>
+        <v>-15.90689522142361</v>
       </c>
       <c r="C10" t="n">
-        <v>1.645121445107503e-11</v>
+        <v>7.761442974560097e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3526866502376449</v>
+        <v>1.476596643851008</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8651134418205839</v>
+        <v>0.4776983546257599</v>
       </c>
     </row>
     <row r="12">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2478.280969633677</v>
+        <v>-1988.9434713793</v>
       </c>
       <c r="C12" t="n">
-        <v>4.209530130670328e-14</v>
+        <v>1.343392436814198e-09</v>
       </c>
     </row>
     <row r="13">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-979.5118023335015</v>
+        <v>-561.524772554247</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6227574487309e-05</v>
+        <v>0.01570174414194949</v>
       </c>
     </row>
     <row r="14">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6640.950684927868</v>
+        <v>6738.998497113833</v>
       </c>
       <c r="C14" t="n">
-        <v>5.331829835546242e-30</v>
+        <v>9.14735633772046e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.56442016206361</v>
+        <v>21.11254056641151</v>
       </c>
       <c r="C15" t="n">
-        <v>1.859185901385016e-06</v>
+        <v>0.0002611108473874131</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5462.898217134238</v>
+        <v>4774.647646270226</v>
       </c>
       <c r="C2" t="n">
-        <v>4.993087468904911e-24</v>
+        <v>1.68246593560781e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1546.232782984772</v>
+        <v>-1451.633171870446</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413767702743996e-11</v>
+        <v>7.049369868669809e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2148.71135051493</v>
+        <v>-1946.276359299951</v>
       </c>
       <c r="C4" t="n">
-        <v>3.769792540508848e-18</v>
+        <v>2.655891327210585e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1682.478830222765</v>
+        <v>-1184.0723475672</v>
       </c>
       <c r="C5" t="n">
-        <v>5.033092175563808e-11</v>
+        <v>1.757303057315042e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2303,23 +2303,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.69347645415446</v>
+        <v>70.75248614316166</v>
       </c>
       <c r="C6" t="n">
-        <v>9.547366446652365e-05</v>
+        <v>1.991913295341891e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.2287916783301</v>
+        <v>9.028170693169157</v>
       </c>
       <c r="C7" t="n">
-        <v>6.840835107573276e-35</v>
+        <v>1.093834158119997e-39</v>
       </c>
     </row>
     <row r="8">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630260760938069</v>
+        <v>-0.03321891552282211</v>
       </c>
       <c r="C8" t="n">
-        <v>6.331126149455223e-08</v>
+        <v>6.040340537402383e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.02126539640139e-06</v>
+        <v>-2.117158110413885e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5448525384975258</v>
+        <v>0.5221298638140222</v>
       </c>
     </row>
     <row r="10">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.11412519477289</v>
+        <v>-17.53783083692668</v>
       </c>
       <c r="C10" t="n">
-        <v>1.117184617983333e-14</v>
+        <v>1.281607695295298e-12</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.224070944930789</v>
+        <v>3.467084432252032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3030118808775136</v>
+        <v>0.1061617400268492</v>
       </c>
     </row>
     <row r="12">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2324.709977948532</v>
+        <v>-1791.251952230749</v>
       </c>
       <c r="C12" t="n">
-        <v>1.073490318880313e-11</v>
+        <v>1.463777435237389e-07</v>
       </c>
     </row>
     <row r="13">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-803.706277884995</v>
+        <v>-444.5605558370545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006844674205883186</v>
+        <v>0.05884444124953938</v>
       </c>
     </row>
     <row r="14">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7056.658560119416</v>
+        <v>7207.596530270759</v>
       </c>
       <c r="C14" t="n">
-        <v>2.282236469422598e-32</v>
+        <v>4.705877558589878e-34</v>
       </c>
     </row>
     <row r="15">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.03781680277308</v>
+        <v>17.47036385493394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002064420264253419</v>
+        <v>0.002996211821790188</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5651.230876740937</v>
+        <v>5021.445158466022</v>
       </c>
       <c r="C2" t="n">
-        <v>3.67021390636732e-26</v>
+        <v>7.804066272672258e-21</v>
       </c>
     </row>
     <row r="3">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1760.299416320981</v>
+        <v>-1668.248724132466</v>
       </c>
       <c r="C3" t="n">
-        <v>6.758028033162385e-13</v>
+        <v>6.536278703105764e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2331.643823559826</v>
+        <v>-2145.875160028768</v>
       </c>
       <c r="C4" t="n">
-        <v>6.664042654720393e-20</v>
+        <v>2.761109386380319e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1976.744418288925</v>
+        <v>-1469.810178680935</v>
       </c>
       <c r="C5" t="n">
-        <v>8.976235541762835e-14</v>
+        <v>1.020526832532791e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2521,23 +2521,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.32655216669934</v>
+        <v>52.96264372554945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001026858521809503</v>
+        <v>0.000970856622368074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.4102623616345</v>
+        <v>9.037755468705011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.396524968254305e-35</v>
+        <v>1.337159907285701e-40</v>
       </c>
     </row>
     <row r="8">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03713385966241577</v>
+        <v>-0.03456880708607376</v>
       </c>
       <c r="C8" t="n">
-        <v>3.412050648448547e-08</v>
+        <v>2.232728237405916e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.196305933806614e-06</v>
+        <v>-2.700255023070668e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5095355563362212</v>
+        <v>0.4125845242950696</v>
       </c>
     </row>
     <row r="10">
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.57505563263889</v>
+        <v>-17.53261348550786</v>
       </c>
       <c r="C10" t="n">
-        <v>2.804476137908457e-14</v>
+        <v>5.271722938499684e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.375520380565759</v>
+        <v>2.409542279300774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5186757012483438</v>
+        <v>0.2548569109697502</v>
       </c>
     </row>
     <row r="12">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2340.377558089666</v>
+        <v>-1812.898626633125</v>
       </c>
       <c r="C12" t="n">
-        <v>1.122157780315519e-12</v>
+        <v>2.832470115275412e-08</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1026.481816038814</v>
+        <v>-602.9156902681884</v>
       </c>
       <c r="C13" t="n">
-        <v>9.866992102442996e-06</v>
+        <v>0.008749721402704084</v>
       </c>
     </row>
     <row r="14">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7487.225230180835</v>
+        <v>7679.034228098397</v>
       </c>
       <c r="C14" t="n">
-        <v>3.82787719835864e-37</v>
+        <v>2.196331099165119e-39</v>
       </c>
     </row>
     <row r="15">
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.88037842536308</v>
+        <v>20.78210832518982</v>
       </c>
       <c r="C15" t="n">
-        <v>9.270562466997502e-06</v>
+        <v>0.0003247952071437695</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6112.676906424277</v>
+        <v>5476.6194357157</v>
       </c>
       <c r="C2" t="n">
-        <v>1.176785183869585e-29</v>
+        <v>6.155379821419438e-24</v>
       </c>
     </row>
     <row r="3">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1945.288161851935</v>
+        <v>-1870.066883178314</v>
       </c>
       <c r="C3" t="n">
-        <v>1.150098073588245e-14</v>
+        <v>7.281280152786549e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2470.925129955525</v>
+        <v>-2290.341278028372</v>
       </c>
       <c r="C4" t="n">
-        <v>3.466632818566538e-21</v>
+        <v>1.290281527491868e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2213.274822304401</v>
+        <v>-1707.614640370359</v>
       </c>
       <c r="C5" t="n">
-        <v>3.931860647170495e-16</v>
+        <v>8.109476625577621e-11</v>
       </c>
     </row>
     <row r="6">
@@ -2739,23 +2739,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.25999861441589</v>
+        <v>66.56938175127065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003349161238391841</v>
+        <v>4.266807353450695e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.243285977294</v>
+        <v>9.206876576029842</v>
       </c>
       <c r="C7" t="n">
-        <v>1.711175446632254e-36</v>
+        <v>7.654485533381606e-41</v>
       </c>
     </row>
     <row r="8">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03423676138743717</v>
+        <v>-0.03072173848633831</v>
       </c>
       <c r="C8" t="n">
-        <v>3.107375003927293e-07</v>
+        <v>3.642078343077772e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.362325531849986e-06</v>
+        <v>-7.774519845617643e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1028309312223086</v>
+        <v>0.08196858574159545</v>
       </c>
     </row>
     <row r="10">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.60791354169351</v>
+        <v>-20.44152607774981</v>
       </c>
       <c r="C10" t="n">
-        <v>5.91596256367664e-18</v>
+        <v>2.543520228732534e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.772790169947148</v>
+        <v>-0.6047699254406682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4069157092742975</v>
+        <v>0.77569152932589</v>
       </c>
     </row>
     <row r="12">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2504.699141041625</v>
+        <v>-1997.67126310277</v>
       </c>
       <c r="C12" t="n">
-        <v>2.361537451796883e-14</v>
+        <v>9.220866472649661e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-765.0015642930625</v>
+        <v>-335.0775930541345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001048936027901349</v>
+        <v>0.1491171554623684</v>
       </c>
     </row>
     <row r="14">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7903.526427743684</v>
+        <v>8043.926477684789</v>
       </c>
       <c r="C14" t="n">
-        <v>4.727658379675702e-39</v>
+        <v>8.739594896432177e-41</v>
       </c>
     </row>
     <row r="15">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.41283345083126</v>
+        <v>19.88497243409726</v>
       </c>
       <c r="C15" t="n">
-        <v>2.138928236888362e-05</v>
+        <v>0.0007975634499462419</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5184.13222322852</v>
+        <v>4624.456548502646</v>
       </c>
       <c r="C2" t="n">
-        <v>2.974750093389418e-23</v>
+        <v>1.426089645262808e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1726.794561978599</v>
+        <v>-1649.997675723552</v>
       </c>
       <c r="C3" t="n">
-        <v>1.217160956287095e-13</v>
+        <v>1.088982158331977e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2931,10 +2931,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2337.249927327749</v>
+        <v>-2136.914807862325</v>
       </c>
       <c r="C4" t="n">
-        <v>9.949617244990127e-22</v>
+        <v>1.724981177362191e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2097.69178200332</v>
+        <v>-1540.616545027543</v>
       </c>
       <c r="C5" t="n">
-        <v>9.73956307830496e-17</v>
+        <v>2.886803633449664e-10</v>
       </c>
     </row>
     <row r="6">
@@ -2957,23 +2957,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.76017631161653</v>
+        <v>52.16598318741449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005465018770392577</v>
+        <v>0.001369220026391418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.4974968045267</v>
+        <v>9.451208738632628</v>
       </c>
       <c r="C7" t="n">
-        <v>1.104386966077639e-41</v>
+        <v>2.786119001928518e-44</v>
       </c>
     </row>
     <row r="8">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03451659113298504</v>
+        <v>-0.03226052916832817</v>
       </c>
       <c r="C8" t="n">
-        <v>1.795313893647195e-07</v>
+        <v>9.667681902104282e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.968762123998942e-06</v>
+        <v>-3.467427400029763e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3436212140830213</v>
+        <v>0.2658178384149349</v>
       </c>
     </row>
     <row r="10">
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.95779199899824</v>
+        <v>-16.90957588926009</v>
       </c>
       <c r="C10" t="n">
-        <v>1.414293993974035e-13</v>
+        <v>3.433605564373293e-12</v>
       </c>
     </row>
     <row r="11">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.935077751902103</v>
+        <v>1.750450579791728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6453467583293151</v>
+        <v>0.3872826869364835</v>
       </c>
     </row>
     <row r="12">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2339.208926560099</v>
+        <v>-1765.207940801895</v>
       </c>
       <c r="C12" t="n">
-        <v>2.106140211112689e-12</v>
+        <v>1.081294684963396e-07</v>
       </c>
     </row>
     <row r="13">
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-953.4811887323497</v>
+        <v>-512.454914794587</v>
       </c>
       <c r="C13" t="n">
-        <v>4.054100996846023e-05</v>
+        <v>0.02662648640307992</v>
       </c>
     </row>
     <row r="14">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7620.5863199907</v>
+        <v>7783.335512893613</v>
       </c>
       <c r="C14" t="n">
-        <v>9.115688091160133e-37</v>
+        <v>1.959933773684411e-38</v>
       </c>
     </row>
     <row r="15">
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.71031617565043</v>
+        <v>27.30506892378832</v>
       </c>
       <c r="C15" t="n">
-        <v>1.099569579823234e-08</v>
+        <v>3.226080631047779e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5321.021997461561</v>
+        <v>4805.941261783155</v>
       </c>
       <c r="C2" t="n">
-        <v>1.805356786322039e-23</v>
+        <v>3.934930745355949e-19</v>
       </c>
     </row>
     <row r="3">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1453.855086035426</v>
+        <v>-1358.718710706161</v>
       </c>
       <c r="C3" t="n">
-        <v>5.242446938008123e-09</v>
+        <v>4.438395469929416e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2120.532697674671</v>
+        <v>-1942.565513419016</v>
       </c>
       <c r="C4" t="n">
-        <v>5.91259971613291e-16</v>
+        <v>1.276173629084451e-13</v>
       </c>
     </row>
     <row r="5">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1672.483636761929</v>
+        <v>-1117.012417428846</v>
       </c>
       <c r="C5" t="n">
-        <v>5.057397945790373e-10</v>
+        <v>1.955421843108499e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3175,23 +3175,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.1602713810904</v>
+        <v>60.06744410066536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005807749483236203</v>
+        <v>0.0001564761853963492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.2121400228488</v>
+        <v>8.973436076849881</v>
       </c>
       <c r="C7" t="n">
-        <v>7.919718908953223e-37</v>
+        <v>1.579286085010228e-38</v>
       </c>
     </row>
     <row r="8">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03978759941241097</v>
+        <v>-0.03620136626482749</v>
       </c>
       <c r="C8" t="n">
-        <v>1.666325198682401e-08</v>
+        <v>2.567503834851767e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.243657090471811e-06</v>
+        <v>-1.892486757340119e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7179505521807987</v>
+        <v>0.5807436267555254</v>
       </c>
     </row>
     <row r="10">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.9233144277781</v>
+        <v>-18.45465319153379</v>
       </c>
       <c r="C10" t="n">
-        <v>7.229074292561623e-14</v>
+        <v>2.750266303744608e-13</v>
       </c>
     </row>
     <row r="11">
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.682155699900179</v>
+        <v>2.337604230564992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431431180554646</v>
+        <v>0.273176985626827</v>
       </c>
     </row>
     <row r="12">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2280.368331422294</v>
+        <v>-1746.592456224457</v>
       </c>
       <c r="C12" t="n">
-        <v>1.903248497681924e-11</v>
+        <v>2.518060458246835e-07</v>
       </c>
     </row>
     <row r="13">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-894.819890146193</v>
+        <v>-451.9078851577456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000164379334481242</v>
+        <v>0.05620033301770845</v>
       </c>
     </row>
     <row r="14">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7275.809654488718</v>
+        <v>7393.088310052006</v>
       </c>
       <c r="C14" t="n">
-        <v>8.260010740612226e-35</v>
+        <v>5.646429541707374e-36</v>
       </c>
     </row>
     <row r="15">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.19888995068686</v>
+        <v>19.51167473802561</v>
       </c>
       <c r="C15" t="n">
-        <v>2.845073934760248e-05</v>
+        <v>0.001152420436361891</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5721.972462329364</v>
+        <v>5110.071421923107</v>
       </c>
       <c r="C2" t="n">
-        <v>8.299390122448663e-27</v>
+        <v>1.284759170738319e-21</v>
       </c>
     </row>
     <row r="3">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1562.425461433319</v>
+        <v>-1476.163655320166</v>
       </c>
       <c r="C3" t="n">
-        <v>1.36918132922136e-10</v>
+        <v>9.232345886855935e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2114.063594601917</v>
+        <v>-1920.597396090404</v>
       </c>
       <c r="C4" t="n">
-        <v>5.006656122630101e-17</v>
+        <v>1.738315251160604e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1753.042152388732</v>
+        <v>-1210.440905487721</v>
       </c>
       <c r="C5" t="n">
-        <v>2.390154305689864e-11</v>
+        <v>1.814369906704555e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3393,23 +3393,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.42379732557306</v>
+        <v>58.31173336581264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006997114128423838</v>
+        <v>0.0002200427042512651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.0136780557157</v>
+        <v>9.264281586335441</v>
       </c>
       <c r="C7" t="n">
-        <v>2.206597705160966e-36</v>
+        <v>6.376630706459302e-42</v>
       </c>
     </row>
     <row r="8">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03755565309402365</v>
+        <v>-0.03498071533944722</v>
       </c>
       <c r="C8" t="n">
-        <v>2.753863767069194e-08</v>
+        <v>1.762310312875507e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.745053511843843e-06</v>
+        <v>-2.098004909322119e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5804936887402856</v>
+        <v>0.5016796422808749</v>
       </c>
     </row>
     <row r="10">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.85671182907656</v>
+        <v>-18.59280164621406</v>
       </c>
       <c r="C10" t="n">
-        <v>5.888687969843448e-16</v>
+        <v>2.628584493782071e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.4044504774121</v>
+        <v>-0.05162432003824113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5200026911449063</v>
+        <v>0.9809829183948662</v>
       </c>
     </row>
     <row r="12">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2069.78202481162</v>
+        <v>-1475.284735372754</v>
       </c>
       <c r="C12" t="n">
-        <v>3.328845799062578e-10</v>
+        <v>6.243542376259898e-06</v>
       </c>
     </row>
     <row r="13">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-941.2320646621697</v>
+        <v>-505.2172090637361</v>
       </c>
       <c r="C13" t="n">
-        <v>4.931836765879304e-05</v>
+        <v>0.02758596075129843</v>
       </c>
     </row>
     <row r="14">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7253.122157294341</v>
+        <v>7348.868431021107</v>
       </c>
       <c r="C14" t="n">
-        <v>5.040051237826595e-36</v>
+        <v>1.827988889598876e-37</v>
       </c>
     </row>
     <row r="15">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.10397151513838</v>
+        <v>19.35802076106444</v>
       </c>
       <c r="C15" t="n">
-        <v>7.953602157176567e-06</v>
+        <v>0.0008225659971858695</v>
       </c>
     </row>
   </sheetData>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5710.731874635965</v>
+        <v>5198.21363204961</v>
       </c>
       <c r="C2" t="n">
-        <v>2.76500650369301e-27</v>
+        <v>1.507147159316386e-22</v>
       </c>
     </row>
     <row r="3">
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1622.062184368487</v>
+        <v>-1535.727908759974</v>
       </c>
       <c r="C3" t="n">
-        <v>2.342098730657753e-10</v>
+        <v>1.785300018367195e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2088.835194434709</v>
+        <v>-1913.209004414611</v>
       </c>
       <c r="C4" t="n">
-        <v>4.142889238044328e-15</v>
+        <v>6.252772674895019e-13</v>
       </c>
     </row>
     <row r="5">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1743.721369005811</v>
+        <v>-1225.818729641995</v>
       </c>
       <c r="C5" t="n">
-        <v>1.671170317844214e-10</v>
+        <v>4.053124679663733e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3611,23 +3611,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.10464357985019</v>
+        <v>62.16812174411321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003606702849126752</v>
+        <v>0.0001221420257830316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.7513390229992</v>
+        <v>8.947671019041646</v>
       </c>
       <c r="C7" t="n">
-        <v>2.230930901817321e-40</v>
+        <v>1.449172166777849e-41</v>
       </c>
     </row>
     <row r="8">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04356973405859318</v>
+        <v>-0.04030911458167664</v>
       </c>
       <c r="C8" t="n">
-        <v>4.627845031934841e-11</v>
+        <v>1.024647851922465e-09</v>
       </c>
     </row>
     <row r="9">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.091851620178868e-07</v>
+        <v>-1.521443816868632e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.800573979769918</v>
+        <v>0.6334987549975968</v>
       </c>
     </row>
     <row r="10">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.83041741101522</v>
+        <v>-16.3181884841213</v>
       </c>
       <c r="C10" t="n">
-        <v>2.84193915040844e-12</v>
+        <v>1.303432007877869e-11</v>
       </c>
     </row>
     <row r="11">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.591191077701481</v>
+        <v>2.508716132797782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4299265660266332</v>
+        <v>0.2129597588566769</v>
       </c>
     </row>
     <row r="12">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2395.350596504415</v>
+        <v>-1933.5124083059</v>
       </c>
       <c r="C12" t="n">
-        <v>3.63482023846592e-13</v>
+        <v>4.103686081079951e-09</v>
       </c>
     </row>
     <row r="13">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-791.3974721480654</v>
+        <v>-367.5791906952818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005971998759874699</v>
+        <v>0.1098701515657447</v>
       </c>
     </row>
     <row r="14">
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7202.500738685605</v>
+        <v>7381.587642309035</v>
       </c>
       <c r="C14" t="n">
-        <v>1.125520307150288e-32</v>
+        <v>3.184043419392941e-34</v>
       </c>
     </row>
     <row r="15">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.0632374962042</v>
+        <v>10.13252228460026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005085568873434253</v>
+        <v>0.07659202939821248</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5700.723788816184</v>
+        <v>5109.814937772831</v>
       </c>
       <c r="C2" t="n">
-        <v>1.652620430210099e-26</v>
+        <v>3.049148731626449e-21</v>
       </c>
     </row>
     <row r="3">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1816.190141598046</v>
+        <v>-1708.613749324021</v>
       </c>
       <c r="C3" t="n">
-        <v>6.584612718534298e-14</v>
+        <v>1.420343627893494e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2437.610050927922</v>
+        <v>-2235.753275298146</v>
       </c>
       <c r="C4" t="n">
-        <v>8.246782742902345e-22</v>
+        <v>1.316691120220677e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1909.344975586371</v>
+        <v>-1374.806078205447</v>
       </c>
       <c r="C5" t="n">
-        <v>3.064744131032561e-13</v>
+        <v>6.590792154440387e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3829,23 +3829,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.10553336337644</v>
+        <v>53.64826540858837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003001411565662704</v>
+        <v>0.0008160143343121252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.2084602162405</v>
+        <v>8.715850760283582</v>
       </c>
       <c r="C7" t="n">
-        <v>2.900711037564923e-34</v>
+        <v>6.158008351326496e-37</v>
       </c>
     </row>
     <row r="8">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03481691724587099</v>
+        <v>-0.03217913365394452</v>
       </c>
       <c r="C8" t="n">
-        <v>3.69437514715551e-07</v>
+        <v>2.319469796978709e-06</v>
       </c>
     </row>
     <row r="9">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.101576499356766e-06</v>
+        <v>-8.057970243236444e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08676980740523697</v>
+        <v>0.08677086059263413</v>
       </c>
     </row>
     <row r="10">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.71306705397983</v>
+        <v>-18.66422127688247</v>
       </c>
       <c r="C10" t="n">
-        <v>2.074685540087686e-15</v>
+        <v>5.86889983816808e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.75719061946139</v>
+        <v>2.792990763052142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.404761263437536</v>
+        <v>0.183884674580106</v>
       </c>
     </row>
     <row r="12">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2590.315648353479</v>
+        <v>-2061.61127999339</v>
       </c>
       <c r="C12" t="n">
-        <v>6.366865821695042e-14</v>
+        <v>2.032205628921272e-09</v>
       </c>
     </row>
     <row r="13">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-869.1961216374942</v>
+        <v>-463.9630744929401</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000215974653194229</v>
+        <v>0.04761071356218789</v>
       </c>
     </row>
     <row r="14">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7000.477979245686</v>
+        <v>7089.108362560743</v>
       </c>
       <c r="C14" t="n">
-        <v>6.284336131375962e-33</v>
+        <v>6.363546211934629e-34</v>
       </c>
     </row>
     <row r="15">
@@ -3946,10 +3946,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.20647944443654</v>
+        <v>22.32391200702169</v>
       </c>
       <c r="C15" t="n">
-        <v>2.988132706920317e-06</v>
+        <v>0.000200942105576502</v>
       </c>
     </row>
   </sheetData>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5710.515529961982</v>
+        <v>5193.575730372702</v>
       </c>
       <c r="C2" t="n">
-        <v>3.893321339143963e-26</v>
+        <v>1.660064180201558e-21</v>
       </c>
     </row>
     <row r="3">
@@ -4008,10 +4008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1686.183607804415</v>
+        <v>-1596.137388197339</v>
       </c>
       <c r="C3" t="n">
-        <v>9.334297234856098e-13</v>
+        <v>1.221631361030405e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2347.285198658831</v>
+        <v>-2168.394685745416</v>
       </c>
       <c r="C4" t="n">
-        <v>3.114524226433985e-21</v>
+        <v>2.606602800023607e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1968.224741261307</v>
+        <v>-1446.73491270733</v>
       </c>
       <c r="C5" t="n">
-        <v>2.826157225488181e-14</v>
+        <v>8.360804889767232e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4047,23 +4047,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.32463587010671</v>
+        <v>57.31664125451046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001567779504265526</v>
+        <v>0.0004798135640925813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.0153689504326</v>
+        <v>8.627449182080131</v>
       </c>
       <c r="C7" t="n">
-        <v>4.414183779651253e-33</v>
+        <v>2.194521011717851e-34</v>
       </c>
     </row>
     <row r="8">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03910875195907666</v>
+        <v>-0.03522081903987404</v>
       </c>
       <c r="C8" t="n">
-        <v>2.079196520185153e-08</v>
+        <v>4.130348589564763e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.11162333093677e-06</v>
+        <v>-2.854279249186113e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5156929494589657</v>
+        <v>0.3773739249354409</v>
       </c>
     </row>
     <row r="10">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.76855235083981</v>
+        <v>-19.33514409800761</v>
       </c>
       <c r="C10" t="n">
-        <v>5.755592964060101e-15</v>
+        <v>2.173804285833165e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7074883860523684</v>
+        <v>1.467227711333294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7498613792413247</v>
+        <v>0.5076553104144219</v>
       </c>
     </row>
     <row r="12">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2466.790815999361</v>
+        <v>-1985.259905934021</v>
       </c>
       <c r="C12" t="n">
-        <v>1.491490931043271e-13</v>
+        <v>2.889329885440791e-09</v>
       </c>
     </row>
     <row r="13">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-806.9784730264261</v>
+        <v>-439.627074411919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006840945338855551</v>
+        <v>0.06372251634247514</v>
       </c>
     </row>
     <row r="14">
@@ -4151,10 +4151,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7436.677135694335</v>
+        <v>7643.507339210003</v>
       </c>
       <c r="C14" t="n">
-        <v>2.628082097645275e-35</v>
+        <v>3.483776653763262e-37</v>
       </c>
     </row>
     <row r="15">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.97901083335036</v>
+        <v>20.35386288398265</v>
       </c>
       <c r="C15" t="n">
-        <v>2.915353264599869e-05</v>
+        <v>0.0006381960154591213</v>
       </c>
     </row>
   </sheetData>
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5419.421482253527</v>
+        <v>4693.081868124767</v>
       </c>
       <c r="C2" t="n">
-        <v>2.484795454899425e-24</v>
+        <v>1.846219117924888e-18</v>
       </c>
     </row>
     <row r="3">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1808.404639881848</v>
+        <v>-1737.366106326051</v>
       </c>
       <c r="C3" t="n">
-        <v>5.052787991578643e-14</v>
+        <v>2.830783129432017e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2404.495677535842</v>
+        <v>-2231.513478613915</v>
       </c>
       <c r="C4" t="n">
-        <v>9.927976111280231e-22</v>
+        <v>3.465031581867086e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2073.24569370242</v>
+        <v>-1559.399122781109</v>
       </c>
       <c r="C5" t="n">
-        <v>1.450237260595979e-15</v>
+        <v>4.7979886573114e-10</v>
       </c>
     </row>
     <row r="6">
@@ -4265,23 +4265,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.41072443454371</v>
+        <v>74.38376740435785</v>
       </c>
       <c r="C6" t="n">
-        <v>1.551505117086189e-05</v>
+        <v>3.606556843658329e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.4709158539074</v>
+        <v>9.542418503582569</v>
       </c>
       <c r="C7" t="n">
-        <v>1.134186495510924e-39</v>
+        <v>6.474634833364995e-45</v>
       </c>
     </row>
     <row r="8">
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03376750433448661</v>
+        <v>-0.03075406534348644</v>
       </c>
       <c r="C8" t="n">
-        <v>3.62242466175045e-07</v>
+        <v>2.936452514548978e-06</v>
       </c>
     </row>
     <row r="9">
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.793587953400398e-06</v>
+        <v>-4.205652241215344e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2901931371019749</v>
+        <v>0.2361274069350851</v>
       </c>
     </row>
     <row r="10">
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.5161093566326</v>
+        <v>-17.02353990208226</v>
       </c>
       <c r="C10" t="n">
-        <v>1.34292095536871e-13</v>
+        <v>8.73954345427912e-12</v>
       </c>
     </row>
     <row r="11">
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.069777837179062</v>
+        <v>2.266337082488253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6134652355741202</v>
+        <v>0.2811758006882522</v>
       </c>
     </row>
     <row r="12">
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2389.422597059562</v>
+        <v>-1872.189268556395</v>
       </c>
       <c r="C12" t="n">
-        <v>4.260870902791712e-13</v>
+        <v>1.091878391394873e-08</v>
       </c>
     </row>
     <row r="13">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1057.045258742624</v>
+        <v>-616.5762137827923</v>
       </c>
       <c r="C13" t="n">
-        <v>8.751464837232724e-06</v>
+        <v>0.008969582193663129</v>
       </c>
     </row>
     <row r="14">
@@ -4369,10 +4369,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7471.664605251816</v>
+        <v>7594.727836634685</v>
       </c>
       <c r="C14" t="n">
-        <v>2.591113838354008e-36</v>
+        <v>5.923619294712211e-38</v>
       </c>
     </row>
     <row r="15">
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.9202654905192</v>
+        <v>26.77826767465634</v>
       </c>
       <c r="C15" t="n">
-        <v>2.100291941774258e-07</v>
+        <v>5.626978680023493e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4966.38103055257</v>
+        <v>4437.795475497417</v>
       </c>
       <c r="C2" t="n">
-        <v>1.008522818623138e-20</v>
+        <v>1.390716762387063e-16</v>
       </c>
     </row>
     <row r="3">
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1516.647095327044</v>
+        <v>-1436.952008289329</v>
       </c>
       <c r="C3" t="n">
-        <v>4.888282728573727e-10</v>
+        <v>3.577193890898298e-09</v>
       </c>
     </row>
     <row r="4">
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2189.464785355621</v>
+        <v>-2018.001356309501</v>
       </c>
       <c r="C4" t="n">
-        <v>4.91305280120979e-18</v>
+        <v>1.653554533414889e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1590.121560206131</v>
+        <v>-1040.759321920659</v>
       </c>
       <c r="C5" t="n">
-        <v>9.471770174903998e-10</v>
+        <v>4.202104580666693e-05</v>
       </c>
     </row>
     <row r="6">
@@ -4483,23 +4483,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.98302344869469</v>
+        <v>39.20605704366785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04421121415673107</v>
+        <v>0.01015820035854643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.6789314436518</v>
+        <v>9.179636388753421</v>
       </c>
       <c r="C7" t="n">
-        <v>7.742276561364225e-43</v>
+        <v>2.17470994572299e-43</v>
       </c>
     </row>
     <row r="8">
@@ -4509,10 +4509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04106615276051231</v>
+        <v>-0.03799606660919234</v>
       </c>
       <c r="C8" t="n">
-        <v>3.886028895149325e-10</v>
+        <v>6.553672478728272e-09</v>
       </c>
     </row>
     <row r="9">
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.616290654033661e-06</v>
+        <v>-6.738078766726368e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1664053091690607</v>
+        <v>0.1581549359264434</v>
       </c>
     </row>
     <row r="10">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.84648509847953</v>
+        <v>-16.11983352422403</v>
       </c>
       <c r="C10" t="n">
-        <v>1.726490452114573e-12</v>
+        <v>1.703678874244591e-11</v>
       </c>
     </row>
     <row r="11">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.717097380795329</v>
+        <v>6.697380739049299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0100458888961506</v>
+        <v>0.002575483089010063</v>
       </c>
     </row>
     <row r="12">
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2464.226063943143</v>
+        <v>-1950.990448522479</v>
       </c>
       <c r="C12" t="n">
-        <v>7.049199695338752e-15</v>
+        <v>6.774127723978029e-10</v>
       </c>
     </row>
     <row r="13">
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-869.6334505954703</v>
+        <v>-456.5120257196898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000128734551014796</v>
+        <v>0.04422317900369271</v>
       </c>
     </row>
     <row r="14">
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6354.477634786248</v>
+        <v>6425.124444278567</v>
       </c>
       <c r="C14" t="n">
-        <v>7.043889740067567e-28</v>
+        <v>1.734855918844244e-28</v>
       </c>
     </row>
     <row r="15">
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.77303124511213</v>
+        <v>22.85883636704867</v>
       </c>
       <c r="C15" t="n">
-        <v>5.015525987776102e-07</v>
+        <v>6.468680960684998e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5797.478646398187</v>
+        <v>5266.132336181608</v>
       </c>
       <c r="C2" t="n">
-        <v>2.601861815291187e-29</v>
+        <v>4.346231848117533e-24</v>
       </c>
     </row>
     <row r="3">
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1716.710366869583</v>
+        <v>-1639.19496452393</v>
       </c>
       <c r="C3" t="n">
-        <v>1.230803680033306e-13</v>
+        <v>1.167692259931709e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2311.180967832127</v>
+        <v>-2141.753593882344</v>
       </c>
       <c r="C4" t="n">
-        <v>2.302017255616156e-21</v>
+        <v>1.296136130518474e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4688,10 +4688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1879.471565965893</v>
+        <v>-1383.180690188419</v>
       </c>
       <c r="C5" t="n">
-        <v>1.028633043738254e-13</v>
+        <v>1.652127455502344e-08</v>
       </c>
     </row>
     <row r="6">
@@ -4701,23 +4701,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.15838959355617</v>
+        <v>71.28872849003929</v>
       </c>
       <c r="C6" t="n">
-        <v>6.141044887247398e-05</v>
+        <v>2.397653446689468e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.8800895685144</v>
+        <v>8.551066734797619</v>
       </c>
       <c r="C7" t="n">
-        <v>1.362935625305838e-34</v>
+        <v>8.604598601522826e-37</v>
       </c>
     </row>
     <row r="8">
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03625615927372736</v>
+        <v>-0.03305680048353992</v>
       </c>
       <c r="C8" t="n">
-        <v>5.780676868873719e-08</v>
+        <v>6.618119042967072e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.192318555410079e-06</v>
+        <v>-1.717269439818158e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7172151640850539</v>
+        <v>0.5998697093285372</v>
       </c>
     </row>
     <row r="10">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.35375357403981</v>
+        <v>-18.68331884860642</v>
       </c>
       <c r="C10" t="n">
-        <v>1.725214905188171e-15</v>
+        <v>1.480774921741781e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.249719751752491</v>
+        <v>1.991870426226659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5373457253981923</v>
+        <v>0.3241315152130885</v>
       </c>
     </row>
     <row r="12">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2464.448963030246</v>
+        <v>-1970.560635533078</v>
       </c>
       <c r="C12" t="n">
-        <v>3.268280112684785e-13</v>
+        <v>5.495255170418679e-09</v>
       </c>
     </row>
     <row r="13">
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1027.418653095211</v>
+        <v>-614.9862379485082</v>
       </c>
       <c r="C13" t="n">
-        <v>9.043001496437422e-06</v>
+        <v>0.007660943752967297</v>
       </c>
     </row>
     <row r="14">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7233.102121095488</v>
+        <v>7380.010942239404</v>
       </c>
       <c r="C14" t="n">
-        <v>2.18956013600298e-37</v>
+        <v>5.665241555303374e-39</v>
       </c>
     </row>
     <row r="15">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.70681572778305</v>
+        <v>17.8736030452981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001528397490875616</v>
+        <v>0.002763762513909301</v>
       </c>
     </row>
   </sheetData>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6152.398174234348</v>
+        <v>5523.724649704077</v>
       </c>
       <c r="C2" t="n">
-        <v>6.066401493865305e-29</v>
+        <v>2.509719421416758e-23</v>
       </c>
     </row>
     <row r="3">
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1858.101061032793</v>
+        <v>-1756.41787741091</v>
       </c>
       <c r="C3" t="n">
-        <v>4.092720888289797e-14</v>
+        <v>6.772486230985327e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2328.219030340934</v>
+        <v>-2141.322527077317</v>
       </c>
       <c r="C4" t="n">
-        <v>8.259253606326624e-20</v>
+        <v>4.611918779325939e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2000.754466799297</v>
+        <v>-1479.075134686877</v>
       </c>
       <c r="C5" t="n">
-        <v>5.001913166460344e-14</v>
+        <v>9.457533150247748e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4919,23 +4919,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.19807705472458</v>
+        <v>70.17292388311726</v>
       </c>
       <c r="C6" t="n">
-        <v>4.434324219901213e-05</v>
+        <v>2.249881622110778e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2217715973603</v>
+        <v>9.165755076622542</v>
       </c>
       <c r="C7" t="n">
-        <v>1.437539219817331e-36</v>
+        <v>1.416300739768424e-39</v>
       </c>
     </row>
     <row r="8">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03350394250098257</v>
+        <v>-0.03027165486993842</v>
       </c>
       <c r="C8" t="n">
-        <v>1.390606731356642e-06</v>
+        <v>1.162716112016236e-05</v>
       </c>
     </row>
     <row r="9">
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.301178831104243e-06</v>
+        <v>-3.609162462117141e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3365566690488331</v>
+        <v>0.2904946778944814</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.02923283354218</v>
+        <v>-18.99711339358185</v>
       </c>
       <c r="C10" t="n">
-        <v>9.097352162933626e-15</v>
+        <v>1.877452948769901e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.29315075160667</v>
+        <v>-1.140984283982919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2942094423727599</v>
+        <v>0.6001188188880902</v>
       </c>
     </row>
     <row r="12">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2385.088718710458</v>
+        <v>-1896.111658446659</v>
       </c>
       <c r="C12" t="n">
-        <v>1.390490114371621e-12</v>
+        <v>1.52104082159445e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1016.487514722499</v>
+        <v>-602.6187957705566</v>
       </c>
       <c r="C13" t="n">
-        <v>2.274110872534345e-05</v>
+        <v>0.01171649535330641</v>
       </c>
     </row>
     <row r="14">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6774.265085368595</v>
+        <v>7013.906456207194</v>
       </c>
       <c r="C14" t="n">
-        <v>3.299828941120401e-29</v>
+        <v>2.718628238320051e-31</v>
       </c>
     </row>
     <row r="15">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.97378205843281</v>
+        <v>20.44249949103607</v>
       </c>
       <c r="C15" t="n">
-        <v>1.609815442637261e-05</v>
+        <v>0.0006400799776422244</v>
       </c>
     </row>
   </sheetData>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5846.838745861467</v>
+        <v>5199.787470451045</v>
       </c>
       <c r="C2" t="n">
-        <v>1.167268985863251e-28</v>
+        <v>1.019481957324998e-22</v>
       </c>
     </row>
     <row r="3">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1655.680147068466</v>
+        <v>-1551.691154100117</v>
       </c>
       <c r="C3" t="n">
-        <v>2.417152412627528e-11</v>
+        <v>2.970053986073822e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2210.611148383495</v>
+        <v>-2015.19595365055</v>
       </c>
       <c r="C4" t="n">
-        <v>1.522566339978941e-17</v>
+        <v>6.072141293568015e-15</v>
       </c>
     </row>
     <row r="5">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1909.305628937809</v>
+        <v>-1340.539151608425</v>
       </c>
       <c r="C5" t="n">
-        <v>7.664045530876152e-13</v>
+        <v>1.992972400015434e-07</v>
       </c>
     </row>
     <row r="6">
@@ -5137,23 +5137,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.0364578736792</v>
+        <v>50.63111359057987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002843487070055075</v>
+        <v>0.001142271056511967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.8315719254713</v>
+        <v>9.130883084627307</v>
       </c>
       <c r="C7" t="n">
-        <v>1.162889730892944e-38</v>
+        <v>1.627174664428838e-42</v>
       </c>
     </row>
     <row r="8">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04101461486965684</v>
+        <v>-0.03856287258331866</v>
       </c>
       <c r="C8" t="n">
-        <v>4.419211060035904e-10</v>
+        <v>3.576402453750459e-09</v>
       </c>
     </row>
     <row r="9">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.95024336637707e-06</v>
+        <v>-2.761867354095534e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5361179938825896</v>
+        <v>0.3764345283654559</v>
       </c>
     </row>
     <row r="10">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.79724788095766</v>
+        <v>-18.70571020978248</v>
       </c>
       <c r="C10" t="n">
-        <v>1.968125216552068e-16</v>
+        <v>6.856734682161467e-15</v>
       </c>
     </row>
     <row r="11">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.00777525530089</v>
+        <v>0.5060540051951632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6274854669909189</v>
+        <v>0.8065683703340366</v>
       </c>
     </row>
     <row r="12">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2411.284846874483</v>
+        <v>-1862.072894761573</v>
       </c>
       <c r="C12" t="n">
-        <v>4.014854821048834e-13</v>
+        <v>1.677564320606961e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-703.1653655575997</v>
+        <v>-275.2065197194912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002679647207385379</v>
+        <v>0.237091395327418</v>
       </c>
     </row>
     <row r="14">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8153.665771343062</v>
+        <v>8225.409681255069</v>
       </c>
       <c r="C14" t="n">
-        <v>3.157646039251536e-41</v>
+        <v>2.474987164957346e-42</v>
       </c>
     </row>
     <row r="15">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.84694562914978</v>
+        <v>15.32813812657315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003369669931961198</v>
+        <v>0.007934786324931735</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5458.422482252443</v>
+        <v>4869.662005330809</v>
       </c>
       <c r="C2" t="n">
-        <v>6.114698512581589e-25</v>
+        <v>7.341285671275087e-20</v>
       </c>
     </row>
     <row r="3">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1528.571047571153</v>
+        <v>-1447.893686016027</v>
       </c>
       <c r="C3" t="n">
-        <v>3.459998214848126e-10</v>
+        <v>2.397387794941016e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2117.154618712393</v>
+        <v>-1954.783109720048</v>
       </c>
       <c r="C4" t="n">
-        <v>1.087556656319125e-16</v>
+        <v>1.794947784787955e-14</v>
       </c>
     </row>
     <row r="5">
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1640.564678494624</v>
+        <v>-1133.627126989712</v>
       </c>
       <c r="C5" t="n">
-        <v>4.727548351767653e-10</v>
+        <v>9.849349575093312e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5355,23 +5355,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.72194505626908</v>
+        <v>63.57857334432114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002744752246379692</v>
+        <v>7.026029404863453e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.3262728859237</v>
+        <v>8.726800495254887</v>
       </c>
       <c r="C7" t="n">
-        <v>1.720265333271223e-35</v>
+        <v>1.685415801855265e-37</v>
       </c>
     </row>
     <row r="8">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03757141558346402</v>
+        <v>-0.03411978918958502</v>
       </c>
       <c r="C8" t="n">
-        <v>3.410032842159492e-08</v>
+        <v>4.725345837168067e-07</v>
       </c>
     </row>
     <row r="9">
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.052417260201942e-06</v>
+        <v>-7.812233454675106e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107332269681596</v>
+        <v>0.07276316263087894</v>
       </c>
     </row>
     <row r="10">
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.86100734181077</v>
+        <v>-17.1773387154312</v>
       </c>
       <c r="C10" t="n">
-        <v>3.606223575377739e-13</v>
+        <v>2.696447625377749e-12</v>
       </c>
     </row>
     <row r="11">
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.392401690144319</v>
+        <v>3.295407473224889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2625305425656014</v>
+        <v>0.1215140346563953</v>
       </c>
     </row>
     <row r="12">
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2361.730749377014</v>
+        <v>-1853.719069921234</v>
       </c>
       <c r="C12" t="n">
-        <v>3.827395072563566e-12</v>
+        <v>4.707643399220205e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-920.9051084812154</v>
+        <v>-490.1476951346196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001022928573622982</v>
+        <v>0.0380494518491262</v>
       </c>
     </row>
     <row r="14">
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7262.601073107362</v>
+        <v>7364.624889225255</v>
       </c>
       <c r="C14" t="n">
-        <v>8.158024109444825e-35</v>
+        <v>6.866243153008073e-36</v>
       </c>
     </row>
     <row r="15">
@@ -5472,10 +5472,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.2327776706167</v>
+        <v>17.18821183689592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003525627695384729</v>
+        <v>0.003715214812268257</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5426.998763713423</v>
+        <v>4805.467263459302</v>
       </c>
       <c r="C2" t="n">
-        <v>1.69603953659912e-23</v>
+        <v>1.347431076495284e-18</v>
       </c>
     </row>
     <row r="3">
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1725.963854801758</v>
+        <v>-1642.416938483956</v>
       </c>
       <c r="C3" t="n">
-        <v>2.386936375120126e-12</v>
+        <v>1.658334748952857e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2317.898916332359</v>
+        <v>-2113.057613424861</v>
       </c>
       <c r="C4" t="n">
-        <v>1.98027666903086e-19</v>
+        <v>1.371720347617672e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2033.937995532077</v>
+        <v>-1531.472078698804</v>
       </c>
       <c r="C5" t="n">
-        <v>3.480783351383044e-14</v>
+        <v>3.256576810669776e-09</v>
       </c>
     </row>
     <row r="6">
@@ -5573,23 +5573,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.90340912954588</v>
+        <v>75.01978015581743</v>
       </c>
       <c r="C6" t="n">
-        <v>2.501818769720806e-05</v>
+        <v>4.204645576357568e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7436946883705</v>
+        <v>9.127870415748056</v>
       </c>
       <c r="C7" t="n">
-        <v>4.143922488494429e-32</v>
+        <v>1.96133898682929e-37</v>
       </c>
     </row>
     <row r="8">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03781406057148614</v>
+        <v>-0.03417208825053871</v>
       </c>
       <c r="C8" t="n">
-        <v>1.03045614267865e-07</v>
+        <v>1.237354215919724e-06</v>
       </c>
     </row>
     <row r="9">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.122992670354463e-06</v>
+        <v>-2.600063280515845e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5222243978939787</v>
+        <v>0.4281191285558628</v>
       </c>
     </row>
     <row r="10">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.3560416028814</v>
+        <v>-17.11537528458933</v>
       </c>
       <c r="C10" t="n">
-        <v>9.94877349648131e-13</v>
+        <v>2.33108759050218e-11</v>
       </c>
     </row>
     <row r="11">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.785914273962226</v>
+        <v>1.657714056027079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.713978568405319</v>
+        <v>0.4358163218551132</v>
       </c>
     </row>
     <row r="12">
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2214.344324791435</v>
+        <v>-1682.156141226609</v>
       </c>
       <c r="C12" t="n">
-        <v>9.745228807670775e-11</v>
+        <v>7.875716993383428e-07</v>
       </c>
     </row>
     <row r="13">
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-869.2961163437849</v>
+        <v>-470.0880821664015</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002735855811934201</v>
+        <v>0.04667975041988148</v>
       </c>
     </row>
     <row r="14">
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7804.562207523266</v>
+        <v>7969.853795450473</v>
       </c>
       <c r="C14" t="n">
-        <v>5.174738841154854e-38</v>
+        <v>4.951369523485313e-40</v>
       </c>
     </row>
     <row r="15">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.35636576079287</v>
+        <v>21.76260017061284</v>
       </c>
       <c r="C15" t="n">
-        <v>4.631360847592213e-06</v>
+        <v>0.0002275906370486921</v>
       </c>
     </row>
   </sheetData>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5650.897453823025</v>
+        <v>4916.833048923758</v>
       </c>
       <c r="C2" t="n">
-        <v>2.269462511637309e-25</v>
+        <v>2.575669765174998e-19</v>
       </c>
     </row>
     <row r="3">
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1846.808688784738</v>
+        <v>-1759.223706926482</v>
       </c>
       <c r="C3" t="n">
-        <v>8.050787422333557e-14</v>
+        <v>7.423225668636287e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2369.147525548296</v>
+        <v>-2186.004727947339</v>
       </c>
       <c r="C4" t="n">
-        <v>1.984437591292972e-20</v>
+        <v>8.327954696268717e-18</v>
       </c>
     </row>
     <row r="5">
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2115.380597569731</v>
+        <v>-1586.395525833919</v>
       </c>
       <c r="C5" t="n">
-        <v>2.022720986641176e-15</v>
+        <v>6.729814127134801e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5791,23 +5791,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.001736514139</v>
+        <v>76.28963855710379</v>
       </c>
       <c r="C6" t="n">
-        <v>8.311310229580266e-06</v>
+        <v>1.166907910612326e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.6457317210009</v>
+        <v>9.171596782701993</v>
       </c>
       <c r="C7" t="n">
-        <v>3.946506077830497e-37</v>
+        <v>2.262387723859344e-41</v>
       </c>
     </row>
     <row r="8">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03948577692643844</v>
+        <v>-0.03642098198835147</v>
       </c>
       <c r="C8" t="n">
-        <v>9.120538149911159e-09</v>
+        <v>9.2999779828529e-08</v>
       </c>
     </row>
     <row r="9">
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.368531804135659e-06</v>
+        <v>-2.365564320092845e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5108799817453242</v>
+        <v>0.5081141065945045</v>
       </c>
     </row>
     <row r="10">
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.40500305265131</v>
+        <v>-16.190371177081</v>
       </c>
       <c r="C10" t="n">
-        <v>4.198969348956227e-12</v>
+        <v>1.039206915948154e-10</v>
       </c>
     </row>
     <row r="11">
@@ -5856,10 +5856,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6662901499108091</v>
+        <v>2.295054338806808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7585446945485572</v>
+        <v>0.2873173467429835</v>
       </c>
     </row>
     <row r="12">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2462.706788929142</v>
+        <v>-1894.763357029093</v>
       </c>
       <c r="C12" t="n">
-        <v>2.844839878395858e-13</v>
+        <v>1.662675306267556e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-942.0719827662812</v>
+        <v>-489.3226918240953</v>
       </c>
       <c r="C13" t="n">
-        <v>6.95833789503166e-05</v>
+        <v>0.03747562835016093</v>
       </c>
     </row>
     <row r="14">
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7676.074559837165</v>
+        <v>7851.279055259013</v>
       </c>
       <c r="C14" t="n">
-        <v>1.453963376195702e-38</v>
+        <v>1.366415921972627e-40</v>
       </c>
     </row>
     <row r="15">
@@ -5908,10 +5908,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.05882181234023</v>
+        <v>20.02934103761764</v>
       </c>
       <c r="C15" t="n">
-        <v>2.273525372488751e-05</v>
+        <v>0.0006390766517566243</v>
       </c>
     </row>
   </sheetData>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5488.708107897653</v>
+        <v>4936.275560354959</v>
       </c>
       <c r="C2" t="n">
-        <v>2.075531566193731e-24</v>
+        <v>7.828711573662382e-20</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1727.587859762813</v>
+        <v>-1634.608057531178</v>
       </c>
       <c r="C3" t="n">
-        <v>2.614460157952577e-12</v>
+        <v>2.800129963887627e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2371.119509469902</v>
+        <v>-2187.288890032549</v>
       </c>
       <c r="C4" t="n">
-        <v>2.934382216084908e-20</v>
+        <v>1.480034179806479e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1826.068907382051</v>
+        <v>-1292.243985314698</v>
       </c>
       <c r="C5" t="n">
-        <v>7.792539961854635e-12</v>
+        <v>6.115502883497328e-07</v>
       </c>
     </row>
     <row r="6">
@@ -6009,23 +6009,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.54016578583729</v>
+        <v>52.6259105510765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004141598534086168</v>
+        <v>0.001319658334232461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.7922046021775</v>
+        <v>9.020215224384668</v>
       </c>
       <c r="C7" t="n">
-        <v>3.376994304749811e-36</v>
+        <v>3.635719872833027e-39</v>
       </c>
     </row>
     <row r="8">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03948116880898493</v>
+        <v>-0.03621158443931415</v>
       </c>
       <c r="C8" t="n">
-        <v>6.682003052815512e-09</v>
+        <v>8.999262762531363e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.791588678152072e-06</v>
+        <v>-2.440193339240807e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5844513027492811</v>
+        <v>0.4531136638774093</v>
       </c>
     </row>
     <row r="10">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.08700679275199</v>
+        <v>-18.01672986813072</v>
       </c>
       <c r="C10" t="n">
-        <v>3.245376425130575e-14</v>
+        <v>7.825688110326725e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.300265019706962</v>
+        <v>3.317059921784941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2918357278702516</v>
+        <v>0.1270973817360032</v>
       </c>
     </row>
     <row r="12">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2202.689200576843</v>
+        <v>-1651.954889076952</v>
       </c>
       <c r="C12" t="n">
-        <v>1.738909014202405e-10</v>
+        <v>1.626256235818787e-06</v>
       </c>
     </row>
     <row r="13">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-945.547284159114</v>
+        <v>-521.2646075990486</v>
       </c>
       <c r="C13" t="n">
-        <v>7.811459268048531e-05</v>
+        <v>0.02875502619781156</v>
       </c>
     </row>
     <row r="14">
@@ -6113,10 +6113,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6977.844774129258</v>
+        <v>7006.410431495413</v>
       </c>
       <c r="C14" t="n">
-        <v>7.30746038650119e-32</v>
+        <v>2.22379610518337e-32</v>
       </c>
     </row>
     <row r="15">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.72899635772336</v>
+        <v>22.36826835597708</v>
       </c>
       <c r="C15" t="n">
-        <v>1.573763490918858e-06</v>
+        <v>0.0001737570659272079</v>
       </c>
     </row>
   </sheetData>
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5239.874422168945</v>
+        <v>4730.608103983302</v>
       </c>
       <c r="C2" t="n">
-        <v>2.476790972425488e-24</v>
+        <v>6.49573644743191e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1492.347065601342</v>
+        <v>-1400.278598241087</v>
       </c>
       <c r="C3" t="n">
-        <v>1.082478356098942e-10</v>
+        <v>1.183630343565582e-09</v>
       </c>
     </row>
     <row r="4">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2140.928613909434</v>
+        <v>-1949.868430264075</v>
       </c>
       <c r="C4" t="n">
-        <v>9.804751343701364e-19</v>
+        <v>8.08645378287083e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1682.26175023492</v>
+        <v>-1147.021024111048</v>
       </c>
       <c r="C5" t="n">
-        <v>1.953359336678404e-11</v>
+        <v>2.394334703450291e-06</v>
       </c>
     </row>
     <row r="6">
@@ -6227,23 +6227,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.0074797547507</v>
+        <v>46.48743925599607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003967129812121294</v>
+        <v>0.002731673377536269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.2317802717735</v>
+        <v>8.951520647697278</v>
       </c>
       <c r="C7" t="n">
-        <v>1.195645590675499e-38</v>
+        <v>4.545200395218601e-41</v>
       </c>
     </row>
     <row r="8">
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03796832497737605</v>
+        <v>-0.03533070084952576</v>
       </c>
       <c r="C8" t="n">
-        <v>4.502511595034013e-09</v>
+        <v>4.263954972500659e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.451877943715555e-06</v>
+        <v>-3.113740558957626e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4286855042141733</v>
+        <v>0.3117682983391127</v>
       </c>
     </row>
     <row r="10">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.42695583456853</v>
+        <v>-16.78439096120064</v>
       </c>
       <c r="C10" t="n">
-        <v>2.263396303681076e-13</v>
+        <v>1.523046166757332e-12</v>
       </c>
     </row>
     <row r="11">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.743725839742787</v>
+        <v>4.539303546779477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07671274987898537</v>
+        <v>0.03117476753931331</v>
       </c>
     </row>
     <row r="12">
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2286.626027760293</v>
+        <v>-1800.261195728661</v>
       </c>
       <c r="C12" t="n">
-        <v>1.559546558183663e-12</v>
+        <v>2.339865933315131e-08</v>
       </c>
     </row>
     <row r="13">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-798.6809619033486</v>
+        <v>-405.9880529219262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004447116454339418</v>
+        <v>0.07254158396843431</v>
       </c>
     </row>
     <row r="14">
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7532.459864393353</v>
+        <v>7649.756470411336</v>
       </c>
       <c r="C14" t="n">
-        <v>4.545127579001182e-40</v>
+        <v>1.8931548463865e-41</v>
       </c>
     </row>
     <row r="15">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.5231766441443</v>
+        <v>14.11496598099045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009061382501985456</v>
+        <v>0.01600577332905114</v>
       </c>
     </row>
   </sheetData>
@@ -6393,10 +6393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5730.724901394087</v>
+        <v>5069.011012595275</v>
       </c>
       <c r="C2" t="n">
-        <v>3.659616294114632e-26</v>
+        <v>1.323639424810985e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1760.432145658541</v>
+        <v>-1675.829913019733</v>
       </c>
       <c r="C3" t="n">
-        <v>6.385057899455113e-12</v>
+        <v>4.269465760484971e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2349.16137493139</v>
+        <v>-2145.993135271018</v>
       </c>
       <c r="C4" t="n">
-        <v>1.860185377138391e-18</v>
+        <v>8.463287327106336e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1997.99057551372</v>
+        <v>-1484.467866096462</v>
       </c>
       <c r="C5" t="n">
-        <v>3.749165122152774e-13</v>
+        <v>2.499039332905953e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6445,23 +6445,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.38015982239816</v>
+        <v>82.34166114506436</v>
       </c>
       <c r="C6" t="n">
-        <v>1.493067385098868e-05</v>
+        <v>1.075558399226093e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.27357149131</v>
+        <v>9.312887276082467</v>
       </c>
       <c r="C7" t="n">
-        <v>2.74599557811478e-35</v>
+        <v>6.280905127435805e-40</v>
       </c>
     </row>
     <row r="8">
@@ -6471,10 +6471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03504686166859766</v>
+        <v>-0.03147070415419324</v>
       </c>
       <c r="C8" t="n">
-        <v>4.876545181256635e-07</v>
+        <v>5.196914873852689e-06</v>
       </c>
     </row>
     <row r="9">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.573790008796642e-06</v>
+        <v>-2.927344874808849e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4376982085462364</v>
+        <v>0.3728615861179172</v>
       </c>
     </row>
     <row r="10">
@@ -6497,10 +6497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.51932335614988</v>
+        <v>-18.14885255528845</v>
       </c>
       <c r="C10" t="n">
-        <v>9.618955570909428e-15</v>
+        <v>5.320230579941329e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4738300641939168</v>
+        <v>1.319681330303252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8214563626202274</v>
+        <v>0.5267977833408355</v>
       </c>
     </row>
     <row r="12">
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2636.025176356261</v>
+        <v>-2127.111066305943</v>
       </c>
       <c r="C12" t="n">
-        <v>2.257093068270714e-15</v>
+        <v>1.134615069092174e-10</v>
       </c>
     </row>
     <row r="13">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-920.6539647416425</v>
+        <v>-519.2430799471251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001035777010053935</v>
+        <v>0.02756254020685571</v>
       </c>
     </row>
     <row r="14">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7479.876754619077</v>
+        <v>7641.856857290466</v>
       </c>
       <c r="C14" t="n">
-        <v>2.522529965772133e-35</v>
+        <v>3.641379760964043e-37</v>
       </c>
     </row>
     <row r="15">
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.35709865975635</v>
+        <v>19.55407796092221</v>
       </c>
       <c r="C15" t="n">
-        <v>3.541337521400693e-05</v>
+        <v>0.0008108427161170328</v>
       </c>
     </row>
   </sheetData>
@@ -6611,10 +6611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6246.540703207037</v>
+        <v>5732.577766187193</v>
       </c>
       <c r="C2" t="n">
-        <v>2.992997349671903e-32</v>
+        <v>6.722304854203525e-27</v>
       </c>
     </row>
     <row r="3">
@@ -6624,10 +6624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1707.525415914557</v>
+        <v>-1618.751069927551</v>
       </c>
       <c r="C3" t="n">
-        <v>3.183336069090368e-13</v>
+        <v>4.365533509898983e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2197.276210185697</v>
+        <v>-2028.01625700893</v>
       </c>
       <c r="C4" t="n">
-        <v>4.044863045147353e-19</v>
+        <v>1.68782783452851e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1839.44193301113</v>
+        <v>-1317.472779671375</v>
       </c>
       <c r="C5" t="n">
-        <v>4.920180400358424e-13</v>
+        <v>1.059793662162706e-07</v>
       </c>
     </row>
     <row r="6">
@@ -6663,23 +6663,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.60253711350308</v>
+        <v>46.61628352157236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006814664554842636</v>
+        <v>0.003611802702095637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.5297568499626</v>
+        <v>8.670861401989864</v>
       </c>
       <c r="C7" t="n">
-        <v>1.553221760402051e-36</v>
+        <v>6.262679014062483e-38</v>
       </c>
     </row>
     <row r="8">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03767057937852668</v>
+        <v>-0.03468285836346244</v>
       </c>
       <c r="C8" t="n">
-        <v>1.828932214886502e-08</v>
+        <v>2.033271910272122e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.364394700783474e-06</v>
+        <v>-7.146615848079644e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1593468853357152</v>
+        <v>0.1123813452615032</v>
       </c>
     </row>
     <row r="10">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.18071978215495</v>
+        <v>-20.66742353588209</v>
       </c>
       <c r="C10" t="n">
-        <v>5.578451871309719e-18</v>
+        <v>3.444475309549503e-17</v>
       </c>
     </row>
     <row r="11">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.148087793266596</v>
+        <v>-2.18342814992234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1300316613683871</v>
+        <v>0.2931050439818371</v>
       </c>
     </row>
     <row r="12">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2327.569975107136</v>
+        <v>-1852.796547630058</v>
       </c>
       <c r="C12" t="n">
-        <v>1.433896430138935e-12</v>
+        <v>1.636465915697845e-08</v>
       </c>
     </row>
     <row r="13">
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-896.1212770778825</v>
+        <v>-494.7069828188731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001094321287858041</v>
+        <v>0.03223974633171215</v>
       </c>
     </row>
     <row r="14">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6555.404514084777</v>
+        <v>6778.92788918647</v>
       </c>
       <c r="C14" t="n">
-        <v>3.236759071954014e-27</v>
+        <v>5.562540125361675e-29</v>
       </c>
     </row>
     <row r="15">
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.67508640284814</v>
+        <v>21.92745544112874</v>
       </c>
       <c r="C15" t="n">
-        <v>2.374847813808833e-06</v>
+        <v>0.0001733529842768342</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6829,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5512.873144428868</v>
+        <v>4810.709766249278</v>
       </c>
       <c r="C2" t="n">
-        <v>1.350861872046751e-26</v>
+        <v>2.313523492484321e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1757.905253421508</v>
+        <v>-1660.209758239773</v>
       </c>
       <c r="C3" t="n">
-        <v>5.900390123268255e-15</v>
+        <v>1.035031352883294e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2339.962692040981</v>
+        <v>-2147.463774152065</v>
       </c>
       <c r="C4" t="n">
-        <v>3.941600678063745e-23</v>
+        <v>6.015931032310392e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1835.781326491645</v>
+        <v>-1320.924922666396</v>
       </c>
       <c r="C5" t="n">
-        <v>9.523625252222177e-14</v>
+        <v>2.581154768488879e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6881,23 +6881,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.63102143715886</v>
+        <v>68.66090908437448</v>
       </c>
       <c r="C6" t="n">
-        <v>5.663154762573377e-05</v>
+        <v>1.396459547624193e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.550223984059</v>
+        <v>8.90794922363111</v>
       </c>
       <c r="C7" t="n">
-        <v>4.678618997440112e-36</v>
+        <v>4.54797791022947e-41</v>
       </c>
     </row>
     <row r="8">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03796494081400319</v>
+        <v>-0.03554721864496973</v>
       </c>
       <c r="C8" t="n">
-        <v>6.559343919904065e-09</v>
+        <v>4.319692755610017e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.499831919533821e-06</v>
+        <v>-4.009384850659627e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2802657263099342</v>
+        <v>0.2113209629557302</v>
       </c>
     </row>
     <row r="10">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.09991104715052</v>
+        <v>-15.89483630109959</v>
       </c>
       <c r="C10" t="n">
-        <v>3.487832269515253e-12</v>
+        <v>8.418693501993185e-11</v>
       </c>
     </row>
     <row r="11">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.901728870800314</v>
+        <v>4.034594308029325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1663651547896256</v>
+        <v>0.0527637511255556</v>
       </c>
     </row>
     <row r="12">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2153.986500426234</v>
+        <v>-1592.650271505778</v>
       </c>
       <c r="C12" t="n">
-        <v>1.911524475246057e-11</v>
+        <v>5.908471197123426e-07</v>
       </c>
     </row>
     <row r="13">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-776.8667752140144</v>
+        <v>-353.9043786799887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007917087503537866</v>
+        <v>0.1236912765794825</v>
       </c>
     </row>
     <row r="14">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6350.40257090759</v>
+        <v>6597.912065133522</v>
       </c>
       <c r="C14" t="n">
-        <v>3.222343887229477e-27</v>
+        <v>1.657677318905901e-29</v>
       </c>
     </row>
     <row r="15">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.46904008240913</v>
+        <v>19.25037589296466</v>
       </c>
       <c r="C15" t="n">
-        <v>5.361912809044457e-05</v>
+        <v>0.0008257177272675238</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7047,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5022.602648333248</v>
+        <v>4526.643232047334</v>
       </c>
       <c r="C2" t="n">
-        <v>4.039663730773219e-22</v>
+        <v>6.248066405520826e-18</v>
       </c>
     </row>
     <row r="3">
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1427.56750601361</v>
+        <v>-1334.722106399267</v>
       </c>
       <c r="C3" t="n">
-        <v>4.546790979212796e-09</v>
+        <v>3.9955790838174e-08</v>
       </c>
     </row>
     <row r="4">
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2077.867750342186</v>
+        <v>-1904.534050521377</v>
       </c>
       <c r="C4" t="n">
-        <v>3.06846436625567e-16</v>
+        <v>7.574691499147494e-14</v>
       </c>
     </row>
     <row r="5">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1647.025254907984</v>
+        <v>-1095.50283618924</v>
       </c>
       <c r="C5" t="n">
-        <v>3.217621297514384e-10</v>
+        <v>1.764288933031823e-05</v>
       </c>
     </row>
     <row r="6">
@@ -7099,23 +7099,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.89571336524489</v>
+        <v>64.65595385227475</v>
       </c>
       <c r="C6" t="n">
-        <v>9.46763456889029e-05</v>
+        <v>3.080454884975638e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.2074572507023</v>
+        <v>8.895039927471064</v>
       </c>
       <c r="C7" t="n">
-        <v>1.194976754750417e-38</v>
+        <v>1.883421470749817e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03753853214318715</v>
+        <v>-0.03457513560353666</v>
       </c>
       <c r="C8" t="n">
-        <v>8.485489607596604e-09</v>
+        <v>1.099836077272788e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.311507928266767e-06</v>
+        <v>-3.009433030063912e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4738695554711922</v>
+        <v>0.3495121867352168</v>
       </c>
     </row>
     <row r="10">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.97412835487927</v>
+        <v>-16.8532926371772</v>
       </c>
       <c r="C10" t="n">
-        <v>3.641742400450046e-12</v>
+        <v>4.8834912113688e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.115302749477103</v>
+        <v>3.954800978337229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.128205743159633</v>
+        <v>0.05327097866456973</v>
       </c>
     </row>
     <row r="12">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2467.87293556448</v>
+        <v>-1912.652085640634</v>
       </c>
       <c r="C12" t="n">
-        <v>3.634656187171569e-14</v>
+        <v>4.101729510868518e-09</v>
       </c>
     </row>
     <row r="13">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-902.1055661188387</v>
+        <v>-463.3606740750349</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001061866503810259</v>
+        <v>0.0457759264236837</v>
       </c>
     </row>
     <row r="14">
@@ -7203,10 +7203,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7167.779999030586</v>
+        <v>7332.81897528945</v>
       </c>
       <c r="C14" t="n">
-        <v>2.040382754816204e-36</v>
+        <v>5.950930276174855e-38</v>
       </c>
     </row>
     <row r="15">
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.86671577315489</v>
+        <v>20.13648016805974</v>
       </c>
       <c r="C15" t="n">
-        <v>7.289758119271809e-06</v>
+        <v>0.0004683206770608955</v>
       </c>
     </row>
   </sheetData>
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6075.472214148453</v>
+        <v>5500.732393899587</v>
       </c>
       <c r="C2" t="n">
-        <v>1.02828619208403e-27</v>
+        <v>1.096379784502057e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1815.798822335906</v>
+        <v>-1718.716846010444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.07382004965703e-12</v>
+        <v>1.300562005972492e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2296.954521196367</v>
+        <v>-2087.78651852456</v>
       </c>
       <c r="C4" t="n">
-        <v>5.532633007628562e-18</v>
+        <v>3.855215168982017e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2126.418800797072</v>
+        <v>-1579.421529466488</v>
       </c>
       <c r="C5" t="n">
-        <v>1.197585596687761e-14</v>
+        <v>3.952340389135342e-09</v>
       </c>
     </row>
     <row r="6">
@@ -7317,23 +7317,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.02671067950801</v>
+        <v>60.11389641277455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001813546936497243</v>
+        <v>0.0003482462030488787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.7487245959139</v>
+        <v>9.165347047199093</v>
       </c>
       <c r="C7" t="n">
-        <v>3.402031022041215e-37</v>
+        <v>1.128266812905881e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03560185627389596</v>
+        <v>-0.03223132449452563</v>
       </c>
       <c r="C8" t="n">
-        <v>2.574150144089864e-07</v>
+        <v>2.726702135481357e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.855716170409087e-06</v>
+        <v>-5.470701327382069e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2500633810754495</v>
+        <v>0.2805744861425434</v>
       </c>
     </row>
     <row r="10">
@@ -7369,10 +7369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.95689145756293</v>
+        <v>-19.98176159485909</v>
       </c>
       <c r="C10" t="n">
-        <v>2.840589653515288e-17</v>
+        <v>7.867319564631951e-16</v>
       </c>
     </row>
     <row r="11">
@@ -7382,10 +7382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.164659714965499</v>
+        <v>-2.164251109064435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.155635039258013</v>
+        <v>0.3299905977525771</v>
       </c>
     </row>
     <row r="12">
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2669.487872642826</v>
+        <v>-2131.258726496992</v>
       </c>
       <c r="C12" t="n">
-        <v>9.476016189032333e-15</v>
+        <v>5.466690585966789e-10</v>
       </c>
     </row>
     <row r="13">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-888.7863672901301</v>
+        <v>-461.6138474032612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001710493420366345</v>
+        <v>0.05046100030981927</v>
       </c>
     </row>
     <row r="14">
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8227.360791094532</v>
+        <v>8285.26249669559</v>
       </c>
       <c r="C14" t="n">
-        <v>1.05932009927302e-38</v>
+        <v>1.781147249646275e-39</v>
       </c>
     </row>
     <row r="15">
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.38874855806036</v>
+        <v>19.97351571660916</v>
       </c>
       <c r="C15" t="n">
-        <v>1.441443787662476e-05</v>
+        <v>0.00096653038983014</v>
       </c>
     </row>
   </sheetData>
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5812.682421871211</v>
+        <v>5266.521352519267</v>
       </c>
       <c r="C2" t="n">
-        <v>5.241716389665386e-27</v>
+        <v>3.55837738945044e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1813.845056481166</v>
+        <v>-1748.178848086133</v>
       </c>
       <c r="C3" t="n">
-        <v>6.881014457578275e-12</v>
+        <v>3.15595117510749e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2394.452406783593</v>
+        <v>-2224.137199904748</v>
       </c>
       <c r="C4" t="n">
-        <v>3.227755816772921e-18</v>
+        <v>5.471257362800249e-16</v>
       </c>
     </row>
     <row r="5">
@@ -7522,10 +7522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2072.192447526038</v>
+        <v>-1550.230169071312</v>
       </c>
       <c r="C5" t="n">
-        <v>2.411367550912143e-13</v>
+        <v>1.798900454020312e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7535,23 +7535,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.71632590652305</v>
+        <v>66.47407025046462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001000034528161436</v>
+        <v>4.30208429566566e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.0733712366356</v>
+        <v>9.072264847236724</v>
       </c>
       <c r="C7" t="n">
-        <v>5.725404385003779e-38</v>
+        <v>3.834412807579392e-40</v>
       </c>
     </row>
     <row r="8">
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03781849660959118</v>
+        <v>-0.03475497486580609</v>
       </c>
       <c r="C8" t="n">
-        <v>1.09671667745878e-07</v>
+        <v>9.523839466038406e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.535527901643211e-06</v>
+        <v>-3.302322006045376e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4400890370134318</v>
+        <v>0.3117611346603782</v>
       </c>
     </row>
     <row r="10">
@@ -7587,10 +7587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.35466731087057</v>
+        <v>-17.29566305225355</v>
       </c>
       <c r="C10" t="n">
-        <v>1.31483656111694e-13</v>
+        <v>3.317897266252781e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7600,10 +7600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2732011285118192</v>
+        <v>1.250128237557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8960030266155072</v>
+        <v>0.5487143535553738</v>
       </c>
     </row>
     <row r="12">
@@ -7613,10 +7613,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2312.89478061621</v>
+        <v>-1839.62068922028</v>
       </c>
       <c r="C12" t="n">
-        <v>2.941504163992469e-12</v>
+        <v>2.590309216036704e-08</v>
       </c>
     </row>
     <row r="13">
@@ -7626,10 +7626,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1047.097511759039</v>
+        <v>-647.6813972156237</v>
       </c>
       <c r="C13" t="n">
-        <v>8.545492959007389e-06</v>
+        <v>0.005724597169246703</v>
       </c>
     </row>
     <row r="14">
@@ -7639,10 +7639,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6910.544857072815</v>
+        <v>7034.552499455756</v>
       </c>
       <c r="C14" t="n">
-        <v>5.407104676282851e-31</v>
+        <v>3.471314323405362e-32</v>
       </c>
     </row>
     <row r="15">
@@ -7652,10 +7652,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.54029259232275</v>
+        <v>22.08966082654943</v>
       </c>
       <c r="C15" t="n">
-        <v>3.236035005960938e-06</v>
+        <v>0.0001777513161797206</v>
       </c>
     </row>
   </sheetData>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5687.879211742316</v>
+        <v>5182.314468504215</v>
       </c>
       <c r="C2" t="n">
-        <v>4.570727431462944e-26</v>
+        <v>9.315234760609431e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1682.778280316802</v>
+        <v>-1611.888204103992</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0795627023994e-13</v>
+        <v>3.883659922874773e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7727,10 +7727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2254.307070723122</v>
+        <v>-2085.76058202861</v>
       </c>
       <c r="C4" t="n">
-        <v>2.727774532910959e-20</v>
+        <v>1.000511018958669e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7740,10 +7740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1870.033571389892</v>
+        <v>-1383.17608308068</v>
       </c>
       <c r="C5" t="n">
-        <v>1.859404988238552e-13</v>
+        <v>1.846124470608858e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7753,23 +7753,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.38846148869277</v>
+        <v>65.3580159636664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000179170799934174</v>
+        <v>5.330052721230058e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.2498907007834</v>
+        <v>8.766040380771056</v>
       </c>
       <c r="C7" t="n">
-        <v>3.838554881591669e-35</v>
+        <v>7.381401132124617e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0395818263427436</v>
+        <v>-0.03650360935263656</v>
       </c>
       <c r="C8" t="n">
-        <v>1.882768921505332e-09</v>
+        <v>2.457362439913597e-08</v>
       </c>
     </row>
     <row r="9">
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.388505866785451e-06</v>
+        <v>-2.820481683373343e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4528871103243995</v>
+        <v>0.3715927758656216</v>
       </c>
     </row>
     <row r="10">
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.20243933102596</v>
+        <v>-18.27770868123488</v>
       </c>
       <c r="C10" t="n">
-        <v>9.814571295340142e-15</v>
+        <v>1.461246290979415e-13</v>
       </c>
     </row>
     <row r="11">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.283260744652108</v>
+        <v>1.910604353550093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5657468892438116</v>
+        <v>0.3899637657213949</v>
       </c>
     </row>
     <row r="12">
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2476.418844966408</v>
+        <v>-1987.057410895256</v>
       </c>
       <c r="C12" t="n">
-        <v>1.478606073067817e-13</v>
+        <v>2.596588665490657e-09</v>
       </c>
     </row>
     <row r="13">
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-764.4617851340586</v>
+        <v>-391.0886920397221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000888680009288421</v>
+        <v>0.08723695270902047</v>
       </c>
     </row>
     <row r="14">
@@ -7857,10 +7857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7560.995643314043</v>
+        <v>7707.97737074062</v>
       </c>
       <c r="C14" t="n">
-        <v>1.691320435530824e-39</v>
+        <v>2.760571178302008e-41</v>
       </c>
     </row>
     <row r="15">
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.31723149022059</v>
+        <v>15.77424266924373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003043028713661766</v>
+        <v>0.007092265029751757</v>
       </c>
     </row>
   </sheetData>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5955.401881555981</v>
+        <v>5334.576615452052</v>
       </c>
       <c r="C2" t="n">
-        <v>1.369374916746592e-28</v>
+        <v>4.545067798826082e-23</v>
       </c>
     </row>
     <row r="3">
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1731.615050777796</v>
+        <v>-1639.093424592807</v>
       </c>
       <c r="C3" t="n">
-        <v>9.583636397237532e-14</v>
+        <v>1.173646456050825e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2301.951274174395</v>
+        <v>-2120.313130599839</v>
       </c>
       <c r="C4" t="n">
-        <v>2.001325927187526e-21</v>
+        <v>1.377581404011661e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7958,10 +7958,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1808.165689216514</v>
+        <v>-1307.522156011683</v>
       </c>
       <c r="C5" t="n">
-        <v>6.269242846146705e-13</v>
+        <v>7.07864846033907e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7971,23 +7971,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.5894745108457</v>
+        <v>45.64175960464268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0130376156382553</v>
+        <v>0.00454845995773947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.8241970144662</v>
+        <v>9.012318766203064</v>
       </c>
       <c r="C7" t="n">
-        <v>1.272532173922511e-33</v>
+        <v>2.774300347705157e-38</v>
       </c>
     </row>
     <row r="8">
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04097096904651889</v>
+        <v>-0.03731863845929881</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33945429953715e-09</v>
+        <v>2.573973181503837e-08</v>
       </c>
     </row>
     <row r="9">
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.688008058776426e-06</v>
+        <v>-2.073702725720221e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6051690449717608</v>
+        <v>0.5213783115767145</v>
       </c>
     </row>
     <row r="10">
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.14194110405662</v>
+        <v>-19.84340417197238</v>
       </c>
       <c r="C10" t="n">
-        <v>4.415654900337212e-17</v>
+        <v>2.621017589365047e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3895379259977281</v>
+        <v>1.646937772974683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8583471724281057</v>
+        <v>0.4472716891024918</v>
       </c>
     </row>
     <row r="12">
@@ -8049,10 +8049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2343.810296330008</v>
+        <v>-1897.176480649237</v>
       </c>
       <c r="C12" t="n">
-        <v>9.474395956310736e-12</v>
+        <v>2.915522016640562e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-861.9433339766636</v>
+        <v>-482.5076021750988</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000257461613606296</v>
+        <v>0.03901098665812024</v>
       </c>
     </row>
     <row r="14">
@@ -8075,10 +8075,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7721.117040728926</v>
+        <v>7810.984522462628</v>
       </c>
       <c r="C14" t="n">
-        <v>2.060274820767734e-40</v>
+        <v>8.37516671654022e-42</v>
       </c>
     </row>
     <row r="15">
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.97954028754235</v>
+        <v>16.37135896606136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002254982865055126</v>
+        <v>0.005578389146501504</v>
       </c>
     </row>
   </sheetData>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5438.827945572084</v>
+        <v>4915.937238475781</v>
       </c>
       <c r="C2" t="n">
-        <v>5.543601779398479e-26</v>
+        <v>4.274938150346528e-21</v>
       </c>
     </row>
     <row r="3">
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1532.326433166796</v>
+        <v>-1433.801200641582</v>
       </c>
       <c r="C3" t="n">
-        <v>2.238399754209333e-11</v>
+        <v>3.63667321830545e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8163,10 +8163,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2109.808758737822</v>
+        <v>-1921.201278797541</v>
       </c>
       <c r="C4" t="n">
-        <v>1.398009547714673e-18</v>
+        <v>1.316135150804025e-15</v>
       </c>
     </row>
     <row r="5">
@@ -8176,10 +8176,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1648.297922600739</v>
+        <v>-1092.166735705101</v>
       </c>
       <c r="C5" t="n">
-        <v>3.677428081774641e-11</v>
+        <v>6.602899607911954e-06</v>
       </c>
     </row>
     <row r="6">
@@ -8189,23 +8189,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.4735069774806</v>
+        <v>51.52215986603284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003475860911035304</v>
+        <v>0.0008564428672082382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.0618444010865</v>
+        <v>8.952167759726045</v>
       </c>
       <c r="C7" t="n">
-        <v>2.285130246662182e-41</v>
+        <v>6.094176818925644e-42</v>
       </c>
     </row>
     <row r="8">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04287658411024878</v>
+        <v>-0.03830013780197079</v>
       </c>
       <c r="C8" t="n">
-        <v>7.647642231436355e-10</v>
+        <v>3.612187891827178e-08</v>
       </c>
     </row>
     <row r="9">
@@ -8228,10 +8228,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.417955704348343e-06</v>
+        <v>-4.230572872917264e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2926513684783987</v>
+        <v>0.1912936687307582</v>
       </c>
     </row>
     <row r="10">
@@ -8241,10 +8241,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.08720216037613</v>
+        <v>-16.39032813256843</v>
       </c>
       <c r="C10" t="n">
-        <v>6.19780001484904e-12</v>
+        <v>4.919867149562524e-11</v>
       </c>
     </row>
     <row r="11">
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.272472823328682</v>
+        <v>2.145341546144743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5296269406685077</v>
+        <v>0.289259778605551</v>
       </c>
     </row>
     <row r="12">
@@ -8267,10 +8267,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2214.963222635397</v>
+        <v>-1745.220725864589</v>
       </c>
       <c r="C12" t="n">
-        <v>1.18440223934301e-11</v>
+        <v>8.77307242797663e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8280,10 +8280,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-933.3763737070883</v>
+        <v>-569.007459472723</v>
       </c>
       <c r="C13" t="n">
-        <v>4.967847459728293e-05</v>
+        <v>0.01324324232253253</v>
       </c>
     </row>
     <row r="14">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6218.524887640384</v>
+        <v>6322.091401559674</v>
       </c>
       <c r="C14" t="n">
-        <v>1.163474718701629e-24</v>
+        <v>1.942438368613236e-25</v>
       </c>
     </row>
     <row r="15">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.2677063942525</v>
+        <v>22.92452793715441</v>
       </c>
       <c r="C15" t="n">
-        <v>8.105921330127324e-07</v>
+        <v>6.046846651981744e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5664.776708375535</v>
+        <v>4889.265621639282</v>
       </c>
       <c r="C2" t="n">
-        <v>1.143615470753462e-26</v>
+        <v>5.322040083324246e-20</v>
       </c>
     </row>
     <row r="3">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1705.091785718672</v>
+        <v>-1621.152979940929</v>
       </c>
       <c r="C3" t="n">
-        <v>2.039679394119174e-13</v>
+        <v>1.849332115875379e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8381,10 +8381,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2215.211852112699</v>
+        <v>-2047.185974513927</v>
       </c>
       <c r="C4" t="n">
-        <v>3.776723077228911e-20</v>
+        <v>1.23980515646677e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8394,10 +8394,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1806.219698763227</v>
+        <v>-1320.452385709833</v>
       </c>
       <c r="C5" t="n">
-        <v>6.642827172070121e-13</v>
+        <v>5.348551384130634e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8407,23 +8407,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.41475395597377</v>
+        <v>57.48517403207909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007420231434587559</v>
+        <v>0.000226810142814307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.2260613497234</v>
+        <v>8.95520721062196</v>
       </c>
       <c r="C7" t="n">
-        <v>2.657720939843489e-37</v>
+        <v>3.730539972206494e-42</v>
       </c>
     </row>
     <row r="8">
@@ -8433,10 +8433,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04273418194928266</v>
+        <v>-0.03981002244748127</v>
       </c>
       <c r="C8" t="n">
-        <v>3.332522065972325e-11</v>
+        <v>4.743819110284448e-10</v>
       </c>
     </row>
     <row r="9">
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.130895246783146e-06</v>
+        <v>-1.301091996479918e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7245773561409787</v>
+        <v>0.6824215799618499</v>
       </c>
     </row>
     <row r="10">
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.16420521958928</v>
+        <v>-17.87066845777411</v>
       </c>
       <c r="C10" t="n">
-        <v>2.121123939449876e-15</v>
+        <v>1.152773974804318e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.819592077234645</v>
+        <v>3.263049567823991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4060624392977746</v>
+        <v>0.1336344749500692</v>
       </c>
     </row>
     <row r="12">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2462.79735926153</v>
+        <v>-1879.977522318263</v>
       </c>
       <c r="C12" t="n">
-        <v>3.934936993764932e-14</v>
+        <v>6.294805789566895e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-563.4639183973831</v>
+        <v>-130.5464661947048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01261461297942384</v>
+        <v>0.5602933588818471</v>
       </c>
     </row>
     <row r="14">
@@ -8511,10 +8511,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7579.189124591201</v>
+        <v>7793.577980372475</v>
       </c>
       <c r="C14" t="n">
-        <v>7.136348124379604e-40</v>
+        <v>2.114658228243576e-42</v>
       </c>
     </row>
     <row r="15">
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.68798359493926</v>
+        <v>15.28072489926586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00138729426953097</v>
+        <v>0.008337238684745008</v>
       </c>
     </row>
   </sheetData>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5775.102988297486</v>
+        <v>5183.833064327606</v>
       </c>
       <c r="C2" t="n">
-        <v>4.383646994203958e-26</v>
+        <v>3.500303489649982e-21</v>
       </c>
     </row>
     <row r="3">
@@ -8586,10 +8586,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1755.387901323837</v>
+        <v>-1665.380626232311</v>
       </c>
       <c r="C3" t="n">
-        <v>8.165999131108416e-12</v>
+        <v>6.229535261517476e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2337.64961345774</v>
+        <v>-2147.983787506017</v>
       </c>
       <c r="C4" t="n">
-        <v>3.02126256901047e-18</v>
+        <v>8.550849767574598e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1934.07161700643</v>
+        <v>-1404.822664314088</v>
       </c>
       <c r="C5" t="n">
-        <v>3.059316096531226e-12</v>
+        <v>1.603005896085377e-07</v>
       </c>
     </row>
     <row r="6">
@@ -8625,23 +8625,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.30391171965073</v>
+        <v>52.0232305225292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001755250125058558</v>
+        <v>0.001655509477691992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.7487648551841</v>
+        <v>9.095853544057761</v>
       </c>
       <c r="C7" t="n">
-        <v>9.249840780974281e-34</v>
+        <v>1.804725800391323e-38</v>
       </c>
     </row>
     <row r="8">
@@ -8651,10 +8651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03326153559811428</v>
+        <v>-0.0307236297521494</v>
       </c>
       <c r="C8" t="n">
-        <v>2.385803051642164e-06</v>
+        <v>1.111730264984414e-05</v>
       </c>
     </row>
     <row r="9">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.97531225033363e-06</v>
+        <v>-7.652539146166707e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1204658335973397</v>
+        <v>0.08488987287187998</v>
       </c>
     </row>
     <row r="10">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.83962953902774</v>
+        <v>-18.88729275722927</v>
       </c>
       <c r="C10" t="n">
-        <v>6.008720605161668e-15</v>
+        <v>8.000250011637781e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8690,10 +8690,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4787520127986227</v>
+        <v>1.459874307201208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210038682509887</v>
+        <v>0.4871767583756977</v>
       </c>
     </row>
     <row r="12">
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2421.765723799562</v>
+        <v>-1901.931969281679</v>
       </c>
       <c r="C12" t="n">
-        <v>1.538647154922604e-12</v>
+        <v>2.277408977693621e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8716,10 +8716,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-977.567784729151</v>
+        <v>-562.1767370522416</v>
       </c>
       <c r="C13" t="n">
-        <v>5.63835966048105e-05</v>
+        <v>0.01950085588308418</v>
       </c>
     </row>
     <row r="14">
@@ -8729,10 +8729,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6868.849053110967</v>
+        <v>7029.527918514622</v>
       </c>
       <c r="C14" t="n">
-        <v>9.651069457270275e-31</v>
+        <v>1.904079890133893e-32</v>
       </c>
     </row>
     <row r="15">
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.1366143017594</v>
+        <v>22.73664800405314</v>
       </c>
       <c r="C15" t="n">
-        <v>3.164808981612565e-06</v>
+        <v>0.0001471263752072941</v>
       </c>
     </row>
   </sheetData>
@@ -8791,10 +8791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5487.571425011173</v>
+        <v>4973.099149922564</v>
       </c>
       <c r="C2" t="n">
-        <v>5.059798104048892e-24</v>
+        <v>1.04210497793555e-19</v>
       </c>
     </row>
     <row r="3">
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1885.542269238731</v>
+        <v>-1795.163253598206</v>
       </c>
       <c r="C3" t="n">
-        <v>4.224582619950806e-14</v>
+        <v>5.211923211183453e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8817,10 +8817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2543.157446991021</v>
+        <v>-2341.751090036878</v>
       </c>
       <c r="C4" t="n">
-        <v>1.762225995582213e-22</v>
+        <v>2.582132277843748e-19</v>
       </c>
     </row>
     <row r="5">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2125.158726706166</v>
+        <v>-1606.524109437375</v>
       </c>
       <c r="C5" t="n">
-        <v>4.681436023865034e-15</v>
+        <v>1.107911494653516e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8843,23 +8843,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.75385805715932</v>
+        <v>78.31794738575442</v>
       </c>
       <c r="C6" t="n">
-        <v>2.940745178365535e-05</v>
+        <v>2.809980735958165e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.6821771276098</v>
+        <v>8.902850556226502</v>
       </c>
       <c r="C7" t="n">
-        <v>3.178215199354833e-32</v>
+        <v>2.06436364643296e-34</v>
       </c>
     </row>
     <row r="8">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03500814867249307</v>
+        <v>-0.03212069498233906</v>
       </c>
       <c r="C8" t="n">
-        <v>2.552279318137198e-07</v>
+        <v>2.093054983570002e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.857045546170305e-06</v>
+        <v>-3.234226956927391e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3995985268059744</v>
+        <v>0.3378631150129584</v>
       </c>
     </row>
     <row r="10">
@@ -8895,10 +8895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.46833547110194</v>
+        <v>-17.5558713240412</v>
       </c>
       <c r="C10" t="n">
-        <v>2.701288207000452e-13</v>
+        <v>3.891870317812284e-12</v>
       </c>
     </row>
     <row r="11">
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.564089221609265</v>
+        <v>3.359414479877209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2464826834947655</v>
+        <v>0.1278384878276865</v>
       </c>
     </row>
     <row r="12">
@@ -8921,10 +8921,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2439.598092366614</v>
+        <v>-1934.86793923577</v>
       </c>
       <c r="C12" t="n">
-        <v>8.698870746290941e-13</v>
+        <v>1.403443641452971e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1099.748107088696</v>
+        <v>-683.5134197767489</v>
       </c>
       <c r="C13" t="n">
-        <v>4.010524490718507e-06</v>
+        <v>0.004077418129434473</v>
       </c>
     </row>
     <row r="14">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7733.322615472721</v>
+        <v>7839.695208953552</v>
       </c>
       <c r="C14" t="n">
-        <v>4.160935145854959e-38</v>
+        <v>2.801464214048944e-39</v>
       </c>
     </row>
     <row r="15">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.19504409575635</v>
+        <v>21.46187230838461</v>
       </c>
       <c r="C15" t="n">
-        <v>3.330503588381655e-06</v>
+        <v>0.0003825664405201361</v>
       </c>
     </row>
   </sheetData>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5934.584325038942</v>
+        <v>5374.008415048487</v>
       </c>
       <c r="C2" t="n">
-        <v>3.956362293633135e-29</v>
+        <v>5.69780136711482e-24</v>
       </c>
     </row>
     <row r="3">
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1642.11313209045</v>
+        <v>-1558.622005983477</v>
       </c>
       <c r="C3" t="n">
-        <v>3.51612955786713e-11</v>
+        <v>2.523894313814181e-10</v>
       </c>
     </row>
     <row r="4">
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2194.419173967918</v>
+        <v>-2015.442693263886</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2022527455752e-17</v>
+        <v>5.28967013775556e-15</v>
       </c>
     </row>
     <row r="5">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1936.700443282344</v>
+        <v>-1393.491910536342</v>
       </c>
       <c r="C5" t="n">
-        <v>2.644055973990233e-13</v>
+        <v>5.747961431260225e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9061,23 +9061,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.68719535246699</v>
+        <v>66.02197406717561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001567507086455427</v>
+        <v>4.304219090470425e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.662418489915</v>
+        <v>9.220390546001743</v>
       </c>
       <c r="C7" t="n">
-        <v>8.496435213332065e-40</v>
+        <v>3.656018702156858e-43</v>
       </c>
     </row>
     <row r="8">
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03628182448494281</v>
+        <v>-0.03337290909968001</v>
       </c>
       <c r="C8" t="n">
-        <v>3.833854382087397e-08</v>
+        <v>3.59132505809776e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.63886384201004e-07</v>
+        <v>-1.432589920957072e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.772341204291903</v>
+        <v>0.664963647957969</v>
       </c>
     </row>
     <row r="10">
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.77620621709636</v>
+        <v>-18.84459597550797</v>
       </c>
       <c r="C10" t="n">
-        <v>2.305060708785503e-16</v>
+        <v>4.758980383163873e-15</v>
       </c>
     </row>
     <row r="11">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.931104595352632</v>
+        <v>-0.7446170030597581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3584070202049523</v>
+        <v>0.7220187262910617</v>
       </c>
     </row>
     <row r="12">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2411.451447664262</v>
+        <v>-1904.879260446194</v>
       </c>
       <c r="C12" t="n">
-        <v>2.502186168323983e-13</v>
+        <v>6.201970442637417e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9152,10 +9152,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-912.6937597668031</v>
+        <v>-476.5137447626782</v>
       </c>
       <c r="C13" t="n">
-        <v>9.893179071820197e-05</v>
+        <v>0.04088081397104346</v>
       </c>
     </row>
     <row r="14">
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7781.418524504322</v>
+        <v>7900.957706195648</v>
       </c>
       <c r="C14" t="n">
-        <v>3.485132163091507e-40</v>
+        <v>1.099582785997341e-41</v>
       </c>
     </row>
     <row r="15">
@@ -9178,10 +9178,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.16265001965415</v>
+        <v>15.63825813129964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001448146781638451</v>
+        <v>0.006988429111343935</v>
       </c>
     </row>
   </sheetData>
@@ -9227,10 +9227,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4887.100447997165</v>
+        <v>4303.570555090162</v>
       </c>
       <c r="C2" t="n">
-        <v>6.224216616247067e-21</v>
+        <v>2.234095919218671e-16</v>
       </c>
     </row>
     <row r="3">
@@ -9240,10 +9240,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1090.456568905854</v>
+        <v>-1021.051114296725</v>
       </c>
       <c r="C3" t="n">
-        <v>2.845118584333047e-06</v>
+        <v>1.0608028998194e-05</v>
       </c>
     </row>
     <row r="4">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1641.240281054846</v>
+        <v>-1470.256710347287</v>
       </c>
       <c r="C4" t="n">
-        <v>1.617852183553496e-11</v>
+        <v>1.464671111974885e-09</v>
       </c>
     </row>
     <row r="5">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1339.441686224566</v>
+        <v>-795.5222940489741</v>
       </c>
       <c r="C5" t="n">
-        <v>1.090845079420455e-07</v>
+        <v>0.001143887103609655</v>
       </c>
     </row>
     <row r="6">
@@ -9279,23 +9279,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.96101813629709</v>
+        <v>58.56319389373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008282707897664584</v>
+        <v>0.0001857083200254247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.1678364986381</v>
+        <v>9.387722008287177</v>
       </c>
       <c r="C7" t="n">
-        <v>1.740615404777667e-42</v>
+        <v>5.049070452805001e-45</v>
       </c>
     </row>
     <row r="8">
@@ -9305,10 +9305,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04006480262910501</v>
+        <v>-0.03681102181400315</v>
       </c>
       <c r="C8" t="n">
-        <v>8.774150523341317e-10</v>
+        <v>1.509863333918661e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9318,10 +9318,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.457202739765805e-06</v>
+        <v>-2.140131830343782e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6357950002522176</v>
+        <v>0.4839590770227166</v>
       </c>
     </row>
     <row r="10">
@@ -9331,10 +9331,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.3698163200499</v>
+        <v>-16.36500090596996</v>
       </c>
       <c r="C10" t="n">
-        <v>5.232935280759058e-13</v>
+        <v>1.066949342123852e-11</v>
       </c>
     </row>
     <row r="11">
@@ -9344,10 +9344,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8562812744455335</v>
+        <v>2.254513486246893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6929309681301957</v>
+        <v>0.2968139198336773</v>
       </c>
     </row>
     <row r="12">
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2389.226682284079</v>
+        <v>-1875.782505974347</v>
       </c>
       <c r="C12" t="n">
-        <v>5.808836946430728e-14</v>
+        <v>3.280996001859302e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-771.2312496775222</v>
+        <v>-346.3002976829981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007236101323629755</v>
+        <v>0.1274651803981975</v>
       </c>
     </row>
     <row r="14">
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7012.429674576968</v>
+        <v>7079.455867284628</v>
       </c>
       <c r="C14" t="n">
-        <v>1.989795472594061e-34</v>
+        <v>2.797837697344824e-35</v>
       </c>
     </row>
     <row r="15">
@@ -9396,10 +9396,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.33337027176525</v>
+        <v>20.37977892172195</v>
       </c>
       <c r="C15" t="n">
-        <v>6.714487053806026e-06</v>
+        <v>0.0004575858172155078</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5932.90875881338</v>
+        <v>5382.276550508819</v>
       </c>
       <c r="C2" t="n">
-        <v>1.276886516059001e-27</v>
+        <v>1.415832881211459e-22</v>
       </c>
     </row>
     <row r="3">
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1984.735049715147</v>
+        <v>-1894.958304983282</v>
       </c>
       <c r="C3" t="n">
-        <v>1.459043239577636e-15</v>
+        <v>2.161394956267018e-14</v>
       </c>
     </row>
     <row r="4">
@@ -9471,10 +9471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2523.886824803094</v>
+        <v>-2356.293833177155</v>
       </c>
       <c r="C4" t="n">
-        <v>2.697642861049983e-22</v>
+        <v>1.259397003556991e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2246.256598072508</v>
+        <v>-1729.903331348003</v>
       </c>
       <c r="C5" t="n">
-        <v>1.011402841269796e-16</v>
+        <v>4.711904206274853e-11</v>
       </c>
     </row>
     <row r="6">
@@ -9497,23 +9497,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.73042893165798</v>
+        <v>70.33685434280287</v>
       </c>
       <c r="C6" t="n">
-        <v>6.881285233743216e-05</v>
+        <v>1.766963659316982e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.6167944027888</v>
+        <v>8.502932957078917</v>
       </c>
       <c r="C7" t="n">
-        <v>4.973001346184091e-33</v>
+        <v>2.043412390004582e-34</v>
       </c>
     </row>
     <row r="8">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0379033262543325</v>
+        <v>-0.03474323553227325</v>
       </c>
       <c r="C8" t="n">
-        <v>3.852287066276377e-08</v>
+        <v>4.368815082122001e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.627663498576646e-06</v>
+        <v>-3.201127445781755e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.429918123072935</v>
+        <v>0.3341787331988733</v>
       </c>
     </row>
     <row r="10">
@@ -9549,10 +9549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.44085081194243</v>
+        <v>-18.58855737994796</v>
       </c>
       <c r="C10" t="n">
-        <v>2.015763991224456e-14</v>
+        <v>3.011582344263433e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9562,10 +9562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.8968950392051109</v>
+        <v>0.4355224624954372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6783399421476297</v>
+        <v>0.840157906998388</v>
       </c>
     </row>
     <row r="12">
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2272.819518214953</v>
+        <v>-1779.96516218331</v>
       </c>
       <c r="C12" t="n">
-        <v>2.916882942958873e-11</v>
+        <v>1.890080622736982e-07</v>
       </c>
     </row>
     <row r="13">
@@ -9588,10 +9588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-939.6530268923449</v>
+        <v>-566.1404606739959</v>
       </c>
       <c r="C13" t="n">
-        <v>8.617429620318998e-05</v>
+        <v>0.01721643518655985</v>
       </c>
     </row>
     <row r="14">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7885.051785640057</v>
+        <v>7985.976742632385</v>
       </c>
       <c r="C14" t="n">
-        <v>1.192374498331082e-37</v>
+        <v>1.207490069965837e-38</v>
       </c>
     </row>
     <row r="15">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.6903310929526</v>
+        <v>22.08331645843395</v>
       </c>
       <c r="C15" t="n">
-        <v>4.228497720463499e-06</v>
+        <v>0.0002320954890113836</v>
       </c>
     </row>
   </sheetData>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5573.035925982882</v>
+        <v>4932.930382343082</v>
       </c>
       <c r="C2" t="n">
-        <v>1.653961303593481e-25</v>
+        <v>3.173458128987291e-20</v>
       </c>
     </row>
     <row r="3">
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1645.156326834795</v>
+        <v>-1562.868979181748</v>
       </c>
       <c r="C3" t="n">
-        <v>4.813127174198274e-12</v>
+        <v>3.339580151902702e-11</v>
       </c>
     </row>
     <row r="4">
@@ -9689,10 +9689,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2253.742050263143</v>
+        <v>-2059.376158592498</v>
       </c>
       <c r="C4" t="n">
-        <v>1.448309507981774e-19</v>
+        <v>8.259993389047568e-17</v>
       </c>
     </row>
     <row r="5">
@@ -9702,10 +9702,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1896.466353962347</v>
+        <v>-1370.63386594505</v>
       </c>
       <c r="C5" t="n">
-        <v>2.448593018174248e-13</v>
+        <v>3.92972922971097e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9715,23 +9715,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.36304253685307</v>
+        <v>53.49534961690826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003525858827241243</v>
+        <v>0.001297315266927869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.6906048261332</v>
+        <v>9.590972109382207</v>
       </c>
       <c r="C7" t="n">
-        <v>1.991373774949714e-37</v>
+        <v>4.772676418076689e-43</v>
       </c>
     </row>
     <row r="8">
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03339550004696356</v>
+        <v>-0.03001362360425939</v>
       </c>
       <c r="C8" t="n">
-        <v>8.487698980141913e-07</v>
+        <v>7.873232066307168e-06</v>
       </c>
     </row>
     <row r="9">
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.320693296227899e-06</v>
+        <v>-3.60801510762916e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3123339369898661</v>
+        <v>0.2671024644897207</v>
       </c>
     </row>
     <row r="10">
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.02767294491838</v>
+        <v>-18.74193040274874</v>
       </c>
       <c r="C10" t="n">
-        <v>1.07022671083737e-15</v>
+        <v>4.566331660861079e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9780,10 +9780,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1377770878571485</v>
+        <v>1.010082921030554</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9483554548131462</v>
+        <v>0.6321017921619781</v>
       </c>
     </row>
     <row r="12">
@@ -9793,10 +9793,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2566.342511577468</v>
+        <v>-2042.815758520124</v>
       </c>
       <c r="C12" t="n">
-        <v>4.283373674604719e-14</v>
+        <v>1.312520497186251e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-964.5428514259884</v>
+        <v>-553.3860604647508</v>
       </c>
       <c r="C13" t="n">
-        <v>5.497193891854197e-05</v>
+        <v>0.01966866283435492</v>
       </c>
     </row>
     <row r="14">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7439.360480962548</v>
+        <v>7606.836308883308</v>
       </c>
       <c r="C14" t="n">
-        <v>6.007071889297962e-36</v>
+        <v>5.465587159946512e-38</v>
       </c>
     </row>
     <row r="15">
@@ -9832,10 +9832,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.78771820004638</v>
+        <v>23.50923780098248</v>
       </c>
       <c r="C15" t="n">
-        <v>1.44453342517647e-06</v>
+        <v>7.026451519900546e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5847.157988408538</v>
+        <v>5294.919653668665</v>
       </c>
       <c r="C2" t="n">
-        <v>1.367736652388198e-28</v>
+        <v>1.884193881714117e-23</v>
       </c>
     </row>
     <row r="3">
@@ -9894,10 +9894,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1874.361246725126</v>
+        <v>-1790.781880381064</v>
       </c>
       <c r="C3" t="n">
-        <v>1.214464840325103e-14</v>
+        <v>1.263224280745535e-13</v>
       </c>
     </row>
     <row r="4">
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2440.275006197749</v>
+        <v>-2259.892986167112</v>
       </c>
       <c r="C4" t="n">
-        <v>2.918478856269608e-22</v>
+        <v>2.105709488926612e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1984.293408709368</v>
+        <v>-1471.616086031266</v>
       </c>
       <c r="C5" t="n">
-        <v>2.33646378491586e-14</v>
+        <v>5.636464973357383e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9933,23 +9933,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.51922939108542</v>
+        <v>63.81021051647298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001261753559024653</v>
+        <v>4.438064462891585e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.3639455784093</v>
+        <v>8.726956583517856</v>
       </c>
       <c r="C7" t="n">
-        <v>2.833981167803779e-36</v>
+        <v>3.51820586298379e-39</v>
       </c>
     </row>
     <row r="8">
@@ -9959,10 +9959,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03925925775012849</v>
+        <v>-0.03646748530039687</v>
       </c>
       <c r="C8" t="n">
-        <v>7.974928385869618e-09</v>
+        <v>7.171930330380661e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9972,10 +9972,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.601411238707306e-06</v>
+        <v>-4.150311716418934e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2692305061109815</v>
+        <v>0.1998743079585298</v>
       </c>
     </row>
     <row r="10">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.83170867410024</v>
+        <v>-17.95847350632199</v>
       </c>
       <c r="C10" t="n">
-        <v>3.039393338200041e-14</v>
+        <v>4.033712084807059e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.059184250196524</v>
+        <v>2.859699882556447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3248916027051983</v>
+        <v>0.169862602041645</v>
       </c>
     </row>
     <row r="12">
@@ -10011,10 +10011,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2264.197862316464</v>
+        <v>-1753.765760221715</v>
       </c>
       <c r="C12" t="n">
-        <v>8.99757149589791e-12</v>
+        <v>1.163619521479735e-07</v>
       </c>
     </row>
     <row r="13">
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-771.9980530083237</v>
+        <v>-368.0815779897863</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007896761084317629</v>
+        <v>0.1086975183004359</v>
       </c>
     </row>
     <row r="14">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7646.194165129425</v>
+        <v>7755.806508302195</v>
       </c>
       <c r="C14" t="n">
-        <v>9.04459372591037e-40</v>
+        <v>4.194086060140385e-41</v>
       </c>
     </row>
     <row r="15">
@@ -10050,10 +10050,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.01561390377302</v>
+        <v>13.13284494426209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001636257243322104</v>
+        <v>0.02103511975285864</v>
       </c>
     </row>
   </sheetData>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6418.521513957703</v>
+        <v>5754.673988969173</v>
       </c>
       <c r="C2" t="n">
-        <v>9.530990918931884e-33</v>
+        <v>7.08860902351482e-26</v>
       </c>
     </row>
     <row r="3">
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1835.502906057376</v>
+        <v>-1723.915817633015</v>
       </c>
       <c r="C3" t="n">
-        <v>2.491048447040944e-14</v>
+        <v>7.327621754489056e-13</v>
       </c>
     </row>
     <row r="4">
@@ -10125,10 +10125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2363.100511023698</v>
+        <v>-2179.573841620791</v>
       </c>
       <c r="C4" t="n">
-        <v>4.260361485344151e-21</v>
+        <v>4.021896306439408e-18</v>
       </c>
     </row>
     <row r="5">
@@ -10138,10 +10138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1846.124269871598</v>
+        <v>-1308.797373412533</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436417509100803e-12</v>
+        <v>2.419712905512992e-07</v>
       </c>
     </row>
     <row r="6">
@@ -10151,23 +10151,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.08037535593657</v>
+        <v>61.66889179017259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003645499308084376</v>
+        <v>0.0001390817842234754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.2438981681418</v>
+        <v>8.573231897237944</v>
       </c>
       <c r="C7" t="n">
-        <v>1.02330123438219e-33</v>
+        <v>1.183172293298766e-34</v>
       </c>
     </row>
     <row r="8">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03676787321920291</v>
+        <v>-0.03429492323786121</v>
       </c>
       <c r="C8" t="n">
-        <v>1.009700469462523e-07</v>
+        <v>6.446547487231806e-07</v>
       </c>
     </row>
     <row r="9">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.479751996935018e-06</v>
+        <v>-1.809744939102641e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6684008580820937</v>
+        <v>0.5993329899366611</v>
       </c>
     </row>
     <row r="10">
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.76219823629101</v>
+        <v>-19.78306866636583</v>
       </c>
       <c r="C10" t="n">
-        <v>6.027662575792324e-17</v>
+        <v>2.150768537849851e-15</v>
       </c>
     </row>
     <row r="11">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.402942161727419</v>
+        <v>0.3920839390737101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5108145567823678</v>
+        <v>0.8542177342923911</v>
       </c>
     </row>
     <row r="12">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2339.632082513549</v>
+        <v>-1853.035794382112</v>
       </c>
       <c r="C12" t="n">
-        <v>7.13089490723743e-13</v>
+        <v>1.330408926132468e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10242,10 +10242,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1069.894303645024</v>
+        <v>-644.7274742354451</v>
       </c>
       <c r="C13" t="n">
-        <v>5.492064586824751e-06</v>
+        <v>0.006199776742476428</v>
       </c>
     </row>
     <row r="14">
@@ -10255,10 +10255,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6194.963230933198</v>
+        <v>6325.550929332158</v>
       </c>
       <c r="C14" t="n">
-        <v>2.869400790337551e-24</v>
+        <v>3.202336884467066e-25</v>
       </c>
     </row>
     <row r="15">
@@ -10268,10 +10268,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.96297115737542</v>
+        <v>17.98318164718417</v>
       </c>
       <c r="C15" t="n">
-        <v>8.632526439834194e-05</v>
+        <v>0.002032314038218219</v>
       </c>
     </row>
   </sheetData>
@@ -10317,10 +10317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6020.055369964814</v>
+        <v>5393.866685488223</v>
       </c>
       <c r="C2" t="n">
-        <v>5.788673910792768e-29</v>
+        <v>3.790748662283236e-23</v>
       </c>
     </row>
     <row r="3">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1932.268606640315</v>
+        <v>-1807.687734230582</v>
       </c>
       <c r="C3" t="n">
-        <v>1.816248730015612e-14</v>
+        <v>5.960199436079919e-13</v>
       </c>
     </row>
     <row r="4">
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2550.343800234633</v>
+        <v>-2334.2783433584</v>
       </c>
       <c r="C4" t="n">
-        <v>4.474964921361941e-22</v>
+        <v>8.941491125377675e-19</v>
       </c>
     </row>
     <row r="5">
@@ -10356,10 +10356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2026.080953301544</v>
+        <v>-1478.063539319892</v>
       </c>
       <c r="C5" t="n">
-        <v>7.820079795919574e-14</v>
+        <v>2.038382376662545e-08</v>
       </c>
     </row>
     <row r="6">
@@ -10369,23 +10369,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.4428169128496</v>
+        <v>57.87759554208048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001286707803983724</v>
+        <v>0.0003296821393065463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.2662013436159</v>
+        <v>8.952078675787057</v>
       </c>
       <c r="C7" t="n">
-        <v>9.835129665501451e-36</v>
+        <v>1.728460831386134e-38</v>
       </c>
     </row>
     <row r="8">
@@ -10395,10 +10395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0399348851879936</v>
+        <v>-0.03692479858425499</v>
       </c>
       <c r="C8" t="n">
-        <v>7.096644451665024e-09</v>
+        <v>7.428711380281793e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10408,10 +10408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.854267661425233e-06</v>
+        <v>-2.258872710234278e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7319416297890146</v>
+        <v>0.6744249276302069</v>
       </c>
     </row>
     <row r="10">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.73081973813475</v>
+        <v>-18.03116503970025</v>
       </c>
       <c r="C10" t="n">
-        <v>1.943145457275243e-14</v>
+        <v>1.545697316260338e-13</v>
       </c>
     </row>
     <row r="11">
@@ -10434,10 +10434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.711313120130169</v>
+        <v>2.596238114816523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4127561335203437</v>
+        <v>0.2124776903044411</v>
       </c>
     </row>
     <row r="12">
@@ -10447,10 +10447,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2438.935651771158</v>
+        <v>-1903.515290506659</v>
       </c>
       <c r="C12" t="n">
-        <v>3.521815328157785e-13</v>
+        <v>1.18621014668005e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10460,10 +10460,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1016.044169371054</v>
+        <v>-559.2816325277413</v>
       </c>
       <c r="C13" t="n">
-        <v>1.588753513773929e-05</v>
+        <v>0.01709598723691283</v>
       </c>
     </row>
     <row r="14">
@@ -10473,10 +10473,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6317.508479296497</v>
+        <v>6572.401592498298</v>
       </c>
       <c r="C14" t="n">
-        <v>5.338405587797004e-26</v>
+        <v>4.443385090872344e-28</v>
       </c>
     </row>
     <row r="15">
@@ -10486,10 +10486,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.68121300257871</v>
+        <v>19.84435251192052</v>
       </c>
       <c r="C15" t="n">
-        <v>1.67695791356757e-05</v>
+        <v>0.0008292290108452571</v>
       </c>
     </row>
   </sheetData>
@@ -10535,10 +10535,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5113.758901457395</v>
+        <v>4509.876582078072</v>
       </c>
       <c r="C2" t="n">
-        <v>8.411534724179244e-21</v>
+        <v>2.657414528150055e-16</v>
       </c>
     </row>
     <row r="3">
@@ -10548,10 +10548,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1478.521965185368</v>
+        <v>-1362.205153457629</v>
       </c>
       <c r="C3" t="n">
-        <v>8.6209948439439e-09</v>
+        <v>9.547370896061481e-08</v>
       </c>
     </row>
     <row r="4">
@@ -10561,10 +10561,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2149.032923386527</v>
+        <v>-1958.894065407701</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010591842030155e-15</v>
+        <v>2.26736549808403e-13</v>
       </c>
     </row>
     <row r="5">
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1677.181520088022</v>
+        <v>-1139.243859576379</v>
       </c>
       <c r="C5" t="n">
-        <v>1.340616080807827e-09</v>
+        <v>2.291198548720194e-05</v>
       </c>
     </row>
     <row r="6">
@@ -10587,23 +10587,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.85395868552796</v>
+        <v>45.47831001955661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02177123729712293</v>
+        <v>0.006406987282738611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.598665067826</v>
+        <v>8.863525962130005</v>
       </c>
       <c r="C7" t="n">
-        <v>6.18301940838799e-33</v>
+        <v>1.227391060778346e-36</v>
       </c>
     </row>
     <row r="8">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04237566527406071</v>
+        <v>-0.03911946718631103</v>
       </c>
       <c r="C8" t="n">
-        <v>2.744853491867966e-10</v>
+        <v>4.572719421597679e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.853050555228184e-06</v>
+        <v>-2.437247813123158e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5885330479308423</v>
+        <v>0.4732673053149045</v>
       </c>
     </row>
     <row r="10">
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.85257353196036</v>
+        <v>-17.13803670493657</v>
       </c>
       <c r="C10" t="n">
-        <v>1.124554900757548e-12</v>
+        <v>6.833167798808061e-12</v>
       </c>
     </row>
     <row r="11">
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.521800011080499</v>
+        <v>3.4338481651668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2543479994334845</v>
+        <v>0.1185987886221948</v>
       </c>
     </row>
     <row r="12">
@@ -10665,10 +10665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2469.661277677466</v>
+        <v>-1912.267985305908</v>
       </c>
       <c r="C12" t="n">
-        <v>1.957038009784271e-13</v>
+        <v>1.030454054430203e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1089.17295681774</v>
+        <v>-640.3855361820836</v>
       </c>
       <c r="C13" t="n">
-        <v>5.402962689011551e-06</v>
+        <v>0.006957423710851346</v>
       </c>
     </row>
     <row r="14">
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7533.173922265163</v>
+        <v>7668.917880836569</v>
       </c>
       <c r="C14" t="n">
-        <v>3.330304639591209e-39</v>
+        <v>7.153840446676683e-41</v>
       </c>
     </row>
     <row r="15">
@@ -10704,10 +10704,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.35567346612952</v>
+        <v>25.93702322827493</v>
       </c>
       <c r="C15" t="n">
-        <v>1.252107145692315e-07</v>
+        <v>1.053106160815629e-05</v>
       </c>
     </row>
   </sheetData>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6412.09364262509</v>
+        <v>5828.070416883868</v>
       </c>
       <c r="C2" t="n">
-        <v>5.206407973409626e-32</v>
+        <v>1.375254182453609e-26</v>
       </c>
     </row>
     <row r="3">
@@ -10766,10 +10766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1920.235667808903</v>
+        <v>-1834.119728187341</v>
       </c>
       <c r="C3" t="n">
-        <v>7.764461668962499e-16</v>
+        <v>9.065257183787466e-15</v>
       </c>
     </row>
     <row r="4">
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2503.577672220215</v>
+        <v>-2294.3108076566</v>
       </c>
       <c r="C4" t="n">
-        <v>5.303571880490682e-24</v>
+        <v>1.419989042275111e-20</v>
       </c>
     </row>
     <row r="5">
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1903.529334925255</v>
+        <v>-1361.579930766118</v>
       </c>
       <c r="C5" t="n">
-        <v>1.510070433299136e-13</v>
+        <v>4.76655565337241e-08</v>
       </c>
     </row>
     <row r="6">
@@ -10805,23 +10805,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.72107471417745</v>
+        <v>44.84054309221182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01172944107402248</v>
+        <v>0.004954370851341031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.9310414968686</v>
+        <v>9.438698448348617</v>
       </c>
       <c r="C7" t="n">
-        <v>6.066348448307218e-40</v>
+        <v>6.194331523924353e-44</v>
       </c>
     </row>
     <row r="8">
@@ -10831,10 +10831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03933788997947851</v>
+        <v>-0.03680831937105557</v>
       </c>
       <c r="C8" t="n">
-        <v>2.214879340634657e-09</v>
+        <v>1.761550211137454e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10844,10 +10844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.396697584612006e-06</v>
+        <v>-3.690199574054825e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2812517619987903</v>
+        <v>0.2379085359830035</v>
       </c>
     </row>
     <row r="10">
@@ -10857,10 +10857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.37073134523326</v>
+        <v>-19.36869016828596</v>
       </c>
       <c r="C10" t="n">
-        <v>8.207067287721187e-17</v>
+        <v>1.955118127184305e-15</v>
       </c>
     </row>
     <row r="11">
@@ -10870,10 +10870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9248191118455198</v>
+        <v>1.675553384537518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6742294954446355</v>
+        <v>0.443467600042853</v>
       </c>
     </row>
     <row r="12">
@@ -10883,10 +10883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2328.404196209147</v>
+        <v>-1765.65919026562</v>
       </c>
       <c r="C12" t="n">
-        <v>4.135917513791569e-12</v>
+        <v>1.317645179428488e-07</v>
       </c>
     </row>
     <row r="13">
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-788.2287897488103</v>
+        <v>-351.0237360987179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007586500607927451</v>
+        <v>0.1312229185351936</v>
       </c>
     </row>
     <row r="14">
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6391.498445932888</v>
+        <v>6522.201717991804</v>
       </c>
       <c r="C14" t="n">
-        <v>1.238395495426473e-24</v>
+        <v>7.900886559342139e-26</v>
       </c>
     </row>
     <row r="15">
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.52149858995303</v>
+        <v>10.48989232020228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005843635664682787</v>
+        <v>0.07805786618370417</v>
       </c>
     </row>
   </sheetData>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5099.190738062041</v>
+        <v>4482.713525721821</v>
       </c>
       <c r="C2" t="n">
-        <v>8.672280080025951e-25</v>
+        <v>2.769193185445087e-19</v>
       </c>
     </row>
     <row r="3">
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1518.594617545482</v>
+        <v>-1439.338065121189</v>
       </c>
       <c r="C3" t="n">
-        <v>9.794525169184373e-12</v>
+        <v>8.179658617810466e-11</v>
       </c>
     </row>
     <row r="4">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2073.698696143442</v>
+        <v>-1903.762135306343</v>
       </c>
       <c r="C4" t="n">
-        <v>8.240828223066931e-19</v>
+        <v>3.281187019952847e-16</v>
       </c>
     </row>
     <row r="5">
@@ -11010,10 +11010,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1840.206861171104</v>
+        <v>-1333.156000580234</v>
       </c>
       <c r="C5" t="n">
-        <v>3.863654839711996e-14</v>
+        <v>1.415565989186879e-08</v>
       </c>
     </row>
     <row r="6">
@@ -11023,23 +11023,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.40374840994325</v>
+        <v>77.29806797323324</v>
       </c>
       <c r="C6" t="n">
-        <v>1.262367859216693e-06</v>
+        <v>3.560754980241112e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.1684284280465</v>
+        <v>8.801944080917217</v>
       </c>
       <c r="C7" t="n">
-        <v>7.472820907117155e-39</v>
+        <v>1.859177429385885e-42</v>
       </c>
     </row>
     <row r="8">
@@ -11049,10 +11049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0355830480044707</v>
+        <v>-0.03223465906986846</v>
       </c>
       <c r="C8" t="n">
-        <v>4.124790958140612e-08</v>
+        <v>5.550142498172388e-07</v>
       </c>
     </row>
     <row r="9">
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.389655224135599e-06</v>
+        <v>-2.512392480028902e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4567133031508394</v>
+        <v>0.430657753976846</v>
       </c>
     </row>
     <row r="10">
@@ -11075,10 +11075,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.9712881191377</v>
+        <v>-15.87180466426963</v>
       </c>
       <c r="C10" t="n">
-        <v>5.626206064465961e-13</v>
+        <v>1.481965452282289e-11</v>
       </c>
     </row>
     <row r="11">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.758802942562643</v>
+        <v>3.300684642579503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3831056354226655</v>
+        <v>0.1003447276492897</v>
       </c>
     </row>
     <row r="12">
@@ -11101,10 +11101,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2534.05468089668</v>
+        <v>-2044.419013970061</v>
       </c>
       <c r="C12" t="n">
-        <v>5.520225640484371e-15</v>
+        <v>2.322355097264919e-10</v>
       </c>
     </row>
     <row r="13">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-760.8432120683908</v>
+        <v>-382.4061322081328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007301242164462225</v>
+        <v>0.08802168403177878</v>
       </c>
     </row>
     <row r="14">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7604.381814935342</v>
+        <v>7789.946777351337</v>
       </c>
       <c r="C14" t="n">
-        <v>2.537147307362425e-40</v>
+        <v>1.692484916212684e-42</v>
       </c>
     </row>
     <row r="15">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.60543151446178</v>
+        <v>19.98440792396399</v>
       </c>
       <c r="C15" t="n">
-        <v>4.613211494530005e-06</v>
+        <v>0.0003230003390616304</v>
       </c>
     </row>
   </sheetData>
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6085.04741828719</v>
+        <v>5503.904784518741</v>
       </c>
       <c r="C2" t="n">
-        <v>4.799543712738592e-29</v>
+        <v>1.495133512993286e-23</v>
       </c>
     </row>
     <row r="3">
@@ -11202,10 +11202,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1849.833427965153</v>
+        <v>-1739.609694044123</v>
       </c>
       <c r="C3" t="n">
-        <v>1.904293268417271e-12</v>
+        <v>3.161541885302602e-11</v>
       </c>
     </row>
     <row r="4">
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2350.379423799493</v>
+        <v>-2155.61193282511</v>
       </c>
       <c r="C4" t="n">
-        <v>8.547973089095131e-18</v>
+        <v>3.36365000701664e-15</v>
       </c>
     </row>
     <row r="5">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2057.053662577078</v>
+        <v>-1507.08230298508</v>
       </c>
       <c r="C5" t="n">
-        <v>3.341910007017088e-13</v>
+        <v>4.341149249162823e-08</v>
       </c>
     </row>
     <row r="6">
@@ -11241,23 +11241,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.21808368823113</v>
+        <v>68.68979556995609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001458298901304423</v>
+        <v>2.30319423741522e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9802221665562</v>
+        <v>8.87931162221332</v>
       </c>
       <c r="C7" t="n">
-        <v>1.573908726556807e-35</v>
+        <v>6.613074984156994e-37</v>
       </c>
     </row>
     <row r="8">
@@ -11267,10 +11267,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03687387863772551</v>
+        <v>-0.03367912006962723</v>
       </c>
       <c r="C8" t="n">
-        <v>1.671782267692992e-07</v>
+        <v>1.660728752876654e-06</v>
       </c>
     </row>
     <row r="9">
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.66753774697742e-06</v>
+        <v>-6.571584592581934e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2288213029529673</v>
+        <v>0.1608685704994727</v>
       </c>
     </row>
     <row r="10">
@@ -11293,10 +11293,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.02789701476741</v>
+        <v>-19.05044351721312</v>
       </c>
       <c r="C10" t="n">
-        <v>1.551834208155361e-15</v>
+        <v>4.091093310286303e-14</v>
       </c>
     </row>
     <row r="11">
@@ -11306,10 +11306,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.760839707346013</v>
+        <v>-0.6199264174422279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4074507111979242</v>
+        <v>0.7703049634239559</v>
       </c>
     </row>
     <row r="12">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2368.434425894139</v>
+        <v>-1909.278929710327</v>
       </c>
       <c r="C12" t="n">
-        <v>1.256326471134252e-12</v>
+        <v>1.002931960827939e-08</v>
       </c>
     </row>
     <row r="13">
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-927.3616629439622</v>
+        <v>-557.3264498095575</v>
       </c>
       <c r="C13" t="n">
-        <v>8.854847812899503e-05</v>
+        <v>0.0181759490993876</v>
       </c>
     </row>
     <row r="14">
@@ -11345,10 +11345,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7400.947440555357</v>
+        <v>7551.997687157178</v>
       </c>
       <c r="C14" t="n">
-        <v>2.929080838613004e-35</v>
+        <v>1.153690735789133e-36</v>
       </c>
     </row>
     <row r="15">
@@ -11358,10 +11358,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.50494278306108</v>
+        <v>20.21040501308262</v>
       </c>
       <c r="C15" t="n">
-        <v>1.842988684178469e-05</v>
+        <v>0.0006603664343125222</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/All.xlsx
+++ b/outputs/ML_Results/dist_LR/All.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18824158" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19134085" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19542477" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19868725" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20224830" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20568657" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20912057" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21246837" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21583208" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21919128" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ22252070" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ22588111" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ22928723" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ23263302" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ23630898" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ23976980" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ24321555" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ24655777" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ24991596" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ25326666" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ25655425" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ25991647" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ26328078" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ26663066" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ26996898" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ27335827" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ27667313" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ28004223" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ28343590" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ28686578" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ29016907" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ29357926" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ29688075" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ30024115" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ30357255" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ30699692" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ31038147" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ31377333" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ31712480" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ32042960" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ32383127" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ32721347" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ33058498" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ33393906" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ33724130" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ34065317" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ34408955" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ34747694" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ35083822" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ35415800" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ26217864" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26613130" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ27000292" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ27400159" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ27786939" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ28161838" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28531252" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28899306" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29281342" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ29663304" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ30033323" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ30415303" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ30796185" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ31166108" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ31577919" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ31986026" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ32408283" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ32799351" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ33194286" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ33664176" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34070931" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ34468737" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ34862078" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ35267488" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ35668695" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ36045020" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36401208" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36785627" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ37155586" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ37524393" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37893763" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ38263417" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ38651216" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ39031729" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ39392250" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ39761302" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ40133229" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ40514229" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ40891401" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ41269438" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ41632481" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ42005046" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ42368483" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ42731761" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ43094996" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ43461937" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ43830454" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ44192097" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ44562187" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ44930474" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4960.245116876373</v>
+        <v>4960.245121332789</v>
       </c>
       <c r="C2" t="n">
-        <v>5.693941894103342e-20</v>
+        <v>5.693941840331272e-20</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1653.162837718154</v>
+        <v>-1653.162840531258</v>
       </c>
       <c r="C3" t="n">
-        <v>4.760229776700686e-10</v>
+        <v>4.760229776537718e-10</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2145.586028338514</v>
+        <v>-2145.586031796559</v>
       </c>
       <c r="C4" t="n">
-        <v>7.84008266660488e-15</v>
+        <v>7.840082774639612e-15</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1450.799849391528</v>
+        <v>-1450.799850616684</v>
       </c>
       <c r="C5" t="n">
-        <v>1.664736469470847e-07</v>
+        <v>1.664736459024697e-07</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.055576743926</v>
+        <v>61.05557655342784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001248159135579806</v>
+        <v>0.0001248159197450794</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.50766876466429</v>
+        <v>9.507668770060089</v>
       </c>
       <c r="C7" t="n">
-        <v>1.50544951039109e-43</v>
+        <v>1.505449347648065e-43</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03662496669936731</v>
+        <v>-3.662496657898746</v>
       </c>
       <c r="C8" t="n">
-        <v>8.802203648152548e-08</v>
+        <v>8.802204449235833e-08</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.134309599074864e-06</v>
+        <v>-2.134309812969144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5441999329785846</v>
+        <v>0.5441998926209066</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.59353119472592</v>
+        <v>-17.59353119472421</v>
       </c>
       <c r="C10" t="n">
-        <v>2.88443705800021e-12</v>
+        <v>2.884437058013137e-12</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.137695346863213</v>
+        <v>2.137695346865356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3106637680666486</v>
+        <v>0.3106637680661597</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1891.190525358788</v>
+        <v>-18.91190525358809</v>
       </c>
       <c r="C12" t="n">
-        <v>9.403795555273825e-09</v>
+        <v>9.403795555270973e-09</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-399.9761063690041</v>
+        <v>-3.999761063689753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08921360220247916</v>
+        <v>0.08921360220250196</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7704.270170943144</v>
+        <v>77.04270170943303</v>
       </c>
       <c r="C14" t="n">
-        <v>1.112604927847769e-39</v>
+        <v>1.112604927843651e-39</v>
       </c>
     </row>
     <row r="15">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.45812696007517</v>
+        <v>19.45812696007485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000990310128853083</v>
+        <v>0.0009903101288532847</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5025.226004846577</v>
+        <v>5025.226006638488</v>
       </c>
       <c r="C2" t="n">
-        <v>1.508350017925448e-20</v>
+        <v>1.508350006602321e-20</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1671.74139451783</v>
+        <v>-1671.741395838554</v>
       </c>
       <c r="C3" t="n">
-        <v>1.519133841588242e-12</v>
+        <v>1.51913384158839e-12</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2139.697287076597</v>
+        <v>-2139.697287248543</v>
       </c>
       <c r="C4" t="n">
-        <v>5.514138481489085e-18</v>
+        <v>5.51413848443152e-18</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1437.60018237248</v>
+        <v>-1437.600182045914</v>
       </c>
       <c r="C5" t="n">
-        <v>6.887220194116395e-09</v>
+        <v>6.887220210847433e-09</v>
       </c>
     </row>
     <row r="6">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.42922338017965</v>
+        <v>66.4292236007209</v>
       </c>
       <c r="C6" t="n">
-        <v>5.1734105597508e-05</v>
+        <v>5.173410255032655e-05</v>
       </c>
     </row>
     <row r="7">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.10963267295735</v>
+        <v>9.109632666068151</v>
       </c>
       <c r="C7" t="n">
-        <v>9.603983472052335e-40</v>
+        <v>9.603984678884094e-40</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03253744374745351</v>
+        <v>-3.253744374555193</v>
       </c>
       <c r="C8" t="n">
-        <v>2.887036504900115e-06</v>
+        <v>2.887036508501036e-06</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.600007480131167e-06</v>
+        <v>-2.600006943417203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4325512816084005</v>
+        <v>0.4325513767369927</v>
       </c>
     </row>
     <row r="10">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.34738606547737</v>
+        <v>-18.34738606547731</v>
       </c>
       <c r="C10" t="n">
-        <v>6.603221620679432e-13</v>
+        <v>6.603221620678334e-13</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.628982981010906</v>
+        <v>1.62898298101061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.43479206241846</v>
+        <v>0.4347920624185482</v>
       </c>
     </row>
     <row r="12">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1783.717786829493</v>
+        <v>-17.83717786829489</v>
       </c>
       <c r="C12" t="n">
-        <v>1.030886205686189e-07</v>
+        <v>1.030886205686275e-07</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-473.8825704141531</v>
+        <v>-4.738825704141568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04445425799886001</v>
+        <v>0.0444542579988588</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7424.193819083232</v>
+        <v>74.24193819083115</v>
       </c>
       <c r="C14" t="n">
-        <v>8.851118347551718e-36</v>
+        <v>8.851118347576274e-36</v>
       </c>
     </row>
     <row r="15">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.85744003138185</v>
+        <v>20.85744003138125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005411953095117546</v>
+        <v>0.0005411953095119824</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4592.427910878595</v>
+        <v>4592.42791044704</v>
       </c>
       <c r="C2" t="n">
-        <v>8.428389154963526e-18</v>
+        <v>8.428389153966468e-18</v>
       </c>
     </row>
     <row r="3">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1188.09576509894</v>
+        <v>-1188.095765097527</v>
       </c>
       <c r="C3" t="n">
-        <v>7.751928304766864e-07</v>
+        <v>7.751928304729755e-07</v>
       </c>
     </row>
     <row r="4">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1750.785933068526</v>
+        <v>-1750.785933852899</v>
       </c>
       <c r="C4" t="n">
-        <v>3.195856885720303e-12</v>
+        <v>3.195856904642756e-12</v>
       </c>
     </row>
     <row r="5">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-927.3801469346145</v>
+        <v>-927.3801462944127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002339006661396748</v>
+        <v>0.0002339006669886914</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.30777224922531</v>
+        <v>50.30777237619699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001348975536804674</v>
+        <v>0.001348975497908302</v>
       </c>
     </row>
     <row r="7">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.001423135719552</v>
+        <v>9.001423137422069</v>
       </c>
       <c r="C7" t="n">
-        <v>6.2821197590251e-40</v>
+        <v>6.282119554565893e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04054885917963254</v>
+        <v>-4.05488592132157</v>
       </c>
       <c r="C8" t="n">
-        <v>3.236424416742182e-09</v>
+        <v>3.236424328370064e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.528722359624145e-06</v>
+        <v>-1.528721976557031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6460772444747854</v>
+        <v>0.6460773264696349</v>
       </c>
     </row>
     <row r="10">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.91683998120736</v>
+        <v>-17.9168399812065</v>
       </c>
       <c r="C10" t="n">
-        <v>3.929242560567729e-13</v>
+        <v>3.929242560577496e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.318731100168268</v>
+        <v>2.318731100168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2598613574067895</v>
+        <v>0.2598613574068411</v>
       </c>
     </row>
     <row r="12">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1875.985781708632</v>
+        <v>-18.75985781708672</v>
       </c>
       <c r="C12" t="n">
-        <v>7.776980322293084e-09</v>
+        <v>7.776980322288623e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-401.6106758456601</v>
+        <v>-4.016106758457109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08161627910693207</v>
+        <v>0.08161627910689373</v>
       </c>
     </row>
     <row r="14">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7532.572147300743</v>
+        <v>75.3257214730084</v>
       </c>
       <c r="C14" t="n">
-        <v>3.399963125524488e-38</v>
+        <v>3.399963125516275e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.86583859811719</v>
+        <v>20.865838598118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003728196436348275</v>
+        <v>0.0003728196436346234</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5322.949296024944</v>
+        <v>5322.949294623597</v>
       </c>
       <c r="C2" t="n">
-        <v>1.86466912478134e-24</v>
+        <v>1.864669133701047e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1662.717135652071</v>
+        <v>-1662.717134380435</v>
       </c>
       <c r="C3" t="n">
-        <v>7.275013329112459e-13</v>
+        <v>7.275013329162354e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2185.261594525503</v>
+        <v>-2185.261591957943</v>
       </c>
       <c r="C4" t="n">
-        <v>2.886593473552571e-19</v>
+        <v>2.886593440638735e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1410.218604801862</v>
+        <v>-1410.218603623372</v>
       </c>
       <c r="C5" t="n">
-        <v>8.092026442576597e-09</v>
+        <v>8.092026517386629e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.73621959428964</v>
+        <v>49.73622000380946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001906527172368794</v>
+        <v>0.001906527005611819</v>
       </c>
     </row>
     <row r="7">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.973404098968885</v>
+        <v>8.973404096908011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.579128173328563e-40</v>
+        <v>1.579128237766111e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0290505633697552</v>
+        <v>-2.905056341344981</v>
       </c>
       <c r="C8" t="n">
-        <v>1.19486746444203e-05</v>
+        <v>1.194867429282581e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.691882937726673e-06</v>
+        <v>-9.691883003992459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04383622077307261</v>
+        <v>0.04383621915887431</v>
       </c>
     </row>
     <row r="10">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.27616384171304</v>
+        <v>-18.27616384171307</v>
       </c>
       <c r="C10" t="n">
-        <v>1.786885952086552e-14</v>
+        <v>1.786885952086745e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.808738048543208</v>
+        <v>2.808738048542759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1703580803871934</v>
+        <v>0.170358080387263</v>
       </c>
     </row>
     <row r="12">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1960.496814748732</v>
+        <v>-19.60496814748713</v>
       </c>
       <c r="C12" t="n">
-        <v>1.041631819289908e-09</v>
+        <v>1.041631819290284e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-609.5761931501615</v>
+        <v>-6.095761931501565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007610878668599661</v>
+        <v>0.007610878668600196</v>
       </c>
     </row>
     <row r="14">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7125.513501612291</v>
+        <v>71.25513501612258</v>
       </c>
       <c r="C14" t="n">
-        <v>6.096289852261497e-34</v>
+        <v>6.096289852266206e-34</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44064636550255</v>
+        <v>16.44064636550268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0043641712385103</v>
+        <v>0.004364171238510114</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5668.957828589016</v>
+        <v>5668.957833070834</v>
       </c>
       <c r="C2" t="n">
-        <v>9.113816119151116e-24</v>
+        <v>9.113815998749256e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1991.865722229467</v>
+        <v>-1991.865724059646</v>
       </c>
       <c r="C3" t="n">
-        <v>1.421756543266013e-13</v>
+        <v>1.421756543258436e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2390.366297513575</v>
+        <v>-2390.366298006182</v>
       </c>
       <c r="C4" t="n">
-        <v>1.13524313154819e-17</v>
+        <v>1.135243132585416e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1806.699171135866</v>
+        <v>-1806.699172616642</v>
       </c>
       <c r="C5" t="n">
-        <v>1.44581347252464e-10</v>
+        <v>1.445813460375927e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.91312723530324</v>
+        <v>62.91312729048541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001458947613331213</v>
+        <v>0.0001458947593425328</v>
       </c>
     </row>
     <row r="7">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.025803754858607</v>
+        <v>9.025803763825246</v>
       </c>
       <c r="C7" t="n">
-        <v>2.768740299507375e-40</v>
+        <v>2.768739805944737e-40</v>
       </c>
     </row>
     <row r="8">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03404448161998104</v>
+        <v>-3.404448142125412</v>
       </c>
       <c r="C8" t="n">
-        <v>8.651121757919322e-07</v>
+        <v>8.651122971088982e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.751656530086826e-06</v>
+        <v>-2.75165654762626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3928792628927826</v>
+        <v>0.3928792607453039</v>
       </c>
     </row>
     <row r="10">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.50001915903849</v>
+        <v>-18.50001915903973</v>
       </c>
       <c r="C10" t="n">
-        <v>2.742120168322375e-13</v>
+        <v>2.742120168314074e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7208899855741759</v>
+        <v>-0.7208899855744042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7506909699738065</v>
+        <v>0.7506909699737315</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1760.476861645754</v>
+        <v>-17.6047686164578</v>
       </c>
       <c r="C12" t="n">
-        <v>2.641449564447659e-07</v>
+        <v>2.641449564446708e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-549.944618544718</v>
+        <v>-5.499446185447625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02058569269518506</v>
+        <v>0.02058569269517448</v>
       </c>
     </row>
     <row r="14">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7636.614064832898</v>
+        <v>76.36614064832872</v>
       </c>
       <c r="C14" t="n">
-        <v>3.110286273906149e-37</v>
+        <v>3.110286273907528e-37</v>
       </c>
     </row>
     <row r="15">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.81142239927945</v>
+        <v>19.81142239927937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007560086716157964</v>
+        <v>0.0007560086716158351</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5146.620053383139</v>
+        <v>5146.620053686012</v>
       </c>
       <c r="C2" t="n">
-        <v>7.24164331697424e-22</v>
+        <v>7.24164330616482e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1706.805163537799</v>
+        <v>-1706.805165094873</v>
       </c>
       <c r="C3" t="n">
-        <v>1.080227993638202e-13</v>
+        <v>1.080227993577039e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2116.010939626565</v>
+        <v>-2116.010937831518</v>
       </c>
       <c r="C4" t="n">
-        <v>1.839174473895339e-18</v>
+        <v>1.839174468059446e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1372.071900019358</v>
+        <v>-1372.071900374609</v>
       </c>
       <c r="C5" t="n">
-        <v>1.778353757823628e-08</v>
+        <v>1.778353752398728e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.72207106845154</v>
+        <v>67.72207113110102</v>
       </c>
       <c r="C6" t="n">
-        <v>1.645397400283787e-05</v>
+        <v>1.645397369951135e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.879484198648786</v>
+        <v>8.879484203438382</v>
       </c>
       <c r="C7" t="n">
-        <v>3.979922704420244e-39</v>
+        <v>3.979922341288682e-39</v>
       </c>
     </row>
     <row r="8">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03440908336951214</v>
+        <v>-3.440908331743619</v>
       </c>
       <c r="C8" t="n">
-        <v>1.787771682057416e-07</v>
+        <v>1.78777175446747e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.559742547117686e-06</v>
+        <v>-3.559742462792256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2686072768517865</v>
+        <v>0.2686072882843877</v>
       </c>
     </row>
     <row r="10">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.05857390474407</v>
+        <v>-17.05857390474298</v>
       </c>
       <c r="C10" t="n">
-        <v>6.07943745529268e-12</v>
+        <v>6.07943745531053e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.489225316478834</v>
+        <v>1.489225316479608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4817760533302173</v>
+        <v>0.4817760533299889</v>
       </c>
     </row>
     <row r="12">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2047.182899823802</v>
+        <v>-20.4718289982382</v>
       </c>
       <c r="C12" t="n">
-        <v>5.898991916427832e-10</v>
+        <v>5.89899191642549e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-564.631124921645</v>
+        <v>-5.64631124921628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01551909448739479</v>
+        <v>0.01551909448739792</v>
       </c>
     </row>
     <row r="14">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6970.9667256546</v>
+        <v>69.70966725654623</v>
       </c>
       <c r="C14" t="n">
-        <v>4.306878252502465e-33</v>
+        <v>4.30687825250111e-33</v>
       </c>
     </row>
     <row r="15">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.23715576226927</v>
+        <v>21.23715576226973</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003541138693202888</v>
+        <v>0.0003541138693201887</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4701.217008393725</v>
+        <v>4701.21700551767</v>
       </c>
       <c r="C2" t="n">
-        <v>1.298475022075238e-18</v>
+        <v>1.2984750361613e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1588.07246536193</v>
+        <v>-1588.072463294615</v>
       </c>
       <c r="C3" t="n">
-        <v>5.36855509992258e-11</v>
+        <v>5.368555099869837e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2100.027009476565</v>
+        <v>-2100.027008349269</v>
       </c>
       <c r="C4" t="n">
-        <v>1.635356079911879e-16</v>
+        <v>1.635356072529212e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1383.179897737864</v>
+        <v>-1383.17989750493</v>
       </c>
       <c r="C5" t="n">
-        <v>6.310069364314409e-08</v>
+        <v>6.310069373764481e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.81622700119865</v>
+        <v>73.81622708903842</v>
       </c>
       <c r="C6" t="n">
-        <v>7.521685022800016e-06</v>
+        <v>7.521684830366921e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.147247552024723</v>
+        <v>9.147247556721233</v>
       </c>
       <c r="C7" t="n">
-        <v>1.607348253194504e-38</v>
+        <v>1.6073481161623e-38</v>
       </c>
     </row>
     <row r="8">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03492531663946685</v>
+        <v>-3.492531664706221</v>
       </c>
       <c r="C8" t="n">
-        <v>1.790529986687004e-07</v>
+        <v>1.79052997642742e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.109762749102106e-06</v>
+        <v>-2.109763051343822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5229310919105145</v>
+        <v>0.5229310323697568</v>
       </c>
     </row>
     <row r="10">
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.16020927419093</v>
+        <v>-18.1602092741906</v>
       </c>
       <c r="C10" t="n">
-        <v>3.924343836046092e-13</v>
+        <v>3.924343836049187e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.922144852161651</v>
+        <v>2.922144852162704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1682844158830897</v>
+        <v>0.168284415882929</v>
       </c>
     </row>
     <row r="12">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1646.838247446483</v>
+        <v>-16.46838247446485</v>
       </c>
       <c r="C12" t="n">
-        <v>1.56918590838023e-06</v>
+        <v>1.569185908380201e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-301.1493899365064</v>
+        <v>-3.011493899364504</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2033832259871895</v>
+        <v>0.2033832259872735</v>
       </c>
     </row>
     <row r="14">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7738.206152484345</v>
+        <v>77.38206152484398</v>
       </c>
       <c r="C14" t="n">
-        <v>9.877341527267673e-38</v>
+        <v>9.877341527258634e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.69060706922801</v>
+        <v>20.69060706922799</v>
       </c>
       <c r="C15" t="n">
         <v>0.0004591787755406674</v>
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5246.379534128056</v>
+        <v>5246.379535179324</v>
       </c>
       <c r="C2" t="n">
-        <v>1.551300973268663e-23</v>
+        <v>1.551300966224471e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1743.198606571443</v>
+        <v>-1743.198609197697</v>
       </c>
       <c r="C3" t="n">
-        <v>7.585834914552129e-14</v>
+        <v>7.585834914859085e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2164.463193857557</v>
+        <v>-2164.463195055211</v>
       </c>
       <c r="C4" t="n">
-        <v>7.896448753806929e-19</v>
+        <v>7.896448773724711e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1374.712765151464</v>
+        <v>-1374.712764364329</v>
       </c>
       <c r="C5" t="n">
-        <v>2.232030536012498e-08</v>
+        <v>2.232030551081976e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.35944782683409</v>
+        <v>55.35944812567939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004330096401282804</v>
+        <v>0.0004330096084486069</v>
       </c>
     </row>
     <row r="7">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.947019664215032</v>
+        <v>8.947019662663223</v>
       </c>
       <c r="C7" t="n">
-        <v>3.889807625930225e-40</v>
+        <v>3.889807742889612e-40</v>
       </c>
     </row>
     <row r="8">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03919975334668022</v>
+        <v>-3.919975334189528</v>
       </c>
       <c r="C8" t="n">
-        <v>4.165694495864885e-09</v>
+        <v>4.165694512853836e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.676372263619585e-06</v>
+        <v>-3.676371399519572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2416325821728208</v>
+        <v>0.241632692571645</v>
       </c>
     </row>
     <row r="10">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.90689522142361</v>
+        <v>-15.90689522142364</v>
       </c>
       <c r="C10" t="n">
-        <v>7.761442974560097e-11</v>
+        <v>7.76144297455905e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.476596643851008</v>
+        <v>1.476596643851192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4776983546257599</v>
+        <v>0.4776983546257042</v>
       </c>
     </row>
     <row r="12">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1988.9434713793</v>
+        <v>-19.88943471379268</v>
       </c>
       <c r="C12" t="n">
-        <v>1.343392436814198e-09</v>
+        <v>1.343392436815031e-09</v>
       </c>
     </row>
     <row r="13">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-561.524772554247</v>
+        <v>-5.615247725542523</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01570174414194949</v>
+        <v>0.01570174414194872</v>
       </c>
     </row>
     <row r="14">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6738.998497113833</v>
+        <v>67.38998497113889</v>
       </c>
       <c r="C14" t="n">
-        <v>9.14735633772046e-31</v>
+        <v>9.147356337711425e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.11254056641151</v>
+        <v>21.11254056641162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002611108473874131</v>
+        <v>0.0002611108473874023</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4774.647646270226</v>
+        <v>4774.647651264883</v>
       </c>
       <c r="C2" t="n">
-        <v>1.68246593560781e-18</v>
+        <v>1.682465912907466e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1451.633171870446</v>
+        <v>-1451.633173518005</v>
       </c>
       <c r="C3" t="n">
-        <v>7.049369868669809e-10</v>
+        <v>7.049369868652917e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1946.276359299951</v>
+        <v>-1946.276360508319</v>
       </c>
       <c r="C4" t="n">
-        <v>2.655891327210585e-15</v>
+        <v>2.655891342314879e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1184.0723475672</v>
+        <v>-1184.072347597861</v>
       </c>
       <c r="C5" t="n">
-        <v>1.757303057315042e-06</v>
+        <v>1.757303056930521e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.75248614316166</v>
+        <v>70.75248588608174</v>
       </c>
       <c r="C6" t="n">
-        <v>1.991913295341891e-05</v>
+        <v>1.991913436429199e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.028170693169157</v>
+        <v>9.028170695033747</v>
       </c>
       <c r="C7" t="n">
-        <v>1.093834158119997e-39</v>
+        <v>1.093834118855066e-39</v>
       </c>
     </row>
     <row r="8">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03321891552282211</v>
+        <v>-3.321891556371768</v>
       </c>
       <c r="C8" t="n">
-        <v>6.040340537402383e-07</v>
+        <v>6.040340355217738e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.117158110413885e-06</v>
+        <v>-2.11715828928005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5221298638140222</v>
+        <v>0.5221298285003639</v>
       </c>
     </row>
     <row r="10">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.53783083692668</v>
+        <v>-17.53783083692688</v>
       </c>
       <c r="C10" t="n">
-        <v>1.281607695295298e-12</v>
+        <v>1.281607695294597e-12</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.467084432252032</v>
+        <v>3.467084432251326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1061617400268492</v>
+        <v>0.106161740026926</v>
       </c>
     </row>
     <row r="12">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1791.251952230749</v>
+        <v>-17.91251952230839</v>
       </c>
       <c r="C12" t="n">
-        <v>1.463777435237389e-07</v>
+        <v>1.463777435235346e-07</v>
       </c>
     </row>
     <row r="13">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-444.5605558370545</v>
+        <v>-4.44560555837161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05884444124953938</v>
+        <v>0.05884444124947893</v>
       </c>
     </row>
     <row r="14">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7207.596530270759</v>
+        <v>72.07596530270759</v>
       </c>
       <c r="C14" t="n">
-        <v>4.705877558589878e-34</v>
+        <v>4.705877558589474e-34</v>
       </c>
     </row>
     <row r="15">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.47036385493394</v>
+        <v>17.47036385493328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002996211821790188</v>
+        <v>0.00299621182179126</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5021.445158466022</v>
+        <v>5021.44515575083</v>
       </c>
       <c r="C2" t="n">
-        <v>7.804066272672258e-21</v>
+        <v>7.804066348576994e-21</v>
       </c>
     </row>
     <row r="3">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1668.248724132466</v>
+        <v>-1668.248724610373</v>
       </c>
       <c r="C3" t="n">
-        <v>6.536278703105764e-12</v>
+        <v>6.536278703167892e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2145.875160028768</v>
+        <v>-2145.875160242278</v>
       </c>
       <c r="C4" t="n">
-        <v>2.761109386380319e-17</v>
+        <v>2.761109388540189e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1469.810178680935</v>
+        <v>-1469.810177700243</v>
       </c>
       <c r="C5" t="n">
-        <v>1.020526832532791e-08</v>
+        <v>1.020526839123628e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.96264372554945</v>
+        <v>52.96264428059057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000970856622368074</v>
+        <v>0.0009708565012774851</v>
       </c>
     </row>
     <row r="7">
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.037755468705011</v>
+        <v>9.03775546368024</v>
       </c>
       <c r="C7" t="n">
-        <v>1.337159907285701e-40</v>
+        <v>1.337160039842661e-40</v>
       </c>
     </row>
     <row r="8">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03456880708607376</v>
+        <v>-3.456880697830499</v>
       </c>
       <c r="C8" t="n">
-        <v>2.232728237405916e-07</v>
+        <v>2.232728420746738e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.700255023070668e-06</v>
+        <v>-2.700255456730929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4125845242950696</v>
+        <v>0.4125844496968359</v>
       </c>
     </row>
     <row r="10">
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.53261348550786</v>
+        <v>-17.53261348550705</v>
       </c>
       <c r="C10" t="n">
-        <v>5.271722938499684e-13</v>
+        <v>5.271722938511473e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.409542279300774</v>
+        <v>2.409542279302162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2548569109697502</v>
+        <v>0.2548569109694763</v>
       </c>
     </row>
     <row r="12">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1812.898626633125</v>
+        <v>-18.12898626633095</v>
       </c>
       <c r="C12" t="n">
-        <v>2.832470115275412e-08</v>
+        <v>2.832470115276878e-08</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-602.9156902681884</v>
+        <v>-6.029156902681296</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008749721402704084</v>
+        <v>0.008749721402710766</v>
       </c>
     </row>
     <row r="14">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7679.034228098397</v>
+        <v>76.79034228098455</v>
       </c>
       <c r="C14" t="n">
-        <v>2.196331099165119e-39</v>
+        <v>2.196331099162577e-39</v>
       </c>
     </row>
     <row r="15">
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.78210832518982</v>
+        <v>20.78210832519073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003247952071437695</v>
+        <v>0.0003247952071435657</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5476.6194357157</v>
+        <v>5476.619430153045</v>
       </c>
       <c r="C2" t="n">
-        <v>6.155379821419438e-24</v>
+        <v>6.155379959256389e-24</v>
       </c>
     </row>
     <row r="3">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1870.066883178314</v>
+        <v>-1870.066883102054</v>
       </c>
       <c r="C3" t="n">
-        <v>7.281280152786549e-14</v>
+        <v>7.281280152944651e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2290.341278028372</v>
+        <v>-2290.341276990151</v>
       </c>
       <c r="C4" t="n">
-        <v>1.290281527491868e-18</v>
+        <v>1.290281524532588e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1707.614640370359</v>
+        <v>-1707.614639665545</v>
       </c>
       <c r="C5" t="n">
-        <v>8.109476625577621e-11</v>
+        <v>8.109476661860743e-11</v>
       </c>
     </row>
     <row r="6">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.56938175127065</v>
+        <v>66.56938174020793</v>
       </c>
       <c r="C6" t="n">
-        <v>4.266807353450695e-05</v>
+        <v>4.26680736615896e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2752,10 +2752,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.206876576029842</v>
+        <v>9.206876587430159</v>
       </c>
       <c r="C7" t="n">
-        <v>7.654485533381606e-41</v>
+        <v>7.654483923292424e-41</v>
       </c>
     </row>
     <row r="8">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03072173848633831</v>
+        <v>-3.072173861949784</v>
       </c>
       <c r="C8" t="n">
-        <v>3.642078343077772e-06</v>
+        <v>3.642078002482365e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.774519845617643e-06</v>
+        <v>-7.774519795278431</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08196858574159545</v>
+        <v>0.08196858758825165</v>
       </c>
     </row>
     <row r="10">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.44152607774981</v>
+        <v>-20.44152607774978</v>
       </c>
       <c r="C10" t="n">
-        <v>2.543520228732534e-16</v>
+        <v>2.543520228732589e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6047699254406682</v>
+        <v>-0.6047699254404328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.77569152932589</v>
+        <v>0.7756915293259768</v>
       </c>
     </row>
     <row r="12">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1997.67126310277</v>
+        <v>-19.97671263102752</v>
       </c>
       <c r="C12" t="n">
-        <v>9.220866472649661e-10</v>
+        <v>9.220866472653727e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-335.0775930541345</v>
+        <v>-3.350775930540989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1491171554623684</v>
+        <v>0.1491171554624129</v>
       </c>
     </row>
     <row r="14">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8043.926477684789</v>
+        <v>80.43926477684748</v>
       </c>
       <c r="C14" t="n">
-        <v>8.739594896432177e-41</v>
+        <v>8.739594896443414e-41</v>
       </c>
     </row>
     <row r="15">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.88497243409726</v>
+        <v>19.88497243409756</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007975634499462419</v>
+        <v>0.0007975634499460665</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4624.456548502646</v>
+        <v>4624.456549183287</v>
       </c>
       <c r="C2" t="n">
-        <v>1.426089645262808e-18</v>
+        <v>1.426089640589398e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1649.997675723552</v>
+        <v>-1649.997674945811</v>
       </c>
       <c r="C3" t="n">
-        <v>1.088982158331977e-12</v>
+        <v>1.08898215838179e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2931,10 +2931,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2136.914807862325</v>
+        <v>-2136.914806431339</v>
       </c>
       <c r="C4" t="n">
-        <v>1.724981177362191e-18</v>
+        <v>1.724981168560154e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1540.616545027543</v>
+        <v>-1540.616545533517</v>
       </c>
       <c r="C5" t="n">
-        <v>2.886803633449664e-10</v>
+        <v>2.886803623836689e-10</v>
       </c>
     </row>
     <row r="6">
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.16598318741449</v>
+        <v>52.16598354404968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001369220026391418</v>
+        <v>0.001369219920643938</v>
       </c>
     </row>
     <row r="7">
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.451208738632628</v>
+        <v>9.45120873366659</v>
       </c>
       <c r="C7" t="n">
-        <v>2.786119001928518e-44</v>
+        <v>2.786119283365458e-44</v>
       </c>
     </row>
     <row r="8">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03226052916832817</v>
+        <v>-3.226052902971444</v>
       </c>
       <c r="C8" t="n">
-        <v>9.667681902104282e-07</v>
+        <v>9.667682887848819e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.467427400029763e-06</v>
+        <v>-3.467427648783341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2658178384149349</v>
+        <v>0.2658178041015499</v>
       </c>
     </row>
     <row r="10">
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.90957588926009</v>
+        <v>-16.90957588925962</v>
       </c>
       <c r="C10" t="n">
-        <v>3.433605564373293e-12</v>
+        <v>3.433605564377946e-12</v>
       </c>
     </row>
     <row r="11">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.750450579791728</v>
+        <v>1.750450579792299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3872826869364835</v>
+        <v>0.3872826869363266</v>
       </c>
     </row>
     <row r="12">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1765.207940801895</v>
+        <v>-17.65207940801844</v>
       </c>
       <c r="C12" t="n">
-        <v>1.081294684963396e-07</v>
+        <v>1.081294684964287e-07</v>
       </c>
     </row>
     <row r="13">
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-512.454914794587</v>
+        <v>-5.124549147945277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02662648640307992</v>
+        <v>0.02662648640309772</v>
       </c>
     </row>
     <row r="14">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7783.335512893613</v>
+        <v>77.83335512893734</v>
       </c>
       <c r="C14" t="n">
-        <v>1.959933773684411e-38</v>
+        <v>1.959933773680376e-38</v>
       </c>
     </row>
     <row r="15">
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.30506892378832</v>
+        <v>27.30506892378938</v>
       </c>
       <c r="C15" t="n">
-        <v>3.226080631047779e-06</v>
+        <v>3.226080631044798e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4805.941261783155</v>
+        <v>4805.94126163054</v>
       </c>
       <c r="C2" t="n">
-        <v>3.934930745355949e-19</v>
+        <v>3.934930745599111e-19</v>
       </c>
     </row>
     <row r="3">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1358.718710706161</v>
+        <v>-1358.718710908845</v>
       </c>
       <c r="C3" t="n">
-        <v>4.438395469929416e-08</v>
+        <v>4.438395469995549e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1942.565513419016</v>
+        <v>-1942.565512885791</v>
       </c>
       <c r="C4" t="n">
-        <v>1.276173629084451e-13</v>
+        <v>1.276173624820366e-13</v>
       </c>
     </row>
     <row r="5">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1117.012417428846</v>
+        <v>-1117.012417130718</v>
       </c>
       <c r="C5" t="n">
-        <v>1.955421843108499e-05</v>
+        <v>1.955421846433333e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.06744410066536</v>
+        <v>60.06744437480631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001564761853963492</v>
+        <v>0.0001564761742079371</v>
       </c>
     </row>
     <row r="7">
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.973436076849881</v>
+        <v>8.973436076439903</v>
       </c>
       <c r="C7" t="n">
-        <v>1.579286085010228e-38</v>
+        <v>1.579286097687599e-38</v>
       </c>
     </row>
     <row r="8">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03620136626482749</v>
+        <v>-3.620136623550797</v>
       </c>
       <c r="C8" t="n">
-        <v>2.567503834851767e-07</v>
+        <v>2.567503888087607e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.892486757340119e-06</v>
+        <v>-1.892486683131816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5807436267555254</v>
+        <v>0.5807436414400716</v>
       </c>
     </row>
     <row r="10">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.45465319153379</v>
+        <v>-18.4546531915334</v>
       </c>
       <c r="C10" t="n">
-        <v>2.750266303744608e-13</v>
+        <v>2.750266303747125e-13</v>
       </c>
     </row>
     <row r="11">
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.337604230564992</v>
+        <v>2.337604230565371</v>
       </c>
       <c r="C11" t="n">
-        <v>0.273176985626827</v>
+        <v>0.2731769856267535</v>
       </c>
     </row>
     <row r="12">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1746.592456224457</v>
+        <v>-17.46592456224431</v>
       </c>
       <c r="C12" t="n">
-        <v>2.518060458246835e-07</v>
+        <v>2.518060458247624e-07</v>
       </c>
     </row>
     <row r="13">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-451.9078851577456</v>
+        <v>-4.51907885157712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05620033301770845</v>
+        <v>0.05620033301772726</v>
       </c>
     </row>
     <row r="14">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7393.088310052006</v>
+        <v>73.93088310052018</v>
       </c>
       <c r="C14" t="n">
-        <v>5.646429541707374e-36</v>
+        <v>5.646429541706647e-36</v>
       </c>
     </row>
     <row r="15">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.51167473802561</v>
+        <v>19.51167473802593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001152420436361891</v>
+        <v>0.001152420436361647</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5110.071421923107</v>
+        <v>5110.071424757882</v>
       </c>
       <c r="C2" t="n">
-        <v>1.284759170738319e-21</v>
+        <v>1.284759165909081e-21</v>
       </c>
     </row>
     <row r="3">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1476.163655320166</v>
+        <v>-1476.163657116645</v>
       </c>
       <c r="C3" t="n">
-        <v>9.232345886855935e-10</v>
+        <v>9.23234588711125e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1920.597396090404</v>
+        <v>-1920.597396325919</v>
       </c>
       <c r="C4" t="n">
-        <v>1.738315251160604e-14</v>
+        <v>1.738315252776662e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1210.440905487721</v>
+        <v>-1210.440905108122</v>
       </c>
       <c r="C5" t="n">
-        <v>1.814369906704555e-06</v>
+        <v>1.81436991116325e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.31173336581264</v>
+        <v>58.31173327976742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002200427042512651</v>
+        <v>0.0002200427090399265</v>
       </c>
     </row>
     <row r="7">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.264281586335441</v>
+        <v>9.264281580864974</v>
       </c>
       <c r="C7" t="n">
-        <v>6.376630706459302e-42</v>
+        <v>6.376631401471316e-42</v>
       </c>
     </row>
     <row r="8">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03498071533944722</v>
+        <v>-3.498071529530768</v>
       </c>
       <c r="C8" t="n">
-        <v>1.762310312875507e-07</v>
+        <v>1.762310371905022e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.098004909322119e-06</v>
+        <v>-2.098004489416629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5016796422808749</v>
+        <v>0.5016797279420044</v>
       </c>
     </row>
     <row r="10">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.59280164621406</v>
+        <v>-18.59280164621441</v>
       </c>
       <c r="C10" t="n">
-        <v>2.628584493782071e-14</v>
+        <v>2.628584493780333e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05162432003824113</v>
+        <v>-0.05162432003762829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9809829183948662</v>
+        <v>0.9809829183950918</v>
       </c>
     </row>
     <row r="12">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1475.284735372754</v>
+        <v>-14.75284735372773</v>
       </c>
       <c r="C12" t="n">
-        <v>6.243542376259898e-06</v>
+        <v>6.243542376258021e-06</v>
       </c>
     </row>
     <row r="13">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-505.2172090637361</v>
+        <v>-5.05217209063755</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02758596075129843</v>
+        <v>0.02758596075129232</v>
       </c>
     </row>
     <row r="14">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7348.868431021107</v>
+        <v>73.48868431021097</v>
       </c>
       <c r="C14" t="n">
-        <v>1.827988889598876e-37</v>
+        <v>1.827988889599765e-37</v>
       </c>
     </row>
     <row r="15">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.35802076106444</v>
+        <v>19.35802076106414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008225659971858695</v>
+        <v>0.0008225659971860432</v>
       </c>
     </row>
   </sheetData>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5198.21363204961</v>
+        <v>5198.21363313746</v>
       </c>
       <c r="C2" t="n">
-        <v>1.507147159316386e-22</v>
+        <v>1.507147158646554e-22</v>
       </c>
     </row>
     <row r="3">
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1535.727908759974</v>
+        <v>-1535.727910383302</v>
       </c>
       <c r="C3" t="n">
-        <v>1.785300018367195e-09</v>
+        <v>1.785300018341861e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1913.209004414611</v>
+        <v>-1913.209004949706</v>
       </c>
       <c r="C4" t="n">
-        <v>6.252772674895019e-13</v>
+        <v>6.252772683424265e-13</v>
       </c>
     </row>
     <row r="5">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1225.818729641995</v>
+        <v>-1225.818729949086</v>
       </c>
       <c r="C5" t="n">
-        <v>4.053124679663733e-06</v>
+        <v>4.053124672141132e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.16812174411321</v>
+        <v>62.16812173010344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001221420257830316</v>
+        <v>0.0001221420262339239</v>
       </c>
     </row>
     <row r="7">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.947671019041646</v>
+        <v>8.947671022449216</v>
       </c>
       <c r="C7" t="n">
-        <v>1.449172166777849e-41</v>
+        <v>1.449172069827647e-41</v>
       </c>
     </row>
     <row r="8">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04030911458167664</v>
+        <v>-4.030911453507635</v>
       </c>
       <c r="C8" t="n">
-        <v>1.024647851922465e-09</v>
+        <v>1.024647893593272e-09</v>
       </c>
     </row>
     <row r="9">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.521443816868632e-06</v>
+        <v>-1.521444106654199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6334987549975968</v>
+        <v>0.6334986902152824</v>
       </c>
     </row>
     <row r="10">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.3181884841213</v>
+        <v>-16.31818848412138</v>
       </c>
       <c r="C10" t="n">
-        <v>1.303432007877869e-11</v>
+        <v>1.303432007877439e-11</v>
       </c>
     </row>
     <row r="11">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.508716132797782</v>
+        <v>2.508716132796834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2129597588566769</v>
+        <v>0.2129597588568547</v>
       </c>
     </row>
     <row r="12">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1933.5124083059</v>
+        <v>-19.3351240830595</v>
       </c>
       <c r="C12" t="n">
-        <v>4.103686081079951e-09</v>
+        <v>4.103686081076056e-09</v>
       </c>
     </row>
     <row r="13">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-367.5791906952818</v>
+        <v>-3.675791906953278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1098701515657447</v>
+        <v>0.1098701515657</v>
       </c>
     </row>
     <row r="14">
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7381.587642309035</v>
+        <v>73.81587642309016</v>
       </c>
       <c r="C14" t="n">
-        <v>3.184043419392941e-34</v>
+        <v>3.184043419393169e-34</v>
       </c>
     </row>
     <row r="15">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.13252228460026</v>
+        <v>10.13252228459978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07659202939821248</v>
+        <v>0.07659202939822629</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5109.814937772831</v>
+        <v>5109.814936684799</v>
       </c>
       <c r="C2" t="n">
-        <v>3.049148731626449e-21</v>
+        <v>3.049148744013367e-21</v>
       </c>
     </row>
     <row r="3">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1708.613749324021</v>
+        <v>-1708.613749919863</v>
       </c>
       <c r="C3" t="n">
-        <v>1.420343627893494e-12</v>
+        <v>1.420343627823955e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2235.753275298146</v>
+        <v>-2235.753275615905</v>
       </c>
       <c r="C4" t="n">
-        <v>1.316691120220677e-18</v>
+        <v>1.316691121896653e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1374.806078205447</v>
+        <v>-1374.806077958336</v>
       </c>
       <c r="C5" t="n">
-        <v>6.590792154440387e-08</v>
+        <v>6.590792167022616e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.64826540858837</v>
+        <v>53.64826544201949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008160143343121252</v>
+        <v>0.0008160143280806562</v>
       </c>
     </row>
     <row r="7">
@@ -3842,10 +3842,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.715850760283582</v>
+        <v>8.715850756588278</v>
       </c>
       <c r="C7" t="n">
-        <v>6.158008351326496e-37</v>
+        <v>6.158008790482448e-37</v>
       </c>
     </row>
     <row r="8">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03217913365394452</v>
+        <v>-3.217913371421633</v>
       </c>
       <c r="C8" t="n">
-        <v>2.319469796978709e-06</v>
+        <v>2.319469699040486e-06</v>
       </c>
     </row>
     <row r="9">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.057970243236444e-06</v>
+        <v>-8.057970495929959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08677086059263413</v>
+        <v>0.08677085064711262</v>
       </c>
     </row>
     <row r="10">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.66422127688247</v>
+        <v>-18.6642212768824</v>
       </c>
       <c r="C10" t="n">
-        <v>5.86889983816808e-14</v>
+        <v>5.868899838169054e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.792990763052142</v>
+        <v>2.792990763052453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.183884674580106</v>
+        <v>0.1838846745800527</v>
       </c>
     </row>
     <row r="12">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2061.61127999339</v>
+        <v>-20.61611279993378</v>
       </c>
       <c r="C12" t="n">
-        <v>2.032205628921272e-09</v>
+        <v>2.032205628921731e-09</v>
       </c>
     </row>
     <row r="13">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-463.9630744929401</v>
+        <v>-4.639630744929333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04761071356218789</v>
+        <v>0.04761071356219122</v>
       </c>
     </row>
     <row r="14">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7089.108362560743</v>
+        <v>70.89108362560729</v>
       </c>
       <c r="C14" t="n">
-        <v>6.363546211934629e-34</v>
+        <v>6.363546211936176e-34</v>
       </c>
     </row>
     <row r="15">
@@ -3946,10 +3946,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.32391200702169</v>
+        <v>22.32391200702191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000200942105576502</v>
+        <v>0.000200942105576468</v>
       </c>
     </row>
   </sheetData>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5193.575730372702</v>
+        <v>5193.575733330899</v>
       </c>
       <c r="C2" t="n">
-        <v>1.660064180201558e-21</v>
+        <v>1.660064162888954e-21</v>
       </c>
     </row>
     <row r="3">
@@ -4008,10 +4008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1596.137388197339</v>
+        <v>-1596.137391089297</v>
       </c>
       <c r="C3" t="n">
-        <v>1.221631361030405e-11</v>
+        <v>1.221631361049453e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2168.394685745416</v>
+        <v>-2168.394687514316</v>
       </c>
       <c r="C4" t="n">
-        <v>2.606602800023607e-18</v>
+        <v>2.606602823262978e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1446.73491270733</v>
+        <v>-1446.734912347546</v>
       </c>
       <c r="C5" t="n">
-        <v>8.360804889767232e-09</v>
+        <v>8.360804910159361e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4047,10 +4047,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.31664125451046</v>
+        <v>57.31664168613021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004798135640925813</v>
+        <v>0.0004798135157984265</v>
       </c>
     </row>
     <row r="7">
@@ -4060,10 +4060,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.627449182080131</v>
+        <v>8.627449166925047</v>
       </c>
       <c r="C7" t="n">
-        <v>2.194521011717851e-34</v>
+        <v>2.194521586019328e-34</v>
       </c>
     </row>
     <row r="8">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03522081903987404</v>
+        <v>-3.522081906100021</v>
       </c>
       <c r="C8" t="n">
-        <v>4.130348589564763e-07</v>
+        <v>4.130348527107529e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.854279249186113e-06</v>
+        <v>-2.854279506600116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3773739249354409</v>
+        <v>0.3773738822777636</v>
       </c>
     </row>
     <row r="10">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.33514409800761</v>
+        <v>-19.33514409800726</v>
       </c>
       <c r="C10" t="n">
-        <v>2.173804285833165e-14</v>
+        <v>2.173804285835245e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.467227711333294</v>
+        <v>1.467227711333484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5076553104144219</v>
+        <v>0.5076553104143662</v>
       </c>
     </row>
     <row r="12">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1985.259905934021</v>
+        <v>-19.85259905934068</v>
       </c>
       <c r="C12" t="n">
-        <v>2.889329885440791e-09</v>
+        <v>2.889329885438197e-09</v>
       </c>
     </row>
     <row r="13">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-439.627074411919</v>
+        <v>-4.396270744119681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06372251634247514</v>
+        <v>0.06372251634244491</v>
       </c>
     </row>
     <row r="14">
@@ -4151,10 +4151,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7643.507339210003</v>
+        <v>76.43507339210016</v>
       </c>
       <c r="C14" t="n">
-        <v>3.483776653763262e-37</v>
+        <v>3.483776653762465e-37</v>
       </c>
     </row>
     <row r="15">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.35386288398265</v>
+        <v>20.35386288398252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006381960154591213</v>
+        <v>0.0006381960154591758</v>
       </c>
     </row>
   </sheetData>
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4693.081868124767</v>
+        <v>4693.081868299839</v>
       </c>
       <c r="C2" t="n">
-        <v>1.846219117924888e-18</v>
+        <v>1.846219116189382e-18</v>
       </c>
     </row>
     <row r="3">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1737.366106326051</v>
+        <v>-1737.366108020481</v>
       </c>
       <c r="C3" t="n">
-        <v>2.830783129432017e-13</v>
+        <v>2.83078312944627e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2231.513478613915</v>
+        <v>-2231.513478142489</v>
       </c>
       <c r="C4" t="n">
-        <v>3.465031581867086e-19</v>
+        <v>3.465031576247773e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1559.399122781109</v>
+        <v>-1559.399122756568</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7979886573114e-10</v>
+        <v>4.797988658096755e-10</v>
       </c>
     </row>
     <row r="6">
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.38376740435785</v>
+        <v>74.38376743175773</v>
       </c>
       <c r="C6" t="n">
-        <v>3.606556843658329e-06</v>
+        <v>3.606556813780881e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4278,10 +4278,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.542418503582569</v>
+        <v>9.542418510197429</v>
       </c>
       <c r="C7" t="n">
-        <v>6.474634833364995e-45</v>
+        <v>6.474633986293681e-45</v>
       </c>
     </row>
     <row r="8">
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03075406534348644</v>
+        <v>-3.07540653619167</v>
       </c>
       <c r="C8" t="n">
-        <v>2.936452514548978e-06</v>
+        <v>2.936452476307371e-06</v>
       </c>
     </row>
     <row r="9">
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.205652241215344e-06</v>
+        <v>-4.205652167409614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2361274069350851</v>
+        <v>0.2361274154179904</v>
       </c>
     </row>
     <row r="10">
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.02353990208226</v>
+        <v>-17.0235399020824</v>
       </c>
       <c r="C10" t="n">
-        <v>8.73954345427912e-12</v>
+        <v>8.739543454276902e-12</v>
       </c>
     </row>
     <row r="11">
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.266337082488253</v>
+        <v>2.266337082488144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2811758006882522</v>
+        <v>0.2811758006882752</v>
       </c>
     </row>
     <row r="12">
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1872.189268556395</v>
+        <v>-18.72189268556344</v>
       </c>
       <c r="C12" t="n">
-        <v>1.091878391394873e-08</v>
+        <v>1.091878391395735e-08</v>
       </c>
     </row>
     <row r="13">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-616.5762137827923</v>
+        <v>-6.165762137827502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008969582193663129</v>
+        <v>0.008969582193667789</v>
       </c>
     </row>
     <row r="14">
@@ -4369,10 +4369,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7594.727836634685</v>
+        <v>75.94727836634664</v>
       </c>
       <c r="C14" t="n">
-        <v>5.923619294712211e-38</v>
+        <v>5.923619294715852e-38</v>
       </c>
     </row>
     <row r="15">
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.77826767465634</v>
+        <v>26.77826767465645</v>
       </c>
       <c r="C15" t="n">
-        <v>5.626978680023493e-06</v>
+        <v>5.626978680022774e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4437.795475497417</v>
+        <v>4437.795476867761</v>
       </c>
       <c r="C2" t="n">
-        <v>1.390716762387063e-16</v>
+        <v>1.390716757404671e-16</v>
       </c>
     </row>
     <row r="3">
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1436.952008289329</v>
+        <v>-1436.952011076875</v>
       </c>
       <c r="C3" t="n">
-        <v>3.577193890898298e-09</v>
+        <v>3.577193890903154e-09</v>
       </c>
     </row>
     <row r="4">
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2018.001356309501</v>
+        <v>-2018.001357627843</v>
       </c>
       <c r="C4" t="n">
-        <v>1.653554533414889e-15</v>
+        <v>1.653554548590252e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1040.759321920659</v>
+        <v>-1040.759321063868</v>
       </c>
       <c r="C5" t="n">
-        <v>4.202104580666693e-05</v>
+        <v>4.202104605259913e-05</v>
       </c>
     </row>
     <row r="6">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.20605704366785</v>
+        <v>39.20605728617805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01015820035854643</v>
+        <v>0.01015819988781051</v>
       </c>
     </row>
     <row r="7">
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.179636388753421</v>
+        <v>9.179636384854199</v>
       </c>
       <c r="C7" t="n">
-        <v>2.17470994572299e-43</v>
+        <v>2.174710123255293e-43</v>
       </c>
     </row>
     <row r="8">
@@ -4509,10 +4509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03799606660919234</v>
+        <v>-3.799606666872568</v>
       </c>
       <c r="C8" t="n">
-        <v>6.553672478728272e-09</v>
+        <v>6.553672136488561e-09</v>
       </c>
     </row>
     <row r="9">
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.738078766726368e-06</v>
+        <v>-6.738079426627239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1581549359264434</v>
+        <v>0.1581548954038898</v>
       </c>
     </row>
     <row r="10">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.11983352422403</v>
+        <v>-16.11983352422437</v>
       </c>
       <c r="C10" t="n">
-        <v>1.703678874244591e-11</v>
+        <v>1.703678874243355e-11</v>
       </c>
     </row>
     <row r="11">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.697380739049299</v>
+        <v>6.697380739048967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002575483089010063</v>
+        <v>0.00257548308901147</v>
       </c>
     </row>
     <row r="12">
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1950.990448522479</v>
+        <v>-19.50990448522489</v>
       </c>
       <c r="C12" t="n">
-        <v>6.774127723978029e-10</v>
+        <v>6.774127723976722e-10</v>
       </c>
     </row>
     <row r="13">
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-456.5120257196898</v>
+        <v>-4.565120257197165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04422317900369271</v>
+        <v>0.04422317900368016</v>
       </c>
     </row>
     <row r="14">
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6425.124444278567</v>
+        <v>64.25124444278524</v>
       </c>
       <c r="C14" t="n">
-        <v>1.734855918844244e-28</v>
+        <v>1.734855918845573e-28</v>
       </c>
     </row>
     <row r="15">
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.85883636704867</v>
+        <v>22.85883636704786</v>
       </c>
       <c r="C15" t="n">
-        <v>6.468680960684998e-05</v>
+        <v>6.468680960688682e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5266.132336181608</v>
+        <v>5266.132334193363</v>
       </c>
       <c r="C2" t="n">
-        <v>4.346231848117533e-24</v>
+        <v>4.346231880985804e-24</v>
       </c>
     </row>
     <row r="3">
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1639.19496452393</v>
+        <v>-1639.194965855816</v>
       </c>
       <c r="C3" t="n">
-        <v>1.167692259931709e-12</v>
+        <v>1.167692259890257e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2141.753593882344</v>
+        <v>-2141.753591496304</v>
       </c>
       <c r="C4" t="n">
-        <v>1.296136130518474e-18</v>
+        <v>1.296136118909003e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4688,10 +4688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1383.180690188419</v>
+        <v>-1383.180690139056</v>
       </c>
       <c r="C5" t="n">
-        <v>1.652127455502344e-08</v>
+        <v>1.652127456114138e-08</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.28872849003929</v>
+        <v>71.28872890109653</v>
       </c>
       <c r="C6" t="n">
-        <v>2.397653446689468e-05</v>
+        <v>2.397653180605932e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.551066734797619</v>
+        <v>8.551066736353079</v>
       </c>
       <c r="C7" t="n">
-        <v>8.604598601522826e-37</v>
+        <v>8.604598355051578e-37</v>
       </c>
     </row>
     <row r="8">
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03305680048353992</v>
+        <v>-3.305680039175788</v>
       </c>
       <c r="C8" t="n">
-        <v>6.618119042967072e-07</v>
+        <v>6.618119491374187e-07</v>
       </c>
     </row>
     <row r="9">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.717269439818158e-06</v>
+        <v>-1.717269363259637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5998697093285372</v>
+        <v>0.5998697255583205</v>
       </c>
     </row>
     <row r="10">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.68331884860642</v>
+        <v>-18.68331884860596</v>
       </c>
       <c r="C10" t="n">
-        <v>1.480774921741781e-14</v>
+        <v>1.480774921743818e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.991870426226659</v>
+        <v>1.991870426226785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3241315152130885</v>
+        <v>0.3241315152130557</v>
       </c>
     </row>
     <row r="12">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1970.560635533078</v>
+        <v>-19.70560635533066</v>
       </c>
       <c r="C12" t="n">
-        <v>5.495255170418679e-09</v>
+        <v>5.495255170419623e-09</v>
       </c>
     </row>
     <row r="13">
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-614.9862379485082</v>
+        <v>-6.149862379484887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007660943752967297</v>
+        <v>0.007660943752969082</v>
       </c>
     </row>
     <row r="14">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7380.010942239404</v>
+        <v>73.80010942239406</v>
       </c>
       <c r="C14" t="n">
-        <v>5.665241555303374e-39</v>
+        <v>5.665241555306369e-39</v>
       </c>
     </row>
     <row r="15">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.8736030452981</v>
+        <v>17.87360304529862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002763762513909301</v>
+        <v>0.002763762513908577</v>
       </c>
     </row>
   </sheetData>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5523.724649704077</v>
+        <v>5523.724653618814</v>
       </c>
       <c r="C2" t="n">
-        <v>2.509719421416758e-23</v>
+        <v>2.509719388969716e-23</v>
       </c>
     </row>
     <row r="3">
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1756.41787741091</v>
+        <v>-1756.417878176582</v>
       </c>
       <c r="C3" t="n">
-        <v>6.772486230985327e-13</v>
+        <v>6.772486231051433e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2141.322527077317</v>
+        <v>-2141.322527908776</v>
       </c>
       <c r="C4" t="n">
-        <v>4.611918779325939e-17</v>
+        <v>4.611918785783052e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1479.075134686877</v>
+        <v>-1479.07513440369</v>
       </c>
       <c r="C5" t="n">
-        <v>9.457533150247748e-09</v>
+        <v>9.45753317014267e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.17292388311726</v>
+        <v>70.17292388076795</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249881622110778e-05</v>
+        <v>2.249881623558423e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4932,10 +4932,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.165755076622542</v>
+        <v>9.165755074305785</v>
       </c>
       <c r="C7" t="n">
-        <v>1.416300739768424e-39</v>
+        <v>1.416300801674512e-39</v>
       </c>
     </row>
     <row r="8">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03027165486993842</v>
+        <v>-3.027165487964654</v>
       </c>
       <c r="C8" t="n">
-        <v>1.162716112016236e-05</v>
+        <v>1.162716104850044e-05</v>
       </c>
     </row>
     <row r="9">
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.609162462117141e-06</v>
+        <v>-3.6091625396931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2904946778944814</v>
+        <v>0.2904946678026134</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.99711339358185</v>
+        <v>-18.99711339358125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.877452948769901e-13</v>
+        <v>1.877452948773608e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.140984283982919</v>
+        <v>-1.140984283982212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6001188188880902</v>
+        <v>0.6001188188883146</v>
       </c>
     </row>
     <row r="12">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1896.111658446659</v>
+        <v>-18.96111658446618</v>
       </c>
       <c r="C12" t="n">
-        <v>1.52104082159445e-08</v>
+        <v>1.521040821595552e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-602.6187957705566</v>
+        <v>-6.026187957705634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01171649535330641</v>
+        <v>0.01171649535330544</v>
       </c>
     </row>
     <row r="14">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7013.906456207194</v>
+        <v>70.13906456207219</v>
       </c>
       <c r="C14" t="n">
-        <v>2.718628238320051e-31</v>
+        <v>2.718628238318923e-31</v>
       </c>
     </row>
     <row r="15">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.44249949103607</v>
+        <v>20.44249949103627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006400799776422244</v>
+        <v>0.0006400799776421639</v>
       </c>
     </row>
   </sheetData>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5199.787470451045</v>
+        <v>5199.787471729632</v>
       </c>
       <c r="C2" t="n">
-        <v>1.019481957324998e-22</v>
+        <v>1.019481955587754e-22</v>
       </c>
     </row>
     <row r="3">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1551.691154100117</v>
+        <v>-1551.691155706813</v>
       </c>
       <c r="C3" t="n">
-        <v>2.970053986073822e-10</v>
+        <v>2.970053985975264e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2015.19595365055</v>
+        <v>-2015.195955272942</v>
       </c>
       <c r="C4" t="n">
-        <v>6.072141293568015e-15</v>
+        <v>6.072141328834657e-15</v>
       </c>
     </row>
     <row r="5">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1340.539151608425</v>
+        <v>-1340.539153024919</v>
       </c>
       <c r="C5" t="n">
-        <v>1.992972400015434e-07</v>
+        <v>1.992972382925865e-07</v>
       </c>
     </row>
     <row r="6">
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.63111359057987</v>
+        <v>50.63111332263232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001142271056511967</v>
+        <v>0.001142271127232314</v>
       </c>
     </row>
     <row r="7">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.130883084627307</v>
+        <v>9.130883083969412</v>
       </c>
       <c r="C7" t="n">
-        <v>1.627174664428838e-42</v>
+        <v>1.627174686693687e-42</v>
       </c>
     </row>
     <row r="8">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03856287258331866</v>
+        <v>-3.85628724581915</v>
       </c>
       <c r="C8" t="n">
-        <v>3.576402453750459e-09</v>
+        <v>3.576402839489249e-09</v>
       </c>
     </row>
     <row r="9">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.761867354095534e-06</v>
+        <v>-2.761867970836866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3764345283654559</v>
+        <v>0.3764344223628091</v>
       </c>
     </row>
     <row r="10">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.70571020978248</v>
+        <v>-18.70571020978329</v>
       </c>
       <c r="C10" t="n">
-        <v>6.856734682161467e-15</v>
+        <v>6.856734682146741e-15</v>
       </c>
     </row>
     <row r="11">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5060540051951632</v>
+        <v>0.5060540051963225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8065683703340366</v>
+        <v>0.8065683703336004</v>
       </c>
     </row>
     <row r="12">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1862.072894761573</v>
+        <v>-18.62072894761522</v>
       </c>
       <c r="C12" t="n">
-        <v>1.677564320606961e-08</v>
+        <v>1.677564320608327e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-275.2065197194912</v>
+        <v>-2.752065197194386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237091395327418</v>
+        <v>0.2370913953275084</v>
       </c>
     </row>
     <row r="14">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8225.409681255069</v>
+        <v>82.25409681255105</v>
       </c>
       <c r="C14" t="n">
-        <v>2.474987164957346e-42</v>
+        <v>2.474987164955294e-42</v>
       </c>
     </row>
     <row r="15">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.32813812657315</v>
+        <v>15.328138126573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007934786324931735</v>
+        <v>0.007934786324932318</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4869.662005330809</v>
+        <v>4869.662010393406</v>
       </c>
       <c r="C2" t="n">
-        <v>7.341285671275087e-20</v>
+        <v>7.341285592995202e-20</v>
       </c>
     </row>
     <row r="3">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1447.893686016027</v>
+        <v>-1447.893687948182</v>
       </c>
       <c r="C3" t="n">
-        <v>2.397387794941016e-09</v>
+        <v>2.397387794865751e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1954.783109720048</v>
+        <v>-1954.783113022846</v>
       </c>
       <c r="C4" t="n">
-        <v>1.794947784787955e-14</v>
+        <v>1.79494781242701e-14</v>
       </c>
     </row>
     <row r="5">
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1133.627126989712</v>
+        <v>-1133.627127260901</v>
       </c>
       <c r="C5" t="n">
-        <v>9.849349575093312e-06</v>
+        <v>9.849349557239689e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.57857334432114</v>
+        <v>63.57857320643858</v>
       </c>
       <c r="C6" t="n">
-        <v>7.026029404863453e-05</v>
+        <v>7.026029665552012e-05</v>
       </c>
     </row>
     <row r="7">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.726800495254887</v>
+        <v>8.72680049347988</v>
       </c>
       <c r="C7" t="n">
-        <v>1.685415801855265e-37</v>
+        <v>1.68541585727163e-37</v>
       </c>
     </row>
     <row r="8">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03411978918958502</v>
+        <v>-3.411978919543706</v>
       </c>
       <c r="C8" t="n">
-        <v>4.725345837168067e-07</v>
+        <v>4.725345816972771e-07</v>
       </c>
     </row>
     <row r="9">
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.812233454675106e-06</v>
+        <v>-7.812234162865848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07276316263087894</v>
+        <v>0.0727631370263867</v>
       </c>
     </row>
     <row r="10">
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.1773387154312</v>
+        <v>-17.17733871543097</v>
       </c>
       <c r="C10" t="n">
-        <v>2.696447625377749e-12</v>
+        <v>2.696447625379224e-12</v>
       </c>
     </row>
     <row r="11">
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.295407473224889</v>
+        <v>3.295407473225019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1215140346563953</v>
+        <v>0.121514034656381</v>
       </c>
     </row>
     <row r="12">
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1853.719069921234</v>
+        <v>-18.53719069921231</v>
       </c>
       <c r="C12" t="n">
-        <v>4.707643399220205e-08</v>
+        <v>4.707643399220386e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-490.1476951346196</v>
+        <v>-4.901476951346375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0380494518491262</v>
+        <v>0.03804945184911905</v>
       </c>
     </row>
     <row r="14">
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7364.624889225255</v>
+        <v>73.64624889225222</v>
       </c>
       <c r="C14" t="n">
-        <v>6.866243153008073e-36</v>
+        <v>6.866243153009546e-36</v>
       </c>
     </row>
     <row r="15">
@@ -5472,10 +5472,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.18821183689592</v>
+        <v>17.18821183689617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003715214812268257</v>
+        <v>0.003715214812267841</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4805.467263459302</v>
+        <v>4805.467260011124</v>
       </c>
       <c r="C2" t="n">
-        <v>1.347431076495284e-18</v>
+        <v>1.347431095542332e-18</v>
       </c>
     </row>
     <row r="3">
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1642.416938483956</v>
+        <v>-1642.416937061318</v>
       </c>
       <c r="C3" t="n">
-        <v>1.658334748952857e-11</v>
+        <v>1.658334748929165e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2113.057613424861</v>
+        <v>-2113.057612105694</v>
       </c>
       <c r="C4" t="n">
-        <v>1.371720347617672e-16</v>
+        <v>1.371720341726982e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1531.472078698804</v>
+        <v>-1531.472079208998</v>
       </c>
       <c r="C5" t="n">
-        <v>3.256576810669776e-09</v>
+        <v>3.256576800784532e-09</v>
       </c>
     </row>
     <row r="6">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.01978015581743</v>
+        <v>75.01978048278804</v>
       </c>
       <c r="C6" t="n">
-        <v>4.204645576357568e-06</v>
+        <v>4.204645162782808e-06</v>
       </c>
     </row>
     <row r="7">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.127870415748056</v>
+        <v>9.127870416960167</v>
       </c>
       <c r="C7" t="n">
-        <v>1.96133898682929e-37</v>
+        <v>1.961338945162628e-37</v>
       </c>
     </row>
     <row r="8">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03417208825053871</v>
+        <v>-3.417208823048649</v>
       </c>
       <c r="C8" t="n">
-        <v>1.237354215919724e-06</v>
+        <v>1.23735423274112e-06</v>
       </c>
     </row>
     <row r="9">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.600063280515845e-06</v>
+        <v>-2.600063626925148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4281191285558628</v>
+        <v>0.4281190672561371</v>
       </c>
     </row>
     <row r="10">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.11537528458933</v>
+        <v>-17.11537528458959</v>
       </c>
       <c r="C10" t="n">
-        <v>2.33108759050218e-11</v>
+        <v>2.331087590500396e-11</v>
       </c>
     </row>
     <row r="11">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.657714056027079</v>
+        <v>1.657714056026134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4358163218551132</v>
+        <v>0.4358163218553803</v>
       </c>
     </row>
     <row r="12">
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1682.156141226609</v>
+        <v>-16.82156141226632</v>
       </c>
       <c r="C12" t="n">
-        <v>7.875716993383428e-07</v>
+        <v>7.87571699338064e-07</v>
       </c>
     </row>
     <row r="13">
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-470.0880821664015</v>
+        <v>-4.700880821664299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04667975041988148</v>
+        <v>0.04667975041986848</v>
       </c>
     </row>
     <row r="14">
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7969.853795450473</v>
+        <v>79.6985379545045</v>
       </c>
       <c r="C14" t="n">
-        <v>4.951369523485313e-40</v>
+        <v>4.951369523488286e-40</v>
       </c>
     </row>
     <row r="15">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.76260017061284</v>
+        <v>21.76260017061307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002275906370486921</v>
+        <v>0.0002275906370486568</v>
       </c>
     </row>
   </sheetData>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4916.833048923758</v>
+        <v>4916.8330497795</v>
       </c>
       <c r="C2" t="n">
-        <v>2.575669765174998e-19</v>
+        <v>2.575669755233136e-19</v>
       </c>
     </row>
     <row r="3">
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1759.223706926482</v>
+        <v>-1759.22370878306</v>
       </c>
       <c r="C3" t="n">
-        <v>7.423225668636287e-13</v>
+        <v>7.423225668395288e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2186.004727947339</v>
+        <v>-2186.004728546121</v>
       </c>
       <c r="C4" t="n">
-        <v>8.327954696268717e-18</v>
+        <v>8.327954709516513e-18</v>
       </c>
     </row>
     <row r="5">
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1586.395525833919</v>
+        <v>-1586.395524464004</v>
       </c>
       <c r="C5" t="n">
-        <v>6.729814127134801e-10</v>
+        <v>6.729814185851501e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.28963855710379</v>
+        <v>76.28963862648598</v>
       </c>
       <c r="C6" t="n">
-        <v>1.166907910612326e-06</v>
+        <v>1.166907884196016e-06</v>
       </c>
     </row>
     <row r="7">
@@ -5804,10 +5804,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.171596782701993</v>
+        <v>9.17159678587916</v>
       </c>
       <c r="C7" t="n">
-        <v>2.262387723859344e-41</v>
+        <v>2.262387587053184e-41</v>
       </c>
     </row>
     <row r="8">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03642098198835147</v>
+        <v>-3.642098212719764</v>
       </c>
       <c r="C8" t="n">
-        <v>9.2999779828529e-08</v>
+        <v>9.299976997429772e-08</v>
       </c>
     </row>
     <row r="9">
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.365564320092845e-06</v>
+        <v>-2.365564643781993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5081141065945045</v>
+        <v>0.5081140483605262</v>
       </c>
     </row>
     <row r="10">
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.190371177081</v>
+        <v>-16.19037117708123</v>
       </c>
       <c r="C10" t="n">
-        <v>1.039206915948154e-10</v>
+        <v>1.039206915947497e-10</v>
       </c>
     </row>
     <row r="11">
@@ -5856,10 +5856,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.295054338806808</v>
+        <v>2.29505433880664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2873173467429835</v>
+        <v>0.2873173467430232</v>
       </c>
     </row>
     <row r="12">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1894.763357029093</v>
+        <v>-18.94763357029088</v>
       </c>
       <c r="C12" t="n">
-        <v>1.662675306267556e-08</v>
+        <v>1.662675306267717e-08</v>
       </c>
     </row>
     <row r="13">
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-489.3226918240953</v>
+        <v>-4.893226918241373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03747562835016093</v>
+        <v>0.03747562835014479</v>
       </c>
     </row>
     <row r="14">
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7851.279055259013</v>
+        <v>78.51279055259036</v>
       </c>
       <c r="C14" t="n">
-        <v>1.366415921972627e-40</v>
+        <v>1.366415921971807e-40</v>
       </c>
     </row>
     <row r="15">
@@ -5908,10 +5908,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.02934103761764</v>
+        <v>20.02934103761754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006390766517566243</v>
+        <v>0.0006390766517566567</v>
       </c>
     </row>
   </sheetData>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4936.275560354959</v>
+        <v>4936.275560524668</v>
       </c>
       <c r="C2" t="n">
-        <v>7.828711573662382e-20</v>
+        <v>7.828711569293812e-20</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1634.608057531178</v>
+        <v>-1634.6080598233</v>
       </c>
       <c r="C3" t="n">
-        <v>2.800129963887627e-11</v>
+        <v>2.800129963937143e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2187.288890032549</v>
+        <v>-2187.28889161368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.480034179806479e-17</v>
+        <v>1.480034191794771e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1292.243985314698</v>
+        <v>-1292.243985890964</v>
       </c>
       <c r="C5" t="n">
-        <v>6.115502883497328e-07</v>
+        <v>6.115502858155029e-07</v>
       </c>
     </row>
     <row r="6">
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.6259105510765</v>
+        <v>52.62591024243648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001319658334232461</v>
+        <v>0.001319658422018524</v>
       </c>
     </row>
     <row r="7">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.020215224384668</v>
+        <v>9.020215228371903</v>
       </c>
       <c r="C7" t="n">
-        <v>3.635719872833027e-39</v>
+        <v>3.635719599658779e-39</v>
       </c>
     </row>
     <row r="8">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03621158443931415</v>
+        <v>-3.621158442248234</v>
       </c>
       <c r="C8" t="n">
-        <v>8.999262762531363e-08</v>
+        <v>8.999262879083267e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.440193339240807e-06</v>
+        <v>-2.440193833127772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4531136638774093</v>
+        <v>0.4531135723827429</v>
       </c>
     </row>
     <row r="10">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.01672986813072</v>
+        <v>-18.01672986813087</v>
       </c>
       <c r="C10" t="n">
-        <v>7.825688110326725e-13</v>
+        <v>7.825688110326158e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.317059921784941</v>
+        <v>3.317059921784306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1270973817360032</v>
+        <v>0.1270973817360789</v>
       </c>
     </row>
     <row r="12">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1651.954889076952</v>
+        <v>-16.51954889076986</v>
       </c>
       <c r="C12" t="n">
-        <v>1.626256235818787e-06</v>
+        <v>1.626256235817987e-06</v>
       </c>
     </row>
     <row r="13">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-521.2646075990486</v>
+        <v>-5.212646075990477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02875502619781156</v>
+        <v>0.02875502619781226</v>
       </c>
     </row>
     <row r="14">
@@ -6113,10 +6113,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7006.410431495413</v>
+        <v>70.06410431495415</v>
       </c>
       <c r="C14" t="n">
-        <v>2.22379610518337e-32</v>
+        <v>2.223796105183306e-32</v>
       </c>
     </row>
     <row r="15">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.36826835597708</v>
+        <v>22.36826835597754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001737570659272079</v>
+        <v>0.0001737570659271569</v>
       </c>
     </row>
   </sheetData>
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4730.608103983302</v>
+        <v>4730.608105054954</v>
       </c>
       <c r="C2" t="n">
-        <v>6.49573644743191e-20</v>
+        <v>6.49573643262416e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1400.278598241087</v>
+        <v>-1400.278599350185</v>
       </c>
       <c r="C3" t="n">
-        <v>1.183630343565582e-09</v>
+        <v>1.183630343613119e-09</v>
       </c>
     </row>
     <row r="4">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1949.868430264075</v>
+        <v>-1949.868429964184</v>
       </c>
       <c r="C4" t="n">
-        <v>8.08645378287083e-16</v>
+        <v>8.08645376811993e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1147.021024111048</v>
+        <v>-1147.021024926281</v>
       </c>
       <c r="C5" t="n">
-        <v>2.394334703450291e-06</v>
+        <v>2.394334689901087e-06</v>
       </c>
     </row>
     <row r="6">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.48743925599607</v>
+        <v>46.48743938600575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002731673377536269</v>
+        <v>0.002731673301352469</v>
       </c>
     </row>
     <row r="7">
@@ -6240,10 +6240,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.951520647697278</v>
+        <v>8.951520632975498</v>
       </c>
       <c r="C7" t="n">
-        <v>4.545200395218601e-41</v>
+        <v>4.545201766177874e-41</v>
       </c>
     </row>
     <row r="8">
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03533070084952576</v>
+        <v>-3.533070075048354</v>
       </c>
       <c r="C8" t="n">
-        <v>4.263954972500659e-08</v>
+        <v>4.263955321271642e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.113740558957626e-06</v>
+        <v>-3.113740535749264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3117682983391127</v>
+        <v>0.3117683025722807</v>
       </c>
     </row>
     <row r="10">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.78439096120064</v>
+        <v>-16.78439096120046</v>
       </c>
       <c r="C10" t="n">
-        <v>1.523046166757332e-12</v>
+        <v>1.523046166758176e-12</v>
       </c>
     </row>
     <row r="11">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.539303546779477</v>
+        <v>4.539303546779689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03117476753931331</v>
+        <v>0.0311747675393041</v>
       </c>
     </row>
     <row r="12">
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1800.261195728661</v>
+        <v>-18.0026119572868</v>
       </c>
       <c r="C12" t="n">
-        <v>2.339865933315131e-08</v>
+        <v>2.339865933314412e-08</v>
       </c>
     </row>
     <row r="13">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-405.9880529219262</v>
+        <v>-4.059880529219221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07254158396843431</v>
+        <v>0.07254158396843774</v>
       </c>
     </row>
     <row r="14">
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7649.756470411336</v>
+        <v>76.4975647041136</v>
       </c>
       <c r="C14" t="n">
-        <v>1.8931548463865e-41</v>
+        <v>1.893154846386689e-41</v>
       </c>
     </row>
     <row r="15">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.11496598099045</v>
+        <v>14.11496598099031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01600577332905114</v>
+        <v>0.0160057733290522</v>
       </c>
     </row>
   </sheetData>
@@ -6393,10 +6393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5069.011012595275</v>
+        <v>5069.01101933062</v>
       </c>
       <c r="C2" t="n">
-        <v>1.323639424810985e-20</v>
+        <v>1.323639399858029e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1675.829913019733</v>
+        <v>-1675.829915975274</v>
       </c>
       <c r="C3" t="n">
-        <v>4.269465760484971e-11</v>
+        <v>4.269465760719401e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2145.993135271018</v>
+        <v>-2145.993136351052</v>
       </c>
       <c r="C4" t="n">
-        <v>8.463287327106336e-16</v>
+        <v>8.463287356292448e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1484.467866096462</v>
+        <v>-1484.467866797561</v>
       </c>
       <c r="C5" t="n">
-        <v>2.499039332905953e-08</v>
+        <v>2.499039322539488e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.34166114506436</v>
+        <v>82.34166102189165</v>
       </c>
       <c r="C6" t="n">
-        <v>1.075558399226093e-06</v>
+        <v>1.075558440624505e-06</v>
       </c>
     </row>
     <row r="7">
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.312887276082467</v>
+        <v>9.312887276577319</v>
       </c>
       <c r="C7" t="n">
-        <v>6.280905127435805e-40</v>
+        <v>6.280905070210865e-40</v>
       </c>
     </row>
     <row r="8">
@@ -6471,10 +6471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03147070415419324</v>
+        <v>-3.147070413846281</v>
       </c>
       <c r="C8" t="n">
-        <v>5.196914873852689e-06</v>
+        <v>5.196914927227748e-06</v>
       </c>
     </row>
     <row r="9">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.927344874808849e-06</v>
+        <v>-2.927345292383805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3728615861179172</v>
+        <v>0.3728615181219437</v>
       </c>
     </row>
     <row r="10">
@@ -6497,10 +6497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.14885255528845</v>
+        <v>-18.14885255528877</v>
       </c>
       <c r="C10" t="n">
-        <v>5.320230579941329e-13</v>
+        <v>5.320230579935534e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.319681330303252</v>
+        <v>1.319681330303198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5267977833408355</v>
+        <v>0.5267977833408519</v>
       </c>
     </row>
     <row r="12">
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2127.111066305943</v>
+        <v>-21.27111066305974</v>
       </c>
       <c r="C12" t="n">
-        <v>1.134615069092174e-10</v>
+        <v>1.134615069091527e-10</v>
       </c>
     </row>
     <row r="13">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-519.2430799471251</v>
+        <v>-5.192430799471278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02756254020685571</v>
+        <v>0.02756254020685501</v>
       </c>
     </row>
     <row r="14">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7641.856857290466</v>
+        <v>76.41856857290438</v>
       </c>
       <c r="C14" t="n">
-        <v>3.641379760964043e-37</v>
+        <v>3.64137976096472e-37</v>
       </c>
     </row>
     <row r="15">
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.55407796092221</v>
+        <v>19.55407796092168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008108427161170328</v>
+        <v>0.0008108427161173045</v>
       </c>
     </row>
   </sheetData>
@@ -6611,10 +6611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5732.577766187193</v>
+        <v>5732.577762002504</v>
       </c>
       <c r="C2" t="n">
-        <v>6.722304854203525e-27</v>
+        <v>6.722304917693185e-27</v>
       </c>
     </row>
     <row r="3">
@@ -6624,10 +6624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1618.751069927551</v>
+        <v>-1618.751068021386</v>
       </c>
       <c r="C3" t="n">
-        <v>4.365533509898983e-12</v>
+        <v>4.365533510054454e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2028.01625700893</v>
+        <v>-2028.016256203843</v>
       </c>
       <c r="C4" t="n">
-        <v>1.68782783452851e-16</v>
+        <v>1.687827831599298e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1317.472779671375</v>
+        <v>-1317.472778150014</v>
       </c>
       <c r="C5" t="n">
-        <v>1.059793662162706e-07</v>
+        <v>1.059793674701591e-07</v>
       </c>
     </row>
     <row r="6">
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.61628352157236</v>
+        <v>46.61628367156655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003611802702095637</v>
+        <v>0.003611802591945764</v>
       </c>
     </row>
     <row r="7">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.670861401989864</v>
+        <v>8.670861403335945</v>
       </c>
       <c r="C7" t="n">
-        <v>6.262679014062483e-38</v>
+        <v>6.262678849552652e-38</v>
       </c>
     </row>
     <row r="8">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03468285836346244</v>
+        <v>-3.468285848449396</v>
       </c>
       <c r="C8" t="n">
-        <v>2.033271910272122e-07</v>
+        <v>2.033271719852327e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.146615848079644e-06</v>
+        <v>-7.146614500418135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1123813452615032</v>
+        <v>0.1123814124135478</v>
       </c>
     </row>
     <row r="10">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.66742353588209</v>
+        <v>-20.66742353588275</v>
       </c>
       <c r="C10" t="n">
-        <v>3.444475309549503e-17</v>
+        <v>3.444475309540596e-17</v>
       </c>
     </row>
     <row r="11">
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.18342814992234</v>
+        <v>-2.183428149923524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2931050439818371</v>
+        <v>0.2931050439815822</v>
       </c>
     </row>
     <row r="12">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1852.796547630058</v>
+        <v>-18.52796547630083</v>
       </c>
       <c r="C12" t="n">
-        <v>1.636465915697845e-08</v>
+        <v>1.636465915697112e-08</v>
       </c>
     </row>
     <row r="13">
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-494.7069828188731</v>
+        <v>-4.947069828189585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03223974633171215</v>
+        <v>0.03223974633168285</v>
       </c>
     </row>
     <row r="14">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6778.92788918647</v>
+        <v>67.78927889186397</v>
       </c>
       <c r="C14" t="n">
-        <v>5.562540125361675e-29</v>
+        <v>5.562540125367888e-29</v>
       </c>
     </row>
     <row r="15">
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.92745544112874</v>
+        <v>21.92745544112898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001733529842768342</v>
+        <v>0.0001733529842767946</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6829,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4810.709766249278</v>
+        <v>4810.70977431184</v>
       </c>
       <c r="C2" t="n">
-        <v>2.313523492484321e-20</v>
+        <v>2.313523393408546e-20</v>
       </c>
     </row>
     <row r="3">
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1660.209758239773</v>
+        <v>-1660.209761762364</v>
       </c>
       <c r="C3" t="n">
-        <v>1.035031352883294e-13</v>
+        <v>1.035031352910128e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2147.463774152065</v>
+        <v>-2147.463775931248</v>
       </c>
       <c r="C4" t="n">
-        <v>6.015931032310392e-20</v>
+        <v>6.01593107029248e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1320.924922666396</v>
+        <v>-1320.924923375745</v>
       </c>
       <c r="C5" t="n">
-        <v>2.581154768488879e-08</v>
+        <v>2.58115475184889e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6881,10 +6881,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.66090908437448</v>
+        <v>68.66090906889116</v>
       </c>
       <c r="C6" t="n">
-        <v>1.396459547624193e-05</v>
+        <v>1.396459553981647e-05</v>
       </c>
     </row>
     <row r="7">
@@ -6894,10 +6894,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.90794922363111</v>
+        <v>8.907949210540906</v>
       </c>
       <c r="C7" t="n">
-        <v>4.54797791022947e-41</v>
+        <v>4.547979120150977e-41</v>
       </c>
     </row>
     <row r="8">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03554721864496973</v>
+        <v>-3.554721863625477</v>
       </c>
       <c r="C8" t="n">
-        <v>4.319692755610017e-08</v>
+        <v>4.319692786388803e-08</v>
       </c>
     </row>
     <row r="9">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.009384850659627e-06</v>
+        <v>-4.009384907366979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2113209629557302</v>
+        <v>0.2113209567912637</v>
       </c>
     </row>
     <row r="10">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.89483630109959</v>
+        <v>-15.89483630109905</v>
       </c>
       <c r="C10" t="n">
-        <v>8.418693501993185e-11</v>
+        <v>8.418693502003924e-11</v>
       </c>
     </row>
     <row r="11">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.034594308029325</v>
+        <v>4.03459430802996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0527637511255556</v>
+        <v>0.05276375112551469</v>
       </c>
     </row>
     <row r="12">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1592.650271505778</v>
+        <v>-15.9265027150574</v>
       </c>
       <c r="C12" t="n">
-        <v>5.908471197123426e-07</v>
+        <v>5.908471197127413e-07</v>
       </c>
     </row>
     <row r="13">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-353.9043786799887</v>
+        <v>-3.539043786799266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1236912765794825</v>
+        <v>0.1236912765795496</v>
       </c>
     </row>
     <row r="14">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6597.912065133522</v>
+        <v>65.97912065133482</v>
       </c>
       <c r="C14" t="n">
-        <v>1.657677318905901e-29</v>
+        <v>1.657677318907195e-29</v>
       </c>
     </row>
     <row r="15">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.25037589296466</v>
+        <v>19.25037589296557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008257177272675238</v>
+        <v>0.0008257177272670374</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7047,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4526.643232047334</v>
+        <v>4526.643236393696</v>
       </c>
       <c r="C2" t="n">
-        <v>6.248066405520826e-18</v>
+        <v>6.248066372859129e-18</v>
       </c>
     </row>
     <row r="3">
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1334.722106399267</v>
+        <v>-1334.722106739706</v>
       </c>
       <c r="C3" t="n">
-        <v>3.9955790838174e-08</v>
+        <v>3.995579083715268e-08</v>
       </c>
     </row>
     <row r="4">
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1904.534050521377</v>
+        <v>-1904.534051888532</v>
       </c>
       <c r="C4" t="n">
-        <v>7.574691499147494e-14</v>
+        <v>7.574691571187669e-14</v>
       </c>
     </row>
     <row r="5">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1095.50283618924</v>
+        <v>-1095.502835957398</v>
       </c>
       <c r="C5" t="n">
-        <v>1.764288933031823e-05</v>
+        <v>1.764288935390715e-05</v>
       </c>
     </row>
     <row r="6">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.65595385227475</v>
+        <v>64.65595374103484</v>
       </c>
       <c r="C6" t="n">
-        <v>3.080454884975638e-05</v>
+        <v>3.080454986019225e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.895039927471064</v>
+        <v>8.895039929509098</v>
       </c>
       <c r="C7" t="n">
-        <v>1.883421470749817e-39</v>
+        <v>1.883421395523738e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03457513560353666</v>
+        <v>-3.45751356586371</v>
       </c>
       <c r="C8" t="n">
-        <v>1.099836077272788e-07</v>
+        <v>1.099836029884443e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.009433030063912e-06</v>
+        <v>-3.009432635984409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3495121867352168</v>
+        <v>0.3495122499512864</v>
       </c>
     </row>
     <row r="10">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.8532926371772</v>
+        <v>-16.85329263717749</v>
       </c>
       <c r="C10" t="n">
-        <v>4.8834912113688e-12</v>
+        <v>4.883491211365562e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.954800978337229</v>
+        <v>3.954800978335952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05327097866456973</v>
+        <v>0.0532709786646496</v>
       </c>
     </row>
     <row r="12">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1912.652085640634</v>
+        <v>-19.12652085640572</v>
       </c>
       <c r="C12" t="n">
-        <v>4.101729510868518e-09</v>
+        <v>4.101729510872978e-09</v>
       </c>
     </row>
     <row r="13">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-463.3606740750349</v>
+        <v>-4.633606740750455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0457759264236837</v>
+        <v>0.04577592642367884</v>
       </c>
     </row>
     <row r="14">
@@ -7203,10 +7203,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7332.81897528945</v>
+        <v>73.32818975289437</v>
       </c>
       <c r="C14" t="n">
-        <v>5.950930276174855e-38</v>
+        <v>5.95093027617545e-38</v>
       </c>
     </row>
     <row r="15">
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.13648016805974</v>
+        <v>20.13648016805823</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004683206770608955</v>
+        <v>0.0004683206770613774</v>
       </c>
     </row>
   </sheetData>
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5500.732393899587</v>
+        <v>5500.732399506318</v>
       </c>
       <c r="C2" t="n">
-        <v>1.096379784502057e-22</v>
+        <v>1.096379768780361e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1718.716846010444</v>
+        <v>-1718.716847772926</v>
       </c>
       <c r="C3" t="n">
-        <v>1.300562005972492e-11</v>
+        <v>1.300562006020897e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2087.78651852456</v>
+        <v>-2087.786518285668</v>
       </c>
       <c r="C4" t="n">
-        <v>3.855215168982017e-15</v>
+        <v>3.855215167686308e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1579.421529466488</v>
+        <v>-1579.421529598724</v>
       </c>
       <c r="C5" t="n">
-        <v>3.952340389135342e-09</v>
+        <v>3.952340386261447e-09</v>
       </c>
     </row>
     <row r="6">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.11389641277455</v>
+        <v>60.11389655519476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003482462030488787</v>
+        <v>0.0003482461914943145</v>
       </c>
     </row>
     <row r="7">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.165347047199093</v>
+        <v>9.165347048185016</v>
       </c>
       <c r="C7" t="n">
-        <v>1.128266812905881e-39</v>
+        <v>1.128266791371204e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03223132449452563</v>
+        <v>-3.223132445002755</v>
       </c>
       <c r="C8" t="n">
-        <v>2.726702135481357e-06</v>
+        <v>2.726702218900094e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.470701327382069e-06</v>
+        <v>-5.470700959353838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2805744861425434</v>
+        <v>0.2805745186234803</v>
       </c>
     </row>
     <row r="10">
@@ -7369,10 +7369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.98176159485909</v>
+        <v>-19.98176159485871</v>
       </c>
       <c r="C10" t="n">
-        <v>7.867319564631951e-16</v>
+        <v>7.867319564644033e-16</v>
       </c>
     </row>
     <row r="11">
@@ -7382,10 +7382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.164251109064435</v>
+        <v>-2.164251109064593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3299905977525771</v>
+        <v>0.3299905977525399</v>
       </c>
     </row>
     <row r="12">
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2131.258726496992</v>
+        <v>-21.31258726496985</v>
       </c>
       <c r="C12" t="n">
-        <v>5.466690585966789e-10</v>
+        <v>5.466690585968183e-10</v>
       </c>
     </row>
     <row r="13">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-461.6138474032612</v>
+        <v>-4.616138474032955</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05046100030981927</v>
+        <v>0.05046100030980322</v>
       </c>
     </row>
     <row r="14">
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8285.26249669559</v>
+        <v>82.85262496695509</v>
       </c>
       <c r="C14" t="n">
-        <v>1.781147249646275e-39</v>
+        <v>1.781147249649304e-39</v>
       </c>
     </row>
     <row r="15">
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.97351571660916</v>
+        <v>19.97351571660939</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00096653038983014</v>
+        <v>0.0009665303898299759</v>
       </c>
     </row>
   </sheetData>
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5266.521352519267</v>
+        <v>5266.521354413203</v>
       </c>
       <c r="C2" t="n">
-        <v>3.55837738945044e-22</v>
+        <v>3.558377373926271e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1748.178848086133</v>
+        <v>-1748.178851780439</v>
       </c>
       <c r="C3" t="n">
-        <v>3.15595117510749e-11</v>
+        <v>3.155951175109072e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2224.137199904748</v>
+        <v>-2224.137203957584</v>
       </c>
       <c r="C4" t="n">
-        <v>5.471257362800249e-16</v>
+        <v>5.47125743598478e-16</v>
       </c>
     </row>
     <row r="5">
@@ -7522,10 +7522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1550.230169071312</v>
+        <v>-1550.230170816602</v>
       </c>
       <c r="C5" t="n">
-        <v>1.798900454020312e-08</v>
+        <v>1.798900436837563e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7535,10 +7535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.47407025046462</v>
+        <v>66.47406999053896</v>
       </c>
       <c r="C6" t="n">
-        <v>4.30208429566566e-05</v>
+        <v>4.302084596043777e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.072264847236724</v>
+        <v>9.072264850199861</v>
       </c>
       <c r="C7" t="n">
-        <v>3.834412807579392e-40</v>
+        <v>3.834412595580177e-40</v>
       </c>
     </row>
     <row r="8">
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03475497486580609</v>
+        <v>-3.47549746963007</v>
       </c>
       <c r="C8" t="n">
-        <v>9.523839466038406e-07</v>
+        <v>9.523840577473473e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.302322006045376e-06</v>
+        <v>-3.302322466700174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3117611346603782</v>
+        <v>0.3117610674258665</v>
       </c>
     </row>
     <row r="10">
@@ -7587,10 +7587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.29566305225355</v>
+        <v>-17.29566305225443</v>
       </c>
       <c r="C10" t="n">
-        <v>3.317897266252781e-12</v>
+        <v>3.31789726624564e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7600,10 +7600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.250128237557</v>
+        <v>1.250128237556472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5487143535553738</v>
+        <v>0.548714353555539</v>
       </c>
     </row>
     <row r="12">
@@ -7613,10 +7613,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1839.62068922028</v>
+        <v>-18.39620689220345</v>
       </c>
       <c r="C12" t="n">
-        <v>2.590309216036704e-08</v>
+        <v>2.590309216033911e-08</v>
       </c>
     </row>
     <row r="13">
@@ -7626,10 +7626,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-647.6813972156237</v>
+        <v>-6.476813972156036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005724597169246703</v>
+        <v>0.005724597169248212</v>
       </c>
     </row>
     <row r="14">
@@ -7639,10 +7639,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7034.552499455756</v>
+        <v>70.34552499455764</v>
       </c>
       <c r="C14" t="n">
-        <v>3.471314323405362e-32</v>
+        <v>3.471314323404816e-32</v>
       </c>
     </row>
     <row r="15">
@@ -7652,10 +7652,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.08966082654943</v>
+        <v>22.08966082654905</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001777513161797206</v>
+        <v>0.0001777513161797619</v>
       </c>
     </row>
   </sheetData>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5182.314468504215</v>
+        <v>5182.314469604166</v>
       </c>
       <c r="C2" t="n">
-        <v>9.315234760609431e-22</v>
+        <v>9.315234723845533e-22</v>
       </c>
     </row>
     <row r="3">
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1611.888204103992</v>
+        <v>-1611.888203189119</v>
       </c>
       <c r="C3" t="n">
-        <v>3.883659922874773e-12</v>
+        <v>3.8836599227586e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7727,10 +7727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2085.76058202861</v>
+        <v>-2085.76058188154</v>
       </c>
       <c r="C4" t="n">
-        <v>1.000511018958669e-17</v>
+        <v>1.000511018419847e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7740,10 +7740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1383.17608308068</v>
+        <v>-1383.176083475235</v>
       </c>
       <c r="C5" t="n">
-        <v>1.846124470608858e-08</v>
+        <v>1.846124465140648e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7753,10 +7753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.3580159636664</v>
+        <v>65.35801608057662</v>
       </c>
       <c r="C6" t="n">
-        <v>5.330052721230058e-05</v>
+        <v>5.330052552832655e-05</v>
       </c>
     </row>
     <row r="7">
@@ -7766,10 +7766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.766040380771056</v>
+        <v>8.766040374043611</v>
       </c>
       <c r="C7" t="n">
-        <v>7.381401132124617e-39</v>
+        <v>7.381402075264844e-39</v>
       </c>
     </row>
     <row r="8">
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03650360935263656</v>
+        <v>-3.650360935043312</v>
       </c>
       <c r="C8" t="n">
-        <v>2.457362439913597e-08</v>
+        <v>2.457362444367603e-08</v>
       </c>
     </row>
     <row r="9">
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.820481683373343e-06</v>
+        <v>-2.820482736331507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3715927758656216</v>
+        <v>0.3715925973098886</v>
       </c>
     </row>
     <row r="10">
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.27770868123488</v>
+        <v>-18.27770868123404</v>
       </c>
       <c r="C10" t="n">
-        <v>1.461246290979415e-13</v>
+        <v>1.461246290982881e-13</v>
       </c>
     </row>
     <row r="11">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.910604353550093</v>
+        <v>1.910604353551416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3899637657213949</v>
+        <v>0.3899637657210572</v>
       </c>
     </row>
     <row r="12">
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1987.057410895256</v>
+        <v>-19.87057410895272</v>
       </c>
       <c r="C12" t="n">
-        <v>2.596588665490657e-09</v>
+        <v>2.596588665489739e-09</v>
       </c>
     </row>
     <row r="13">
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-391.0886920397221</v>
+        <v>-3.910886920396893</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08723695270902047</v>
+        <v>0.08723695270904587</v>
       </c>
     </row>
     <row r="14">
@@ -7857,10 +7857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7707.97737074062</v>
+        <v>77.0797737074074</v>
       </c>
       <c r="C14" t="n">
-        <v>2.760571178302008e-41</v>
+        <v>2.760571178295183e-41</v>
       </c>
     </row>
     <row r="15">
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.77424266924373</v>
+        <v>15.77424266924371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007092265029751757</v>
+        <v>0.007092265029751904</v>
       </c>
     </row>
   </sheetData>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5334.576615452052</v>
+        <v>5334.576616765039</v>
       </c>
       <c r="C2" t="n">
-        <v>4.545067798826082e-23</v>
+        <v>4.545067778106645e-23</v>
       </c>
     </row>
     <row r="3">
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1639.093424592807</v>
+        <v>-1639.093428236439</v>
       </c>
       <c r="C3" t="n">
-        <v>1.173646456050825e-12</v>
+        <v>1.17364645608012e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2120.313130599839</v>
+        <v>-2120.313133056579</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377581404011661e-18</v>
+        <v>1.377581415974641e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7958,10 +7958,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1307.522156011683</v>
+        <v>-1307.522156502627</v>
       </c>
       <c r="C5" t="n">
-        <v>7.07864846033907e-08</v>
+        <v>7.078648431318627e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.64175960464268</v>
+        <v>45.64175989723978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00454845995773947</v>
+        <v>0.004548459696511949</v>
       </c>
     </row>
     <row r="7">
@@ -7984,10 +7984,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.012318766203064</v>
+        <v>9.012318756346</v>
       </c>
       <c r="C7" t="n">
-        <v>2.774300347705157e-38</v>
+        <v>2.774300846388228e-38</v>
       </c>
     </row>
     <row r="8">
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03731863845929881</v>
+        <v>-3.731863839520031</v>
       </c>
       <c r="C8" t="n">
-        <v>2.573973181503837e-08</v>
+        <v>2.573973314675917e-08</v>
       </c>
     </row>
     <row r="9">
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.073702725720221e-06</v>
+        <v>-2.073703504873404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5213783115767145</v>
+        <v>0.5213781551621863</v>
       </c>
     </row>
     <row r="10">
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.84340417197238</v>
+        <v>-19.8434041719732</v>
       </c>
       <c r="C10" t="n">
-        <v>2.621017589365047e-15</v>
+        <v>2.621017589358853e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.646937772974683</v>
+        <v>1.646937772974444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4472716891024918</v>
+        <v>0.447271689102561</v>
       </c>
     </row>
     <row r="12">
@@ -8049,10 +8049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1897.176480649237</v>
+        <v>-18.97176480649215</v>
       </c>
       <c r="C12" t="n">
-        <v>2.915522016640562e-08</v>
+        <v>2.915522016641913e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-482.5076021750988</v>
+        <v>-4.825076021750671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03901098665812024</v>
+        <v>0.03901098665813334</v>
       </c>
     </row>
     <row r="14">
@@ -8075,10 +8075,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7810.984522462628</v>
+        <v>78.10984522462641</v>
       </c>
       <c r="C14" t="n">
-        <v>8.37516671654022e-42</v>
+        <v>8.375166716539624e-42</v>
       </c>
     </row>
     <row r="15">
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.37135896606136</v>
+        <v>16.37135896606127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005578389146501504</v>
+        <v>0.005578389146501751</v>
       </c>
     </row>
   </sheetData>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4915.937238475781</v>
+        <v>4915.937242235319</v>
       </c>
       <c r="C2" t="n">
-        <v>4.274938150346528e-21</v>
+        <v>4.274938111023959e-21</v>
       </c>
     </row>
     <row r="3">
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1433.801200641582</v>
+        <v>-1433.801202571787</v>
       </c>
       <c r="C3" t="n">
-        <v>3.63667321830545e-10</v>
+        <v>3.636673218276614e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8163,10 +8163,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1921.201278797541</v>
+        <v>-1921.201280716145</v>
       </c>
       <c r="C4" t="n">
-        <v>1.316135150804025e-15</v>
+        <v>1.316135162363264e-15</v>
       </c>
     </row>
     <row r="5">
@@ -8176,10 +8176,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1092.166735705101</v>
+        <v>-1092.166734963386</v>
       </c>
       <c r="C5" t="n">
-        <v>6.602899607911954e-06</v>
+        <v>6.602899645486588e-06</v>
       </c>
     </row>
     <row r="6">
@@ -8189,10 +8189,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.52215986603284</v>
+        <v>51.52215987736115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008564428672082382</v>
+        <v>0.0008564428649071585</v>
       </c>
     </row>
     <row r="7">
@@ -8202,10 +8202,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.952167759726045</v>
+        <v>8.952167758821645</v>
       </c>
       <c r="C7" t="n">
-        <v>6.094176818925644e-42</v>
+        <v>6.094176932753914e-42</v>
       </c>
     </row>
     <row r="8">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03830013780197079</v>
+        <v>-3.830013786541395</v>
       </c>
       <c r="C8" t="n">
-        <v>3.612187891827178e-08</v>
+        <v>3.612187716868507e-08</v>
       </c>
     </row>
     <row r="9">
@@ -8228,10 +8228,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.230572872917264e-06</v>
+        <v>-4.230572680300822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1912936687307582</v>
+        <v>0.1912936890110671</v>
       </c>
     </row>
     <row r="10">
@@ -8241,10 +8241,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.39032813256843</v>
+        <v>-16.39032813256801</v>
       </c>
       <c r="C10" t="n">
-        <v>4.919867149562524e-11</v>
+        <v>4.919867149566311e-11</v>
       </c>
     </row>
     <row r="11">
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.145341546144743</v>
+        <v>2.145341546144231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.289259778605551</v>
+        <v>0.2892597786056745</v>
       </c>
     </row>
     <row r="12">
@@ -8267,10 +8267,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1745.220725864589</v>
+        <v>-17.45220725864563</v>
       </c>
       <c r="C12" t="n">
-        <v>8.77307242797663e-08</v>
+        <v>8.773072427980039e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8280,10 +8280,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-569.007459472723</v>
+        <v>-5.69007459472725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01324324232253253</v>
+        <v>0.01324324232253223</v>
       </c>
     </row>
     <row r="14">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6322.091401559674</v>
+        <v>63.22091401559672</v>
       </c>
       <c r="C14" t="n">
-        <v>1.942438368613236e-25</v>
+        <v>1.942438368613194e-25</v>
       </c>
     </row>
     <row r="15">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.92452793715441</v>
+        <v>22.9245279371547</v>
       </c>
       <c r="C15" t="n">
-        <v>6.046846651981744e-05</v>
+        <v>6.046846651979896e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4889.265621639282</v>
+        <v>4889.265624576263</v>
       </c>
       <c r="C2" t="n">
-        <v>5.322040083324246e-20</v>
+        <v>5.322040016501849e-20</v>
       </c>
     </row>
     <row r="3">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1621.152979940929</v>
+        <v>-1621.152982894016</v>
       </c>
       <c r="C3" t="n">
-        <v>1.849332115875379e-12</v>
+        <v>1.84933211582798e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8381,10 +8381,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2047.185974513927</v>
+        <v>-2047.185978910373</v>
       </c>
       <c r="C4" t="n">
-        <v>1.23980515646677e-17</v>
+        <v>1.239805173074425e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8394,10 +8394,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1320.452385709833</v>
+        <v>-1320.452385662121</v>
       </c>
       <c r="C5" t="n">
-        <v>5.348551384130634e-08</v>
+        <v>5.348551386178346e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8407,10 +8407,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.48517403207909</v>
+        <v>57.48517423029696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000226810142814307</v>
+        <v>0.0002268101313105835</v>
       </c>
     </row>
     <row r="7">
@@ -8420,10 +8420,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.95520721062196</v>
+        <v>8.955207200610035</v>
       </c>
       <c r="C7" t="n">
-        <v>3.730539972206494e-42</v>
+        <v>3.730540723961415e-42</v>
       </c>
     </row>
     <row r="8">
@@ -8433,10 +8433,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03981002244748127</v>
+        <v>-3.981002244249998</v>
       </c>
       <c r="C8" t="n">
-        <v>4.743819110284448e-10</v>
+        <v>4.743819132218798e-10</v>
       </c>
     </row>
     <row r="9">
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.301091996479918e-06</v>
+        <v>-1.301092150475005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6824215799618499</v>
+        <v>0.682421544269418</v>
       </c>
     </row>
     <row r="10">
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.87066845777411</v>
+        <v>-17.87066845777338</v>
       </c>
       <c r="C10" t="n">
-        <v>1.152773974804318e-13</v>
+        <v>1.152773974806702e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.263049567823991</v>
+        <v>3.263049567825107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1336344749500692</v>
+        <v>0.133634474949933</v>
       </c>
     </row>
     <row r="12">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1879.977522318263</v>
+        <v>-18.79977522318294</v>
       </c>
       <c r="C12" t="n">
-        <v>6.294805789566895e-09</v>
+        <v>6.294805789563837e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-130.5464661947048</v>
+        <v>-1.305464661946989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5602933588818471</v>
+        <v>0.5602933588818644</v>
       </c>
     </row>
     <row r="14">
@@ -8511,10 +8511,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7793.577980372475</v>
+        <v>77.93577980372535</v>
       </c>
       <c r="C14" t="n">
-        <v>2.114658228243576e-42</v>
+        <v>2.114658228240645e-42</v>
       </c>
     </row>
     <row r="15">
@@ -8527,7 +8527,7 @@
         <v>15.28072489926586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008337238684745008</v>
+        <v>0.008337238684745108</v>
       </c>
     </row>
   </sheetData>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5183.833064327606</v>
+        <v>5183.833060188803</v>
       </c>
       <c r="C2" t="n">
-        <v>3.500303489649982e-21</v>
+        <v>3.500303525265627e-21</v>
       </c>
     </row>
     <row r="3">
@@ -8586,10 +8586,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1665.380626232311</v>
+        <v>-1665.380626278607</v>
       </c>
       <c r="C3" t="n">
-        <v>6.229535261517476e-11</v>
+        <v>6.229535261419202e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2147.983787506017</v>
+        <v>-2147.983786097982</v>
       </c>
       <c r="C4" t="n">
-        <v>8.550849767574598e-16</v>
+        <v>8.550849726455095e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1404.822664314088</v>
+        <v>-1404.822663089551</v>
       </c>
       <c r="C5" t="n">
-        <v>1.603005896085377e-07</v>
+        <v>1.603005908425907e-07</v>
       </c>
     </row>
     <row r="6">
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.0232305225292</v>
+        <v>52.02323058805371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001655509477691992</v>
+        <v>0.001655509454676135</v>
       </c>
     </row>
     <row r="7">
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.095853544057761</v>
+        <v>9.095853547926337</v>
       </c>
       <c r="C7" t="n">
-        <v>1.804725800391323e-38</v>
+        <v>1.804725671628318e-38</v>
       </c>
     </row>
     <row r="8">
@@ -8651,10 +8651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0307236297521494</v>
+        <v>-3.072362980136579</v>
       </c>
       <c r="C8" t="n">
-        <v>1.111730264984414e-05</v>
+        <v>1.111730230533965e-05</v>
       </c>
     </row>
     <row r="9">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.652539146166707e-06</v>
+        <v>-7.65253892164789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08488987287187998</v>
+        <v>0.08488988196578583</v>
       </c>
     </row>
     <row r="10">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.88729275722927</v>
+        <v>-18.88729275723012</v>
       </c>
       <c r="C10" t="n">
-        <v>8.000250011637781e-14</v>
+        <v>8.000250011622138e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8690,10 +8690,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.459874307201208</v>
+        <v>1.459874307201906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4871767583756977</v>
+        <v>0.4871767583754819</v>
       </c>
     </row>
     <row r="12">
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1901.931969281679</v>
+        <v>-19.01931969281666</v>
       </c>
       <c r="C12" t="n">
-        <v>2.277408977693621e-08</v>
+        <v>2.277408977694237e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8716,10 +8716,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-562.1767370522416</v>
+        <v>-5.621767370522155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01950085588308418</v>
+        <v>0.01950085588308982</v>
       </c>
     </row>
     <row r="14">
@@ -8729,10 +8729,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7029.527918514622</v>
+        <v>70.2952791851459</v>
       </c>
       <c r="C14" t="n">
-        <v>1.904079890133893e-32</v>
+        <v>1.904079890134983e-32</v>
       </c>
     </row>
     <row r="15">
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.73664800405314</v>
+        <v>22.73664800405245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001471263752072941</v>
+        <v>0.000147126375207366</v>
       </c>
     </row>
   </sheetData>
@@ -8791,10 +8791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4973.099149922564</v>
+        <v>4973.09915237685</v>
       </c>
       <c r="C2" t="n">
-        <v>1.04210497793555e-19</v>
+        <v>1.042104966261741e-19</v>
       </c>
     </row>
     <row r="3">
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1795.163253598206</v>
+        <v>-1795.163254724638</v>
       </c>
       <c r="C3" t="n">
-        <v>5.211923211183453e-13</v>
+        <v>5.211923210989824e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8817,10 +8817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2341.751090036878</v>
+        <v>-2341.751091459006</v>
       </c>
       <c r="C4" t="n">
-        <v>2.582132277843748e-19</v>
+        <v>2.582132293240501e-19</v>
       </c>
     </row>
     <row r="5">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1606.524109437375</v>
+        <v>-1606.524111118579</v>
       </c>
       <c r="C5" t="n">
-        <v>1.107911494653516e-09</v>
+        <v>1.107911482524221e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8843,10 +8843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.31794738575442</v>
+        <v>78.31794751729991</v>
       </c>
       <c r="C6" t="n">
-        <v>2.809980735958165e-06</v>
+        <v>2.809980627637126e-06</v>
       </c>
     </row>
     <row r="7">
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.902850556226502</v>
+        <v>8.902850556341734</v>
       </c>
       <c r="C7" t="n">
-        <v>2.06436364643296e-34</v>
+        <v>2.064363642431488e-34</v>
       </c>
     </row>
     <row r="8">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03212069498233906</v>
+        <v>-3.21206948852141</v>
       </c>
       <c r="C8" t="n">
-        <v>2.093054983570002e-06</v>
+        <v>2.093055127075374e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.234226956927391e-06</v>
+        <v>-3.234226869984008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3378631150129584</v>
+        <v>0.3378631273626823</v>
       </c>
     </row>
     <row r="10">
@@ -8895,10 +8895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.5558713240412</v>
+        <v>-17.55587132404133</v>
       </c>
       <c r="C10" t="n">
-        <v>3.891870317812284e-12</v>
+        <v>3.89187031781124e-12</v>
       </c>
     </row>
     <row r="11">
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.359414479877209</v>
+        <v>3.359414479877342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1278384878276865</v>
+        <v>0.127838487827671</v>
       </c>
     </row>
     <row r="12">
@@ -8921,10 +8921,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1934.86793923577</v>
+        <v>-19.34867939235837</v>
       </c>
       <c r="C12" t="n">
-        <v>1.403443641452971e-08</v>
+        <v>1.403443641451292e-08</v>
       </c>
     </row>
     <row r="13">
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-683.5134197767489</v>
+        <v>-6.835134197767402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004077418129434473</v>
+        <v>0.00407741812943486</v>
       </c>
     </row>
     <row r="14">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7839.695208953552</v>
+        <v>78.39695208953685</v>
       </c>
       <c r="C14" t="n">
-        <v>2.801464214048944e-39</v>
+        <v>2.801464214043258e-39</v>
       </c>
     </row>
     <row r="15">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.46187230838461</v>
+        <v>21.46187230838469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003825664405201361</v>
+        <v>0.0003825664405201151</v>
       </c>
     </row>
   </sheetData>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5374.008415048487</v>
+        <v>5374.008418132079</v>
       </c>
       <c r="C2" t="n">
-        <v>5.69780136711482e-24</v>
+        <v>5.697801347920573e-24</v>
       </c>
     </row>
     <row r="3">
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1558.622005983477</v>
+        <v>-1558.622007305302</v>
       </c>
       <c r="C3" t="n">
-        <v>2.523894313814181e-10</v>
+        <v>2.523894313771334e-10</v>
       </c>
     </row>
     <row r="4">
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2015.442693263886</v>
+        <v>-2015.442694076984</v>
       </c>
       <c r="C4" t="n">
-        <v>5.28967013775556e-15</v>
+        <v>5.289670152760787e-15</v>
       </c>
     </row>
     <row r="5">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1393.491910536342</v>
+        <v>-1393.491910594722</v>
       </c>
       <c r="C5" t="n">
-        <v>5.747961431260225e-08</v>
+        <v>5.747961429252035e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.02197406717561</v>
+        <v>66.02197412642866</v>
       </c>
       <c r="C6" t="n">
-        <v>4.304219090470425e-05</v>
+        <v>4.304219020147361e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9074,10 +9074,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.220390546001743</v>
+        <v>9.220390550688609</v>
       </c>
       <c r="C7" t="n">
-        <v>3.656018702156858e-43</v>
+        <v>3.656018360478909e-43</v>
       </c>
     </row>
     <row r="8">
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03337290909968001</v>
+        <v>-3.337290903576168</v>
       </c>
       <c r="C8" t="n">
-        <v>3.59132505809776e-07</v>
+        <v>3.591325231277274e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.432589920957072e-06</v>
+        <v>-1.432590104253064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.664963647957969</v>
+        <v>0.6649636079024557</v>
       </c>
     </row>
     <row r="10">
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.84459597550797</v>
+        <v>-18.84459597550865</v>
       </c>
       <c r="C10" t="n">
-        <v>4.758980383163873e-15</v>
+        <v>4.758980383153844e-15</v>
       </c>
     </row>
     <row r="11">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7446170030597581</v>
+        <v>-0.7446170030599877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7220187262910617</v>
+        <v>0.7220187262909827</v>
       </c>
     </row>
     <row r="12">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1904.879260446194</v>
+        <v>-19.04879260446219</v>
       </c>
       <c r="C12" t="n">
-        <v>6.201970442637417e-09</v>
+        <v>6.201970442635424e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9152,10 +9152,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-476.5137447626782</v>
+        <v>-4.765137447626562</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04088081397104346</v>
+        <v>0.04088081397105284</v>
       </c>
     </row>
     <row r="14">
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7900.957706195648</v>
+        <v>79.00957706195641</v>
       </c>
       <c r="C14" t="n">
-        <v>1.099582785997341e-41</v>
+        <v>1.099582785997561e-41</v>
       </c>
     </row>
     <row r="15">
@@ -9178,10 +9178,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.63825813129964</v>
+        <v>15.63825813129971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006988429111343935</v>
+        <v>0.006988429111343666</v>
       </c>
     </row>
   </sheetData>
@@ -9227,10 +9227,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4303.570555090162</v>
+        <v>4303.570556313226</v>
       </c>
       <c r="C2" t="n">
-        <v>2.234095919218671e-16</v>
+        <v>2.234095922313018e-16</v>
       </c>
     </row>
     <row r="3">
@@ -9240,10 +9240,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1021.051114296725</v>
+        <v>-1021.051114795107</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0608028998194e-05</v>
+        <v>1.060802899838248e-05</v>
       </c>
     </row>
     <row r="4">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1470.256710347287</v>
+        <v>-1470.256709735139</v>
       </c>
       <c r="C4" t="n">
-        <v>1.464671111974885e-09</v>
+        <v>1.464671106859567e-09</v>
       </c>
     </row>
     <row r="5">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-795.5222940489741</v>
+        <v>-795.5222936587884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001143887103609655</v>
+        <v>0.00114388710601274</v>
       </c>
     </row>
     <row r="6">
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.56319389373</v>
+        <v>58.5631940456509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001857083200254247</v>
+        <v>0.0001857083125922339</v>
       </c>
     </row>
     <row r="7">
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.387722008287177</v>
+        <v>9.387722006372329</v>
       </c>
       <c r="C7" t="n">
-        <v>5.049070452805001e-45</v>
+        <v>5.049070648632021e-45</v>
       </c>
     </row>
     <row r="8">
@@ -9305,10 +9305,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03681102181400315</v>
+        <v>-3.681102182804329</v>
       </c>
       <c r="C8" t="n">
-        <v>1.509863333918661e-08</v>
+        <v>1.509863316556305e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9318,10 +9318,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.140131830343782e-06</v>
+        <v>-2.140131718778965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4839590770227166</v>
+        <v>0.4839590996072992</v>
       </c>
     </row>
     <row r="10">
@@ -9331,10 +9331,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.36500090596996</v>
+        <v>-16.36500090597013</v>
       </c>
       <c r="C10" t="n">
-        <v>1.066949342123852e-11</v>
+        <v>1.06694934212336e-11</v>
       </c>
     </row>
     <row r="11">
@@ -9344,10 +9344,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.254513486246893</v>
+        <v>2.254513486246702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2968139198336773</v>
+        <v>0.2968139198337179</v>
       </c>
     </row>
     <row r="12">
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1875.782505974347</v>
+        <v>-18.75782505974375</v>
       </c>
       <c r="C12" t="n">
-        <v>3.280996001859302e-09</v>
+        <v>3.280996001857673e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-346.3002976829981</v>
+        <v>-3.463002976829995</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1274651803981975</v>
+        <v>0.1274651803981973</v>
       </c>
     </row>
     <row r="14">
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7079.455867284628</v>
+        <v>70.79455867284672</v>
       </c>
       <c r="C14" t="n">
-        <v>2.797837697344824e-35</v>
+        <v>2.797837697342542e-35</v>
       </c>
     </row>
     <row r="15">
@@ -9396,10 +9396,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.37977892172195</v>
+        <v>20.37977892172154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004575858172155078</v>
+        <v>0.000457585817215632</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5382.276550508819</v>
+        <v>5382.276551620975</v>
       </c>
       <c r="C2" t="n">
-        <v>1.415832881211459e-22</v>
+        <v>1.415832873968671e-22</v>
       </c>
     </row>
     <row r="3">
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1894.958304983282</v>
+        <v>-1894.958306692198</v>
       </c>
       <c r="C3" t="n">
-        <v>2.161394956267018e-14</v>
+        <v>2.161394956175671e-14</v>
       </c>
     </row>
     <row r="4">
@@ -9471,10 +9471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2356.293833177155</v>
+        <v>-2356.293834989054</v>
       </c>
       <c r="C4" t="n">
-        <v>1.259397003556991e-19</v>
+        <v>1.259397008634813e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1729.903331348003</v>
+        <v>-1729.903332805924</v>
       </c>
       <c r="C5" t="n">
-        <v>4.711904206274853e-11</v>
+        <v>4.711904158936002e-11</v>
       </c>
     </row>
     <row r="6">
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.33685434280287</v>
+        <v>70.33685450621286</v>
       </c>
       <c r="C6" t="n">
-        <v>1.766963659316982e-05</v>
+        <v>1.7669635789147e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.502932957078917</v>
+        <v>8.502932956039551</v>
       </c>
       <c r="C7" t="n">
-        <v>2.043412390004582e-34</v>
+        <v>2.043412427454336e-34</v>
       </c>
     </row>
     <row r="8">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03474323553227325</v>
+        <v>-3.474323535391477</v>
       </c>
       <c r="C8" t="n">
-        <v>4.368815082122001e-07</v>
+        <v>4.368815649624604e-07</v>
       </c>
     </row>
     <row r="9">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.201127445781755e-06</v>
+        <v>-3.201127453165296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3341787331988733</v>
+        <v>0.3341787320656363</v>
       </c>
     </row>
     <row r="10">
@@ -9549,10 +9549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.58855737994796</v>
+        <v>-18.58855737994923</v>
       </c>
       <c r="C10" t="n">
-        <v>3.011582344263433e-13</v>
+        <v>3.011582344252954e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9562,10 +9562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4355224624954372</v>
+        <v>0.4355224624936058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.840157906998388</v>
+        <v>0.8401579069990543</v>
       </c>
     </row>
     <row r="12">
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1779.96516218331</v>
+        <v>-17.79965162183385</v>
       </c>
       <c r="C12" t="n">
-        <v>1.890080622736982e-07</v>
+        <v>1.890080622734794e-07</v>
       </c>
     </row>
     <row r="13">
@@ -9588,10 +9588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-566.1404606739959</v>
+        <v>-5.661404606740131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01721643518655985</v>
+        <v>0.01721643518655664</v>
       </c>
     </row>
     <row r="14">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7985.976742632385</v>
+        <v>79.85976742632349</v>
       </c>
       <c r="C14" t="n">
-        <v>1.207490069965837e-38</v>
+        <v>1.207490069966355e-38</v>
       </c>
     </row>
     <row r="15">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.08331645843395</v>
+        <v>22.08331645843209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002320954890113836</v>
+        <v>0.0002320954890116621</v>
       </c>
     </row>
   </sheetData>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4932.930382343082</v>
+        <v>4932.930390778823</v>
       </c>
       <c r="C2" t="n">
-        <v>3.173458128987291e-20</v>
+        <v>3.173458032454833e-20</v>
       </c>
     </row>
     <row r="3">
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1562.868979181748</v>
+        <v>-1562.868982095098</v>
       </c>
       <c r="C3" t="n">
-        <v>3.339580151902702e-11</v>
+        <v>3.339580151960687e-11</v>
       </c>
     </row>
     <row r="4">
@@ -9689,10 +9689,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2059.376158592498</v>
+        <v>-2059.37616119965</v>
       </c>
       <c r="C4" t="n">
-        <v>8.259993389047568e-17</v>
+        <v>8.259993477732376e-17</v>
       </c>
     </row>
     <row r="5">
@@ -9702,10 +9702,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1370.63386594505</v>
+        <v>-1370.633867025025</v>
       </c>
       <c r="C5" t="n">
-        <v>3.92972922971097e-08</v>
+        <v>3.92972920096199e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9715,10 +9715,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.49534961690826</v>
+        <v>53.49534962637595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001297315266927869</v>
+        <v>0.001297315264312269</v>
       </c>
     </row>
     <row r="7">
@@ -9728,10 +9728,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.590972109382207</v>
+        <v>9.590972097995786</v>
       </c>
       <c r="C7" t="n">
-        <v>4.772676418076689e-43</v>
+        <v>4.772677455665895e-43</v>
       </c>
     </row>
     <row r="8">
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03001362360425939</v>
+        <v>-3.001362351813714</v>
       </c>
       <c r="C8" t="n">
-        <v>7.873232066307168e-06</v>
+        <v>7.873232515111649e-06</v>
       </c>
     </row>
     <row r="9">
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.60801510762916e-06</v>
+        <v>-3.608015342551497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2671024644897207</v>
+        <v>0.2671024331469252</v>
       </c>
     </row>
     <row r="10">
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.74193040274874</v>
+        <v>-18.74193040274936</v>
       </c>
       <c r="C10" t="n">
-        <v>4.566331660861079e-14</v>
+        <v>4.566331660853292e-14</v>
       </c>
     </row>
     <row r="11">
@@ -9780,10 +9780,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.010082921030554</v>
+        <v>1.010082921029504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6321017921619781</v>
+        <v>0.6321017921623342</v>
       </c>
     </row>
     <row r="12">
@@ -9793,10 +9793,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2042.815758520124</v>
+        <v>-20.42815758520115</v>
       </c>
       <c r="C12" t="n">
-        <v>1.312520497186251e-09</v>
+        <v>1.312520497186509e-09</v>
       </c>
     </row>
     <row r="13">
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-553.3860604647508</v>
+        <v>-5.533860604647545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01966866283435492</v>
+        <v>0.01966866283435394</v>
       </c>
     </row>
     <row r="14">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7606.836308883308</v>
+        <v>76.06836308883298</v>
       </c>
       <c r="C14" t="n">
-        <v>5.465587159946512e-38</v>
+        <v>5.465587159947217e-38</v>
       </c>
     </row>
     <row r="15">
@@ -9832,10 +9832,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.50923780098248</v>
+        <v>23.509237800982</v>
       </c>
       <c r="C15" t="n">
-        <v>7.026451519900546e-05</v>
+        <v>7.026451519902934e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5294.919653668665</v>
+        <v>5294.919659085071</v>
       </c>
       <c r="C2" t="n">
-        <v>1.884193881714117e-23</v>
+        <v>1.884193844643921e-23</v>
       </c>
     </row>
     <row r="3">
@@ -9894,10 +9894,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1790.781880381064</v>
+        <v>-1790.781884473707</v>
       </c>
       <c r="C3" t="n">
-        <v>1.263224280745535e-13</v>
+        <v>1.263224280699026e-13</v>
       </c>
     </row>
     <row r="4">
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2259.892986167112</v>
+        <v>-2259.892990290186</v>
       </c>
       <c r="C4" t="n">
-        <v>2.105709488926612e-19</v>
+        <v>2.105709519344571e-19</v>
       </c>
     </row>
     <row r="5">
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1471.616086031266</v>
+        <v>-1471.616085760233</v>
       </c>
       <c r="C5" t="n">
-        <v>5.636464973357383e-09</v>
+        <v>5.636464985194769e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9933,10 +9933,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.81021051647298</v>
+        <v>63.81021072572703</v>
       </c>
       <c r="C6" t="n">
-        <v>4.438064462891585e-05</v>
+        <v>4.438064204432728e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9946,10 +9946,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.726956583517856</v>
+        <v>8.726956583753076</v>
       </c>
       <c r="C7" t="n">
-        <v>3.51820586298379e-39</v>
+        <v>3.518205847060431e-39</v>
       </c>
     </row>
     <row r="8">
@@ -9959,10 +9959,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03646748530039687</v>
+        <v>-3.646748526107505</v>
       </c>
       <c r="C8" t="n">
-        <v>7.171930330380661e-08</v>
+        <v>7.171930549540179e-08</v>
       </c>
     </row>
     <row r="9">
@@ -9972,10 +9972,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.150311716418934e-06</v>
+        <v>-4.150311686247314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1998743079585298</v>
+        <v>0.1998743114193019</v>
       </c>
     </row>
     <row r="10">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.95847350632199</v>
+        <v>-17.958473506322</v>
       </c>
       <c r="C10" t="n">
-        <v>4.033712084807059e-13</v>
+        <v>4.033712084807963e-13</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.859699882556447</v>
+        <v>2.859699882556411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.169862602041645</v>
+        <v>0.1698626020416556</v>
       </c>
     </row>
     <row r="12">
@@ -10011,10 +10011,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1753.765760221715</v>
+        <v>-17.5376576022175</v>
       </c>
       <c r="C12" t="n">
-        <v>1.163619521479735e-07</v>
+        <v>1.163619521479036e-07</v>
       </c>
     </row>
     <row r="13">
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-368.0815779897863</v>
+        <v>-3.68081577989812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1086975183004359</v>
+        <v>0.1086975183004108</v>
       </c>
     </row>
     <row r="14">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7755.806508302195</v>
+        <v>77.55806508302236</v>
       </c>
       <c r="C14" t="n">
-        <v>4.194086060140385e-41</v>
+        <v>4.194086060137927e-41</v>
       </c>
     </row>
     <row r="15">
@@ -10050,10 +10050,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.13284494426209</v>
+        <v>13.13284494426244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02103511975285864</v>
+        <v>0.0210351197528555</v>
       </c>
     </row>
   </sheetData>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5754.673988969173</v>
+        <v>5754.673988237069</v>
       </c>
       <c r="C2" t="n">
-        <v>7.08860902351482e-26</v>
+        <v>7.088609037154377e-26</v>
       </c>
     </row>
     <row r="3">
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1723.915817633015</v>
+        <v>-1723.915816766991</v>
       </c>
       <c r="C3" t="n">
-        <v>7.327621754489056e-13</v>
+        <v>7.327621754627813e-13</v>
       </c>
     </row>
     <row r="4">
@@ -10125,10 +10125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2179.573841620791</v>
+        <v>-2179.573837700308</v>
       </c>
       <c r="C4" t="n">
-        <v>4.021896306439408e-18</v>
+        <v>4.021896259438356e-18</v>
       </c>
     </row>
     <row r="5">
@@ -10138,10 +10138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1308.797373412533</v>
+        <v>-1308.797372087944</v>
       </c>
       <c r="C5" t="n">
-        <v>2.419712905512992e-07</v>
+        <v>2.419712932024926e-07</v>
       </c>
     </row>
     <row r="6">
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.66889179017259</v>
+        <v>61.66889143969446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001390817842234754</v>
+        <v>0.0001390817966085997</v>
       </c>
     </row>
     <row r="7">
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.573231897237944</v>
+        <v>8.57323190798245</v>
       </c>
       <c r="C7" t="n">
-        <v>1.183172293298766e-34</v>
+        <v>1.183172065523859e-34</v>
       </c>
     </row>
     <row r="8">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03429492323786121</v>
+        <v>-3.429492347730924</v>
       </c>
       <c r="C8" t="n">
-        <v>6.446547487231806e-07</v>
+        <v>6.44654638687438e-07</v>
       </c>
     </row>
     <row r="9">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.809744939102641e-06</v>
+        <v>-1.809743977598786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5993329899366611</v>
+        <v>0.5993331834240179</v>
       </c>
     </row>
     <row r="10">
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.78306866636583</v>
+        <v>-19.78306866636606</v>
       </c>
       <c r="C10" t="n">
-        <v>2.150768537849851e-15</v>
+        <v>2.150768537848106e-15</v>
       </c>
     </row>
     <row r="11">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3920839390737101</v>
+        <v>0.392083939072897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8542177342923911</v>
+        <v>0.8542177342926911</v>
       </c>
     </row>
     <row r="12">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1853.035794382112</v>
+        <v>-18.53035794382144</v>
       </c>
       <c r="C12" t="n">
-        <v>1.330408926132468e-08</v>
+        <v>1.330408926131573e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10242,10 +10242,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-644.7274742354451</v>
+        <v>-6.447274742354436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006199776742476428</v>
+        <v>0.006199776742476494</v>
       </c>
     </row>
     <row r="14">
@@ -10255,10 +10255,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6325.550929332158</v>
+        <v>63.25550929332162</v>
       </c>
       <c r="C14" t="n">
-        <v>3.202336884467066e-25</v>
+        <v>3.202336884468972e-25</v>
       </c>
     </row>
     <row r="15">
@@ -10268,10 +10268,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.98318164718417</v>
+        <v>17.98318164718451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002032314038218219</v>
+        <v>0.002032314038217721</v>
       </c>
     </row>
   </sheetData>
@@ -10317,10 +10317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5393.866685488223</v>
+        <v>5393.866692168262</v>
       </c>
       <c r="C2" t="n">
-        <v>3.790748662283236e-23</v>
+        <v>3.790748576561663e-23</v>
       </c>
     </row>
     <row r="3">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1807.687734230582</v>
+        <v>-1807.687734449054</v>
       </c>
       <c r="C3" t="n">
-        <v>5.960199436079919e-13</v>
+        <v>5.96019943606948e-13</v>
       </c>
     </row>
     <row r="4">
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2334.2783433584</v>
+        <v>-2334.278344497031</v>
       </c>
       <c r="C4" t="n">
-        <v>8.941491125377675e-19</v>
+        <v>8.941491164346404e-19</v>
       </c>
     </row>
     <row r="5">
@@ -10356,10 +10356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1478.063539319892</v>
+        <v>-1478.063539119962</v>
       </c>
       <c r="C5" t="n">
-        <v>2.038382376662545e-08</v>
+        <v>2.038382379568205e-08</v>
       </c>
     </row>
     <row r="6">
@@ -10369,10 +10369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.87759554208048</v>
+        <v>57.87759573701623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003296821393065463</v>
+        <v>0.000329682123601616</v>
       </c>
     </row>
     <row r="7">
@@ -10382,10 +10382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.952078675787057</v>
+        <v>8.952078657004385</v>
       </c>
       <c r="C7" t="n">
-        <v>1.728460831386134e-38</v>
+        <v>1.728461465734727e-38</v>
       </c>
     </row>
     <row r="8">
@@ -10395,10 +10395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03692479858425499</v>
+        <v>-3.692479856054531</v>
       </c>
       <c r="C8" t="n">
-        <v>7.428711380281793e-08</v>
+        <v>7.428711516796375e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10408,10 +10408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.258872710234278e-06</v>
+        <v>-2.258873492249623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6744249276302069</v>
+        <v>0.6744248215353652</v>
       </c>
     </row>
     <row r="10">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.03116503970025</v>
+        <v>-18.03116503969917</v>
       </c>
       <c r="C10" t="n">
-        <v>1.545697316260338e-13</v>
+        <v>1.54569731626444e-13</v>
       </c>
     </row>
     <row r="11">
@@ -10434,10 +10434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.596238114816523</v>
+        <v>2.596238114818067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2124776903044411</v>
+        <v>0.212477690304162</v>
       </c>
     </row>
     <row r="12">
@@ -10447,10 +10447,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1903.515290506659</v>
+        <v>-19.03515290506605</v>
       </c>
       <c r="C12" t="n">
-        <v>1.18621014668005e-08</v>
+        <v>1.186210146681204e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10460,10 +10460,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-559.2816325277413</v>
+        <v>-5.592816325276502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01709598723691283</v>
+        <v>0.01709598723693121</v>
       </c>
     </row>
     <row r="14">
@@ -10473,10 +10473,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6572.401592498298</v>
+        <v>65.72401592498362</v>
       </c>
       <c r="C14" t="n">
-        <v>4.443385090872344e-28</v>
+        <v>4.443385090867092e-28</v>
       </c>
     </row>
     <row r="15">
@@ -10486,10 +10486,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.84435251192052</v>
+        <v>19.84435251192105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008292290108452571</v>
+        <v>0.0008292290108449887</v>
       </c>
     </row>
   </sheetData>
@@ -10535,10 +10535,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4509.876582078072</v>
+        <v>4509.876588503649</v>
       </c>
       <c r="C2" t="n">
-        <v>2.657414528150055e-16</v>
+        <v>2.657414503261923e-16</v>
       </c>
     </row>
     <row r="3">
@@ -10548,10 +10548,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1362.205153457629</v>
+        <v>-1362.205156009926</v>
       </c>
       <c r="C3" t="n">
-        <v>9.547370896061481e-08</v>
+        <v>9.547370895616278e-08</v>
       </c>
     </row>
     <row r="4">
@@ -10561,10 +10561,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1958.894065407701</v>
+        <v>-1958.894067804035</v>
       </c>
       <c r="C4" t="n">
-        <v>2.26736549808403e-13</v>
+        <v>2.267365535446555e-13</v>
       </c>
     </row>
     <row r="5">
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1139.243859576379</v>
+        <v>-1139.243858842971</v>
       </c>
       <c r="C5" t="n">
-        <v>2.291198548720194e-05</v>
+        <v>2.291198557366122e-05</v>
       </c>
     </row>
     <row r="6">
@@ -10587,10 +10587,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.47831001955661</v>
+        <v>45.47831022674207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006406987282738611</v>
+        <v>0.006406987037460328</v>
       </c>
     </row>
     <row r="7">
@@ -10600,10 +10600,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.863525962130005</v>
+        <v>8.863525948786435</v>
       </c>
       <c r="C7" t="n">
-        <v>1.227391060778346e-36</v>
+        <v>1.22739137112916e-36</v>
       </c>
     </row>
     <row r="8">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03911946718631103</v>
+        <v>-3.911946728509316</v>
       </c>
       <c r="C8" t="n">
-        <v>4.572719421597679e-09</v>
+        <v>4.572719043952765e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.437247813123158e-06</v>
+        <v>-2.437246997794411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4732673053149045</v>
+        <v>0.4732674531736396</v>
       </c>
     </row>
     <row r="10">
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.13803670493657</v>
+        <v>-17.13803670493649</v>
       </c>
       <c r="C10" t="n">
-        <v>6.833167798808061e-12</v>
+        <v>6.833167798811379e-12</v>
       </c>
     </row>
     <row r="11">
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.4338481651668</v>
+        <v>3.433848165166892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1185987886221948</v>
+        <v>0.1185987886221815</v>
       </c>
     </row>
     <row r="12">
@@ -10665,10 +10665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1912.267985305908</v>
+        <v>-19.12267985305928</v>
       </c>
       <c r="C12" t="n">
-        <v>1.030454054430203e-08</v>
+        <v>1.030454054429747e-08</v>
       </c>
     </row>
     <row r="13">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-640.3855361820836</v>
+        <v>-6.40385536182106</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006957423710851346</v>
+        <v>0.006957423710849244</v>
       </c>
     </row>
     <row r="14">
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7668.917880836569</v>
+        <v>76.68917880836622</v>
       </c>
       <c r="C14" t="n">
-        <v>7.153840446676683e-41</v>
+        <v>7.153840446674536e-41</v>
       </c>
     </row>
     <row r="15">
@@ -10704,10 +10704,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.93702322827493</v>
+        <v>25.93702322827518</v>
       </c>
       <c r="C15" t="n">
-        <v>1.053106160815629e-05</v>
+        <v>1.053106160815451e-05</v>
       </c>
     </row>
   </sheetData>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5828.070416883868</v>
+        <v>5828.070422707351</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375254182453609e-26</v>
+        <v>1.375254151842836e-26</v>
       </c>
     </row>
     <row r="3">
@@ -10766,10 +10766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1834.119728187341</v>
+        <v>-1834.119729908647</v>
       </c>
       <c r="C3" t="n">
-        <v>9.065257183787466e-15</v>
+        <v>9.065257183790607e-15</v>
       </c>
     </row>
     <row r="4">
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2294.3108076566</v>
+        <v>-2294.310810323803</v>
       </c>
       <c r="C4" t="n">
-        <v>1.419989042275111e-20</v>
+        <v>1.419989052422902e-20</v>
       </c>
     </row>
     <row r="5">
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1361.579930766118</v>
+        <v>-1361.579931197758</v>
       </c>
       <c r="C5" t="n">
-        <v>4.76655565337241e-08</v>
+        <v>4.766555634551945e-08</v>
       </c>
     </row>
     <row r="6">
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.84054309221182</v>
+        <v>44.84054313170489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004954370851341031</v>
+        <v>0.004954370812766606</v>
       </c>
     </row>
     <row r="7">
@@ -10818,10 +10818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.438698448348617</v>
+        <v>9.438698438015063</v>
       </c>
       <c r="C7" t="n">
-        <v>6.194331523924353e-44</v>
+        <v>6.194332809979212e-44</v>
       </c>
     </row>
     <row r="8">
@@ -10831,10 +10831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03680831937105557</v>
+        <v>-3.68083193145069</v>
       </c>
       <c r="C8" t="n">
-        <v>1.761550211137454e-08</v>
+        <v>1.761550295042716e-08</v>
       </c>
     </row>
     <row r="9">
@@ -10844,10 +10844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.690199574054825e-06</v>
+        <v>-3.690200310773614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2379085359830035</v>
+        <v>0.2379084425681324</v>
       </c>
     </row>
     <row r="10">
@@ -10857,10 +10857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.36869016828596</v>
+        <v>-19.3686901682857</v>
       </c>
       <c r="C10" t="n">
-        <v>1.955118127184305e-15</v>
+        <v>1.955118127185631e-15</v>
       </c>
     </row>
     <row r="11">
@@ -10870,10 +10870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.675553384537518</v>
+        <v>1.67555338453718</v>
       </c>
       <c r="C11" t="n">
-        <v>0.443467600042853</v>
+        <v>0.4434676000429482</v>
       </c>
     </row>
     <row r="12">
@@ -10883,10 +10883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1765.65919026562</v>
+        <v>-17.65659190265724</v>
       </c>
       <c r="C12" t="n">
-        <v>1.317645179428488e-07</v>
+        <v>1.317645179426245e-07</v>
       </c>
     </row>
     <row r="13">
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-351.0237360987179</v>
+        <v>-3.510237360987731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1312229185351936</v>
+        <v>0.1312229185351323</v>
       </c>
     </row>
     <row r="14">
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6522.201717991804</v>
+        <v>65.22201717991788</v>
       </c>
       <c r="C14" t="n">
-        <v>7.900886559342139e-26</v>
+        <v>7.900886559346783e-26</v>
       </c>
     </row>
     <row r="15">
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.48989232020228</v>
+        <v>10.48989232020153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07805786618370417</v>
+        <v>0.07805786618372464</v>
       </c>
     </row>
   </sheetData>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4482.713525721821</v>
+        <v>4482.713525839721</v>
       </c>
       <c r="C2" t="n">
-        <v>2.769193185445087e-19</v>
+        <v>2.769193184194278e-19</v>
       </c>
     </row>
     <row r="3">
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1439.338065121189</v>
+        <v>-1439.338066142087</v>
       </c>
       <c r="C3" t="n">
-        <v>8.179658617810466e-11</v>
+        <v>8.179658617766008e-11</v>
       </c>
     </row>
     <row r="4">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1903.762135306343</v>
+        <v>-1903.762136886849</v>
       </c>
       <c r="C4" t="n">
-        <v>3.281187019952847e-16</v>
+        <v>3.28118704163649e-16</v>
       </c>
     </row>
     <row r="5">
@@ -11010,10 +11010,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1333.156000580234</v>
+        <v>-1333.156000748569</v>
       </c>
       <c r="C5" t="n">
-        <v>1.415565989186879e-08</v>
+        <v>1.415565987654774e-08</v>
       </c>
     </row>
     <row r="6">
@@ -11023,10 +11023,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.29806797323324</v>
+        <v>77.29806807131612</v>
       </c>
       <c r="C6" t="n">
-        <v>3.560754980241112e-07</v>
+        <v>3.56075485669537e-07</v>
       </c>
     </row>
     <row r="7">
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.801944080917217</v>
+        <v>8.801944083305811</v>
       </c>
       <c r="C7" t="n">
-        <v>1.859177429385885e-42</v>
+        <v>1.859177338185865e-42</v>
       </c>
     </row>
     <row r="8">
@@ -11049,10 +11049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03223465906986846</v>
+        <v>-3.223465904598873</v>
       </c>
       <c r="C8" t="n">
-        <v>5.550142498172388e-07</v>
+        <v>5.550142599749282e-07</v>
       </c>
     </row>
     <row r="9">
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.512392480028902e-06</v>
+        <v>-2.512392586214969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.430657753976846</v>
+        <v>0.4306577344071094</v>
       </c>
     </row>
     <row r="10">
@@ -11075,10 +11075,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.87180466426963</v>
+        <v>-15.87180466426945</v>
       </c>
       <c r="C10" t="n">
-        <v>1.481965452282289e-11</v>
+        <v>1.481965452283472e-11</v>
       </c>
     </row>
     <row r="11">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.300684642579503</v>
+        <v>3.300684642579969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1003447276492897</v>
+        <v>0.1003447276492395</v>
       </c>
     </row>
     <row r="12">
@@ -11101,10 +11101,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2044.419013970061</v>
+        <v>-20.44419013970033</v>
       </c>
       <c r="C12" t="n">
-        <v>2.322355097264919e-10</v>
+        <v>2.322355097266127e-10</v>
       </c>
     </row>
     <row r="13">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-382.4061322081328</v>
+        <v>-3.82406132208113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08802168403177878</v>
+        <v>0.08802168403179539</v>
       </c>
     </row>
     <row r="14">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7789.946777351337</v>
+        <v>77.89946777351354</v>
       </c>
       <c r="C14" t="n">
-        <v>1.692484916212684e-42</v>
+        <v>1.69248491621162e-42</v>
       </c>
     </row>
     <row r="15">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.98440792396399</v>
+        <v>19.98440792396385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003230003390616304</v>
+        <v>0.0003230003390616655</v>
       </c>
     </row>
   </sheetData>
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5503.904784518741</v>
+        <v>5503.904779928107</v>
       </c>
       <c r="C2" t="n">
-        <v>1.495133512993286e-23</v>
+        <v>1.495133525798104e-23</v>
       </c>
     </row>
     <row r="3">
@@ -11202,10 +11202,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1739.609694044123</v>
+        <v>-1739.609694161518</v>
       </c>
       <c r="C3" t="n">
-        <v>3.161541885302602e-11</v>
+        <v>3.161541885318945e-11</v>
       </c>
     </row>
     <row r="4">
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2155.61193282511</v>
+        <v>-2155.611931502202</v>
       </c>
       <c r="C4" t="n">
-        <v>3.36365000701664e-15</v>
+        <v>3.363649996688015e-15</v>
       </c>
     </row>
     <row r="5">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1507.08230298508</v>
+        <v>-1507.082302293054</v>
       </c>
       <c r="C5" t="n">
-        <v>4.341149249162823e-08</v>
+        <v>4.3411492666245e-08</v>
       </c>
     </row>
     <row r="6">
@@ -11241,10 +11241,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.68979556995609</v>
+        <v>68.68979583336733</v>
       </c>
       <c r="C6" t="n">
-        <v>2.30319423741522e-05</v>
+        <v>2.303194066949357e-05</v>
       </c>
     </row>
     <row r="7">
@@ -11254,10 +11254,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.87931162221332</v>
+        <v>8.879311620022159</v>
       </c>
       <c r="C7" t="n">
-        <v>6.613074984156994e-37</v>
+        <v>6.61307525210842e-37</v>
       </c>
     </row>
     <row r="8">
@@ -11267,10 +11267,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03367912006962723</v>
+        <v>-3.367912024109809</v>
       </c>
       <c r="C8" t="n">
-        <v>1.660728752876654e-06</v>
+        <v>1.660728560515363e-06</v>
       </c>
     </row>
     <row r="9">
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.571584592581934e-06</v>
+        <v>-6.571585227756906</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1608685704994727</v>
+        <v>0.160868529692559</v>
       </c>
     </row>
     <row r="10">
@@ -11293,10 +11293,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.05044351721312</v>
+        <v>-19.050443517213</v>
       </c>
       <c r="C10" t="n">
-        <v>4.091093310286303e-14</v>
+        <v>4.091093310286066e-14</v>
       </c>
     </row>
     <row r="11">
@@ -11306,10 +11306,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6199264174422279</v>
+        <v>-0.6199264174426458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7703049634239559</v>
+        <v>0.7703049634238081</v>
       </c>
     </row>
     <row r="12">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1909.278929710327</v>
+        <v>-19.09278929710323</v>
       </c>
       <c r="C12" t="n">
-        <v>1.002931960827939e-08</v>
+        <v>1.002931960828027e-08</v>
       </c>
     </row>
     <row r="13">
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-557.3264498095575</v>
+        <v>-5.573264498095471</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0181759490993876</v>
+        <v>0.01817594909938977</v>
       </c>
     </row>
     <row r="14">
@@ -11345,10 +11345,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7551.997687157178</v>
+        <v>75.519976871572</v>
       </c>
       <c r="C14" t="n">
-        <v>1.153690735789133e-36</v>
+        <v>1.153690735788704e-36</v>
       </c>
     </row>
     <row r="15">
@@ -11358,10 +11358,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.21040501308262</v>
+        <v>20.21040501308193</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006603664343125222</v>
+        <v>0.0006603664343128213</v>
       </c>
     </row>
   </sheetData>
